--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121342FD-E06E-FA41-9FB4-C0BAC0660725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="555" yWindow="465" windowWidth="28245" windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SK BAB I-V" sheetId="1" r:id="rId1"/>
@@ -4458,11 +4452,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4568,7 +4562,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4608,6 +4602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4737,7 +4737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5036,6 +5036,9 @@
     <xf numFmtId="15" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5090,8 +5093,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5367,49 +5370,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:A117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="59.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="10" customWidth="1"/>
     <col min="6" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:5" s="21" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-    </row>
-    <row r="2" spans="1:5" s="21" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+    </row>
+    <row r="2" spans="1:5" s="21" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="32.1" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="21.6" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>1178</v>
       </c>
@@ -5441,7 +5444,7 @@
       </c>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="21.6" customHeight="1">
       <c r="A6" s="43" t="s">
         <v>1179</v>
       </c>
@@ -5456,7 +5459,7 @@
       </c>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="21.6" customHeight="1">
       <c r="A7" s="43" t="s">
         <v>1180</v>
       </c>
@@ -5471,7 +5474,7 @@
       </c>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="32.450000000000003" customHeight="1">
       <c r="A8" s="43" t="s">
         <v>1181</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="32.450000000000003" customHeight="1">
       <c r="A9" s="43" t="s">
         <v>1182</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="21.6" customHeight="1">
       <c r="A10" s="43" t="s">
         <v>1183</v>
       </c>
@@ -5520,7 +5523,7 @@
       </c>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="21.6" customHeight="1">
       <c r="A11" s="43" t="s">
         <v>1184</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A12" s="43" t="s">
         <v>1185</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="21.6" customHeight="1">
       <c r="A13" s="43" t="s">
         <v>1186</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="21.6" customHeight="1">
       <c r="A14" s="43" t="s">
         <v>1187</v>
       </c>
@@ -5586,7 +5589,7 @@
       </c>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="32.450000000000003" customHeight="1">
       <c r="A15" s="43" t="s">
         <v>1188</v>
       </c>
@@ -5601,7 +5604,7 @@
       </c>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="13" customFormat="1" ht="48.95" customHeight="1">
       <c r="A16" s="43" t="s">
         <v>1189</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="21.6" customHeight="1">
       <c r="A17" s="43" t="s">
         <v>1190</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="21.6" customHeight="1">
       <c r="A18" s="43" t="s">
         <v>1191</v>
       </c>
@@ -5650,7 +5653,7 @@
       </c>
       <c r="E18" s="27"/>
     </row>
-    <row r="19" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="21.6" customHeight="1">
       <c r="A19" s="43" t="s">
         <v>1192</v>
       </c>
@@ -5665,7 +5668,7 @@
       </c>
       <c r="E19" s="27"/>
     </row>
-    <row r="20" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="21.6" customHeight="1">
       <c r="A20" s="43" t="s">
         <v>1193</v>
       </c>
@@ -5680,7 +5683,7 @@
       </c>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="21.6" customHeight="1">
       <c r="A21" s="43" t="s">
         <v>1194</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="21.6" customHeight="1">
       <c r="A22" s="43" t="s">
         <v>1195</v>
       </c>
@@ -5712,7 +5715,7 @@
       </c>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="21.6" customHeight="1">
       <c r="A23" s="43" t="s">
         <v>1196</v>
       </c>
@@ -5727,7 +5730,7 @@
       </c>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="21.6" customHeight="1">
       <c r="A24" s="43" t="s">
         <v>1197</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="21.6" customHeight="1">
       <c r="A25" s="43" t="s">
         <v>1198</v>
       </c>
@@ -5759,7 +5762,7 @@
       </c>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="21.6" customHeight="1">
       <c r="A26" s="43" t="s">
         <v>1199</v>
       </c>
@@ -5774,7 +5777,7 @@
       </c>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="21.6" customHeight="1">
       <c r="A27" s="43" t="s">
         <v>1200</v>
       </c>
@@ -5789,7 +5792,7 @@
       </c>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="21.6" customHeight="1">
       <c r="A28" s="43" t="s">
         <v>1201</v>
       </c>
@@ -5800,7 +5803,7 @@
       <c r="D28" s="29"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="21.6" customHeight="1">
       <c r="A29" s="43" t="s">
         <v>1202</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A30" s="43" t="s">
         <v>1203</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A31" s="43" t="s">
         <v>1204</v>
       </c>
@@ -5851,7 +5854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="21.6" customHeight="1">
       <c r="A32" s="43" t="s">
         <v>1205</v>
       </c>
@@ -5868,7 +5871,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="47.45" customHeight="1">
       <c r="A33" s="43" t="s">
         <v>1206</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="36.6" customHeight="1">
       <c r="A34" s="43" t="s">
         <v>1207</v>
       </c>
@@ -5902,7 +5905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="36.6" customHeight="1">
       <c r="A35" s="43" t="s">
         <v>1208</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="47.45" customHeight="1">
       <c r="A36" s="43" t="s">
         <v>1209</v>
       </c>
@@ -5936,7 +5939,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="21.6" customHeight="1">
       <c r="A37" s="43" t="s">
         <v>1210</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="48.6" customHeight="1">
       <c r="A38" s="43" t="s">
         <v>1211</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="21.6" customHeight="1">
       <c r="A39" s="43" t="s">
         <v>1212</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="21.6" customHeight="1">
       <c r="A40" s="43" t="s">
         <v>1213</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="21.6" customHeight="1">
       <c r="A41" s="43" t="s">
         <v>1214</v>
       </c>
@@ -6021,7 +6024,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="21.6" customHeight="1">
       <c r="A42" s="43" t="s">
         <v>1334</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="21.6" customHeight="1">
       <c r="A43" s="43" t="s">
         <v>1335</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="21.6" customHeight="1">
       <c r="A44" s="43" t="s">
         <v>1215</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="36" customHeight="1">
       <c r="A45" s="43" t="s">
         <v>1216</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="21.6" customHeight="1">
       <c r="A46" s="43" t="s">
         <v>1217</v>
       </c>
@@ -6107,7 +6110,7 @@
       </c>
       <c r="F46" s="18"/>
     </row>
-    <row r="47" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="21.6" customHeight="1">
       <c r="A47" s="43" t="s">
         <v>1218</v>
       </c>
@@ -6125,7 +6128,7 @@
       </c>
       <c r="F47" s="18"/>
     </row>
-    <row r="48" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="21.6" customHeight="1">
       <c r="A48" s="43" t="s">
         <v>1219</v>
       </c>
@@ -6143,7 +6146,7 @@
       </c>
       <c r="F48" s="18"/>
     </row>
-    <row r="49" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="21.6" customHeight="1">
       <c r="A49" s="43" t="s">
         <v>1220</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="21.6" customHeight="1">
       <c r="A50" s="43" t="s">
         <v>1221</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="21.6" customHeight="1">
       <c r="A51" s="43" t="s">
         <v>1336</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="21.6" customHeight="1">
       <c r="A52" s="43" t="s">
         <v>1337</v>
       </c>
@@ -6211,7 +6214,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="21.6" customHeight="1">
       <c r="A53" s="43" t="s">
         <v>1338</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="21.6" customHeight="1">
       <c r="A54" s="43" t="s">
         <v>1222</v>
       </c>
@@ -6245,7 +6248,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="21.6" customHeight="1">
       <c r="A55" s="43" t="s">
         <v>1223</v>
       </c>
@@ -6260,7 +6263,7 @@
       </c>
       <c r="E55" s="27"/>
     </row>
-    <row r="56" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="21.6" customHeight="1">
       <c r="A56" s="43" t="s">
         <v>1224</v>
       </c>
@@ -6275,7 +6278,7 @@
       </c>
       <c r="E56" s="27"/>
     </row>
-    <row r="57" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="21.6" customHeight="1">
       <c r="A57" s="43" t="s">
         <v>1225</v>
       </c>
@@ -6290,7 +6293,7 @@
       </c>
       <c r="E57" s="27"/>
     </row>
-    <row r="58" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="21.6" customHeight="1">
       <c r="A58" s="43" t="s">
         <v>1226</v>
       </c>
@@ -6308,7 +6311,7 @@
       </c>
       <c r="F58" s="18"/>
     </row>
-    <row r="59" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="21.6" customHeight="1">
       <c r="A59" s="43" t="s">
         <v>1227</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="21.6" customHeight="1">
       <c r="A60" s="43" t="s">
         <v>1228</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="21.6" customHeight="1">
       <c r="A61" s="43" t="s">
         <v>1339</v>
       </c>
@@ -6357,7 +6360,7 @@
       </c>
       <c r="E61" s="27"/>
     </row>
-    <row r="62" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="21.6" customHeight="1">
       <c r="A62" s="43" t="s">
         <v>1340</v>
       </c>
@@ -6372,7 +6375,7 @@
       </c>
       <c r="E62" s="27"/>
     </row>
-    <row r="63" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="47.25">
       <c r="A63" s="43" t="s">
         <v>1341</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A64" s="43" t="s">
         <v>1342</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="31.5">
       <c r="A65" s="43" t="s">
         <v>1343</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="33.950000000000003" customHeight="1">
       <c r="A66" s="43" t="s">
         <v>1229</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="38.450000000000003" customHeight="1">
       <c r="A67" s="43" t="s">
         <v>1230</v>
       </c>
@@ -6441,7 +6444,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="48.6" customHeight="1">
       <c r="A68" s="43" t="s">
         <v>1231</v>
       </c>
@@ -6458,7 +6461,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="31.5">
       <c r="A69" s="43" t="s">
         <v>1232</v>
       </c>
@@ -6475,7 +6478,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="43" t="s">
         <v>1233</v>
       </c>
@@ -6490,7 +6493,7 @@
       </c>
       <c r="E70" s="39"/>
     </row>
-    <row r="71" spans="1:5" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="43" t="s">
         <v>1234</v>
       </c>
@@ -6505,7 +6508,7 @@
       </c>
       <c r="E71" s="39"/>
     </row>
-    <row r="72" spans="1:5" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="43" t="s">
         <v>1235</v>
       </c>
@@ -6520,7 +6523,7 @@
       </c>
       <c r="E72" s="39"/>
     </row>
-    <row r="73" spans="1:5" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" s="15" customFormat="1" ht="34.5" customHeight="1">
       <c r="A73" s="43" t="s">
         <v>1236</v>
       </c>
@@ -6535,7 +6538,7 @@
       </c>
       <c r="E73" s="39"/>
     </row>
-    <row r="74" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="19.5" customHeight="1">
       <c r="A74" s="43" t="s">
         <v>1237</v>
       </c>
@@ -6550,7 +6553,7 @@
       </c>
       <c r="E74" s="27"/>
     </row>
-    <row r="75" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="19.5" customHeight="1">
       <c r="A75" s="43" t="s">
         <v>1238</v>
       </c>
@@ -6565,7 +6568,7 @@
       </c>
       <c r="E75" s="27"/>
     </row>
-    <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="19.5" customHeight="1">
       <c r="A76" s="43" t="s">
         <v>1239</v>
       </c>
@@ -6580,7 +6583,7 @@
       </c>
       <c r="E76" s="27"/>
     </row>
-    <row r="77" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="19.5" customHeight="1">
       <c r="A77" s="43" t="s">
         <v>1240</v>
       </c>
@@ -6595,7 +6598,7 @@
       </c>
       <c r="E77" s="27"/>
     </row>
-    <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="19.5" customHeight="1">
       <c r="A78" s="43" t="s">
         <v>1241</v>
       </c>
@@ -6610,7 +6613,7 @@
       </c>
       <c r="E78" s="27"/>
     </row>
-    <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="19.5" customHeight="1">
       <c r="A79" s="43" t="s">
         <v>1242</v>
       </c>
@@ -6625,7 +6628,7 @@
       </c>
       <c r="E79" s="27"/>
     </row>
-    <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="19.5" customHeight="1">
       <c r="A80" s="43" t="s">
         <v>1243</v>
       </c>
@@ -6640,7 +6643,7 @@
       </c>
       <c r="E80" s="27"/>
     </row>
-    <row r="81" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="19.5" customHeight="1">
       <c r="A81" s="43" t="s">
         <v>1244</v>
       </c>
@@ -6655,7 +6658,7 @@
       </c>
       <c r="E81" s="27"/>
     </row>
-    <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="19.5" customHeight="1">
       <c r="A82" s="43" t="s">
         <v>1245</v>
       </c>
@@ -6670,7 +6673,7 @@
       </c>
       <c r="E82" s="27"/>
     </row>
-    <row r="83" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="63">
       <c r="A83" s="43" t="s">
         <v>1246</v>
       </c>
@@ -6683,7 +6686,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="63">
       <c r="A84" s="43" t="s">
         <v>1247</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="20.45" customHeight="1">
       <c r="A85" s="43" t="s">
         <v>1248</v>
       </c>
@@ -6709,7 +6712,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="47.25">
       <c r="A86" s="43" t="s">
         <v>1249</v>
       </c>
@@ -6722,7 +6725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="34.5" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>1250</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="43" t="s">
         <v>1251</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="48.95" customHeight="1">
       <c r="A89" s="43" t="s">
         <v>1252</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="18.95" customHeight="1">
       <c r="A90" s="43" t="s">
         <v>1253</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="51.6" customHeight="1">
       <c r="A91" s="43" t="s">
         <v>1254</v>
       </c>
@@ -6787,7 +6790,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="43" t="s">
         <v>1255</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="48" customHeight="1">
       <c r="A93" s="43" t="s">
         <v>1256</v>
       </c>
@@ -6813,7 +6816,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="18.95" customHeight="1">
       <c r="A94" s="43" t="s">
         <v>1257</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="64.5" customHeight="1">
       <c r="A95" s="43" t="s">
         <v>1258</v>
       </c>
@@ -6839,7 +6842,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="43" t="s">
         <v>1259</v>
       </c>
@@ -6852,7 +6855,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="48.95" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>1260</v>
       </c>
@@ -6865,7 +6868,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="49.5" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>1261</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="38.450000000000003" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>1262</v>
       </c>
@@ -6891,7 +6894,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="43" t="s">
         <v>1263</v>
       </c>
@@ -6904,7 +6907,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="48.6" customHeight="1">
       <c r="A101" s="43" t="s">
         <v>1264</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="33.6" customHeight="1">
       <c r="A102" s="43" t="s">
         <v>1265</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="43" t="s">
         <v>708</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="47.1" customHeight="1">
       <c r="A104" s="43" t="s">
         <v>709</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="33.6" customHeight="1">
       <c r="A105" s="43" t="s">
         <v>710</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="43" t="s">
         <v>711</v>
       </c>
@@ -6982,7 +6985,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="49.5" customHeight="1">
       <c r="A107" s="43" t="s">
         <v>712</v>
       </c>
@@ -6995,7 +6998,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="36.950000000000003" customHeight="1">
       <c r="A108" s="43" t="s">
         <v>713</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="43" t="s">
         <v>714</v>
       </c>
@@ -7021,7 +7024,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="49.5" customHeight="1">
       <c r="A110" s="43" t="s">
         <v>715</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="33" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>717</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="43" t="s">
         <v>718</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="49.5" customHeight="1">
       <c r="A113" s="43" t="s">
         <v>719</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="35.1" customHeight="1">
       <c r="A114" s="43" t="s">
         <v>720</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="43" t="s">
         <v>721</v>
       </c>
@@ -7099,7 +7102,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="34.5" customHeight="1">
       <c r="A116" s="43" t="s">
         <v>722</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="34.5" customHeight="1">
       <c r="A117" s="43" t="s">
         <v>723</v>
       </c>
@@ -7125,11 +7128,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B118" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:B118"/>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -7141,44 +7144,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="D340" sqref="D340:D373"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66.375" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="54"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="53"/>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -7186,7 +7189,7 @@
       <c r="E3" s="53"/>
       <c r="F3" s="53"/>
     </row>
-    <row r="4" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="24.6" customHeight="1">
       <c r="A4" s="63" t="s">
         <v>2</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>1178</v>
       </c>
@@ -7224,7 +7227,7 @@
       </c>
       <c r="F5" s="46"/>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="59" t="s">
         <v>1179</v>
       </c>
@@ -7242,7 +7245,7 @@
       </c>
       <c r="F6" s="46"/>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="59" t="s">
         <v>1180</v>
       </c>
@@ -7260,7 +7263,7 @@
       </c>
       <c r="F7" s="46"/>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="59" t="s">
         <v>1181</v>
       </c>
@@ -7278,7 +7281,7 @@
       </c>
       <c r="F8" s="46"/>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="59" t="s">
         <v>1182</v>
       </c>
@@ -7296,7 +7299,7 @@
       </c>
       <c r="F9" s="46"/>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="59" t="s">
         <v>1183</v>
       </c>
@@ -7314,7 +7317,7 @@
       </c>
       <c r="F10" s="46"/>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="59" t="s">
         <v>1184</v>
       </c>
@@ -7332,7 +7335,7 @@
       </c>
       <c r="F11" s="46"/>
     </row>
-    <row r="12" spans="1:6" s="66" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="48"/>
       <c r="B12" s="57" t="s">
         <v>248</v>
@@ -7348,7 +7351,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="59" t="s">
         <v>1185</v>
       </c>
@@ -7366,7 +7369,7 @@
       </c>
       <c r="F13" s="46"/>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="59" t="s">
         <v>1186</v>
       </c>
@@ -7384,7 +7387,7 @@
       </c>
       <c r="F14" s="46"/>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="59" t="s">
         <v>1187</v>
       </c>
@@ -7402,7 +7405,7 @@
       </c>
       <c r="F15" s="46"/>
     </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>1188</v>
       </c>
@@ -7420,7 +7423,7 @@
       </c>
       <c r="F16" s="46"/>
     </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="59" t="s">
         <v>1189</v>
       </c>
@@ -7438,7 +7441,7 @@
       </c>
       <c r="F17" s="46"/>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="59" t="s">
         <v>1190</v>
       </c>
@@ -7456,7 +7459,7 @@
       </c>
       <c r="F18" s="46"/>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="59" t="s">
         <v>1191</v>
       </c>
@@ -7474,7 +7477,7 @@
       </c>
       <c r="F19" s="46"/>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="59" t="s">
         <v>1192</v>
       </c>
@@ -7492,7 +7495,7 @@
       </c>
       <c r="F20" s="46"/>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="59" t="s">
         <v>1333</v>
       </c>
@@ -7510,7 +7513,7 @@
       </c>
       <c r="F21" s="46"/>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="59" t="s">
         <v>1193</v>
       </c>
@@ -7528,7 +7531,7 @@
       </c>
       <c r="F22" s="46"/>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="59" t="s">
         <v>1194</v>
       </c>
@@ -7546,7 +7549,7 @@
       </c>
       <c r="F23" s="46"/>
     </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="59" t="s">
         <v>1195</v>
       </c>
@@ -7564,7 +7567,7 @@
       </c>
       <c r="F24" s="46"/>
     </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="59" t="s">
         <v>1196</v>
       </c>
@@ -7582,7 +7585,7 @@
       </c>
       <c r="F25" s="46"/>
     </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="59" t="s">
         <v>1197</v>
       </c>
@@ -7600,7 +7603,7 @@
       </c>
       <c r="F26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="59" t="s">
         <v>1198</v>
       </c>
@@ -7613,12 +7616,12 @@
       <c r="D27" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="E27" s="118" t="s">
+      <c r="E27" s="119" t="s">
         <v>282</v>
       </c>
       <c r="F27" s="46"/>
     </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="59" t="s">
         <v>1199</v>
       </c>
@@ -7631,10 +7634,10 @@
       <c r="D28" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="E28" s="118"/>
+      <c r="E28" s="119"/>
       <c r="F28" s="46"/>
     </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="59" t="s">
         <v>1200</v>
       </c>
@@ -7647,10 +7650,10 @@
       <c r="D29" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="E29" s="118"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="46"/>
     </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="59" t="s">
         <v>1201</v>
       </c>
@@ -7668,7 +7671,7 @@
       </c>
       <c r="F30" s="46"/>
     </row>
-    <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" s="59" t="s">
         <v>1202</v>
       </c>
@@ -7686,7 +7689,7 @@
       </c>
       <c r="F31" s="46"/>
     </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="59" t="s">
         <v>1203</v>
       </c>
@@ -7704,7 +7707,7 @@
       </c>
       <c r="F32" s="46"/>
     </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="59" t="s">
         <v>1204</v>
       </c>
@@ -7722,7 +7725,7 @@
       </c>
       <c r="F33" s="46"/>
     </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="59" t="s">
         <v>1205</v>
       </c>
@@ -7740,7 +7743,7 @@
       </c>
       <c r="F34" s="46"/>
     </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="59" t="s">
         <v>1206</v>
       </c>
@@ -7758,7 +7761,7 @@
       </c>
       <c r="F35" s="46"/>
     </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="59" t="s">
         <v>1207</v>
       </c>
@@ -7776,7 +7779,7 @@
       </c>
       <c r="F36" s="46"/>
     </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="59" t="s">
         <v>1208</v>
       </c>
@@ -7794,7 +7797,7 @@
       </c>
       <c r="F37" s="46"/>
     </row>
-    <row r="38" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="42.6" customHeight="1">
       <c r="A38" s="59" t="s">
         <v>1209</v>
       </c>
@@ -7812,7 +7815,7 @@
       </c>
       <c r="F38" s="46"/>
     </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="59" t="s">
         <v>1210</v>
       </c>
@@ -7830,7 +7833,7 @@
       </c>
       <c r="F39" s="46"/>
     </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="59" t="s">
         <v>1211</v>
       </c>
@@ -7848,7 +7851,7 @@
       </c>
       <c r="F40" s="46"/>
     </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="59" t="s">
         <v>1212</v>
       </c>
@@ -7866,7 +7869,7 @@
       </c>
       <c r="F41" s="46"/>
     </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="59" t="s">
         <v>1213</v>
       </c>
@@ -7880,11 +7883,11 @@
         <v>317</v>
       </c>
       <c r="E42" s="46"/>
-      <c r="F42" s="116" t="s">
+      <c r="F42" s="117" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="59" t="s">
         <v>1214</v>
       </c>
@@ -7898,9 +7901,9 @@
         <v>318</v>
       </c>
       <c r="E43" s="46"/>
-      <c r="F43" s="116"/>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="117"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="59" t="s">
         <v>1334</v>
       </c>
@@ -7914,9 +7917,9 @@
         <v>319</v>
       </c>
       <c r="E44" s="46"/>
-      <c r="F44" s="116"/>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="117"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="59" t="s">
         <v>1335</v>
       </c>
@@ -7930,9 +7933,9 @@
         <v>320</v>
       </c>
       <c r="E45" s="46"/>
-      <c r="F45" s="116"/>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="117"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="59" t="s">
         <v>1215</v>
       </c>
@@ -7946,9 +7949,9 @@
         <v>321</v>
       </c>
       <c r="E46" s="46"/>
-      <c r="F46" s="116"/>
-    </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="117"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="59" t="s">
         <v>1216</v>
       </c>
@@ -7962,9 +7965,9 @@
         <v>322</v>
       </c>
       <c r="E47" s="46"/>
-      <c r="F47" s="116"/>
-    </row>
-    <row r="48" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="117"/>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="59" t="s">
         <v>1217</v>
       </c>
@@ -7978,9 +7981,9 @@
         <v>1378</v>
       </c>
       <c r="E48" s="22"/>
-      <c r="F48" s="116"/>
-    </row>
-    <row r="49" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="117"/>
+    </row>
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="59" t="s">
         <v>1218</v>
       </c>
@@ -7994,9 +7997,9 @@
         <v>1379</v>
       </c>
       <c r="E49" s="22"/>
-      <c r="F49" s="116"/>
-    </row>
-    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="117"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="59" t="s">
         <v>1219</v>
       </c>
@@ -8010,9 +8013,9 @@
         <v>323</v>
       </c>
       <c r="E50" s="46"/>
-      <c r="F50" s="116"/>
-    </row>
-    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="117"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="59" t="s">
         <v>1220</v>
       </c>
@@ -8026,9 +8029,9 @@
         <v>324</v>
       </c>
       <c r="E51" s="46"/>
-      <c r="F51" s="116"/>
-    </row>
-    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="117"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="59" t="s">
         <v>1221</v>
       </c>
@@ -8042,9 +8045,9 @@
         <v>325</v>
       </c>
       <c r="E52" s="46"/>
-      <c r="F52" s="116"/>
-    </row>
-    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="117"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="59" t="s">
         <v>1336</v>
       </c>
@@ -8058,9 +8061,9 @@
         <v>326</v>
       </c>
       <c r="E53" s="46"/>
-      <c r="F53" s="116"/>
-    </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="117"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="59" t="s">
         <v>1337</v>
       </c>
@@ -8074,9 +8077,9 @@
         <v>1380</v>
       </c>
       <c r="E54" s="46"/>
-      <c r="F54" s="116"/>
-    </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="117"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="59" t="s">
         <v>1338</v>
       </c>
@@ -8092,7 +8095,7 @@
       <c r="E55" s="46"/>
       <c r="F55" s="49"/>
     </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="59" t="s">
         <v>1222</v>
       </c>
@@ -8108,7 +8111,7 @@
       <c r="E56" s="46"/>
       <c r="F56" s="49"/>
     </row>
-    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="59" t="s">
         <v>1223</v>
       </c>
@@ -8124,7 +8127,7 @@
       <c r="E57" s="46"/>
       <c r="F57" s="49"/>
     </row>
-    <row r="58" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="59" t="s">
         <v>1224</v>
       </c>
@@ -8138,7 +8141,7 @@
       </c>
       <c r="F58" s="48"/>
     </row>
-    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="59" t="s">
         <v>1225</v>
       </c>
@@ -8152,11 +8155,11 @@
         <v>330</v>
       </c>
       <c r="E59" s="46"/>
-      <c r="F59" s="116" t="s">
+      <c r="F59" s="117" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="59" t="s">
         <v>1226</v>
       </c>
@@ -8170,9 +8173,9 @@
         <v>331</v>
       </c>
       <c r="E60" s="46"/>
-      <c r="F60" s="116"/>
-    </row>
-    <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="117"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="59" t="s">
         <v>1227</v>
       </c>
@@ -8186,9 +8189,9 @@
         <v>333</v>
       </c>
       <c r="E61" s="46"/>
-      <c r="F61" s="116"/>
-    </row>
-    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="117"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="59" t="s">
         <v>1228</v>
       </c>
@@ -8202,9 +8205,9 @@
         <v>335</v>
       </c>
       <c r="E62" s="46"/>
-      <c r="F62" s="116"/>
-    </row>
-    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="117"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="59" t="s">
         <v>1339</v>
       </c>
@@ -8218,9 +8221,9 @@
         <v>336</v>
       </c>
       <c r="E63" s="46"/>
-      <c r="F63" s="116"/>
-    </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="117"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="59" t="s">
         <v>1340</v>
       </c>
@@ -8234,9 +8237,9 @@
         <v>337</v>
       </c>
       <c r="E64" s="46"/>
-      <c r="F64" s="116"/>
-    </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="117"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="59" t="s">
         <v>1341</v>
       </c>
@@ -8250,9 +8253,9 @@
         <v>338</v>
       </c>
       <c r="E65" s="46"/>
-      <c r="F65" s="116"/>
-    </row>
-    <row r="66" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="117"/>
+    </row>
+    <row r="66" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="59" t="s">
         <v>1342</v>
       </c>
@@ -8266,7 +8269,7 @@
       </c>
       <c r="F66" s="48"/>
     </row>
-    <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="59" t="s">
         <v>1343</v>
       </c>
@@ -8280,11 +8283,11 @@
         <v>339</v>
       </c>
       <c r="E67" s="47"/>
-      <c r="F67" s="116" t="s">
+      <c r="F67" s="117" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="59" t="s">
         <v>1229</v>
       </c>
@@ -8298,9 +8301,9 @@
         <v>1381</v>
       </c>
       <c r="E68" s="47"/>
-      <c r="F68" s="116"/>
-    </row>
-    <row r="69" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="117"/>
+    </row>
+    <row r="69" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="59" t="s">
         <v>1230</v>
       </c>
@@ -8314,9 +8317,9 @@
         <v>1382</v>
       </c>
       <c r="E69" s="22"/>
-      <c r="F69" s="116"/>
-    </row>
-    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="117"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="59" t="s">
         <v>1231</v>
       </c>
@@ -8330,9 +8333,9 @@
         <v>340</v>
       </c>
       <c r="E70" s="47"/>
-      <c r="F70" s="116"/>
-    </row>
-    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="117"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="59" t="s">
         <v>1232</v>
       </c>
@@ -8346,9 +8349,9 @@
         <v>341</v>
       </c>
       <c r="E71" s="47"/>
-      <c r="F71" s="116"/>
-    </row>
-    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="117"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="59" t="s">
         <v>1233</v>
       </c>
@@ -8362,9 +8365,9 @@
         <v>343</v>
       </c>
       <c r="E72" s="46"/>
-      <c r="F72" s="116"/>
-    </row>
-    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="117"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="59" t="s">
         <v>1234</v>
       </c>
@@ -8378,9 +8381,9 @@
         <v>344</v>
       </c>
       <c r="E73" s="46"/>
-      <c r="F73" s="116"/>
-    </row>
-    <row r="74" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="117"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="59" t="s">
         <v>1235</v>
       </c>
@@ -8394,9 +8397,9 @@
         <v>345</v>
       </c>
       <c r="E74" s="46"/>
-      <c r="F74" s="116"/>
-    </row>
-    <row r="75" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="117"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="59" t="s">
         <v>1236</v>
       </c>
@@ -8410,9 +8413,9 @@
         <v>346</v>
       </c>
       <c r="E75" s="46"/>
-      <c r="F75" s="116"/>
-    </row>
-    <row r="76" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="117"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="59" t="s">
         <v>1237</v>
       </c>
@@ -8426,9 +8429,9 @@
         <v>347</v>
       </c>
       <c r="E76" s="46"/>
-      <c r="F76" s="116"/>
-    </row>
-    <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="117"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" customHeight="1">
       <c r="A77" s="59" t="s">
         <v>1238</v>
       </c>
@@ -8442,9 +8445,9 @@
         <v>348</v>
       </c>
       <c r="E77" s="46"/>
-      <c r="F77" s="116"/>
-    </row>
-    <row r="78" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="117"/>
+    </row>
+    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="59" t="s">
         <v>1239</v>
       </c>
@@ -8458,9 +8461,9 @@
         <v>349</v>
       </c>
       <c r="E78" s="46"/>
-      <c r="F78" s="116"/>
-    </row>
-    <row r="79" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="117"/>
+    </row>
+    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="59" t="s">
         <v>1240</v>
       </c>
@@ -8474,9 +8477,9 @@
         <v>350</v>
       </c>
       <c r="E79" s="46"/>
-      <c r="F79" s="116"/>
-    </row>
-    <row r="80" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="117"/>
+    </row>
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="59" t="s">
         <v>1241</v>
       </c>
@@ -8490,9 +8493,9 @@
         <v>351</v>
       </c>
       <c r="E80" s="46"/>
-      <c r="F80" s="116"/>
-    </row>
-    <row r="81" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="117"/>
+    </row>
+    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="59" t="s">
         <v>1242</v>
       </c>
@@ -8506,9 +8509,9 @@
         <v>352</v>
       </c>
       <c r="E81" s="46"/>
-      <c r="F81" s="116"/>
-    </row>
-    <row r="82" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="117"/>
+    </row>
+    <row r="82" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="59" t="s">
         <v>1243</v>
       </c>
@@ -8522,9 +8525,9 @@
         <v>353</v>
       </c>
       <c r="E82" s="22"/>
-      <c r="F82" s="116"/>
-    </row>
-    <row r="83" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="117"/>
+    </row>
+    <row r="83" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="59" t="s">
         <v>1244</v>
       </c>
@@ -8538,9 +8541,9 @@
         <v>354</v>
       </c>
       <c r="E83" s="22"/>
-      <c r="F83" s="116"/>
-    </row>
-    <row r="84" spans="1:6" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="F83" s="117"/>
+    </row>
+    <row r="84" spans="1:6" s="10" customFormat="1" ht="30">
       <c r="A84" s="59" t="s">
         <v>1245</v>
       </c>
@@ -8554,9 +8557,9 @@
         <v>355</v>
       </c>
       <c r="E84" s="22"/>
-      <c r="F84" s="116"/>
-    </row>
-    <row r="85" spans="1:6" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="F84" s="117"/>
+    </row>
+    <row r="85" spans="1:6" s="10" customFormat="1">
       <c r="A85" s="59" t="s">
         <v>1246</v>
       </c>
@@ -8568,9 +8571,9 @@
         <v>356</v>
       </c>
       <c r="E85" s="22"/>
-      <c r="F85" s="116"/>
-    </row>
-    <row r="86" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="117"/>
+    </row>
+    <row r="86" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="59" t="s">
         <v>1247</v>
       </c>
@@ -8584,9 +8587,9 @@
         <v>357</v>
       </c>
       <c r="E86" s="22"/>
-      <c r="F86" s="116"/>
-    </row>
-    <row r="87" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="117"/>
+    </row>
+    <row r="87" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="59" t="s">
         <v>1248</v>
       </c>
@@ -8600,9 +8603,9 @@
         <v>358</v>
       </c>
       <c r="E87" s="22"/>
-      <c r="F87" s="116"/>
-    </row>
-    <row r="88" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="117"/>
+    </row>
+    <row r="88" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="59" t="s">
         <v>1249</v>
       </c>
@@ -8616,9 +8619,9 @@
         <v>359</v>
       </c>
       <c r="E88" s="22"/>
-      <c r="F88" s="116"/>
-    </row>
-    <row r="89" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="117"/>
+    </row>
+    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="59" t="s">
         <v>1250</v>
       </c>
@@ -8632,9 +8635,9 @@
         <v>360</v>
       </c>
       <c r="E89" s="46"/>
-      <c r="F89" s="116"/>
-    </row>
-    <row r="90" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="117"/>
+    </row>
+    <row r="90" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="59" t="s">
         <v>1251</v>
       </c>
@@ -8648,9 +8651,9 @@
         <v>361</v>
       </c>
       <c r="E90" s="22"/>
-      <c r="F90" s="116"/>
-    </row>
-    <row r="91" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="117"/>
+    </row>
+    <row r="91" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="59" t="s">
         <v>1252</v>
       </c>
@@ -8664,7 +8667,7 @@
       </c>
       <c r="F91" s="48"/>
     </row>
-    <row r="92" spans="1:6" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="59" t="s">
         <v>1253</v>
       </c>
@@ -8678,7 +8681,7 @@
       </c>
       <c r="F92" s="51"/>
     </row>
-    <row r="93" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="59" t="s">
         <v>1254</v>
       </c>
@@ -8692,11 +8695,11 @@
         <v>362</v>
       </c>
       <c r="E93" s="22"/>
-      <c r="F93" s="116" t="s">
+      <c r="F93" s="117" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="59" t="s">
         <v>1255</v>
       </c>
@@ -8710,9 +8713,9 @@
         <v>363</v>
       </c>
       <c r="E94" s="22"/>
-      <c r="F94" s="116"/>
-    </row>
-    <row r="95" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="117"/>
+    </row>
+    <row r="95" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="59" t="s">
         <v>1256</v>
       </c>
@@ -8726,9 +8729,9 @@
         <v>364</v>
       </c>
       <c r="E95" s="22"/>
-      <c r="F95" s="116"/>
-    </row>
-    <row r="96" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="117"/>
+    </row>
+    <row r="96" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="59" t="s">
         <v>1257</v>
       </c>
@@ -8742,9 +8745,9 @@
         <v>365</v>
       </c>
       <c r="E96" s="22"/>
-      <c r="F96" s="116"/>
-    </row>
-    <row r="97" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="117"/>
+    </row>
+    <row r="97" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="59" t="s">
         <v>1258</v>
       </c>
@@ -8758,9 +8761,9 @@
         <v>366</v>
       </c>
       <c r="E97" s="22"/>
-      <c r="F97" s="116"/>
-    </row>
-    <row r="98" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="117"/>
+    </row>
+    <row r="98" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="59" t="s">
         <v>1259</v>
       </c>
@@ -8774,9 +8777,9 @@
         <v>368</v>
       </c>
       <c r="E98" s="22"/>
-      <c r="F98" s="116"/>
-    </row>
-    <row r="99" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="117"/>
+    </row>
+    <row r="99" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="59" t="s">
         <v>1260</v>
       </c>
@@ -8790,9 +8793,9 @@
         <v>1344</v>
       </c>
       <c r="E99" s="22"/>
-      <c r="F99" s="116"/>
-    </row>
-    <row r="100" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="117"/>
+    </row>
+    <row r="100" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="59" t="s">
         <v>1261</v>
       </c>
@@ -8806,7 +8809,7 @@
       </c>
       <c r="F100" s="48"/>
     </row>
-    <row r="101" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="59" t="s">
         <v>1262</v>
       </c>
@@ -8820,11 +8823,11 @@
         <v>370</v>
       </c>
       <c r="E101" s="46"/>
-      <c r="F101" s="116" t="s">
+      <c r="F101" s="117" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="59" t="s">
         <v>1263</v>
       </c>
@@ -8838,9 +8841,9 @@
         <v>371</v>
       </c>
       <c r="E102" s="46"/>
-      <c r="F102" s="116"/>
-    </row>
-    <row r="103" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F102" s="117"/>
+    </row>
+    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="59" t="s">
         <v>1264</v>
       </c>
@@ -8854,9 +8857,9 @@
         <v>372</v>
       </c>
       <c r="E103" s="46"/>
-      <c r="F103" s="116"/>
-    </row>
-    <row r="104" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F103" s="117"/>
+    </row>
+    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="59" t="s">
         <v>1265</v>
       </c>
@@ -8870,9 +8873,9 @@
         <v>374</v>
       </c>
       <c r="E104" s="46"/>
-      <c r="F104" s="116"/>
-    </row>
-    <row r="105" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F104" s="117"/>
+    </row>
+    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="59" t="s">
         <v>708</v>
       </c>
@@ -8886,9 +8889,9 @@
         <v>375</v>
       </c>
       <c r="E105" s="46"/>
-      <c r="F105" s="116"/>
-    </row>
-    <row r="106" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F105" s="117"/>
+    </row>
+    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="59" t="s">
         <v>709</v>
       </c>
@@ -8902,9 +8905,9 @@
         <v>376</v>
       </c>
       <c r="E106" s="46"/>
-      <c r="F106" s="116"/>
-    </row>
-    <row r="107" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F106" s="117"/>
+    </row>
+    <row r="107" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="59" t="s">
         <v>710</v>
       </c>
@@ -8918,9 +8921,9 @@
         <v>377</v>
       </c>
       <c r="E107" s="22"/>
-      <c r="F107" s="116"/>
-    </row>
-    <row r="108" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F107" s="117"/>
+    </row>
+    <row r="108" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="59" t="s">
         <v>711</v>
       </c>
@@ -8934,9 +8937,9 @@
         <v>378</v>
       </c>
       <c r="E108" s="22"/>
-      <c r="F108" s="116"/>
-    </row>
-    <row r="109" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F108" s="117"/>
+    </row>
+    <row r="109" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="59" t="s">
         <v>712</v>
       </c>
@@ -8950,9 +8953,9 @@
         <v>379</v>
       </c>
       <c r="E109" s="22"/>
-      <c r="F109" s="116"/>
-    </row>
-    <row r="110" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F109" s="117"/>
+    </row>
+    <row r="110" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="59" t="s">
         <v>713</v>
       </c>
@@ -8966,9 +8969,9 @@
         <v>380</v>
       </c>
       <c r="E110" s="22"/>
-      <c r="F110" s="116"/>
-    </row>
-    <row r="111" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F110" s="117"/>
+    </row>
+    <row r="111" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="59" t="s">
         <v>714</v>
       </c>
@@ -8982,9 +8985,9 @@
         <v>381</v>
       </c>
       <c r="E111" s="22"/>
-      <c r="F111" s="116"/>
-    </row>
-    <row r="112" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F111" s="117"/>
+    </row>
+    <row r="112" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="59" t="s">
         <v>715</v>
       </c>
@@ -8998,9 +9001,9 @@
         <v>382</v>
       </c>
       <c r="E112" s="22"/>
-      <c r="F112" s="116"/>
-    </row>
-    <row r="113" spans="1:6" s="10" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F112" s="117"/>
+    </row>
+    <row r="113" spans="1:6" s="10" customFormat="1" ht="30.95" customHeight="1">
       <c r="A113" s="59" t="s">
         <v>717</v>
       </c>
@@ -9014,9 +9017,9 @@
         <v>383</v>
       </c>
       <c r="E113" s="22"/>
-      <c r="F113" s="116"/>
-    </row>
-    <row r="114" spans="1:6" s="10" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="117"/>
+    </row>
+    <row r="114" spans="1:6" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A114" s="59" t="s">
         <v>718</v>
       </c>
@@ -9030,9 +9033,9 @@
         <v>384</v>
       </c>
       <c r="E114" s="22"/>
-      <c r="F114" s="116"/>
-    </row>
-    <row r="115" spans="1:6" s="10" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F114" s="117"/>
+    </row>
+    <row r="115" spans="1:6" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A115" s="59" t="s">
         <v>719</v>
       </c>
@@ -9046,9 +9049,9 @@
         <v>385</v>
       </c>
       <c r="E115" s="22"/>
-      <c r="F115" s="116"/>
-    </row>
-    <row r="116" spans="1:6" s="10" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F115" s="117"/>
+    </row>
+    <row r="116" spans="1:6" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A116" s="59" t="s">
         <v>720</v>
       </c>
@@ -9062,9 +9065,9 @@
         <v>386</v>
       </c>
       <c r="E116" s="22"/>
-      <c r="F116" s="116"/>
-    </row>
-    <row r="117" spans="1:6" s="10" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F116" s="117"/>
+    </row>
+    <row r="117" spans="1:6" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A117" s="59" t="s">
         <v>721</v>
       </c>
@@ -9080,7 +9083,7 @@
       <c r="E117" s="22"/>
       <c r="F117" s="100"/>
     </row>
-    <row r="118" spans="1:6" s="10" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A118" s="59" t="s">
         <v>722</v>
       </c>
@@ -9096,7 +9099,7 @@
       <c r="E118" s="22"/>
       <c r="F118" s="100"/>
     </row>
-    <row r="119" spans="1:6" s="10" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A119" s="59" t="s">
         <v>723</v>
       </c>
@@ -9112,7 +9115,7 @@
       <c r="E119" s="22"/>
       <c r="F119" s="100"/>
     </row>
-    <row r="120" spans="1:6" s="10" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A120" s="59" t="s">
         <v>724</v>
       </c>
@@ -9128,7 +9131,7 @@
       <c r="E120" s="22"/>
       <c r="F120" s="100"/>
     </row>
-    <row r="121" spans="1:6" s="10" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A121" s="59" t="s">
         <v>726</v>
       </c>
@@ -9144,7 +9147,7 @@
       <c r="E121" s="22"/>
       <c r="F121" s="102"/>
     </row>
-    <row r="122" spans="1:6" s="10" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A122" s="59" t="s">
         <v>727</v>
       </c>
@@ -9160,7 +9163,7 @@
       <c r="E122" s="22"/>
       <c r="F122" s="49"/>
     </row>
-    <row r="123" spans="1:6" s="10" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A123" s="59" t="s">
         <v>728</v>
       </c>
@@ -9176,7 +9179,7 @@
       <c r="E123" s="22"/>
       <c r="F123" s="49"/>
     </row>
-    <row r="124" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="59" t="s">
         <v>730</v>
       </c>
@@ -9190,7 +9193,7 @@
       </c>
       <c r="F124" s="48"/>
     </row>
-    <row r="125" spans="1:6" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="59" t="s">
         <v>732</v>
       </c>
@@ -9200,11 +9203,11 @@
       <c r="E125" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="F125" s="116" t="s">
+      <c r="F125" s="117" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="59" t="s">
         <v>848</v>
       </c>
@@ -9218,9 +9221,9 @@
         <v>397</v>
       </c>
       <c r="E126" s="22"/>
-      <c r="F126" s="116"/>
-    </row>
-    <row r="127" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F126" s="117"/>
+    </row>
+    <row r="127" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="59" t="s">
         <v>850</v>
       </c>
@@ -9234,9 +9237,9 @@
         <v>399</v>
       </c>
       <c r="E127" s="22"/>
-      <c r="F127" s="116"/>
-    </row>
-    <row r="128" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F127" s="117"/>
+    </row>
+    <row r="128" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="59" t="s">
         <v>1266</v>
       </c>
@@ -9252,7 +9255,7 @@
       <c r="E128" s="22"/>
       <c r="F128" s="49"/>
     </row>
-    <row r="129" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="59" t="s">
         <v>1349</v>
       </c>
@@ -9268,7 +9271,7 @@
       <c r="E129" s="22"/>
       <c r="F129" s="49"/>
     </row>
-    <row r="130" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="59" t="s">
         <v>1350</v>
       </c>
@@ -9282,7 +9285,7 @@
       </c>
       <c r="F130" s="48"/>
     </row>
-    <row r="131" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="59" t="s">
         <v>1351</v>
       </c>
@@ -9296,7 +9299,7 @@
       </c>
       <c r="F131" s="48"/>
     </row>
-    <row r="132" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A132" s="59" t="s">
         <v>1352</v>
       </c>
@@ -9314,7 +9317,7 @@
       </c>
       <c r="F132" s="46"/>
     </row>
-    <row r="133" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="30">
       <c r="A133" s="59" t="s">
         <v>1353</v>
       </c>
@@ -9332,7 +9335,7 @@
       </c>
       <c r="F133" s="46"/>
     </row>
-    <row r="134" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="59" t="s">
         <v>1354</v>
       </c>
@@ -9350,7 +9353,7 @@
       </c>
       <c r="F134" s="46"/>
     </row>
-    <row r="135" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A135" s="59" t="s">
         <v>1355</v>
       </c>
@@ -9368,7 +9371,7 @@
       </c>
       <c r="F135" s="46"/>
     </row>
-    <row r="136" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="59" t="s">
         <v>1356</v>
       </c>
@@ -9384,7 +9387,7 @@
       <c r="E136" s="47"/>
       <c r="F136" s="46"/>
     </row>
-    <row r="137" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="30">
       <c r="A137" s="59" t="s">
         <v>1357</v>
       </c>
@@ -9402,7 +9405,7 @@
       </c>
       <c r="F137" s="46"/>
     </row>
-    <row r="138" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="30">
       <c r="A138" s="59" t="s">
         <v>1358</v>
       </c>
@@ -9420,7 +9423,7 @@
       </c>
       <c r="F138" s="46"/>
     </row>
-    <row r="139" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="59" t="s">
         <v>1359</v>
       </c>
@@ -9438,7 +9441,7 @@
       </c>
       <c r="F139" s="46"/>
     </row>
-    <row r="140" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A140" s="59" t="s">
         <v>1360</v>
       </c>
@@ -9456,7 +9459,7 @@
       </c>
       <c r="F140" s="46"/>
     </row>
-    <row r="141" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="59" t="s">
         <v>1361</v>
       </c>
@@ -9474,7 +9477,7 @@
       </c>
       <c r="F141" s="46"/>
     </row>
-    <row r="142" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="59" t="s">
         <v>1362</v>
       </c>
@@ -9492,7 +9495,7 @@
       </c>
       <c r="F142" s="46"/>
     </row>
-    <row r="143" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="59" t="s">
         <v>1363</v>
       </c>
@@ -9508,7 +9511,7 @@
       <c r="E143" s="47"/>
       <c r="F143" s="46"/>
     </row>
-    <row r="144" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="59" t="s">
         <v>1364</v>
       </c>
@@ -9524,7 +9527,7 @@
       <c r="E144" s="47"/>
       <c r="F144" s="46"/>
     </row>
-    <row r="145" spans="1:7" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="59" t="s">
         <v>1365</v>
       </c>
@@ -9541,7 +9544,7 @@
       <c r="F145" s="68"/>
       <c r="G145" s="44"/>
     </row>
-    <row r="146" spans="1:7" s="12" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="59" t="s">
         <v>1366</v>
       </c>
@@ -9558,7 +9561,7 @@
       <c r="F146" s="68"/>
       <c r="G146" s="44"/>
     </row>
-    <row r="147" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A147" s="59" t="s">
         <v>1367</v>
       </c>
@@ -9576,7 +9579,7 @@
       </c>
       <c r="F147" s="46"/>
     </row>
-    <row r="148" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A148" s="59" t="s">
         <v>1368</v>
       </c>
@@ -9592,7 +9595,7 @@
       <c r="E148" s="47"/>
       <c r="F148" s="46"/>
     </row>
-    <row r="149" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A149" s="59" t="s">
         <v>1369</v>
       </c>
@@ -9608,7 +9611,7 @@
       <c r="E149" s="47"/>
       <c r="F149" s="46"/>
     </row>
-    <row r="150" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A150" s="59" t="s">
         <v>1370</v>
       </c>
@@ -9624,7 +9627,7 @@
       <c r="E150" s="47"/>
       <c r="F150" s="46"/>
     </row>
-    <row r="151" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="30">
       <c r="A151" s="59" t="s">
         <v>1371</v>
       </c>
@@ -9640,7 +9643,7 @@
       <c r="E151" s="47"/>
       <c r="F151" s="46"/>
     </row>
-    <row r="152" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A152" s="59" t="s">
         <v>1372</v>
       </c>
@@ -9656,7 +9659,7 @@
       <c r="E152" s="47"/>
       <c r="F152" s="46"/>
     </row>
-    <row r="153" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A153" s="59" t="s">
         <v>1373</v>
       </c>
@@ -9672,7 +9675,7 @@
       <c r="E153" s="47"/>
       <c r="F153" s="46"/>
     </row>
-    <row r="154" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="59" t="s">
         <v>1374</v>
       </c>
@@ -9688,7 +9691,7 @@
       <c r="E154" s="47"/>
       <c r="F154" s="46"/>
     </row>
-    <row r="155" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="30">
       <c r="A155" s="59" t="s">
         <v>1375</v>
       </c>
@@ -9704,7 +9707,7 @@
       <c r="E155" s="47"/>
       <c r="F155" s="46"/>
     </row>
-    <row r="156" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="59" t="s">
         <v>1376</v>
       </c>
@@ -9720,7 +9723,7 @@
       <c r="E156" s="47"/>
       <c r="F156" s="46"/>
     </row>
-    <row r="157" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A157" s="59" t="s">
         <v>1377</v>
       </c>
@@ -9738,7 +9741,7 @@
       </c>
       <c r="F157" s="46"/>
     </row>
-    <row r="158" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A158" s="59" t="s">
         <v>252</v>
       </c>
@@ -9756,7 +9759,7 @@
       </c>
       <c r="F158" s="46"/>
     </row>
-    <row r="159" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="59" t="s">
         <v>254</v>
       </c>
@@ -9774,7 +9777,7 @@
       </c>
       <c r="F159" s="46"/>
     </row>
-    <row r="160" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="59" t="s">
         <v>256</v>
       </c>
@@ -9792,7 +9795,7 @@
       </c>
       <c r="F160" s="46"/>
     </row>
-    <row r="161" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="33" customHeight="1">
       <c r="A161" s="59" t="s">
         <v>258</v>
       </c>
@@ -9810,7 +9813,7 @@
       </c>
       <c r="F161" s="46"/>
     </row>
-    <row r="162" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="19.5" customHeight="1">
       <c r="A162" s="59" t="s">
         <v>261</v>
       </c>
@@ -9824,7 +9827,7 @@
       <c r="E162" s="47"/>
       <c r="F162" s="46"/>
     </row>
-    <row r="163" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="19.5" customHeight="1">
       <c r="A163" s="59" t="s">
         <v>263</v>
       </c>
@@ -9842,7 +9845,7 @@
       </c>
       <c r="F163" s="46"/>
     </row>
-    <row r="164" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="19.5" customHeight="1">
       <c r="A164" s="59" t="s">
         <v>265</v>
       </c>
@@ -9860,7 +9863,7 @@
       </c>
       <c r="F164" s="46"/>
     </row>
-    <row r="165" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="19.5" customHeight="1">
       <c r="A165" s="59" t="s">
         <v>267</v>
       </c>
@@ -9876,7 +9879,7 @@
       <c r="E165" s="47"/>
       <c r="F165" s="46"/>
     </row>
-    <row r="166" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="19.5" customHeight="1">
       <c r="A166" s="59" t="s">
         <v>269</v>
       </c>
@@ -9894,7 +9897,7 @@
       </c>
       <c r="F166" s="46"/>
     </row>
-    <row r="167" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="19.5" customHeight="1">
       <c r="A167" s="59" t="s">
         <v>271</v>
       </c>
@@ -9912,7 +9915,7 @@
       </c>
       <c r="F167" s="46"/>
     </row>
-    <row r="168" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="19.5" customHeight="1">
       <c r="A168" s="59" t="s">
         <v>274</v>
       </c>
@@ -9930,7 +9933,7 @@
       </c>
       <c r="F168" s="46"/>
     </row>
-    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="30">
       <c r="A169" s="59" t="s">
         <v>276</v>
       </c>
@@ -9948,7 +9951,7 @@
       </c>
       <c r="F169" s="46"/>
     </row>
-    <row r="170" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A170" s="59" t="s">
         <v>279</v>
       </c>
@@ -9966,7 +9969,7 @@
       </c>
       <c r="F170" s="46"/>
     </row>
-    <row r="171" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A171" s="59" t="s">
         <v>281</v>
       </c>
@@ -9982,7 +9985,7 @@
       <c r="E171" s="22"/>
       <c r="F171" s="52"/>
     </row>
-    <row r="172" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A172" s="59" t="s">
         <v>284</v>
       </c>
@@ -9998,7 +10001,7 @@
       <c r="E172" s="22"/>
       <c r="F172" s="52"/>
     </row>
-    <row r="173" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A173" s="59" t="s">
         <v>286</v>
       </c>
@@ -10014,7 +10017,7 @@
       <c r="E173" s="22"/>
       <c r="F173" s="52"/>
     </row>
-    <row r="174" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A174" s="59" t="s">
         <v>288</v>
       </c>
@@ -10030,7 +10033,7 @@
       <c r="E174" s="22"/>
       <c r="F174" s="52"/>
     </row>
-    <row r="175" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A175" s="59" t="s">
         <v>291</v>
       </c>
@@ -10046,7 +10049,7 @@
       <c r="E175" s="22"/>
       <c r="F175" s="52"/>
     </row>
-    <row r="176" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A176" s="59" t="s">
         <v>294</v>
       </c>
@@ -10062,7 +10065,7 @@
       <c r="E176" s="22"/>
       <c r="F176" s="52"/>
     </row>
-    <row r="177" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A177" s="59" t="s">
         <v>296</v>
       </c>
@@ -10078,7 +10081,7 @@
       <c r="E177" s="22"/>
       <c r="F177" s="52"/>
     </row>
-    <row r="178" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A178" s="59" t="s">
         <v>298</v>
       </c>
@@ -10094,7 +10097,7 @@
       <c r="E178" s="22"/>
       <c r="F178" s="52"/>
     </row>
-    <row r="179" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A179" s="59" t="s">
         <v>300</v>
       </c>
@@ -10110,7 +10113,7 @@
       <c r="E179" s="22"/>
       <c r="F179" s="52"/>
     </row>
-    <row r="180" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A180" s="59" t="s">
         <v>302</v>
       </c>
@@ -10126,7 +10129,7 @@
       <c r="E180" s="22"/>
       <c r="F180" s="52"/>
     </row>
-    <row r="181" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A181" s="59" t="s">
         <v>304</v>
       </c>
@@ -10142,7 +10145,7 @@
       <c r="E181" s="22"/>
       <c r="F181" s="52"/>
     </row>
-    <row r="182" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A182" s="59" t="s">
         <v>306</v>
       </c>
@@ -10158,7 +10161,7 @@
       <c r="E182" s="22"/>
       <c r="F182" s="52"/>
     </row>
-    <row r="183" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A183" s="59" t="s">
         <v>309</v>
       </c>
@@ -10174,7 +10177,7 @@
       <c r="E183" s="22"/>
       <c r="F183" s="52"/>
     </row>
-    <row r="184" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A184" s="59" t="s">
         <v>311</v>
       </c>
@@ -10190,7 +10193,7 @@
       <c r="E184" s="22"/>
       <c r="F184" s="52"/>
     </row>
-    <row r="185" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A185" s="59" t="s">
         <v>313</v>
       </c>
@@ -10206,7 +10209,7 @@
       <c r="E185" s="22"/>
       <c r="F185" s="52"/>
     </row>
-    <row r="186" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A186" s="59" t="s">
         <v>315</v>
       </c>
@@ -10222,7 +10225,7 @@
       <c r="E186" s="22"/>
       <c r="F186" s="52"/>
     </row>
-    <row r="187" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A187" s="59" t="s">
         <v>317</v>
       </c>
@@ -10238,7 +10241,7 @@
       <c r="E187" s="22"/>
       <c r="F187" s="52"/>
     </row>
-    <row r="188" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A188" s="59" t="s">
         <v>318</v>
       </c>
@@ -10254,7 +10257,7 @@
       <c r="E188" s="22"/>
       <c r="F188" s="52"/>
     </row>
-    <row r="189" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A189" s="59" t="s">
         <v>319</v>
       </c>
@@ -10270,7 +10273,7 @@
       <c r="E189" s="22"/>
       <c r="F189" s="52"/>
     </row>
-    <row r="190" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A190" s="59" t="s">
         <v>320</v>
       </c>
@@ -10286,7 +10289,7 @@
       <c r="E190" s="22"/>
       <c r="F190" s="52"/>
     </row>
-    <row r="191" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A191" s="59" t="s">
         <v>321</v>
       </c>
@@ -10302,7 +10305,7 @@
       <c r="E191" s="22"/>
       <c r="F191" s="52"/>
     </row>
-    <row r="192" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A192" s="59" t="s">
         <v>322</v>
       </c>
@@ -10318,7 +10321,7 @@
       <c r="E192" s="22"/>
       <c r="F192" s="52"/>
     </row>
-    <row r="193" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A193" s="59" t="s">
         <v>1378</v>
       </c>
@@ -10334,7 +10337,7 @@
       <c r="E193" s="22"/>
       <c r="F193" s="52"/>
     </row>
-    <row r="194" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A194" s="59" t="s">
         <v>1379</v>
       </c>
@@ -10350,7 +10353,7 @@
       <c r="E194" s="22"/>
       <c r="F194" s="52"/>
     </row>
-    <row r="195" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A195" s="59" t="s">
         <v>323</v>
       </c>
@@ -10366,7 +10369,7 @@
       <c r="E195" s="22"/>
       <c r="F195" s="52"/>
     </row>
-    <row r="196" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A196" s="59" t="s">
         <v>324</v>
       </c>
@@ -10382,7 +10385,7 @@
       <c r="E196" s="22"/>
       <c r="F196" s="52"/>
     </row>
-    <row r="197" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A197" s="59" t="s">
         <v>325</v>
       </c>
@@ -10398,7 +10401,7 @@
       <c r="E197" s="22"/>
       <c r="F197" s="52"/>
     </row>
-    <row r="198" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A198" s="59" t="s">
         <v>326</v>
       </c>
@@ -10414,7 +10417,7 @@
       <c r="E198" s="22"/>
       <c r="F198" s="52"/>
     </row>
-    <row r="199" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="59" t="s">
         <v>1380</v>
       </c>
@@ -10430,7 +10433,7 @@
       <c r="E199" s="22"/>
       <c r="F199" s="52"/>
     </row>
-    <row r="200" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A200" s="59" t="s">
         <v>327</v>
       </c>
@@ -10446,7 +10449,7 @@
       <c r="E200" s="22"/>
       <c r="F200" s="52"/>
     </row>
-    <row r="201" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A201" s="59" t="s">
         <v>328</v>
       </c>
@@ -10462,7 +10465,7 @@
       <c r="E201" s="22"/>
       <c r="F201" s="52"/>
     </row>
-    <row r="202" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A202" s="59" t="s">
         <v>329</v>
       </c>
@@ -10478,7 +10481,7 @@
       <c r="E202" s="22"/>
       <c r="F202" s="52"/>
     </row>
-    <row r="203" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A203" s="59" t="s">
         <v>330</v>
       </c>
@@ -10494,7 +10497,7 @@
       <c r="E203" s="22"/>
       <c r="F203" s="52"/>
     </row>
-    <row r="204" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A204" s="59" t="s">
         <v>331</v>
       </c>
@@ -10510,7 +10513,7 @@
       <c r="E204" s="22"/>
       <c r="F204" s="52"/>
     </row>
-    <row r="205" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A205" s="59" t="s">
         <v>333</v>
       </c>
@@ -10526,7 +10529,7 @@
       <c r="E205" s="22"/>
       <c r="F205" s="52"/>
     </row>
-    <row r="206" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A206" s="59" t="s">
         <v>335</v>
       </c>
@@ -10542,7 +10545,7 @@
       <c r="E206" s="22"/>
       <c r="F206" s="52"/>
     </row>
-    <row r="207" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A207" s="59" t="s">
         <v>336</v>
       </c>
@@ -10558,7 +10561,7 @@
       <c r="E207" s="22"/>
       <c r="F207" s="52"/>
     </row>
-    <row r="208" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A208" s="59" t="s">
         <v>337</v>
       </c>
@@ -10574,7 +10577,7 @@
       <c r="E208" s="22"/>
       <c r="F208" s="52"/>
     </row>
-    <row r="209" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A209" s="59" t="s">
         <v>338</v>
       </c>
@@ -10590,7 +10593,7 @@
       <c r="E209" s="22"/>
       <c r="F209" s="52"/>
     </row>
-    <row r="210" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A210" s="59" t="s">
         <v>339</v>
       </c>
@@ -10606,7 +10609,7 @@
       <c r="E210" s="22"/>
       <c r="F210" s="52"/>
     </row>
-    <row r="211" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A211" s="59" t="s">
         <v>1381</v>
       </c>
@@ -10622,7 +10625,7 @@
       <c r="E211" s="22"/>
       <c r="F211" s="52"/>
     </row>
-    <row r="212" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A212" s="59" t="s">
         <v>1382</v>
       </c>
@@ -10640,7 +10643,7 @@
       </c>
       <c r="F212" s="46"/>
     </row>
-    <row r="213" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A213" s="59" t="s">
         <v>340</v>
       </c>
@@ -10658,11 +10661,11 @@
       </c>
       <c r="F213" s="46"/>
     </row>
-    <row r="214" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A214" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="B214" s="56" t="s">
+      <c r="B214" s="133" t="s">
         <v>495</v>
       </c>
       <c r="C214" s="47" t="s">
@@ -10676,11 +10679,11 @@
       </c>
       <c r="F214" s="46"/>
     </row>
-    <row r="215" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A215" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="B215" s="56" t="s">
+      <c r="B215" s="133" t="s">
         <v>497</v>
       </c>
       <c r="C215" s="47" t="s">
@@ -10694,7 +10697,7 @@
       </c>
       <c r="F215" s="46"/>
     </row>
-    <row r="216" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A216" s="59" t="s">
         <v>344</v>
       </c>
@@ -10712,7 +10715,7 @@
       </c>
       <c r="F216" s="46"/>
     </row>
-    <row r="217" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A217" s="59" t="s">
         <v>345</v>
       </c>
@@ -10730,7 +10733,7 @@
       </c>
       <c r="F217" s="46"/>
     </row>
-    <row r="218" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A218" s="59" t="s">
         <v>346</v>
       </c>
@@ -10748,7 +10751,7 @@
       </c>
       <c r="F218" s="46"/>
     </row>
-    <row r="219" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A219" s="59" t="s">
         <v>347</v>
       </c>
@@ -10766,7 +10769,7 @@
       </c>
       <c r="F219" s="46"/>
     </row>
-    <row r="220" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A220" s="59" t="s">
         <v>348</v>
       </c>
@@ -10784,7 +10787,7 @@
       </c>
       <c r="F220" s="46"/>
     </row>
-    <row r="221" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A221" s="59" t="s">
         <v>349</v>
       </c>
@@ -10800,7 +10803,7 @@
       <c r="E221" s="22"/>
       <c r="F221" s="52"/>
     </row>
-    <row r="222" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A222" s="59" t="s">
         <v>350</v>
       </c>
@@ -10816,7 +10819,7 @@
       <c r="E222" s="22"/>
       <c r="F222" s="52"/>
     </row>
-    <row r="223" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A223" s="59" t="s">
         <v>351</v>
       </c>
@@ -10832,7 +10835,7 @@
       <c r="E223" s="22"/>
       <c r="F223" s="52"/>
     </row>
-    <row r="224" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A224" s="59" t="s">
         <v>352</v>
       </c>
@@ -10848,7 +10851,7 @@
       <c r="E224" s="22"/>
       <c r="F224" s="52"/>
     </row>
-    <row r="225" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A225" s="59" t="s">
         <v>353</v>
       </c>
@@ -10864,7 +10867,7 @@
       <c r="E225" s="22"/>
       <c r="F225" s="52"/>
     </row>
-    <row r="226" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="59" t="s">
         <v>354</v>
       </c>
@@ -10880,7 +10883,7 @@
       <c r="E226" s="22"/>
       <c r="F226" s="52"/>
     </row>
-    <row r="227" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A227" s="59" t="s">
         <v>355</v>
       </c>
@@ -10896,7 +10899,7 @@
       <c r="E227" s="22"/>
       <c r="F227" s="52"/>
     </row>
-    <row r="228" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A228" s="59" t="s">
         <v>356</v>
       </c>
@@ -10912,7 +10915,7 @@
       <c r="E228" s="22"/>
       <c r="F228" s="52"/>
     </row>
-    <row r="229" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A229" s="59" t="s">
         <v>357</v>
       </c>
@@ -10928,7 +10931,7 @@
       <c r="E229" s="22"/>
       <c r="F229" s="52"/>
     </row>
-    <row r="230" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A230" s="59" t="s">
         <v>358</v>
       </c>
@@ -10944,7 +10947,7 @@
       <c r="E230" s="22"/>
       <c r="F230" s="52"/>
     </row>
-    <row r="231" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A231" s="59" t="s">
         <v>359</v>
       </c>
@@ -10960,7 +10963,7 @@
       <c r="E231" s="22"/>
       <c r="F231" s="52"/>
     </row>
-    <row r="232" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A232" s="59" t="s">
         <v>360</v>
       </c>
@@ -10976,7 +10979,7 @@
       <c r="E232" s="22"/>
       <c r="F232" s="52"/>
     </row>
-    <row r="233" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A233" s="59" t="s">
         <v>361</v>
       </c>
@@ -10992,7 +10995,7 @@
       <c r="E233" s="22"/>
       <c r="F233" s="52"/>
     </row>
-    <row r="234" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A234" s="59" t="s">
         <v>362</v>
       </c>
@@ -11008,7 +11011,7 @@
       <c r="E234" s="22"/>
       <c r="F234" s="52"/>
     </row>
-    <row r="235" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A235" s="59" t="s">
         <v>363</v>
       </c>
@@ -11024,7 +11027,7 @@
       <c r="E235" s="22"/>
       <c r="F235" s="52"/>
     </row>
-    <row r="236" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A236" s="59" t="s">
         <v>364</v>
       </c>
@@ -11040,7 +11043,7 @@
       <c r="E236" s="22"/>
       <c r="F236" s="52"/>
     </row>
-    <row r="237" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A237" s="59" t="s">
         <v>365</v>
       </c>
@@ -11056,7 +11059,7 @@
       <c r="E237" s="22"/>
       <c r="F237" s="52"/>
     </row>
-    <row r="238" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A238" s="59" t="s">
         <v>366</v>
       </c>
@@ -11072,7 +11075,7 @@
       <c r="E238" s="22"/>
       <c r="F238" s="52"/>
     </row>
-    <row r="239" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A239" s="59" t="s">
         <v>368</v>
       </c>
@@ -11088,7 +11091,7 @@
       <c r="E239" s="22"/>
       <c r="F239" s="52"/>
     </row>
-    <row r="240" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A240" s="59" t="s">
         <v>1344</v>
       </c>
@@ -11104,7 +11107,7 @@
       <c r="E240" s="22"/>
       <c r="F240" s="52"/>
     </row>
-    <row r="241" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A241" s="59" t="s">
         <v>370</v>
       </c>
@@ -11120,7 +11123,7 @@
       <c r="E241" s="22"/>
       <c r="F241" s="52"/>
     </row>
-    <row r="242" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A242" s="59" t="s">
         <v>371</v>
       </c>
@@ -11136,7 +11139,7 @@
       <c r="E242" s="22"/>
       <c r="F242" s="52"/>
     </row>
-    <row r="243" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A243" s="59" t="s">
         <v>372</v>
       </c>
@@ -11152,7 +11155,7 @@
       <c r="E243" s="22"/>
       <c r="F243" s="52"/>
     </row>
-    <row r="244" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A244" s="59" t="s">
         <v>374</v>
       </c>
@@ -11168,7 +11171,7 @@
       <c r="E244" s="22"/>
       <c r="F244" s="52"/>
     </row>
-    <row r="245" spans="1:6" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A245" s="59" t="s">
         <v>375</v>
       </c>
@@ -11184,7 +11187,7 @@
       <c r="E245" s="22"/>
       <c r="F245" s="52"/>
     </row>
-    <row r="246" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="29.45" customHeight="1">
       <c r="A246" s="59" t="s">
         <v>376</v>
       </c>
@@ -11197,12 +11200,12 @@
       <c r="D246" s="59" t="s">
         <v>522</v>
       </c>
-      <c r="E246" s="119" t="s">
+      <c r="E246" s="120" t="s">
         <v>533</v>
       </c>
       <c r="F246" s="46"/>
     </row>
-    <row r="247" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="29.45" customHeight="1">
       <c r="A247" s="59" t="s">
         <v>377</v>
       </c>
@@ -11215,10 +11218,10 @@
       <c r="D247" s="59" t="s">
         <v>1397</v>
       </c>
-      <c r="E247" s="120"/>
+      <c r="E247" s="121"/>
       <c r="F247" s="46"/>
     </row>
-    <row r="248" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="29.45" customHeight="1">
       <c r="A248" s="59" t="s">
         <v>378</v>
       </c>
@@ -11231,10 +11234,10 @@
       <c r="D248" s="59" t="s">
         <v>523</v>
       </c>
-      <c r="E248" s="120"/>
+      <c r="E248" s="121"/>
       <c r="F248" s="46"/>
     </row>
-    <row r="249" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A249" s="59" t="s">
         <v>379</v>
       </c>
@@ -11247,10 +11250,10 @@
       <c r="D249" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="E249" s="120"/>
+      <c r="E249" s="121"/>
       <c r="F249" s="46"/>
     </row>
-    <row r="250" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A250" s="59" t="s">
         <v>380</v>
       </c>
@@ -11263,10 +11266,10 @@
       <c r="D250" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="E250" s="120"/>
+      <c r="E250" s="121"/>
       <c r="F250" s="46"/>
     </row>
-    <row r="251" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="43.5" customHeight="1">
       <c r="A251" s="59" t="s">
         <v>381</v>
       </c>
@@ -11279,10 +11282,10 @@
       <c r="D251" s="59" t="s">
         <v>526</v>
       </c>
-      <c r="E251" s="120"/>
+      <c r="E251" s="121"/>
       <c r="F251" s="46"/>
     </row>
-    <row r="252" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A252" s="59" t="s">
         <v>382</v>
       </c>
@@ -11296,7 +11299,7 @@
       </c>
       <c r="F252" s="48"/>
     </row>
-    <row r="253" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A253" s="59" t="s">
         <v>383</v>
       </c>
@@ -11310,7 +11313,7 @@
       </c>
       <c r="F253" s="48"/>
     </row>
-    <row r="254" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A254" s="59" t="s">
         <v>384</v>
       </c>
@@ -11323,14 +11326,14 @@
       <c r="D254" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="E254" s="121" t="s">
+      <c r="E254" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="F254" s="116" t="s">
+      <c r="F254" s="117" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A255" s="59" t="s">
         <v>385</v>
       </c>
@@ -11343,10 +11346,10 @@
       <c r="D255" s="59" t="s">
         <v>528</v>
       </c>
-      <c r="E255" s="121"/>
-      <c r="F255" s="116"/>
-    </row>
-    <row r="256" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E255" s="122"/>
+      <c r="F255" s="117"/>
+    </row>
+    <row r="256" spans="1:6" ht="35.450000000000003" customHeight="1">
       <c r="A256" s="59" t="s">
         <v>386</v>
       </c>
@@ -11359,10 +11362,10 @@
       <c r="D256" s="59" t="s">
         <v>529</v>
       </c>
-      <c r="E256" s="121"/>
-      <c r="F256" s="116"/>
-    </row>
-    <row r="257" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E256" s="122"/>
+      <c r="F256" s="117"/>
+    </row>
+    <row r="257" spans="1:6" ht="30.95" customHeight="1">
       <c r="A257" s="59" t="s">
         <v>387</v>
       </c>
@@ -11380,7 +11383,7 @@
       </c>
       <c r="F257" s="46"/>
     </row>
-    <row r="258" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A258" s="59" t="s">
         <v>388</v>
       </c>
@@ -11398,7 +11401,7 @@
       </c>
       <c r="F258" s="46"/>
     </row>
-    <row r="259" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A259" s="59" t="s">
         <v>390</v>
       </c>
@@ -11416,7 +11419,7 @@
       </c>
       <c r="F259" s="46"/>
     </row>
-    <row r="260" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A260" s="59" t="s">
         <v>391</v>
       </c>
@@ -11434,7 +11437,7 @@
       </c>
       <c r="F260" s="46"/>
     </row>
-    <row r="261" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A261" s="59" t="s">
         <v>392</v>
       </c>
@@ -11452,7 +11455,7 @@
       </c>
       <c r="F261" s="46"/>
     </row>
-    <row r="262" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A262" s="59" t="s">
         <v>1345</v>
       </c>
@@ -11470,7 +11473,7 @@
       </c>
       <c r="F262" s="46"/>
     </row>
-    <row r="263" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="23.1" customHeight="1">
       <c r="A263" s="59" t="s">
         <v>1346</v>
       </c>
@@ -11488,7 +11491,7 @@
       </c>
       <c r="F263" s="46"/>
     </row>
-    <row r="264" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="23.1" customHeight="1">
       <c r="A264" s="59" t="s">
         <v>397</v>
       </c>
@@ -11504,7 +11507,7 @@
       <c r="E264" s="103"/>
       <c r="F264" s="46"/>
     </row>
-    <row r="265" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="23.1" customHeight="1">
       <c r="A265" s="59" t="s">
         <v>399</v>
       </c>
@@ -11520,7 +11523,7 @@
       <c r="E265" s="103"/>
       <c r="F265" s="46"/>
     </row>
-    <row r="266" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="23.1" customHeight="1">
       <c r="A266" s="59" t="s">
         <v>401</v>
       </c>
@@ -11536,7 +11539,7 @@
       <c r="E266" s="103"/>
       <c r="F266" s="46"/>
     </row>
-    <row r="267" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A267" s="59" t="s">
         <v>403</v>
       </c>
@@ -11552,7 +11555,7 @@
       <c r="E267" s="103"/>
       <c r="F267" s="46"/>
     </row>
-    <row r="268" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A268" s="59" t="s">
         <v>404</v>
       </c>
@@ -11568,7 +11571,7 @@
       <c r="E268" s="103"/>
       <c r="F268" s="46"/>
     </row>
-    <row r="269" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A269" s="59" t="s">
         <v>405</v>
       </c>
@@ -11584,7 +11587,7 @@
       <c r="E269" s="103"/>
       <c r="F269" s="46"/>
     </row>
-    <row r="270" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A270" s="59" t="s">
         <v>406</v>
       </c>
@@ -11600,7 +11603,7 @@
       <c r="E270" s="103"/>
       <c r="F270" s="46"/>
     </row>
-    <row r="271" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A271" s="59" t="s">
         <v>1347</v>
       </c>
@@ -11616,7 +11619,7 @@
       <c r="E271" s="103"/>
       <c r="F271" s="46"/>
     </row>
-    <row r="272" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A272" s="59" t="s">
         <v>1348</v>
       </c>
@@ -11632,7 +11635,7 @@
       <c r="E272" s="103"/>
       <c r="F272" s="46"/>
     </row>
-    <row r="273" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A273" s="59" t="s">
         <v>408</v>
       </c>
@@ -11648,7 +11651,7 @@
       <c r="E273" s="103"/>
       <c r="F273" s="46"/>
     </row>
-    <row r="274" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A274" s="59" t="s">
         <v>410</v>
       </c>
@@ -11664,7 +11667,7 @@
       <c r="E274" s="103"/>
       <c r="F274" s="46"/>
     </row>
-    <row r="275" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A275" s="59" t="s">
         <v>412</v>
       </c>
@@ -11680,7 +11683,7 @@
       <c r="E275" s="103"/>
       <c r="F275" s="46"/>
     </row>
-    <row r="276" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A276" s="59" t="s">
         <v>413</v>
       </c>
@@ -11696,7 +11699,7 @@
       <c r="E276" s="103"/>
       <c r="F276" s="46"/>
     </row>
-    <row r="277" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A277" s="59" t="s">
         <v>414</v>
       </c>
@@ -11712,7 +11715,7 @@
       <c r="E277" s="103"/>
       <c r="F277" s="46"/>
     </row>
-    <row r="278" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A278" s="59" t="s">
         <v>415</v>
       </c>
@@ -11728,7 +11731,7 @@
       <c r="E278" s="103"/>
       <c r="F278" s="46"/>
     </row>
-    <row r="279" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A279" s="59" t="s">
         <v>416</v>
       </c>
@@ -11744,7 +11747,7 @@
       <c r="E279" s="103"/>
       <c r="F279" s="46"/>
     </row>
-    <row r="280" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A280" s="59" t="s">
         <v>417</v>
       </c>
@@ -11760,7 +11763,7 @@
       <c r="E280" s="103"/>
       <c r="F280" s="46"/>
     </row>
-    <row r="281" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A281" s="59" t="s">
         <v>418</v>
       </c>
@@ -11776,7 +11779,7 @@
       <c r="E281" s="103"/>
       <c r="F281" s="46"/>
     </row>
-    <row r="282" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A282" s="59" t="s">
         <v>420</v>
       </c>
@@ -11792,7 +11795,7 @@
       <c r="E282" s="103"/>
       <c r="F282" s="46"/>
     </row>
-    <row r="283" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A283" s="59" t="s">
         <v>421</v>
       </c>
@@ -11806,7 +11809,7 @@
       </c>
       <c r="F283" s="48"/>
     </row>
-    <row r="284" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A284" s="59" t="s">
         <v>422</v>
       </c>
@@ -11820,7 +11823,7 @@
       </c>
       <c r="F284" s="48"/>
     </row>
-    <row r="285" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A285" s="59" t="s">
         <v>1383</v>
       </c>
@@ -11834,7 +11837,7 @@
       </c>
       <c r="F285" s="48"/>
     </row>
-    <row r="286" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A286" s="59" t="s">
         <v>1384</v>
       </c>
@@ -11852,7 +11855,7 @@
       </c>
       <c r="F286" s="46"/>
     </row>
-    <row r="287" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A287" s="59" t="s">
         <v>1385</v>
       </c>
@@ -11870,7 +11873,7 @@
       </c>
       <c r="F287" s="46"/>
     </row>
-    <row r="288" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A288" s="59" t="s">
         <v>1386</v>
       </c>
@@ -11888,7 +11891,7 @@
       </c>
       <c r="F288" s="46"/>
     </row>
-    <row r="289" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A289" s="59" t="s">
         <v>423</v>
       </c>
@@ -11906,7 +11909,7 @@
       </c>
       <c r="F289" s="46"/>
     </row>
-    <row r="290" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A290" s="59" t="s">
         <v>424</v>
       </c>
@@ -11924,7 +11927,7 @@
       </c>
       <c r="F290" s="46"/>
     </row>
-    <row r="291" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A291" s="59" t="s">
         <v>1387</v>
       </c>
@@ -11942,7 +11945,7 @@
       </c>
       <c r="F291" s="46"/>
     </row>
-    <row r="292" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A292" s="59" t="s">
         <v>1388</v>
       </c>
@@ -11960,7 +11963,7 @@
       </c>
       <c r="F292" s="46"/>
     </row>
-    <row r="293" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A293" s="59" t="s">
         <v>1389</v>
       </c>
@@ -11978,7 +11981,7 @@
       </c>
       <c r="F293" s="46"/>
     </row>
-    <row r="294" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A294" s="59" t="s">
         <v>1390</v>
       </c>
@@ -11996,7 +11999,7 @@
       </c>
       <c r="F294" s="46"/>
     </row>
-    <row r="295" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A295" s="59" t="s">
         <v>425</v>
       </c>
@@ -12012,7 +12015,7 @@
       <c r="E295" s="22"/>
       <c r="F295" s="46"/>
     </row>
-    <row r="296" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A296" s="59" t="s">
         <v>428</v>
       </c>
@@ -12028,7 +12031,7 @@
       <c r="E296" s="22"/>
       <c r="F296" s="46"/>
     </row>
-    <row r="297" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A297" s="59" t="s">
         <v>430</v>
       </c>
@@ -12044,7 +12047,7 @@
       <c r="E297" s="22"/>
       <c r="F297" s="46"/>
     </row>
-    <row r="298" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A298" s="59" t="s">
         <v>431</v>
       </c>
@@ -12060,7 +12063,7 @@
       <c r="E298" s="22"/>
       <c r="F298" s="46"/>
     </row>
-    <row r="299" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A299" s="59" t="s">
         <v>432</v>
       </c>
@@ -12076,7 +12079,7 @@
       <c r="E299" s="22"/>
       <c r="F299" s="46"/>
     </row>
-    <row r="300" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A300" s="59" t="s">
         <v>433</v>
       </c>
@@ -12092,7 +12095,7 @@
       <c r="E300" s="22"/>
       <c r="F300" s="46"/>
     </row>
-    <row r="301" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A301" s="59" t="s">
         <v>434</v>
       </c>
@@ -12108,7 +12111,7 @@
       <c r="E301" s="22"/>
       <c r="F301" s="46"/>
     </row>
-    <row r="302" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A302" s="59" t="s">
         <v>435</v>
       </c>
@@ -12124,7 +12127,7 @@
       <c r="E302" s="22"/>
       <c r="F302" s="46"/>
     </row>
-    <row r="303" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A303" s="59" t="s">
         <v>437</v>
       </c>
@@ -12140,7 +12143,7 @@
       <c r="E303" s="22"/>
       <c r="F303" s="46"/>
     </row>
-    <row r="304" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A304" s="59" t="s">
         <v>439</v>
       </c>
@@ -12156,7 +12159,7 @@
       <c r="E304" s="22"/>
       <c r="F304" s="46"/>
     </row>
-    <row r="305" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A305" s="59" t="s">
         <v>440</v>
       </c>
@@ -12172,7 +12175,7 @@
       <c r="E305" s="22"/>
       <c r="F305" s="46"/>
     </row>
-    <row r="306" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A306" s="59" t="s">
         <v>441</v>
       </c>
@@ -12188,7 +12191,7 @@
       <c r="E306" s="22"/>
       <c r="F306" s="46"/>
     </row>
-    <row r="307" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A307" s="59" t="s">
         <v>442</v>
       </c>
@@ -12204,7 +12207,7 @@
       <c r="E307" s="22"/>
       <c r="F307" s="46"/>
     </row>
-    <row r="308" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A308" s="59" t="s">
         <v>443</v>
       </c>
@@ -12212,13 +12215,13 @@
         <v>554</v>
       </c>
       <c r="C308" s="50"/>
-      <c r="D308" s="132"/>
+      <c r="D308" s="114"/>
       <c r="E308" s="50" t="s">
         <v>234</v>
       </c>
       <c r="F308" s="48"/>
     </row>
-    <row r="309" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A309" s="59" t="s">
         <v>444</v>
       </c>
@@ -12226,13 +12229,13 @@
         <v>540</v>
       </c>
       <c r="C309" s="50"/>
-      <c r="D309" s="132"/>
+      <c r="D309" s="114"/>
       <c r="E309" s="50" t="s">
         <v>234</v>
       </c>
       <c r="F309" s="48"/>
     </row>
-    <row r="310" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A310" s="59" t="s">
         <v>446</v>
       </c>
@@ -12250,7 +12253,7 @@
       </c>
       <c r="F310" s="46"/>
     </row>
-    <row r="311" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A311" s="59" t="s">
         <v>447</v>
       </c>
@@ -12268,7 +12271,7 @@
       </c>
       <c r="F311" s="46"/>
     </row>
-    <row r="312" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A312" s="59" t="s">
         <v>448</v>
       </c>
@@ -12286,7 +12289,7 @@
       </c>
       <c r="F312" s="46"/>
     </row>
-    <row r="313" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A313" s="59" t="s">
         <v>449</v>
       </c>
@@ -12304,7 +12307,7 @@
       </c>
       <c r="F313" s="46"/>
     </row>
-    <row r="314" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A314" s="59" t="s">
         <v>1391</v>
       </c>
@@ -12322,7 +12325,7 @@
       </c>
       <c r="F314" s="46"/>
     </row>
-    <row r="315" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A315" s="59" t="s">
         <v>450</v>
       </c>
@@ -12340,7 +12343,7 @@
       </c>
       <c r="F315" s="46"/>
     </row>
-    <row r="316" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A316" s="59" t="s">
         <v>451</v>
       </c>
@@ -12358,7 +12361,7 @@
       </c>
       <c r="F316" s="46"/>
     </row>
-    <row r="317" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A317" s="59" t="s">
         <v>452</v>
       </c>
@@ -12376,7 +12379,7 @@
       </c>
       <c r="F317" s="46"/>
     </row>
-    <row r="318" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A318" s="59" t="s">
         <v>453</v>
       </c>
@@ -12384,13 +12387,13 @@
         <v>554</v>
       </c>
       <c r="C318" s="50"/>
-      <c r="D318" s="132"/>
+      <c r="D318" s="114"/>
       <c r="E318" s="50" t="s">
         <v>38</v>
       </c>
       <c r="F318" s="48"/>
     </row>
-    <row r="319" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A319" s="59" t="s">
         <v>454</v>
       </c>
@@ -12398,13 +12401,13 @@
         <v>540</v>
       </c>
       <c r="C319" s="50"/>
-      <c r="D319" s="132"/>
+      <c r="D319" s="114"/>
       <c r="E319" s="50" t="s">
         <v>38</v>
       </c>
       <c r="F319" s="48"/>
     </row>
-    <row r="320" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A320" s="59" t="s">
         <v>455</v>
       </c>
@@ -12412,13 +12415,13 @@
         <v>554</v>
       </c>
       <c r="C320" s="50"/>
-      <c r="D320" s="132"/>
+      <c r="D320" s="114"/>
       <c r="E320" s="50" t="s">
         <v>128</v>
       </c>
       <c r="F320" s="48"/>
     </row>
-    <row r="321" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6">
       <c r="A321" s="59" t="s">
         <v>456</v>
       </c>
@@ -12436,7 +12439,7 @@
       </c>
       <c r="F321" s="46"/>
     </row>
-    <row r="322" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="30">
       <c r="A322" s="59" t="s">
         <v>457</v>
       </c>
@@ -12454,7 +12457,7 @@
       </c>
       <c r="F322" s="46"/>
     </row>
-    <row r="323" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="30">
       <c r="A323" s="59" t="s">
         <v>458</v>
       </c>
@@ -12472,7 +12475,7 @@
       </c>
       <c r="F323" s="46"/>
     </row>
-    <row r="324" spans="1:6" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" s="11" customFormat="1">
       <c r="A324" s="59" t="s">
         <v>459</v>
       </c>
@@ -12486,7 +12489,7 @@
       </c>
       <c r="F324" s="48"/>
     </row>
-    <row r="325" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A325" s="59" t="s">
         <v>460</v>
       </c>
@@ -12504,7 +12507,7 @@
       </c>
       <c r="F325" s="46"/>
     </row>
-    <row r="326" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6">
       <c r="A326" s="59" t="s">
         <v>1392</v>
       </c>
@@ -12522,7 +12525,7 @@
       </c>
       <c r="F326" s="46"/>
     </row>
-    <row r="327" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6">
       <c r="A327" s="59" t="s">
         <v>1393</v>
       </c>
@@ -12540,7 +12543,7 @@
       </c>
       <c r="F327" s="46"/>
     </row>
-    <row r="328" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6">
       <c r="A328" s="59" t="s">
         <v>1394</v>
       </c>
@@ -12558,7 +12561,7 @@
       </c>
       <c r="F328" s="46"/>
     </row>
-    <row r="329" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6">
       <c r="A329" s="59" t="s">
         <v>461</v>
       </c>
@@ -12576,7 +12579,7 @@
       </c>
       <c r="F329" s="46"/>
     </row>
-    <row r="330" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="30">
       <c r="A330" s="59" t="s">
         <v>462</v>
       </c>
@@ -12594,7 +12597,7 @@
       </c>
       <c r="F330" s="46"/>
     </row>
-    <row r="331" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A331" s="59" t="s">
         <v>463</v>
       </c>
@@ -12612,7 +12615,7 @@
       </c>
       <c r="F331" s="46"/>
     </row>
-    <row r="332" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A332" s="59" t="s">
         <v>464</v>
       </c>
@@ -12630,7 +12633,7 @@
       </c>
       <c r="F332" s="46"/>
     </row>
-    <row r="333" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="30">
       <c r="A333" s="59" t="s">
         <v>465</v>
       </c>
@@ -12648,7 +12651,7 @@
       </c>
       <c r="F333" s="46"/>
     </row>
-    <row r="334" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A334" s="59" t="s">
         <v>466</v>
       </c>
@@ -12666,7 +12669,7 @@
       </c>
       <c r="F334" s="46"/>
     </row>
-    <row r="335" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A335" s="59" t="s">
         <v>467</v>
       </c>
@@ -12684,7 +12687,7 @@
       </c>
       <c r="F335" s="46"/>
     </row>
-    <row r="336" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A336" s="59" t="s">
         <v>468</v>
       </c>
@@ -12702,7 +12705,7 @@
       </c>
       <c r="F336" s="46"/>
     </row>
-    <row r="337" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A337" s="59" t="s">
         <v>469</v>
       </c>
@@ -12720,7 +12723,7 @@
       </c>
       <c r="F337" s="46"/>
     </row>
-    <row r="338" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A338" s="59" t="s">
         <v>470</v>
       </c>
@@ -12738,7 +12741,7 @@
       </c>
       <c r="F338" s="46"/>
     </row>
-    <row r="339" spans="1:6" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A339" s="59" t="s">
         <v>471</v>
       </c>
@@ -12752,7 +12755,7 @@
       </c>
       <c r="F339" s="48"/>
     </row>
-    <row r="340" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A340" s="59" t="s">
         <v>472</v>
       </c>
@@ -12770,7 +12773,7 @@
       </c>
       <c r="F340" s="46"/>
     </row>
-    <row r="341" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A341" s="59" t="s">
         <v>473</v>
       </c>
@@ -12788,7 +12791,7 @@
       </c>
       <c r="F341" s="46"/>
     </row>
-    <row r="342" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A342" s="59" t="s">
         <v>474</v>
       </c>
@@ -12804,11 +12807,11 @@
       <c r="E342" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F342" s="116" t="s">
+      <c r="F342" s="117" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A343" s="59" t="s">
         <v>475</v>
       </c>
@@ -12824,9 +12827,9 @@
       <c r="E343" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F343" s="116"/>
-    </row>
-    <row r="344" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F343" s="117"/>
+    </row>
+    <row r="344" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A344" s="59" t="s">
         <v>476</v>
       </c>
@@ -12842,9 +12845,9 @@
       <c r="E344" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F344" s="116"/>
-    </row>
-    <row r="345" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F344" s="117"/>
+    </row>
+    <row r="345" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A345" s="59" t="s">
         <v>1395</v>
       </c>
@@ -12860,9 +12863,9 @@
       <c r="E345" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F345" s="116"/>
-    </row>
-    <row r="346" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F345" s="117"/>
+    </row>
+    <row r="346" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A346" s="59" t="s">
         <v>477</v>
       </c>
@@ -12878,9 +12881,9 @@
       <c r="E346" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F346" s="116"/>
-    </row>
-    <row r="347" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F346" s="117"/>
+    </row>
+    <row r="347" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A347" s="59" t="s">
         <v>1396</v>
       </c>
@@ -12896,9 +12899,9 @@
       <c r="E347" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F347" s="116"/>
-    </row>
-    <row r="348" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F347" s="117"/>
+    </row>
+    <row r="348" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A348" s="59" t="s">
         <v>478</v>
       </c>
@@ -12914,9 +12917,9 @@
       <c r="E348" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F348" s="116"/>
-    </row>
-    <row r="349" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F348" s="117"/>
+    </row>
+    <row r="349" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A349" s="59" t="s">
         <v>479</v>
       </c>
@@ -12932,9 +12935,9 @@
       <c r="E349" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F349" s="116"/>
-    </row>
-    <row r="350" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F349" s="117"/>
+    </row>
+    <row r="350" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A350" s="59" t="s">
         <v>480</v>
       </c>
@@ -12950,9 +12953,9 @@
       <c r="E350" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F350" s="116"/>
-    </row>
-    <row r="351" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F350" s="117"/>
+    </row>
+    <row r="351" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A351" s="59" t="s">
         <v>481</v>
       </c>
@@ -12968,9 +12971,9 @@
       <c r="E351" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F351" s="116"/>
-    </row>
-    <row r="352" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F351" s="117"/>
+    </row>
+    <row r="352" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A352" s="59" t="s">
         <v>482</v>
       </c>
@@ -12986,9 +12989,9 @@
       <c r="E352" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F352" s="116"/>
-    </row>
-    <row r="353" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F352" s="117"/>
+    </row>
+    <row r="353" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A353" s="59" t="s">
         <v>483</v>
       </c>
@@ -13004,9 +13007,9 @@
       <c r="E353" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="F353" s="116"/>
-    </row>
-    <row r="354" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F353" s="117"/>
+    </row>
+    <row r="354" spans="1:6" ht="30" customHeight="1">
       <c r="A354" s="59" t="s">
         <v>484</v>
       </c>
@@ -13024,7 +13027,7 @@
       </c>
       <c r="F354" s="46"/>
     </row>
-    <row r="355" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="30" customHeight="1">
       <c r="A355" s="59" t="s">
         <v>485</v>
       </c>
@@ -13042,7 +13045,7 @@
       </c>
       <c r="F355" s="46"/>
     </row>
-    <row r="356" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A356" s="59" t="s">
         <v>486</v>
       </c>
@@ -13058,7 +13061,7 @@
       <c r="E356" s="46"/>
       <c r="F356" s="46"/>
     </row>
-    <row r="357" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A357" s="59" t="s">
         <v>487</v>
       </c>
@@ -13074,7 +13077,7 @@
       <c r="E357" s="46"/>
       <c r="F357" s="46"/>
     </row>
-    <row r="358" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A358" s="59" t="s">
         <v>488</v>
       </c>
@@ -13090,7 +13093,7 @@
       <c r="E358" s="46"/>
       <c r="F358" s="46"/>
     </row>
-    <row r="359" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A359" s="59" t="s">
         <v>490</v>
       </c>
@@ -13106,7 +13109,7 @@
       <c r="E359" s="46"/>
       <c r="F359" s="46"/>
     </row>
-    <row r="360" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A360" s="59" t="s">
         <v>492</v>
       </c>
@@ -13122,7 +13125,7 @@
       <c r="E360" s="46"/>
       <c r="F360" s="46"/>
     </row>
-    <row r="361" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A361" s="59" t="s">
         <v>494</v>
       </c>
@@ -13138,7 +13141,7 @@
       <c r="E361" s="46"/>
       <c r="F361" s="46"/>
     </row>
-    <row r="362" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A362" s="59" t="s">
         <v>496</v>
       </c>
@@ -13154,7 +13157,7 @@
       <c r="E362" s="46"/>
       <c r="F362" s="46"/>
     </row>
-    <row r="363" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A363" s="59" t="s">
         <v>498</v>
       </c>
@@ -13170,7 +13173,7 @@
       <c r="E363" s="46"/>
       <c r="F363" s="46"/>
     </row>
-    <row r="364" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A364" s="59" t="s">
         <v>500</v>
       </c>
@@ -13186,7 +13189,7 @@
       <c r="E364" s="46"/>
       <c r="F364" s="46"/>
     </row>
-    <row r="365" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A365" s="59" t="s">
         <v>502</v>
       </c>
@@ -13202,7 +13205,7 @@
       <c r="E365" s="46"/>
       <c r="F365" s="46"/>
     </row>
-    <row r="366" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A366" s="59" t="s">
         <v>504</v>
       </c>
@@ -13218,7 +13221,7 @@
       <c r="E366" s="46"/>
       <c r="F366" s="46"/>
     </row>
-    <row r="367" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A367" s="59" t="s">
         <v>506</v>
       </c>
@@ -13234,7 +13237,7 @@
       <c r="E367" s="46"/>
       <c r="F367" s="46"/>
     </row>
-    <row r="368" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A368" s="59" t="s">
         <v>508</v>
       </c>
@@ -13250,7 +13253,7 @@
       <c r="E368" s="46"/>
       <c r="F368" s="46"/>
     </row>
-    <row r="369" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A369" s="59" t="s">
         <v>509</v>
       </c>
@@ -13266,7 +13269,7 @@
       <c r="E369" s="46"/>
       <c r="F369" s="46"/>
     </row>
-    <row r="370" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A370" s="59" t="s">
         <v>510</v>
       </c>
@@ -13282,7 +13285,7 @@
       <c r="E370" s="46"/>
       <c r="F370" s="46"/>
     </row>
-    <row r="371" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A371" s="59" t="s">
         <v>511</v>
       </c>
@@ -13298,7 +13301,7 @@
       <c r="E371" s="46"/>
       <c r="F371" s="46"/>
     </row>
-    <row r="372" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A372" s="59" t="s">
         <v>512</v>
       </c>
@@ -13314,7 +13317,7 @@
       <c r="E372" s="46"/>
       <c r="F372" s="46"/>
     </row>
-    <row r="373" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A373" s="59" t="s">
         <v>513</v>
       </c>
@@ -13331,7 +13334,7 @@
       <c r="F373" s="46"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B371" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B1:B371"/>
   <mergeCells count="13">
     <mergeCell ref="F342:F353"/>
     <mergeCell ref="A1:E1"/>
@@ -13354,42 +13357,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="48.875" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="124" t="s">
         <v>645</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="125" t="s">
         <v>646</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
       <c r="F2" s="73"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="74"/>
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
@@ -13397,14 +13400,14 @@
       <c r="E3" s="75"/>
       <c r="F3" s="73"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
       <c r="E4" s="76"/>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>2</v>
       </c>
@@ -13421,7 +13424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="77">
         <v>1</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="77">
         <v>2</v>
       </c>
@@ -13455,7 +13458,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="77">
         <v>3</v>
       </c>
@@ -13472,7 +13475,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30.95" customHeight="1">
       <c r="A9" s="77">
         <v>4</v>
       </c>
@@ -13489,7 +13492,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="77">
         <v>5</v>
       </c>
@@ -13506,7 +13509,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="77">
         <v>6</v>
       </c>
@@ -13523,7 +13526,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="77">
         <v>7</v>
       </c>
@@ -13538,7 +13541,7 @@
       </c>
       <c r="E12" s="77"/>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="77">
         <v>8</v>
       </c>
@@ -13553,7 +13556,7 @@
       </c>
       <c r="E13" s="77"/>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="77">
         <v>9</v>
       </c>
@@ -13568,7 +13571,7 @@
       </c>
       <c r="E14" s="77"/>
     </row>
-    <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="33" customHeight="1">
       <c r="A15" s="77">
         <v>10</v>
       </c>
@@ -13593,44 +13596,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView topLeftCell="A155" workbookViewId="0">
       <selection activeCell="D165" sqref="D165:D171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59.625" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="130" t="s">
         <v>653</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
       <c r="F1" s="90"/>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="125" t="s">
         <v>654</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="74"/>
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
@@ -13638,7 +13641,7 @@
       <c r="E3" s="75"/>
       <c r="F3" s="75"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
@@ -13646,7 +13649,7 @@
       <c r="E4" s="76"/>
       <c r="F4" s="76"/>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="91" t="s">
         <v>2</v>
       </c>
@@ -13664,7 +13667,7 @@
       </c>
       <c r="F5" s="92"/>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="80" t="s">
         <v>1178</v>
       </c>
@@ -13682,7 +13685,7 @@
       </c>
       <c r="F6" s="83"/>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="80" t="s">
         <v>1179</v>
       </c>
@@ -13700,7 +13703,7 @@
       </c>
       <c r="F7" s="83"/>
     </row>
-    <row r="8" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="34.5" customHeight="1">
       <c r="A8" s="80" t="s">
         <v>1180</v>
       </c>
@@ -13718,7 +13721,7 @@
       </c>
       <c r="F8" s="83"/>
     </row>
-    <row r="9" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="34.5" customHeight="1">
       <c r="A9" s="80" t="s">
         <v>1181</v>
       </c>
@@ -13736,7 +13739,7 @@
       </c>
       <c r="F9" s="83"/>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="80" t="s">
         <v>1182</v>
       </c>
@@ -13754,7 +13757,7 @@
       </c>
       <c r="F10" s="83"/>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="80" t="s">
         <v>1183</v>
       </c>
@@ -13772,7 +13775,7 @@
       </c>
       <c r="F11" s="83"/>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="80" t="s">
         <v>1184</v>
       </c>
@@ -13790,7 +13793,7 @@
       </c>
       <c r="F12" s="83"/>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="80" t="s">
         <v>1185</v>
       </c>
@@ -13808,7 +13811,7 @@
       </c>
       <c r="F13" s="83"/>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="80" t="s">
         <v>1186</v>
       </c>
@@ -13826,7 +13829,7 @@
       </c>
       <c r="F14" s="83"/>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
       <c r="A15" s="80" t="s">
         <v>1187</v>
       </c>
@@ -13840,7 +13843,7 @@
       </c>
       <c r="F15" s="87"/>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="80" t="s">
         <v>1188</v>
       </c>
@@ -13854,7 +13857,7 @@
       </c>
       <c r="F16" s="87"/>
     </row>
-    <row r="17" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="80" t="s">
         <v>1189</v>
       </c>
@@ -13868,11 +13871,11 @@
         <v>43</v>
       </c>
       <c r="E17" s="77"/>
-      <c r="F17" s="126" t="s">
+      <c r="F17" s="127" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="80" t="s">
         <v>1190</v>
       </c>
@@ -13886,9 +13889,9 @@
         <v>48</v>
       </c>
       <c r="E18" s="77"/>
-      <c r="F18" s="127"/>
-    </row>
-    <row r="19" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="128"/>
+    </row>
+    <row r="19" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="80" t="s">
         <v>1191</v>
       </c>
@@ -13902,9 +13905,9 @@
         <v>56</v>
       </c>
       <c r="E19" s="77"/>
-      <c r="F19" s="127"/>
-    </row>
-    <row r="20" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="128"/>
+    </row>
+    <row r="20" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="80" t="s">
         <v>1192</v>
       </c>
@@ -13918,9 +13921,9 @@
         <v>59</v>
       </c>
       <c r="E20" s="77"/>
-      <c r="F20" s="127"/>
-    </row>
-    <row r="21" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="128"/>
+    </row>
+    <row r="21" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="80" t="s">
         <v>1333</v>
       </c>
@@ -13934,9 +13937,9 @@
         <v>65</v>
       </c>
       <c r="E21" s="77"/>
-      <c r="F21" s="127"/>
-    </row>
-    <row r="22" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="128"/>
+    </row>
+    <row r="22" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="80" t="s">
         <v>1193</v>
       </c>
@@ -13950,9 +13953,9 @@
         <v>67</v>
       </c>
       <c r="E22" s="77"/>
-      <c r="F22" s="127"/>
-    </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="128"/>
+    </row>
+    <row r="23" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="80" t="s">
         <v>1194</v>
       </c>
@@ -13966,9 +13969,9 @@
         <v>69</v>
       </c>
       <c r="E23" s="32"/>
-      <c r="F23" s="127"/>
-    </row>
-    <row r="24" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="128"/>
+    </row>
+    <row r="24" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="80" t="s">
         <v>1195</v>
       </c>
@@ -13982,9 +13985,9 @@
         <v>74</v>
       </c>
       <c r="E24" s="77"/>
-      <c r="F24" s="127"/>
-    </row>
-    <row r="25" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="128"/>
+    </row>
+    <row r="25" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="80" t="s">
         <v>1196</v>
       </c>
@@ -13998,9 +14001,9 @@
         <v>77</v>
       </c>
       <c r="E25" s="77"/>
-      <c r="F25" s="127"/>
-    </row>
-    <row r="26" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="128"/>
+    </row>
+    <row r="26" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="80" t="s">
         <v>1197</v>
       </c>
@@ -14014,9 +14017,9 @@
         <v>80</v>
       </c>
       <c r="E26" s="32"/>
-      <c r="F26" s="127"/>
-    </row>
-    <row r="27" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="128"/>
+    </row>
+    <row r="27" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="80" t="s">
         <v>1198</v>
       </c>
@@ -14030,9 +14033,9 @@
         <v>83</v>
       </c>
       <c r="E27" s="77"/>
-      <c r="F27" s="127"/>
-    </row>
-    <row r="28" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="128"/>
+    </row>
+    <row r="28" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="80" t="s">
         <v>1199</v>
       </c>
@@ -14046,9 +14049,9 @@
         <v>86</v>
       </c>
       <c r="E28" s="77"/>
-      <c r="F28" s="127"/>
-    </row>
-    <row r="29" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="128"/>
+    </row>
+    <row r="29" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="80" t="s">
         <v>1200</v>
       </c>
@@ -14062,9 +14065,9 @@
         <v>89</v>
       </c>
       <c r="E29" s="77"/>
-      <c r="F29" s="127"/>
-    </row>
-    <row r="30" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="128"/>
+    </row>
+    <row r="30" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="80" t="s">
         <v>1201</v>
       </c>
@@ -14078,9 +14081,9 @@
         <v>95</v>
       </c>
       <c r="E30" s="77"/>
-      <c r="F30" s="127"/>
-    </row>
-    <row r="31" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="128"/>
+    </row>
+    <row r="31" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="80" t="s">
         <v>1202</v>
       </c>
@@ -14094,9 +14097,9 @@
         <v>98</v>
       </c>
       <c r="E31" s="77"/>
-      <c r="F31" s="128"/>
-    </row>
-    <row r="32" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="129"/>
+    </row>
+    <row r="32" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="80" t="s">
         <v>1203</v>
       </c>
@@ -14112,7 +14115,7 @@
       <c r="E32" s="77"/>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" s="93" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="93" customFormat="1" ht="32.1" customHeight="1">
       <c r="A33" s="80" t="s">
         <v>1204</v>
       </c>
@@ -14128,7 +14131,7 @@
       <c r="E33" s="77"/>
       <c r="F33" s="88"/>
     </row>
-    <row r="34" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="80" t="s">
         <v>1205</v>
       </c>
@@ -14144,7 +14147,7 @@
       <c r="E34" s="77"/>
       <c r="F34" s="88"/>
     </row>
-    <row r="35" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="80" t="s">
         <v>1206</v>
       </c>
@@ -14158,11 +14161,11 @@
         <v>105</v>
       </c>
       <c r="E35" s="77"/>
-      <c r="F35" s="125" t="s">
+      <c r="F35" s="126" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="80" t="s">
         <v>1207</v>
       </c>
@@ -14176,9 +14179,9 @@
         <v>107</v>
       </c>
       <c r="E36" s="77"/>
-      <c r="F36" s="125"/>
-    </row>
-    <row r="37" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="126"/>
+    </row>
+    <row r="37" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="80" t="s">
         <v>1208</v>
       </c>
@@ -14192,9 +14195,9 @@
         <v>110</v>
       </c>
       <c r="E37" s="77"/>
-      <c r="F37" s="125"/>
-    </row>
-    <row r="38" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="126"/>
+    </row>
+    <row r="38" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="80" t="s">
         <v>1209</v>
       </c>
@@ -14208,9 +14211,9 @@
         <v>112</v>
       </c>
       <c r="E38" s="77"/>
-      <c r="F38" s="125"/>
-    </row>
-    <row r="39" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="126"/>
+    </row>
+    <row r="39" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="80" t="s">
         <v>1210</v>
       </c>
@@ -14224,9 +14227,9 @@
         <v>115</v>
       </c>
       <c r="E39" s="77"/>
-      <c r="F39" s="125"/>
-    </row>
-    <row r="40" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="126"/>
+    </row>
+    <row r="40" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="80" t="s">
         <v>1211</v>
       </c>
@@ -14240,9 +14243,9 @@
         <v>117</v>
       </c>
       <c r="E40" s="77"/>
-      <c r="F40" s="125"/>
-    </row>
-    <row r="41" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="126"/>
+    </row>
+    <row r="41" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="80" t="s">
         <v>1212</v>
       </c>
@@ -14256,9 +14259,9 @@
         <v>119</v>
       </c>
       <c r="E41" s="77"/>
-      <c r="F41" s="125"/>
-    </row>
-    <row r="42" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="126"/>
+    </row>
+    <row r="42" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="80" t="s">
         <v>1213</v>
       </c>
@@ -14272,9 +14275,9 @@
         <v>121</v>
       </c>
       <c r="E42" s="77"/>
-      <c r="F42" s="125"/>
-    </row>
-    <row r="43" spans="1:6" s="96" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="126"/>
+    </row>
+    <row r="43" spans="1:6" s="96" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="80" t="s">
         <v>1214</v>
       </c>
@@ -14288,7 +14291,7 @@
       </c>
       <c r="F43" s="95"/>
     </row>
-    <row r="44" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="80" t="s">
         <v>1334</v>
       </c>
@@ -14302,11 +14305,11 @@
         <v>122</v>
       </c>
       <c r="E44" s="79"/>
-      <c r="F44" s="125" t="s">
+      <c r="F44" s="126" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="80" t="s">
         <v>1335</v>
       </c>
@@ -14320,9 +14323,9 @@
         <v>124</v>
       </c>
       <c r="E45" s="79"/>
-      <c r="F45" s="125"/>
-    </row>
-    <row r="46" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="126"/>
+    </row>
+    <row r="46" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="80" t="s">
         <v>1215</v>
       </c>
@@ -14336,9 +14339,9 @@
         <v>127</v>
       </c>
       <c r="E46" s="32"/>
-      <c r="F46" s="125"/>
-    </row>
-    <row r="47" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="126"/>
+    </row>
+    <row r="47" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="80" t="s">
         <v>1216</v>
       </c>
@@ -14352,9 +14355,9 @@
         <v>130</v>
       </c>
       <c r="E47" s="79"/>
-      <c r="F47" s="125"/>
-    </row>
-    <row r="48" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="126"/>
+    </row>
+    <row r="48" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="80" t="s">
         <v>1217</v>
       </c>
@@ -14368,9 +14371,9 @@
         <v>133</v>
       </c>
       <c r="E48" s="79"/>
-      <c r="F48" s="125"/>
-    </row>
-    <row r="49" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="126"/>
+    </row>
+    <row r="49" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="80" t="s">
         <v>1218</v>
       </c>
@@ -14384,9 +14387,9 @@
         <v>136</v>
       </c>
       <c r="E49" s="77"/>
-      <c r="F49" s="125"/>
-    </row>
-    <row r="50" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="126"/>
+    </row>
+    <row r="50" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="80" t="s">
         <v>1219</v>
       </c>
@@ -14400,9 +14403,9 @@
         <v>139</v>
       </c>
       <c r="E50" s="77"/>
-      <c r="F50" s="125"/>
-    </row>
-    <row r="51" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="126"/>
+    </row>
+    <row r="51" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="80" t="s">
         <v>1220</v>
       </c>
@@ -14416,9 +14419,9 @@
         <v>142</v>
       </c>
       <c r="E51" s="77"/>
-      <c r="F51" s="125"/>
-    </row>
-    <row r="52" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="126"/>
+    </row>
+    <row r="52" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="80" t="s">
         <v>1221</v>
       </c>
@@ -14432,9 +14435,9 @@
         <v>144</v>
       </c>
       <c r="E52" s="77"/>
-      <c r="F52" s="125"/>
-    </row>
-    <row r="53" spans="1:6" s="93" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="126"/>
+    </row>
+    <row r="53" spans="1:6" s="93" customFormat="1" ht="35.1" customHeight="1">
       <c r="A53" s="80" t="s">
         <v>1336</v>
       </c>
@@ -14448,9 +14451,9 @@
         <v>145</v>
       </c>
       <c r="E53" s="77"/>
-      <c r="F53" s="125"/>
-    </row>
-    <row r="54" spans="1:6" s="93" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="126"/>
+    </row>
+    <row r="54" spans="1:6" s="93" customFormat="1" ht="35.1" customHeight="1">
       <c r="A54" s="80" t="s">
         <v>1337</v>
       </c>
@@ -14464,9 +14467,9 @@
         <v>146</v>
       </c>
       <c r="E54" s="105"/>
-      <c r="F54" s="125"/>
-    </row>
-    <row r="55" spans="1:6" s="93" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="126"/>
+    </row>
+    <row r="55" spans="1:6" s="93" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A55" s="80" t="s">
         <v>1338</v>
       </c>
@@ -14480,9 +14483,9 @@
         <v>147</v>
       </c>
       <c r="E55" s="77"/>
-      <c r="F55" s="125"/>
-    </row>
-    <row r="56" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="126"/>
+    </row>
+    <row r="56" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="80" t="s">
         <v>1222</v>
       </c>
@@ -14496,9 +14499,9 @@
         <v>148</v>
       </c>
       <c r="E56" s="77"/>
-      <c r="F56" s="125"/>
-    </row>
-    <row r="57" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="126"/>
+    </row>
+    <row r="57" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="80" t="s">
         <v>1223</v>
       </c>
@@ -14512,9 +14515,9 @@
         <v>149</v>
       </c>
       <c r="E57" s="105"/>
-      <c r="F57" s="125"/>
-    </row>
-    <row r="58" spans="1:6" s="93" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="126"/>
+    </row>
+    <row r="58" spans="1:6" s="93" customFormat="1" ht="30.6" customHeight="1">
       <c r="A58" s="80" t="s">
         <v>1224</v>
       </c>
@@ -14528,9 +14531,9 @@
         <v>151</v>
       </c>
       <c r="E58" s="77"/>
-      <c r="F58" s="125"/>
-    </row>
-    <row r="59" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="126"/>
+    </row>
+    <row r="59" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="80" t="s">
         <v>1225</v>
       </c>
@@ -14544,9 +14547,9 @@
         <v>154</v>
       </c>
       <c r="E59" s="32"/>
-      <c r="F59" s="125"/>
-    </row>
-    <row r="60" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="126"/>
+    </row>
+    <row r="60" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A60" s="80" t="s">
         <v>1226</v>
       </c>
@@ -14560,9 +14563,9 @@
         <v>157</v>
       </c>
       <c r="E60" s="32"/>
-      <c r="F60" s="125"/>
-    </row>
-    <row r="61" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="126"/>
+    </row>
+    <row r="61" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A61" s="80" t="s">
         <v>1227</v>
       </c>
@@ -14576,9 +14579,9 @@
         <v>161</v>
       </c>
       <c r="E61" s="32"/>
-      <c r="F61" s="125"/>
-    </row>
-    <row r="62" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="126"/>
+    </row>
+    <row r="62" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A62" s="80" t="s">
         <v>1228</v>
       </c>
@@ -14592,9 +14595,9 @@
         <v>174</v>
       </c>
       <c r="E62" s="32"/>
-      <c r="F62" s="125"/>
-    </row>
-    <row r="63" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="126"/>
+    </row>
+    <row r="63" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="80" t="s">
         <v>1339</v>
       </c>
@@ -14608,9 +14611,9 @@
         <v>177</v>
       </c>
       <c r="E63" s="32"/>
-      <c r="F63" s="125"/>
-    </row>
-    <row r="64" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="126"/>
+    </row>
+    <row r="64" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="80" t="s">
         <v>1340</v>
       </c>
@@ -14624,9 +14627,9 @@
         <v>180</v>
       </c>
       <c r="E64" s="32"/>
-      <c r="F64" s="125"/>
-    </row>
-    <row r="65" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="126"/>
+    </row>
+    <row r="65" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="80" t="s">
         <v>1341</v>
       </c>
@@ -14640,9 +14643,9 @@
         <v>183</v>
       </c>
       <c r="E65" s="32"/>
-      <c r="F65" s="125"/>
-    </row>
-    <row r="66" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="126"/>
+    </row>
+    <row r="66" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="80" t="s">
         <v>1342</v>
       </c>
@@ -14656,9 +14659,9 @@
         <v>189</v>
       </c>
       <c r="E66" s="32"/>
-      <c r="F66" s="125"/>
-    </row>
-    <row r="67" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="126"/>
+    </row>
+    <row r="67" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="80" t="s">
         <v>1343</v>
       </c>
@@ -14674,7 +14677,7 @@
       <c r="E67" s="32"/>
       <c r="F67" s="89"/>
     </row>
-    <row r="68" spans="1:6" s="96" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" s="96" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="80" t="s">
         <v>1229</v>
       </c>
@@ -14686,7 +14689,7 @@
       </c>
       <c r="F68" s="95"/>
     </row>
-    <row r="69" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="80" t="s">
         <v>1230</v>
       </c>
@@ -14700,11 +14703,11 @@
         <v>192</v>
       </c>
       <c r="E69" s="32"/>
-      <c r="F69" s="125" t="s">
+      <c r="F69" s="126" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="80" t="s">
         <v>1231</v>
       </c>
@@ -14718,9 +14721,9 @@
         <v>194</v>
       </c>
       <c r="E70" s="32"/>
-      <c r="F70" s="125"/>
-    </row>
-    <row r="71" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="126"/>
+    </row>
+    <row r="71" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="80" t="s">
         <v>1232</v>
       </c>
@@ -14734,9 +14737,9 @@
         <v>196</v>
       </c>
       <c r="E71" s="32"/>
-      <c r="F71" s="125"/>
-    </row>
-    <row r="72" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="126"/>
+    </row>
+    <row r="72" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="80" t="s">
         <v>1233</v>
       </c>
@@ -14750,9 +14753,9 @@
         <v>198</v>
       </c>
       <c r="E72" s="32"/>
-      <c r="F72" s="125"/>
-    </row>
-    <row r="73" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="126"/>
+    </row>
+    <row r="73" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="80" t="s">
         <v>1234</v>
       </c>
@@ -14766,9 +14769,9 @@
         <v>200</v>
       </c>
       <c r="E73" s="32"/>
-      <c r="F73" s="125"/>
-    </row>
-    <row r="74" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="126"/>
+    </row>
+    <row r="74" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="80" t="s">
         <v>1235</v>
       </c>
@@ -14782,9 +14785,9 @@
         <v>201</v>
       </c>
       <c r="E74" s="32"/>
-      <c r="F74" s="125"/>
-    </row>
-    <row r="75" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="126"/>
+    </row>
+    <row r="75" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="80" t="s">
         <v>1236</v>
       </c>
@@ -14798,9 +14801,9 @@
         <v>203</v>
       </c>
       <c r="E75" s="32"/>
-      <c r="F75" s="125"/>
-    </row>
-    <row r="76" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="126"/>
+    </row>
+    <row r="76" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="80" t="s">
         <v>1237</v>
       </c>
@@ -14814,9 +14817,9 @@
         <v>667</v>
       </c>
       <c r="E76" s="32"/>
-      <c r="F76" s="125"/>
-    </row>
-    <row r="77" spans="1:6" s="96" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="126"/>
+    </row>
+    <row r="77" spans="1:6" s="96" customFormat="1" ht="31.5" customHeight="1">
       <c r="A77" s="80" t="s">
         <v>1238</v>
       </c>
@@ -14830,7 +14833,7 @@
       </c>
       <c r="F77" s="95"/>
     </row>
-    <row r="78" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="80" t="s">
         <v>1239</v>
       </c>
@@ -14844,11 +14847,11 @@
         <v>668</v>
       </c>
       <c r="E78" s="77"/>
-      <c r="F78" s="125" t="s">
+      <c r="F78" s="126" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="80" t="s">
         <v>1240</v>
       </c>
@@ -14862,9 +14865,9 @@
         <v>669</v>
       </c>
       <c r="E79" s="105"/>
-      <c r="F79" s="125"/>
-    </row>
-    <row r="80" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="126"/>
+    </row>
+    <row r="80" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="80" t="s">
         <v>1241</v>
       </c>
@@ -14878,9 +14881,9 @@
         <v>670</v>
       </c>
       <c r="E80" s="105"/>
-      <c r="F80" s="125"/>
-    </row>
-    <row r="81" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="126"/>
+    </row>
+    <row r="81" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="80" t="s">
         <v>1242</v>
       </c>
@@ -14894,9 +14897,9 @@
         <v>671</v>
       </c>
       <c r="E81" s="105"/>
-      <c r="F81" s="125"/>
-    </row>
-    <row r="82" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="126"/>
+    </row>
+    <row r="82" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="80" t="s">
         <v>1243</v>
       </c>
@@ -14910,9 +14913,9 @@
         <v>672</v>
       </c>
       <c r="E82" s="105"/>
-      <c r="F82" s="125"/>
-    </row>
-    <row r="83" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="126"/>
+    </row>
+    <row r="83" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="80" t="s">
         <v>1244</v>
       </c>
@@ -14926,9 +14929,9 @@
         <v>673</v>
       </c>
       <c r="E83" s="105"/>
-      <c r="F83" s="125"/>
-    </row>
-    <row r="84" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="126"/>
+    </row>
+    <row r="84" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="80" t="s">
         <v>1245</v>
       </c>
@@ -14942,9 +14945,9 @@
         <v>674</v>
       </c>
       <c r="E84" s="32"/>
-      <c r="F84" s="125"/>
-    </row>
-    <row r="85" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="126"/>
+    </row>
+    <row r="85" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="80" t="s">
         <v>1246</v>
       </c>
@@ -14958,9 +14961,9 @@
         <v>675</v>
       </c>
       <c r="E85" s="32"/>
-      <c r="F85" s="125"/>
-    </row>
-    <row r="86" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="126"/>
+    </row>
+    <row r="86" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="80" t="s">
         <v>1247</v>
       </c>
@@ -14974,9 +14977,9 @@
         <v>676</v>
       </c>
       <c r="E86" s="32"/>
-      <c r="F86" s="125"/>
-    </row>
-    <row r="87" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="126"/>
+    </row>
+    <row r="87" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="80" t="s">
         <v>1248</v>
       </c>
@@ -14990,9 +14993,9 @@
         <v>677</v>
       </c>
       <c r="E87" s="32"/>
-      <c r="F87" s="125"/>
-    </row>
-    <row r="88" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="126"/>
+    </row>
+    <row r="88" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="80" t="s">
         <v>1249</v>
       </c>
@@ -15006,9 +15009,9 @@
         <v>678</v>
       </c>
       <c r="E88" s="32"/>
-      <c r="F88" s="125"/>
-    </row>
-    <row r="89" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="126"/>
+    </row>
+    <row r="89" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="80" t="s">
         <v>1250</v>
       </c>
@@ -15022,9 +15025,9 @@
         <v>679</v>
       </c>
       <c r="E89" s="32"/>
-      <c r="F89" s="125"/>
-    </row>
-    <row r="90" spans="1:6" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="126"/>
+    </row>
+    <row r="90" spans="1:6" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A90" s="80" t="s">
         <v>1251</v>
       </c>
@@ -15038,9 +15041,9 @@
         <v>680</v>
       </c>
       <c r="E90" s="32"/>
-      <c r="F90" s="125"/>
-    </row>
-    <row r="91" spans="1:6" s="13" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="126"/>
+    </row>
+    <row r="91" spans="1:6" s="13" customFormat="1" ht="30.6" customHeight="1">
       <c r="A91" s="80" t="s">
         <v>1252</v>
       </c>
@@ -15054,9 +15057,9 @@
         <v>681</v>
       </c>
       <c r="E91" s="32"/>
-      <c r="F91" s="125"/>
-    </row>
-    <row r="92" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="126"/>
+    </row>
+    <row r="92" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="80" t="s">
         <v>1253</v>
       </c>
@@ -15070,9 +15073,9 @@
         <v>683</v>
       </c>
       <c r="E92" s="32"/>
-      <c r="F92" s="125"/>
-    </row>
-    <row r="93" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F92" s="126"/>
+    </row>
+    <row r="93" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="80" t="s">
         <v>1254</v>
       </c>
@@ -15086,9 +15089,9 @@
         <v>685</v>
       </c>
       <c r="E93" s="32"/>
-      <c r="F93" s="125"/>
-    </row>
-    <row r="94" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="126"/>
+    </row>
+    <row r="94" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="80" t="s">
         <v>1255</v>
       </c>
@@ -15102,9 +15105,9 @@
         <v>686</v>
       </c>
       <c r="E94" s="32"/>
-      <c r="F94" s="125"/>
-    </row>
-    <row r="95" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="126"/>
+    </row>
+    <row r="95" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="80" t="s">
         <v>1256</v>
       </c>
@@ -15118,9 +15121,9 @@
         <v>688</v>
       </c>
       <c r="E95" s="32"/>
-      <c r="F95" s="125"/>
-    </row>
-    <row r="96" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="126"/>
+    </row>
+    <row r="96" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="80" t="s">
         <v>1257</v>
       </c>
@@ -15134,9 +15137,9 @@
         <v>690</v>
       </c>
       <c r="E96" s="32"/>
-      <c r="F96" s="125"/>
-    </row>
-    <row r="97" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="126"/>
+    </row>
+    <row r="97" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="80" t="s">
         <v>1258</v>
       </c>
@@ -15150,9 +15153,9 @@
         <v>691</v>
       </c>
       <c r="E97" s="32"/>
-      <c r="F97" s="125"/>
-    </row>
-    <row r="98" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="126"/>
+    </row>
+    <row r="98" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="80" t="s">
         <v>1259</v>
       </c>
@@ -15166,9 +15169,9 @@
         <v>693</v>
       </c>
       <c r="E98" s="32"/>
-      <c r="F98" s="125"/>
-    </row>
-    <row r="99" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="126"/>
+    </row>
+    <row r="99" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="80" t="s">
         <v>1260</v>
       </c>
@@ -15182,9 +15185,9 @@
         <v>695</v>
       </c>
       <c r="E99" s="77"/>
-      <c r="F99" s="125"/>
-    </row>
-    <row r="100" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="126"/>
+    </row>
+    <row r="100" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="80" t="s">
         <v>1261</v>
       </c>
@@ -15198,9 +15201,9 @@
         <v>696</v>
       </c>
       <c r="E100" s="77"/>
-      <c r="F100" s="125"/>
-    </row>
-    <row r="101" spans="1:6" s="96" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F100" s="126"/>
+    </row>
+    <row r="101" spans="1:6" s="96" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="80" t="s">
         <v>1262</v>
       </c>
@@ -15214,7 +15217,7 @@
       </c>
       <c r="F101" s="95"/>
     </row>
-    <row r="102" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="80" t="s">
         <v>1263</v>
       </c>
@@ -15228,11 +15231,11 @@
         <v>697</v>
       </c>
       <c r="E102" s="32"/>
-      <c r="F102" s="125" t="s">
+      <c r="F102" s="126" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A103" s="80" t="s">
         <v>1264</v>
       </c>
@@ -15246,9 +15249,9 @@
         <v>698</v>
       </c>
       <c r="E103" s="32"/>
-      <c r="F103" s="125"/>
-    </row>
-    <row r="104" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F103" s="126"/>
+    </row>
+    <row r="104" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="80" t="s">
         <v>1265</v>
       </c>
@@ -15264,7 +15267,7 @@
       <c r="E104" s="32"/>
       <c r="F104" s="89"/>
     </row>
-    <row r="105" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="80" t="s">
         <v>708</v>
       </c>
@@ -15280,7 +15283,7 @@
       <c r="E105" s="32"/>
       <c r="F105" s="89"/>
     </row>
-    <row r="106" spans="1:6" s="13" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="80" t="s">
         <v>709</v>
       </c>
@@ -15298,7 +15301,7 @@
       </c>
       <c r="F106" s="89"/>
     </row>
-    <row r="107" spans="1:6" s="93" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" s="93" customFormat="1" ht="45.6" customHeight="1">
       <c r="A107" s="80" t="s">
         <v>710</v>
       </c>
@@ -15311,12 +15314,12 @@
       <c r="D107" s="98" t="s">
         <v>703</v>
       </c>
-      <c r="E107" s="125" t="s">
+      <c r="E107" s="126" t="s">
         <v>694</v>
       </c>
       <c r="F107" s="82"/>
     </row>
-    <row r="108" spans="1:6" s="93" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" s="93" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="A108" s="80" t="s">
         <v>711</v>
       </c>
@@ -15329,10 +15332,10 @@
       <c r="D108" s="98" t="s">
         <v>705</v>
       </c>
-      <c r="E108" s="130"/>
+      <c r="E108" s="131"/>
       <c r="F108" s="82"/>
     </row>
-    <row r="109" spans="1:6" s="93" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" s="93" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="A109" s="80" t="s">
         <v>712</v>
       </c>
@@ -15345,10 +15348,10 @@
       <c r="D109" s="98" t="s">
         <v>707</v>
       </c>
-      <c r="E109" s="130"/>
+      <c r="E109" s="131"/>
       <c r="F109" s="82"/>
     </row>
-    <row r="110" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="80" t="s">
         <v>713</v>
       </c>
@@ -15361,10 +15364,10 @@
       <c r="D110" s="98" t="s">
         <v>708</v>
       </c>
-      <c r="E110" s="130"/>
+      <c r="E110" s="131"/>
       <c r="F110" s="82"/>
     </row>
-    <row r="111" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="80" t="s">
         <v>714</v>
       </c>
@@ -15377,10 +15380,10 @@
       <c r="D111" s="98" t="s">
         <v>709</v>
       </c>
-      <c r="E111" s="130"/>
+      <c r="E111" s="131"/>
       <c r="F111" s="82"/>
     </row>
-    <row r="112" spans="1:6" s="93" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" s="93" customFormat="1" ht="63.95" customHeight="1">
       <c r="A112" s="80" t="s">
         <v>715</v>
       </c>
@@ -15393,10 +15396,10 @@
       <c r="D112" s="98" t="s">
         <v>710</v>
       </c>
-      <c r="E112" s="130"/>
+      <c r="E112" s="131"/>
       <c r="F112" s="82"/>
     </row>
-    <row r="113" spans="1:6" s="93" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" s="93" customFormat="1" ht="45.95" customHeight="1">
       <c r="A113" s="80" t="s">
         <v>717</v>
       </c>
@@ -15409,12 +15412,12 @@
       <c r="D113" s="98" t="s">
         <v>711</v>
       </c>
-      <c r="E113" s="131"/>
-      <c r="F113" s="125" t="s">
+      <c r="E113" s="132"/>
+      <c r="F113" s="126" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="80" t="s">
         <v>718</v>
       </c>
@@ -15427,10 +15430,10 @@
       <c r="D114" s="98" t="s">
         <v>712</v>
       </c>
-      <c r="E114" s="131"/>
-      <c r="F114" s="125"/>
-    </row>
-    <row r="115" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E114" s="132"/>
+      <c r="F114" s="126"/>
+    </row>
+    <row r="115" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A115" s="80" t="s">
         <v>719</v>
       </c>
@@ -15443,10 +15446,10 @@
       <c r="D115" s="98" t="s">
         <v>713</v>
       </c>
-      <c r="E115" s="131"/>
-      <c r="F115" s="125"/>
-    </row>
-    <row r="116" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E115" s="132"/>
+      <c r="F115" s="126"/>
+    </row>
+    <row r="116" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A116" s="80" t="s">
         <v>720</v>
       </c>
@@ -15462,7 +15465,7 @@
       <c r="E116" s="105"/>
       <c r="F116" s="104"/>
     </row>
-    <row r="117" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A117" s="80" t="s">
         <v>721</v>
       </c>
@@ -15478,7 +15481,7 @@
       <c r="E117" s="105"/>
       <c r="F117" s="104"/>
     </row>
-    <row r="118" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A118" s="80" t="s">
         <v>722</v>
       </c>
@@ -15494,7 +15497,7 @@
       <c r="E118" s="105"/>
       <c r="F118" s="104"/>
     </row>
-    <row r="119" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A119" s="80" t="s">
         <v>723</v>
       </c>
@@ -15510,7 +15513,7 @@
       <c r="E119" s="105"/>
       <c r="F119" s="104"/>
     </row>
-    <row r="120" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A120" s="80" t="s">
         <v>724</v>
       </c>
@@ -15526,7 +15529,7 @@
       <c r="E120" s="105"/>
       <c r="F120" s="104"/>
     </row>
-    <row r="121" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A121" s="80" t="s">
         <v>726</v>
       </c>
@@ -15542,7 +15545,7 @@
       <c r="E121" s="105"/>
       <c r="F121" s="104"/>
     </row>
-    <row r="122" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A122" s="80" t="s">
         <v>727</v>
       </c>
@@ -15558,7 +15561,7 @@
       <c r="E122" s="105"/>
       <c r="F122" s="104"/>
     </row>
-    <row r="123" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A123" s="80" t="s">
         <v>728</v>
       </c>
@@ -15574,7 +15577,7 @@
       <c r="E123" s="105"/>
       <c r="F123" s="104"/>
     </row>
-    <row r="124" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A124" s="80" t="s">
         <v>730</v>
       </c>
@@ -15590,7 +15593,7 @@
       <c r="E124" s="105"/>
       <c r="F124" s="104"/>
     </row>
-    <row r="125" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A125" s="80" t="s">
         <v>732</v>
       </c>
@@ -15606,7 +15609,7 @@
       <c r="E125" s="105"/>
       <c r="F125" s="104"/>
     </row>
-    <row r="126" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A126" s="80" t="s">
         <v>848</v>
       </c>
@@ -15622,7 +15625,7 @@
       <c r="E126" s="105"/>
       <c r="F126" s="104"/>
     </row>
-    <row r="127" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A127" s="80" t="s">
         <v>850</v>
       </c>
@@ -15638,7 +15641,7 @@
       <c r="E127" s="105"/>
       <c r="F127" s="104"/>
     </row>
-    <row r="128" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A128" s="80" t="s">
         <v>1266</v>
       </c>
@@ -15654,7 +15657,7 @@
       <c r="E128" s="105"/>
       <c r="F128" s="104"/>
     </row>
-    <row r="129" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A129" s="80" t="s">
         <v>1349</v>
       </c>
@@ -15670,7 +15673,7 @@
       <c r="E129" s="105"/>
       <c r="F129" s="104"/>
     </row>
-    <row r="130" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A130" s="80" t="s">
         <v>1350</v>
       </c>
@@ -15686,7 +15689,7 @@
       <c r="E130" s="105"/>
       <c r="F130" s="104"/>
     </row>
-    <row r="131" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A131" s="80" t="s">
         <v>1351</v>
       </c>
@@ -15702,7 +15705,7 @@
       <c r="E131" s="105"/>
       <c r="F131" s="104"/>
     </row>
-    <row r="132" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A132" s="80" t="s">
         <v>1352</v>
       </c>
@@ -15718,7 +15721,7 @@
       <c r="E132" s="105"/>
       <c r="F132" s="104"/>
     </row>
-    <row r="133" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A133" s="80" t="s">
         <v>1353</v>
       </c>
@@ -15734,7 +15737,7 @@
       <c r="E133" s="105"/>
       <c r="F133" s="104"/>
     </row>
-    <row r="134" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A134" s="80" t="s">
         <v>1354</v>
       </c>
@@ -15750,7 +15753,7 @@
       <c r="E134" s="105"/>
       <c r="F134" s="104"/>
     </row>
-    <row r="135" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A135" s="80" t="s">
         <v>1355</v>
       </c>
@@ -15766,7 +15769,7 @@
       <c r="E135" s="105"/>
       <c r="F135" s="104"/>
     </row>
-    <row r="136" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A136" s="80" t="s">
         <v>1356</v>
       </c>
@@ -15782,7 +15785,7 @@
       <c r="E136" s="105"/>
       <c r="F136" s="104"/>
     </row>
-    <row r="137" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A137" s="80" t="s">
         <v>1357</v>
       </c>
@@ -15798,7 +15801,7 @@
       <c r="E137" s="105"/>
       <c r="F137" s="104"/>
     </row>
-    <row r="138" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A138" s="80" t="s">
         <v>1358</v>
       </c>
@@ -15814,7 +15817,7 @@
       <c r="E138" s="105"/>
       <c r="F138" s="104"/>
     </row>
-    <row r="139" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A139" s="80" t="s">
         <v>1359</v>
       </c>
@@ -15830,7 +15833,7 @@
       <c r="E139" s="105"/>
       <c r="F139" s="104"/>
     </row>
-    <row r="140" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A140" s="80" t="s">
         <v>1360</v>
       </c>
@@ -15846,7 +15849,7 @@
       <c r="E140" s="105"/>
       <c r="F140" s="104"/>
     </row>
-    <row r="141" spans="1:6" s="93" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" s="93" customFormat="1" ht="48.6" customHeight="1">
       <c r="A141" s="80" t="s">
         <v>1361</v>
       </c>
@@ -15862,7 +15865,7 @@
       <c r="E141" s="105"/>
       <c r="F141" s="104"/>
     </row>
-    <row r="142" spans="1:6" s="96" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" s="96" customFormat="1" ht="36.950000000000003" customHeight="1">
       <c r="A142" s="80" t="s">
         <v>1362</v>
       </c>
@@ -15876,7 +15879,7 @@
       </c>
       <c r="F142" s="95"/>
     </row>
-    <row r="143" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A143" s="80" t="s">
         <v>1363</v>
       </c>
@@ -15892,11 +15895,11 @@
       <c r="E143" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F143" s="125" t="s">
+      <c r="F143" s="126" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="80" t="s">
         <v>1364</v>
       </c>
@@ -15912,9 +15915,9 @@
       <c r="E144" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F144" s="125"/>
-    </row>
-    <row r="145" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F144" s="126"/>
+    </row>
+    <row r="145" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="80" t="s">
         <v>1365</v>
       </c>
@@ -15930,9 +15933,9 @@
       <c r="E145" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F145" s="125"/>
-    </row>
-    <row r="146" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F145" s="126"/>
+    </row>
+    <row r="146" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="80" t="s">
         <v>1366</v>
       </c>
@@ -15948,9 +15951,9 @@
       <c r="E146" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F146" s="125"/>
-    </row>
-    <row r="147" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F146" s="126"/>
+    </row>
+    <row r="147" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A147" s="80" t="s">
         <v>1367</v>
       </c>
@@ -15966,9 +15969,9 @@
       <c r="E147" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F147" s="125"/>
-    </row>
-    <row r="148" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F147" s="126"/>
+    </row>
+    <row r="148" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A148" s="80" t="s">
         <v>1368</v>
       </c>
@@ -15984,9 +15987,9 @@
       <c r="E148" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F148" s="125"/>
-    </row>
-    <row r="149" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F148" s="126"/>
+    </row>
+    <row r="149" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A149" s="80" t="s">
         <v>1369</v>
       </c>
@@ -16002,9 +16005,9 @@
       <c r="E149" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F149" s="125"/>
-    </row>
-    <row r="150" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F149" s="126"/>
+    </row>
+    <row r="150" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A150" s="80" t="s">
         <v>1370</v>
       </c>
@@ -16020,9 +16023,9 @@
       <c r="E150" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F150" s="125"/>
-    </row>
-    <row r="151" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F150" s="126"/>
+    </row>
+    <row r="151" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A151" s="80" t="s">
         <v>1371</v>
       </c>
@@ -16038,9 +16041,9 @@
       <c r="E151" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F151" s="125"/>
-    </row>
-    <row r="152" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F151" s="126"/>
+    </row>
+    <row r="152" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A152" s="80" t="s">
         <v>1372</v>
       </c>
@@ -16056,11 +16059,11 @@
       <c r="E152" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F152" s="126" t="s">
+      <c r="F152" s="127" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A153" s="80" t="s">
         <v>1373</v>
       </c>
@@ -16076,9 +16079,9 @@
       <c r="E153" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F153" s="127"/>
-    </row>
-    <row r="154" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F153" s="128"/>
+    </row>
+    <row r="154" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="80" t="s">
         <v>1374</v>
       </c>
@@ -16094,9 +16097,9 @@
       <c r="E154" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F154" s="127"/>
-    </row>
-    <row r="155" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F154" s="128"/>
+    </row>
+    <row r="155" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="80" t="s">
         <v>1375</v>
       </c>
@@ -16110,9 +16113,9 @@
         <v>1369</v>
       </c>
       <c r="E155" s="32"/>
-      <c r="F155" s="127"/>
-    </row>
-    <row r="156" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F155" s="128"/>
+    </row>
+    <row r="156" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="80" t="s">
         <v>1376</v>
       </c>
@@ -16126,9 +16129,9 @@
         <v>1370</v>
       </c>
       <c r="E156" s="32"/>
-      <c r="F156" s="127"/>
-    </row>
-    <row r="157" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F156" s="128"/>
+    </row>
+    <row r="157" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A157" s="80" t="s">
         <v>1377</v>
       </c>
@@ -16142,9 +16145,9 @@
         <v>1371</v>
       </c>
       <c r="E157" s="32"/>
-      <c r="F157" s="127"/>
-    </row>
-    <row r="158" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F157" s="128"/>
+    </row>
+    <row r="158" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A158" s="80" t="s">
         <v>252</v>
       </c>
@@ -16158,9 +16161,9 @@
         <v>1372</v>
       </c>
       <c r="E158" s="32"/>
-      <c r="F158" s="127"/>
-    </row>
-    <row r="159" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F158" s="128"/>
+    </row>
+    <row r="159" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="80" t="s">
         <v>254</v>
       </c>
@@ -16174,9 +16177,9 @@
         <v>1373</v>
       </c>
       <c r="E159" s="32"/>
-      <c r="F159" s="128"/>
-    </row>
-    <row r="160" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F159" s="129"/>
+    </row>
+    <row r="160" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="80" t="s">
         <v>256</v>
       </c>
@@ -16190,11 +16193,11 @@
         <v>1374</v>
       </c>
       <c r="E160" s="32"/>
-      <c r="F160" s="125" t="s">
+      <c r="F160" s="126" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="80" t="s">
         <v>258</v>
       </c>
@@ -16208,9 +16211,9 @@
         <v>1375</v>
       </c>
       <c r="E161" s="32"/>
-      <c r="F161" s="125"/>
-    </row>
-    <row r="162" spans="1:6" s="93" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F161" s="126"/>
+    </row>
+    <row r="162" spans="1:6" s="93" customFormat="1" ht="28.5" customHeight="1">
       <c r="A162" s="80" t="s">
         <v>261</v>
       </c>
@@ -16224,9 +16227,9 @@
         <v>1376</v>
       </c>
       <c r="E162" s="32"/>
-      <c r="F162" s="125"/>
-    </row>
-    <row r="163" spans="1:6" s="93" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F162" s="126"/>
+    </row>
+    <row r="163" spans="1:6" s="93" customFormat="1" ht="28.5" customHeight="1">
       <c r="A163" s="80" t="s">
         <v>263</v>
       </c>
@@ -16240,9 +16243,9 @@
         <v>1377</v>
       </c>
       <c r="E163" s="32"/>
-      <c r="F163" s="125"/>
-    </row>
-    <row r="164" spans="1:6" s="96" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F163" s="126"/>
+    </row>
+    <row r="164" spans="1:6" s="96" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="80" t="s">
         <v>265</v>
       </c>
@@ -16254,7 +16257,7 @@
       </c>
       <c r="F164" s="95"/>
     </row>
-    <row r="165" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="80" t="s">
         <v>267</v>
       </c>
@@ -16272,7 +16275,7 @@
       </c>
       <c r="F165" s="82"/>
     </row>
-    <row r="166" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A166" s="80" t="s">
         <v>269</v>
       </c>
@@ -16288,7 +16291,7 @@
       <c r="E166" s="77"/>
       <c r="F166" s="82"/>
     </row>
-    <row r="167" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A167" s="80" t="s">
         <v>271</v>
       </c>
@@ -16304,7 +16307,7 @@
       <c r="E167" s="77"/>
       <c r="F167" s="82"/>
     </row>
-    <row r="168" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A168" s="80" t="s">
         <v>274</v>
       </c>
@@ -16320,7 +16323,7 @@
       <c r="E168" s="77"/>
       <c r="F168" s="82"/>
     </row>
-    <row r="169" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A169" s="80" t="s">
         <v>276</v>
       </c>
@@ -16336,7 +16339,7 @@
       <c r="E169" s="77"/>
       <c r="F169" s="82"/>
     </row>
-    <row r="170" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A170" s="80" t="s">
         <v>279</v>
       </c>
@@ -16352,7 +16355,7 @@
       <c r="E170" s="77"/>
       <c r="F170" s="82"/>
     </row>
-    <row r="171" spans="1:6" s="93" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" s="93" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A171" s="80" t="s">
         <v>281</v>
       </c>
@@ -16391,21 +16394,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="74.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="74.125" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="99" t="s">
         <v>2</v>
       </c>
@@ -16416,7 +16419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -16430,7 +16433,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -16441,7 +16444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -16452,7 +16455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -16463,7 +16466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -16474,7 +16477,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -16485,7 +16488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -16496,7 +16499,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -16507,7 +16510,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -16518,7 +16521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -16529,7 +16532,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -16540,7 +16543,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -16551,7 +16554,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -16562,7 +16565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -16573,7 +16576,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -16584,7 +16587,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -16595,7 +16598,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -16606,7 +16609,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -16617,7 +16620,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -16628,7 +16631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -16639,7 +16642,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -16650,7 +16653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -16661,7 +16664,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -16672,7 +16675,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -16683,7 +16686,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -16694,7 +16697,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -16705,7 +16708,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -16716,7 +16719,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -16727,7 +16730,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -16738,7 +16741,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -16749,7 +16752,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -16760,7 +16763,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -16771,7 +16774,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -16782,7 +16785,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -16793,7 +16796,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -16804,7 +16807,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -16815,7 +16818,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -16826,7 +16829,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -16837,7 +16840,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -16848,7 +16851,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -16859,7 +16862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -16870,7 +16873,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -16881,7 +16884,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -16892,7 +16895,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -16903,7 +16906,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -16914,7 +16917,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -16925,7 +16928,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -16936,7 +16939,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -16947,7 +16950,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -16958,7 +16961,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -16969,7 +16972,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -16980,7 +16983,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -16991,7 +16994,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -17002,7 +17005,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -17013,7 +17016,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -17024,7 +17027,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -17035,7 +17038,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -17046,7 +17049,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -17057,7 +17060,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -17068,7 +17071,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -17079,7 +17082,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -17090,7 +17093,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -17101,7 +17104,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -17112,7 +17115,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -17123,7 +17126,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -17134,7 +17137,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -17145,7 +17148,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -17156,7 +17159,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -17167,7 +17170,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -17178,7 +17181,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -17189,7 +17192,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -17200,7 +17203,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -17211,7 +17214,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -17222,7 +17225,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -17233,7 +17236,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -17244,7 +17247,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -17255,7 +17258,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -17266,7 +17269,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -17277,7 +17280,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -17288,7 +17291,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -17299,7 +17302,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -17310,7 +17313,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -17321,7 +17324,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -17332,7 +17335,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -17343,7 +17346,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -17354,7 +17357,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -17365,7 +17368,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -17376,7 +17379,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -17387,7 +17390,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -17398,7 +17401,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -17409,7 +17412,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -17420,7 +17423,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -17431,7 +17434,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -17442,7 +17445,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -17453,7 +17456,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -17464,7 +17467,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -17475,7 +17478,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -17486,7 +17489,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -17497,7 +17500,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -17508,7 +17511,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -17519,7 +17522,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -17530,7 +17533,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -17541,7 +17544,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -17552,7 +17555,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -17563,7 +17566,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -17574,7 +17577,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -17585,7 +17588,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -17596,7 +17599,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -17607,7 +17610,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -17618,7 +17621,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -17629,7 +17632,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -17640,7 +17643,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -17651,7 +17654,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -17662,7 +17665,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -17673,7 +17676,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -4455,9 +4455,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -4556,15 +4556,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4578,30 +4570,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4615,9 +4593,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4638,8 +4615,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4655,15 +4633,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4677,29 +4678,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4750,31 +4750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4786,7 +4768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4804,61 +4792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4876,13 +4822,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4894,13 +4894,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4912,19 +4918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5057,6 +5051,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5068,6 +5071,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5087,33 +5110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5125,6 +5121,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5143,162 +5148,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7718,7 +7712,7 @@
   <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11289,7 +11283,7 @@
       <c r="A217" s="111" t="s">
         <v>499</v>
       </c>
-      <c r="B217" s="41" t="s">
+      <c r="B217" s="73" t="s">
         <v>815</v>
       </c>
       <c r="C217" s="52" t="s">

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -4454,11 +4454,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -4555,46 +4555,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4609,7 +4595,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4624,8 +4631,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4647,38 +4662,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4692,8 +4684,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4750,7 +4750,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4762,19 +4840,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4786,91 +4888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4888,7 +4906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4900,25 +4918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5051,15 +5051,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5075,11 +5066,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5110,17 +5107,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5151,148 +5151,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5488,10 +5488,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7712,7 +7712,7 @@
   <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11301,7 +11301,7 @@
       <c r="A218" s="111" t="s">
         <v>501</v>
       </c>
-      <c r="B218" s="41" t="s">
+      <c r="B218" s="73" t="s">
         <v>817</v>
       </c>
       <c r="C218" s="52" t="s">

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="27795" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SK BAB I-V" sheetId="1" r:id="rId1"/>
@@ -4454,11 +4454,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -4564,7 +4564,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4586,30 +4618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4624,46 +4634,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4678,17 +4649,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4750,19 +4750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4774,7 +4762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4792,7 +4786,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4810,60 +4828,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4876,13 +4840,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4894,25 +4876,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4925,6 +4919,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5051,6 +5051,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5077,6 +5086,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5110,8 +5134,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5120,173 +5144,149 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5488,10 +5488,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7711,8 +7711,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11319,7 +11319,7 @@
       <c r="A219" s="111" t="s">
         <v>503</v>
       </c>
-      <c r="B219" s="41" t="s">
+      <c r="B219" s="73" t="s">
         <v>819</v>
       </c>
       <c r="C219" s="52" t="s">

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -4454,11 +4454,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -4555,14 +4555,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -4578,11 +4570,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4594,32 +4585,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4634,14 +4601,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4664,7 +4632,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4672,7 +4640,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4692,10 +4667,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4750,13 +4750,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4768,7 +4780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4786,7 +4804,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4798,133 +4918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5075,6 +5075,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5116,21 +5131,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5151,148 +5151,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7712,7 +7712,7 @@
   <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11337,7 +11337,7 @@
       <c r="A220" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="B220" s="41" t="s">
+      <c r="B220" s="73" t="s">
         <v>821</v>
       </c>
       <c r="C220" s="52" t="s">

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -4462,11 +4462,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -4557,33 +4557,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -4593,7 +4566,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4615,16 +4600,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4639,29 +4638,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4675,6 +4652,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -4682,8 +4667,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4697,9 +4683,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4762,7 +4762,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4774,49 +4870,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4828,13 +4924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4852,97 +4942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5043,10 +5043,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5055,8 +5053,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5100,6 +5098,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5129,149 +5138,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7688,7 +7688,7 @@
   <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11587,7 +11587,7 @@
       <c r="A237" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="B237" s="55" t="s">
+      <c r="B237" s="65" t="s">
         <v>855</v>
       </c>
       <c r="C237" s="46" t="s">

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -4461,12 +4461,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -4549,127 +4549,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4686,6 +4573,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4699,7 +4594,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4762,7 +4762,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4774,25 +4834,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4804,7 +4870,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4816,37 +4900,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4858,91 +4936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5041,20 +5041,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5064,6 +5061,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5083,27 +5095,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5124,155 +5119,160 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5448,10 +5448,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5515,7 +5515,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7687,8 +7687,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11603,7 +11603,7 @@
       <c r="A238" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="B238" s="55" t="s">
+      <c r="B238" s="65" t="s">
         <v>857</v>
       </c>
       <c r="C238" s="46" t="s">

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -4462,11 +4462,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -4549,9 +4549,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4571,6 +4589,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -4578,7 +4616,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4593,13 +4631,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -4608,17 +4639,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4637,22 +4669,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -4660,8 +4676,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4674,32 +4691,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4762,19 +4762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4786,25 +4786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4822,85 +4810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4918,7 +4834,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4930,19 +4888,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5041,6 +5041,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5066,21 +5075,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -5095,11 +5089,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5121,15 +5121,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -5138,145 +5129,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5440,6 +5440,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5917,37 +5920,37 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="59.5" style="74" customWidth="1"/>
-    <col min="3" max="3" width="19.6166666666667" style="75" customWidth="1"/>
-    <col min="4" max="4" width="18.8666666666667" style="75" customWidth="1"/>
+    <col min="2" max="2" width="59.5" style="75" customWidth="1"/>
+    <col min="3" max="3" width="19.6166666666667" style="76" customWidth="1"/>
+    <col min="4" max="4" width="18.8666666666667" style="76" customWidth="1"/>
     <col min="5" max="5" width="18.8666666666667" style="40" customWidth="1"/>
     <col min="6" max="1024" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" s="71" customFormat="1" ht="12" customHeight="1" spans="1:5">
-      <c r="A1" s="76" t="s">
+    <row r="1" s="72" customFormat="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-    </row>
-    <row r="2" s="71" customFormat="1" ht="12" customHeight="1" spans="1:5">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+    </row>
+    <row r="2" s="72" customFormat="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" ht="17.25" spans="1:5">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:5">
       <c r="A4" s="39" t="s">
@@ -5956,7 +5959,7 @@
       <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="81" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -5967,1706 +5970,1706 @@
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="81"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="82"/>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:5">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="81"/>
+      <c r="E7" s="82"/>
     </row>
     <row r="8" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="82" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="82" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:5">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="81"/>
+      <c r="E10" s="82"/>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:5">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="82" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="82" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:5">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="82" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:5">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="81"/>
+      <c r="E14" s="82"/>
     </row>
     <row r="15" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="81"/>
+      <c r="E15" s="82"/>
     </row>
     <row r="16" s="13" customFormat="1" ht="48.75" customHeight="1" spans="1:5">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="82" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:5">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="82" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:5">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="81"/>
+      <c r="E18" s="82"/>
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:5">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="81"/>
+      <c r="E19" s="82"/>
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:5">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="81"/>
+      <c r="E20" s="82"/>
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:5">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="82" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:5">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="81"/>
+      <c r="E22" s="82"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:5">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="81"/>
+      <c r="E23" s="82"/>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:5">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="82" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:5">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="81"/>
+      <c r="E25" s="82"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:5">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="81"/>
+      <c r="E26" s="82"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:5">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="81"/>
+      <c r="E27" s="82"/>
     </row>
     <row r="28" ht="21" customHeight="1" spans="1:5">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="82"/>
     </row>
     <row r="29" ht="21" customHeight="1" spans="1:5">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="82" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="82" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="83" t="s">
+      <c r="D31" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="82" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="1:5">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="81" t="s">
+      <c r="E32" s="82" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" ht="47.25" customHeight="1" spans="1:5">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="82" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" ht="36" customHeight="1" spans="1:5">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="82" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" ht="36" customHeight="1" spans="1:5">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="81" t="s">
+      <c r="C35" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" ht="47.25" customHeight="1" spans="1:5">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="82" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:5">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="81" t="s">
+      <c r="E37" s="82" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" ht="48" customHeight="1" spans="1:5">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="82" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="1:5">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="81" t="s">
+      <c r="E39" s="82" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="1:5">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="81" t="s">
+      <c r="E40" s="82" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="1:5">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="81" t="s">
+      <c r="C41" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="81" t="s">
+      <c r="E41" s="82" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="1:5">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="81" t="s">
+      <c r="E42" s="82" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:5">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="81" t="s">
+      <c r="E43" s="82" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:5">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="82" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="45" ht="36" customHeight="1" spans="1:5">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="83" t="s">
+      <c r="D45" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="81" t="s">
+      <c r="E45" s="82" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="1:6">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="85" t="s">
         <v>151</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="83" t="s">
+      <c r="D46" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E46" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="88"/>
+      <c r="F46" s="89"/>
     </row>
     <row r="47" ht="21" customHeight="1" spans="1:6">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="83" t="s">
+      <c r="D47" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="81" t="s">
+      <c r="E47" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="88"/>
+      <c r="F47" s="89"/>
     </row>
     <row r="48" ht="21" customHeight="1" spans="1:6">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="E48" s="81" t="s">
+      <c r="E48" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="88"/>
+      <c r="F48" s="89"/>
     </row>
     <row r="49" ht="21" customHeight="1" spans="1:5">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="83" t="s">
+      <c r="D49" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="82" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="1:5">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="81" t="s">
+      <c r="C50" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="E50" s="81" t="s">
+      <c r="E50" s="82" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="1:5">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="83" t="s">
+      <c r="D51" s="84" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="81" t="s">
+      <c r="E51" s="82" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="1:5">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="81" t="s">
+      <c r="E52" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="1:5">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="83" t="s">
+      <c r="D53" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="81" t="s">
+      <c r="E53" s="82" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="1:5">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="84" t="s">
+      <c r="B54" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="E54" s="81" t="s">
+      <c r="E54" s="82" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:5">
-      <c r="A55" s="81" t="s">
+      <c r="A55" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="83" t="s">
+      <c r="D55" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="81"/>
+      <c r="E55" s="82"/>
     </row>
     <row r="56" ht="21" customHeight="1" spans="1:5">
-      <c r="A56" s="81" t="s">
+      <c r="A56" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="B56" s="82" t="s">
+      <c r="B56" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="81" t="s">
+      <c r="C56" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="83" t="s">
+      <c r="D56" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="81"/>
+      <c r="E56" s="82"/>
     </row>
     <row r="57" ht="21" customHeight="1" spans="1:5">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="81" t="s">
+      <c r="C57" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="83" t="s">
+      <c r="D57" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="E57" s="81"/>
+      <c r="E57" s="82"/>
     </row>
     <row r="58" ht="21" customHeight="1" spans="1:6">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="84" t="s">
+      <c r="B58" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="83" t="s">
+      <c r="C58" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="81" t="s">
+      <c r="E58" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="F58" s="88"/>
+      <c r="F58" s="89"/>
     </row>
     <row r="59" ht="21" customHeight="1" spans="1:5">
-      <c r="A59" s="81" t="s">
+      <c r="A59" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="81" t="s">
+      <c r="C59" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="D59" s="83" t="s">
+      <c r="D59" s="84" t="s">
         <v>201</v>
       </c>
-      <c r="E59" s="81" t="s">
+      <c r="E59" s="82" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="1:5">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="B60" s="84" t="s">
+      <c r="B60" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="C60" s="81" t="s">
+      <c r="C60" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="D60" s="83" t="s">
+      <c r="D60" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="81" t="s">
+      <c r="E60" s="82" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:5">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="84" t="s">
+      <c r="B61" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="81" t="s">
+      <c r="C61" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="D61" s="83" t="s">
+      <c r="D61" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="E61" s="81"/>
+      <c r="E61" s="82"/>
     </row>
     <row r="62" ht="21" customHeight="1" spans="1:5">
-      <c r="A62" s="81" t="s">
+      <c r="A62" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="84" t="s">
+      <c r="B62" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="81" t="s">
+      <c r="C62" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="83" t="s">
+      <c r="D62" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="E62" s="81"/>
+      <c r="E62" s="82"/>
     </row>
     <row r="63" ht="54" spans="1:5">
-      <c r="A63" s="81" t="s">
+      <c r="A63" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="84" t="s">
+      <c r="B63" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="C63" s="87"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="81" t="s">
+      <c r="C63" s="88"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="64" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="B64" s="84" t="s">
+      <c r="B64" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="81" t="s">
+      <c r="C64" s="88"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="65" ht="36" spans="1:5">
-      <c r="A65" s="81" t="s">
+      <c r="A65" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="84" t="s">
+      <c r="B65" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="87"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="81" t="s">
+      <c r="C65" s="88"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="82" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="66" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A66" s="81" t="s">
+      <c r="A66" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="B66" s="84" t="s">
+      <c r="B66" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="C66" s="87"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="81" t="s">
+      <c r="C66" s="88"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="82" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="67" ht="38.25" customHeight="1" spans="1:5">
-      <c r="A67" s="81" t="s">
+      <c r="A67" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="81" t="s">
+      <c r="C67" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D67" s="83" t="s">
+      <c r="D67" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="E67" s="81" t="s">
+      <c r="E67" s="82" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="68" ht="48" customHeight="1" spans="1:5">
-      <c r="A68" s="81" t="s">
+      <c r="A68" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="B68" s="84" t="s">
+      <c r="B68" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="C68" s="81" t="s">
+      <c r="C68" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="83" t="s">
+      <c r="D68" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="E68" s="81" t="s">
+      <c r="E68" s="82" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="69" ht="18" spans="1:5">
-      <c r="A69" s="81" t="s">
+      <c r="A69" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="B69" s="84" t="s">
+      <c r="B69" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="81" t="s">
+      <c r="D69" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="E69" s="81" t="s">
+      <c r="E69" s="82" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" s="72" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A70" s="81" t="s">
+    <row r="70" s="73" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A70" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="82" t="s">
+      <c r="B70" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="C70" s="81" t="s">
+      <c r="C70" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="81" t="s">
+      <c r="D70" s="82" t="s">
         <v>240</v>
       </c>
-      <c r="E70" s="81"/>
-    </row>
-    <row r="71" s="72" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A71" s="81" t="s">
+      <c r="E70" s="82"/>
+    </row>
+    <row r="71" s="73" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A71" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="B71" s="82" t="s">
+      <c r="B71" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="81" t="s">
+      <c r="C71" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D71" s="89" t="s">
+      <c r="D71" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="E71" s="81"/>
-    </row>
-    <row r="72" s="72" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A72" s="81" t="s">
+      <c r="E71" s="82"/>
+    </row>
+    <row r="72" s="73" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A72" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="B72" s="82" t="s">
+      <c r="B72" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="81" t="s">
+      <c r="C72" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D72" s="89" t="s">
+      <c r="D72" s="90" t="s">
         <v>247</v>
       </c>
-      <c r="E72" s="81"/>
-    </row>
-    <row r="73" s="73" customFormat="1" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A73" s="81" t="s">
+      <c r="E72" s="82"/>
+    </row>
+    <row r="73" s="74" customFormat="1" ht="34.5" customHeight="1" spans="1:5">
+      <c r="A73" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="B73" s="84" t="s">
+      <c r="B73" s="85" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="89" t="s">
+      <c r="C73" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="E73" s="81"/>
+      <c r="E73" s="82"/>
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A74" s="81" t="s">
+      <c r="A74" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="B74" s="84" t="s">
+      <c r="B74" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="C74" s="81" t="s">
+      <c r="C74" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D74" s="83" t="s">
+      <c r="D74" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="E74" s="81"/>
+      <c r="E74" s="82"/>
     </row>
     <row r="75" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A75" s="81" t="s">
+      <c r="A75" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="B75" s="86" t="s">
+      <c r="B75" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C75" s="81" t="s">
+      <c r="C75" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D75" s="83" t="s">
+      <c r="D75" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="E75" s="81"/>
+      <c r="E75" s="82"/>
     </row>
     <row r="76" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A76" s="81" t="s">
+      <c r="A76" s="82" t="s">
         <v>257</v>
       </c>
-      <c r="B76" s="82" t="s">
+      <c r="B76" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="83" t="s">
+      <c r="D76" s="84" t="s">
         <v>259</v>
       </c>
-      <c r="E76" s="81"/>
+      <c r="E76" s="82"/>
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A77" s="81" t="s">
+      <c r="A77" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="B77" s="82" t="s">
+      <c r="B77" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="C77" s="81" t="s">
+      <c r="C77" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="83" t="s">
+      <c r="D77" s="84" t="s">
         <v>262</v>
       </c>
-      <c r="E77" s="81"/>
+      <c r="E77" s="82"/>
     </row>
     <row r="78" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A78" s="81" t="s">
+      <c r="A78" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="B78" s="90" t="s">
+      <c r="B78" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="C78" s="81" t="s">
+      <c r="C78" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D78" s="83" t="s">
+      <c r="D78" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="E78" s="81"/>
+      <c r="E78" s="82"/>
     </row>
     <row r="79" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A79" s="81" t="s">
+      <c r="A79" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="91" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="81" t="s">
+      <c r="C79" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D79" s="91" t="s">
+      <c r="D79" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="E79" s="81"/>
+      <c r="E79" s="82"/>
     </row>
     <row r="80" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A80" s="81" t="s">
+      <c r="A80" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="91" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="81" t="s">
+      <c r="C80" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D80" s="91" t="s">
+      <c r="D80" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="E80" s="81"/>
+      <c r="E80" s="82"/>
     </row>
     <row r="81" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A81" s="81" t="s">
+      <c r="A81" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="B81" s="82" t="s">
+      <c r="B81" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="C81" s="81" t="s">
+      <c r="C81" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="D81" s="91" t="s">
+      <c r="D81" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="E81" s="81"/>
+      <c r="E81" s="82"/>
     </row>
     <row r="82" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A82" s="81" t="s">
+      <c r="A82" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="82" t="s">
+      <c r="B82" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="92">
+      <c r="C82" s="93">
         <v>45383</v>
       </c>
-      <c r="D82" s="91" t="s">
+      <c r="D82" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="E82" s="81"/>
+      <c r="E82" s="82"/>
     </row>
     <row r="83" ht="54" spans="1:5">
-      <c r="A83" s="81" t="s">
+      <c r="A83" s="82" t="s">
         <v>279</v>
       </c>
-      <c r="B83" s="84" t="s">
+      <c r="B83" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="81" t="s">
+      <c r="C83" s="82"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="82" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="84" ht="54" spans="1:5">
-      <c r="A84" s="81" t="s">
+      <c r="A84" s="82" t="s">
         <v>282</v>
       </c>
-      <c r="B84" s="84" t="s">
+      <c r="B84" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="C84" s="81"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="81" t="s">
+      <c r="C84" s="82"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="82" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="85" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A85" s="81" t="s">
+      <c r="A85" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="B85" s="84" t="s">
+      <c r="B85" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="81"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="81" t="s">
+      <c r="C85" s="82"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="82" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="86" ht="36" spans="1:5">
-      <c r="A86" s="81" t="s">
+      <c r="A86" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="84" t="s">
+      <c r="B86" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="C86" s="81"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="81" t="s">
+      <c r="C86" s="82"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="82" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="87" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A87" s="81" t="s">
+      <c r="A87" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B87" s="84" t="s">
+      <c r="B87" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="C87" s="81"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="81" t="s">
+      <c r="C87" s="82"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="82" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="88" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A88" s="81" t="s">
+      <c r="A88" s="82" t="s">
         <v>292</v>
       </c>
-      <c r="B88" s="84" t="s">
+      <c r="B88" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="81"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="81" t="s">
+      <c r="C88" s="82"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="82" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" ht="48.75" customHeight="1" spans="1:5">
-      <c r="A89" s="81" t="s">
+      <c r="A89" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B89" s="84" t="s">
+      <c r="B89" s="85" t="s">
         <v>295</v>
       </c>
-      <c r="C89" s="81"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="81" t="s">
+      <c r="C89" s="82"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="82" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="90" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A90" s="81" t="s">
+      <c r="A90" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="B90" s="84" t="s">
+      <c r="B90" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="C90" s="81"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="81" t="s">
+      <c r="C90" s="82"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="82" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="91" ht="51" customHeight="1" spans="1:5">
-      <c r="A91" s="81" t="s">
+      <c r="A91" s="82" t="s">
         <v>298</v>
       </c>
-      <c r="B91" s="84" t="s">
+      <c r="B91" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C91" s="81"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="81" t="s">
+      <c r="C91" s="82"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="82" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="92" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A92" s="81" t="s">
+      <c r="A92" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="B92" s="84" t="s">
+      <c r="B92" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="81"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="81" t="s">
+      <c r="C92" s="82"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="82" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" ht="48" customHeight="1" spans="1:5">
-      <c r="A93" s="81" t="s">
+      <c r="A93" s="82" t="s">
         <v>302</v>
       </c>
-      <c r="B93" s="84" t="s">
+      <c r="B93" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="C93" s="81"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="81" t="s">
+      <c r="C93" s="82"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="82" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="94" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A94" s="81" t="s">
+      <c r="A94" s="82" t="s">
         <v>305</v>
       </c>
-      <c r="B94" s="84" t="s">
+      <c r="B94" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="C94" s="81"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="81" t="s">
+      <c r="C94" s="82"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="82" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="95" ht="64.5" customHeight="1" spans="1:5">
-      <c r="A95" s="81" t="s">
+      <c r="A95" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="B95" s="84" t="s">
+      <c r="B95" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="C95" s="81"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="81" t="s">
+      <c r="C95" s="82"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="82" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="96" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A96" s="81" t="s">
+      <c r="A96" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="B96" s="84" t="s">
+      <c r="B96" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="C96" s="81"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="81" t="s">
+      <c r="C96" s="82"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="82" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="97" ht="48.75" customHeight="1" spans="1:5">
-      <c r="A97" s="81" t="s">
+      <c r="A97" s="82" t="s">
         <v>310</v>
       </c>
-      <c r="B97" s="84" t="s">
+      <c r="B97" s="85" t="s">
         <v>311</v>
       </c>
-      <c r="C97" s="81"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="81" t="s">
+      <c r="C97" s="82"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="82" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="98" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A98" s="81" t="s">
+      <c r="A98" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="B98" s="84" t="s">
+      <c r="B98" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="C98" s="81"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="81" t="s">
+      <c r="C98" s="82"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="82" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="99" ht="38.25" customHeight="1" spans="1:5">
-      <c r="A99" s="81" t="s">
+      <c r="A99" s="82" t="s">
         <v>315</v>
       </c>
-      <c r="B99" s="84" t="s">
+      <c r="B99" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="81"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="81" t="s">
+      <c r="C99" s="82"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="82" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="100" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A100" s="81" t="s">
+      <c r="A100" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="B100" s="84" t="s">
+      <c r="B100" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="C100" s="81"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="81" t="s">
+      <c r="C100" s="82"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="82" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="101" ht="48" customHeight="1" spans="1:5">
-      <c r="A101" s="81" t="s">
+      <c r="A101" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="B101" s="84" t="s">
+      <c r="B101" s="85" t="s">
         <v>321</v>
       </c>
-      <c r="C101" s="81"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="81" t="s">
+      <c r="C101" s="82"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="82" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="102" ht="33" customHeight="1" spans="1:5">
-      <c r="A102" s="81" t="s">
+      <c r="A102" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="B102" s="84" t="s">
+      <c r="B102" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="C102" s="81"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="81" t="s">
+      <c r="C102" s="82"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="82" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="103" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A103" s="81" t="s">
+      <c r="A103" s="82" t="s">
         <v>325</v>
       </c>
-      <c r="B103" s="84" t="s">
+      <c r="B103" s="85" t="s">
         <v>326</v>
       </c>
-      <c r="C103" s="81"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="81" t="s">
+      <c r="C103" s="82"/>
+      <c r="D103" s="84"/>
+      <c r="E103" s="82" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="104" ht="46.5" customHeight="1" spans="1:5">
-      <c r="A104" s="81" t="s">
+      <c r="A104" s="82" t="s">
         <v>327</v>
       </c>
-      <c r="B104" s="84" t="s">
+      <c r="B104" s="85" t="s">
         <v>328</v>
       </c>
-      <c r="C104" s="81"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="81" t="s">
+      <c r="C104" s="82"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="82" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="105" ht="33" customHeight="1" spans="1:5">
-      <c r="A105" s="81" t="s">
+      <c r="A105" s="82" t="s">
         <v>330</v>
       </c>
-      <c r="B105" s="84" t="s">
+      <c r="B105" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="C105" s="81"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="81" t="s">
+      <c r="C105" s="82"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="82" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="106" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A106" s="81" t="s">
+      <c r="A106" s="82" t="s">
         <v>332</v>
       </c>
-      <c r="B106" s="84" t="s">
+      <c r="B106" s="85" t="s">
         <v>326</v>
       </c>
-      <c r="C106" s="81"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="81" t="s">
+      <c r="C106" s="82"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="82" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="107" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A107" s="81" t="s">
+      <c r="A107" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="84" t="s">
+      <c r="B107" s="85" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="81"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="81" t="s">
+      <c r="C107" s="82"/>
+      <c r="D107" s="84"/>
+      <c r="E107" s="82" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="108" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A108" s="81" t="s">
+      <c r="A108" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="B108" s="84" t="s">
+      <c r="B108" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="C108" s="81"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="81" t="s">
+      <c r="C108" s="82"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="82" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="109" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A109" s="81" t="s">
+      <c r="A109" s="82" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="84" t="s">
+      <c r="B109" s="85" t="s">
         <v>326</v>
       </c>
-      <c r="C109" s="81"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="81" t="s">
+      <c r="C109" s="82"/>
+      <c r="D109" s="84"/>
+      <c r="E109" s="82" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="110" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A110" s="81" t="s">
+      <c r="A110" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="B110" s="84" t="s">
+      <c r="B110" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="C110" s="81"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="81" t="s">
+      <c r="C110" s="82"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="82" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="111" ht="33" customHeight="1" spans="1:5">
-      <c r="A111" s="81" t="s">
+      <c r="A111" s="82" t="s">
         <v>340</v>
       </c>
-      <c r="B111" s="84" t="s">
+      <c r="B111" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="C111" s="81"/>
-      <c r="D111" s="83"/>
-      <c r="E111" s="81" t="s">
+      <c r="C111" s="82"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="82" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="112" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A112" s="81" t="s">
+      <c r="A112" s="82" t="s">
         <v>341</v>
       </c>
-      <c r="B112" s="84" t="s">
+      <c r="B112" s="85" t="s">
         <v>326</v>
       </c>
-      <c r="C112" s="81"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="81" t="s">
+      <c r="C112" s="82"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="82" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="113" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A113" s="81" t="s">
+      <c r="A113" s="82" t="s">
         <v>342</v>
       </c>
-      <c r="B113" s="84" t="s">
+      <c r="B113" s="85" t="s">
         <v>343</v>
       </c>
-      <c r="C113" s="81"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="81" t="s">
+      <c r="C113" s="82"/>
+      <c r="D113" s="84"/>
+      <c r="E113" s="82" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="114" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A114" s="81" t="s">
+      <c r="A114" s="82" t="s">
         <v>344</v>
       </c>
-      <c r="B114" s="84" t="s">
+      <c r="B114" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="C114" s="81"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="81" t="s">
+      <c r="C114" s="82"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="82" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="115" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A115" s="81" t="s">
+      <c r="A115" s="82" t="s">
         <v>345</v>
       </c>
-      <c r="B115" s="84" t="s">
+      <c r="B115" s="85" t="s">
         <v>326</v>
       </c>
-      <c r="C115" s="81"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="81" t="s">
+      <c r="C115" s="82"/>
+      <c r="D115" s="84"/>
+      <c r="E115" s="82" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="116" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A116" s="81" t="s">
+      <c r="A116" s="82" t="s">
         <v>346</v>
       </c>
-      <c r="B116" s="84" t="s">
+      <c r="B116" s="85" t="s">
         <v>347</v>
       </c>
-      <c r="C116" s="81"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="81" t="s">
+      <c r="C116" s="82"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="82" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="117" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A117" s="81" t="s">
+      <c r="A117" s="82" t="s">
         <v>349</v>
       </c>
-      <c r="B117" s="84" t="s">
+      <c r="B117" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="81"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="81" t="s">
+      <c r="C117" s="82"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="82" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="93"/>
+      <c r="A118" s="94"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B118">
@@ -7687,8 +7690,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11671,7 +11674,7 @@
       <c r="A242" s="46" t="s">
         <v>552</v>
       </c>
-      <c r="B242" s="48" t="s">
+      <c r="B242" s="67" t="s">
         <v>867</v>
       </c>
       <c r="C242" s="46" t="s">
@@ -11744,7 +11747,7 @@
       <c r="D246" s="46" t="s">
         <v>876</v>
       </c>
-      <c r="E246" s="67" t="s">
+      <c r="E246" s="68" t="s">
         <v>877</v>
       </c>
       <c r="F246" s="54"/>
@@ -11762,7 +11765,7 @@
       <c r="D247" s="46" t="s">
         <v>879</v>
       </c>
-      <c r="E247" s="67"/>
+      <c r="E247" s="68"/>
       <c r="F247" s="54"/>
     </row>
     <row r="248" ht="29.25" customHeight="1" spans="1:6">
@@ -11778,7 +11781,7 @@
       <c r="D248" s="46" t="s">
         <v>881</v>
       </c>
-      <c r="E248" s="67"/>
+      <c r="E248" s="68"/>
       <c r="F248" s="54"/>
     </row>
     <row r="249" ht="19.5" customHeight="1" spans="1:6">
@@ -11794,7 +11797,7 @@
       <c r="D249" s="46" t="s">
         <v>883</v>
       </c>
-      <c r="E249" s="67"/>
+      <c r="E249" s="68"/>
       <c r="F249" s="54"/>
     </row>
     <row r="250" ht="19.5" customHeight="1" spans="1:6">
@@ -11810,7 +11813,7 @@
       <c r="D250" s="46" t="s">
         <v>885</v>
       </c>
-      <c r="E250" s="67"/>
+      <c r="E250" s="68"/>
       <c r="F250" s="54"/>
     </row>
     <row r="251" ht="43.5" customHeight="1" spans="1:6">
@@ -11826,7 +11829,7 @@
       <c r="D251" s="46" t="s">
         <v>887</v>
       </c>
-      <c r="E251" s="67"/>
+      <c r="E251" s="68"/>
       <c r="F251" s="54"/>
     </row>
     <row r="252" s="41" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -12969,7 +12972,7 @@
       <c r="A321" s="46" t="s">
         <v>752</v>
       </c>
-      <c r="B321" s="68" t="s">
+      <c r="B321" s="69" t="s">
         <v>1011</v>
       </c>
       <c r="C321" s="46" t="s">
@@ -13660,7 +13663,7 @@
       <c r="B360" s="37" t="s">
         <v>1096</v>
       </c>
-      <c r="C360" s="69">
+      <c r="C360" s="70">
         <v>45313</v>
       </c>
       <c r="D360" s="46" t="s">
@@ -13676,7 +13679,7 @@
       <c r="B361" s="37" t="s">
         <v>1098</v>
       </c>
-      <c r="C361" s="70">
+      <c r="C361" s="71">
         <v>45344</v>
       </c>
       <c r="D361" s="46" t="s">
@@ -13692,7 +13695,7 @@
       <c r="B362" s="37" t="s">
         <v>1100</v>
       </c>
-      <c r="C362" s="70">
+      <c r="C362" s="71">
         <v>45344</v>
       </c>
       <c r="D362" s="46" t="s">
@@ -13708,7 +13711,7 @@
       <c r="B363" s="37" t="s">
         <v>1102</v>
       </c>
-      <c r="C363" s="70">
+      <c r="C363" s="71">
         <v>45344</v>
       </c>
       <c r="D363" s="46" t="s">
@@ -13724,7 +13727,7 @@
       <c r="B364" s="37" t="s">
         <v>1104</v>
       </c>
-      <c r="C364" s="70">
+      <c r="C364" s="71">
         <v>45344</v>
       </c>
       <c r="D364" s="46" t="s">
@@ -13740,7 +13743,7 @@
       <c r="B365" s="37" t="s">
         <v>1106</v>
       </c>
-      <c r="C365" s="70">
+      <c r="C365" s="71">
         <v>45344</v>
       </c>
       <c r="D365" s="46" t="s">
@@ -13756,7 +13759,7 @@
       <c r="B366" s="37" t="s">
         <v>1108</v>
       </c>
-      <c r="C366" s="70">
+      <c r="C366" s="71">
         <v>45344</v>
       </c>
       <c r="D366" s="46" t="s">
@@ -13772,7 +13775,7 @@
       <c r="B367" s="37" t="s">
         <v>1110</v>
       </c>
-      <c r="C367" s="70">
+      <c r="C367" s="71">
         <v>45344</v>
       </c>
       <c r="D367" s="46" t="s">
@@ -13788,7 +13791,7 @@
       <c r="B368" s="37" t="s">
         <v>1112</v>
       </c>
-      <c r="C368" s="70">
+      <c r="C368" s="71">
         <v>45344</v>
       </c>
       <c r="D368" s="46" t="s">
@@ -13804,7 +13807,7 @@
       <c r="B369" s="37" t="s">
         <v>1114</v>
       </c>
-      <c r="C369" s="70">
+      <c r="C369" s="71">
         <v>45344</v>
       </c>
       <c r="D369" s="46" t="s">
@@ -13820,7 +13823,7 @@
       <c r="B370" s="37" t="s">
         <v>1116</v>
       </c>
-      <c r="C370" s="70">
+      <c r="C370" s="71">
         <v>45344</v>
       </c>
       <c r="D370" s="46" t="s">
@@ -13836,7 +13839,7 @@
       <c r="B371" s="37" t="s">
         <v>1118</v>
       </c>
-      <c r="C371" s="70">
+      <c r="C371" s="71">
         <v>45344</v>
       </c>
       <c r="D371" s="46" t="s">
@@ -13852,7 +13855,7 @@
       <c r="B372" s="37" t="s">
         <v>1120</v>
       </c>
-      <c r="C372" s="70">
+      <c r="C372" s="71">
         <v>45344</v>
       </c>
       <c r="D372" s="46" t="s">
@@ -13868,7 +13871,7 @@
       <c r="B373" s="37" t="s">
         <v>1122</v>
       </c>
-      <c r="C373" s="70">
+      <c r="C373" s="71">
         <v>45344</v>
       </c>
       <c r="D373" s="46" t="s">

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -4461,12 +4461,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -4549,32 +4549,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4582,7 +4564,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4595,28 +4577,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4639,6 +4609,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -4654,23 +4638,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4684,6 +4668,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -4692,14 +4684,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4762,25 +4762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4798,7 +4786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4810,13 +4804,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4828,7 +4858,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4840,7 +4888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4852,31 +4906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4888,61 +4930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5050,21 +5050,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5138,141 +5123,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5437,12 +5437,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5451,10 +5451,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5518,7 +5518,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7691,7 +7691,7 @@
   <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11478,7 +11478,7 @@
       <c r="A230" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="B230" s="48" t="s">
+      <c r="B230" s="65" t="s">
         <v>841</v>
       </c>
       <c r="C230" s="46" t="s">
@@ -11574,7 +11574,7 @@
       <c r="A236" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="B236" s="65" t="s">
+      <c r="B236" s="66" t="s">
         <v>853</v>
       </c>
       <c r="C236" s="46" t="s">
@@ -11590,7 +11590,7 @@
       <c r="A237" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="B237" s="65" t="s">
+      <c r="B237" s="66" t="s">
         <v>855</v>
       </c>
       <c r="C237" s="46" t="s">
@@ -11606,7 +11606,7 @@
       <c r="A238" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="B238" s="65" t="s">
+      <c r="B238" s="66" t="s">
         <v>857</v>
       </c>
       <c r="C238" s="46" t="s">
@@ -11638,7 +11638,7 @@
       <c r="A240" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="B240" s="66" t="s">
+      <c r="B240" s="67" t="s">
         <v>861</v>
       </c>
       <c r="C240" s="46" t="s">
@@ -11656,7 +11656,7 @@
       <c r="A241" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="B241" s="66" t="s">
+      <c r="B241" s="67" t="s">
         <v>864</v>
       </c>
       <c r="C241" s="46" t="s">
@@ -11674,7 +11674,7 @@
       <c r="A242" s="46" t="s">
         <v>552</v>
       </c>
-      <c r="B242" s="67" t="s">
+      <c r="B242" s="65" t="s">
         <v>867</v>
       </c>
       <c r="C242" s="46" t="s">

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="1475">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -2557,6 +2557,9 @@
   </si>
   <si>
     <t>361</t>
+  </si>
+  <si>
+    <t>uploaded with sampul</t>
   </si>
   <si>
     <t>SOP Pengelolaan Obat Kadaluarsa</t>
@@ -4461,14 +4464,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4534,6 +4537,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -4549,9 +4558,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4562,16 +4587,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4585,11 +4633,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4610,14 +4657,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4632,22 +4672,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4662,17 +4687,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4684,22 +4701,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4762,7 +4771,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4774,7 +4819,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4786,13 +4867,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4810,67 +4903,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4882,13 +4921,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4900,49 +4951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5041,6 +5050,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -5052,9 +5076,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5074,17 +5100,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5104,179 +5133,159 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5445,10 +5454,11 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5499,20 +5509,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5920,37 +5930,37 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="59.5" style="75" customWidth="1"/>
-    <col min="3" max="3" width="19.6166666666667" style="76" customWidth="1"/>
-    <col min="4" max="4" width="18.8666666666667" style="76" customWidth="1"/>
+    <col min="2" max="2" width="59.5" style="76" customWidth="1"/>
+    <col min="3" max="3" width="19.6166666666667" style="77" customWidth="1"/>
+    <col min="4" max="4" width="18.8666666666667" style="77" customWidth="1"/>
     <col min="5" max="5" width="18.8666666666667" style="40" customWidth="1"/>
     <col min="6" max="1024" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" s="72" customFormat="1" ht="12" customHeight="1" spans="1:5">
-      <c r="A1" s="77" t="s">
+    <row r="1" s="73" customFormat="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-    </row>
-    <row r="2" s="72" customFormat="1" ht="12" customHeight="1" spans="1:5">
-      <c r="A2" s="77" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" s="73" customFormat="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" ht="17.25" spans="1:5">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:5">
       <c r="A4" s="39" t="s">
@@ -5959,7 +5969,7 @@
       <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="82" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -5970,1706 +5980,1706 @@
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="82"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="82"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="82"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="83" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="83" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:5">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="82"/>
+      <c r="E10" s="83"/>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:5">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="83" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="83" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:5">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="83" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:5">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="82"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="83"/>
     </row>
     <row r="16" s="13" customFormat="1" ht="48.75" customHeight="1" spans="1:5">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="83" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:5">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="83" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:5">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="82"/>
+      <c r="E18" s="83"/>
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:5">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="82"/>
+      <c r="E19" s="83"/>
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:5">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="82"/>
+      <c r="E20" s="83"/>
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:5">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="83" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:5">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="82"/>
+      <c r="E22" s="83"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:5">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="82"/>
+      <c r="E23" s="83"/>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:5">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="83" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:5">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="82"/>
+      <c r="E25" s="83"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:5">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="82"/>
+      <c r="E26" s="83"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:5">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="82"/>
+      <c r="E27" s="83"/>
     </row>
     <row r="28" ht="21" customHeight="1" spans="1:5">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="29" ht="21" customHeight="1" spans="1:5">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="83" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="83" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="82" t="s">
+      <c r="E31" s="83" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="1:5">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="83" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" ht="47.25" customHeight="1" spans="1:5">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C33" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="83" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" ht="36" customHeight="1" spans="1:5">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="83" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" ht="36" customHeight="1" spans="1:5">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="82" t="s">
+      <c r="E35" s="83" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" ht="47.25" customHeight="1" spans="1:5">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="84" t="s">
+      <c r="D36" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="83" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:5">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="84" t="s">
+      <c r="D37" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="82" t="s">
+      <c r="E37" s="83" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" ht="48" customHeight="1" spans="1:5">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="82" t="s">
+      <c r="E38" s="83" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="1:5">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="84" t="s">
+      <c r="D39" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="83" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="1:5">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="82" t="s">
+      <c r="C40" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="84" t="s">
+      <c r="D40" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="82" t="s">
+      <c r="E40" s="83" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="1:5">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="82" t="s">
+      <c r="C41" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="84" t="s">
+      <c r="D41" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="82" t="s">
+      <c r="E41" s="83" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="1:5">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="84" t="s">
+      <c r="D42" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="82" t="s">
+      <c r="E42" s="83" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:5">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="84" t="s">
+      <c r="D43" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="82" t="s">
+      <c r="E43" s="83" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:5">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="84" t="s">
+      <c r="D44" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="45" ht="36" customHeight="1" spans="1:5">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="84" t="s">
+      <c r="D45" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="82" t="s">
+      <c r="E45" s="83" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="1:6">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="86" t="s">
         <v>151</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="84" t="s">
+      <c r="D46" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="89"/>
+      <c r="F46" s="90"/>
     </row>
     <row r="47" ht="21" customHeight="1" spans="1:6">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="84" t="s">
+      <c r="D47" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="82" t="s">
+      <c r="E47" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="89"/>
+      <c r="F47" s="90"/>
     </row>
     <row r="48" ht="21" customHeight="1" spans="1:6">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="E48" s="82" t="s">
+      <c r="E48" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="89"/>
+      <c r="F48" s="90"/>
     </row>
     <row r="49" ht="21" customHeight="1" spans="1:5">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="84" t="s">
+      <c r="D49" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="82" t="s">
+      <c r="E49" s="83" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="1:5">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="82" t="s">
+      <c r="C50" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="84" t="s">
+      <c r="D50" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="E50" s="82" t="s">
+      <c r="E50" s="83" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="1:5">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="84" t="s">
+      <c r="D51" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="82" t="s">
+      <c r="E51" s="83" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="1:5">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="82" t="s">
+      <c r="C52" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="84" t="s">
+      <c r="D52" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="82" t="s">
+      <c r="E52" s="83" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="1:5">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="82" t="s">
+      <c r="C53" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="84" t="s">
+      <c r="D53" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="82" t="s">
+      <c r="E53" s="83" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="1:5">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="82" t="s">
+      <c r="C54" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="84" t="s">
+      <c r="D54" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="E54" s="82" t="s">
+      <c r="E54" s="83" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:5">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="D55" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="82"/>
+      <c r="E55" s="83"/>
     </row>
     <row r="56" ht="21" customHeight="1" spans="1:5">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="B56" s="83" t="s">
+      <c r="B56" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="82" t="s">
+      <c r="C56" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="84" t="s">
+      <c r="D56" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="82"/>
+      <c r="E56" s="83"/>
     </row>
     <row r="57" ht="21" customHeight="1" spans="1:5">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="82" t="s">
+      <c r="C57" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="84" t="s">
+      <c r="D57" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="E57" s="82"/>
+      <c r="E57" s="83"/>
     </row>
     <row r="58" ht="21" customHeight="1" spans="1:6">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="84" t="s">
+      <c r="C58" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="82" t="s">
+      <c r="E58" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="F58" s="89"/>
+      <c r="F58" s="90"/>
     </row>
     <row r="59" ht="21" customHeight="1" spans="1:5">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="82" t="s">
+      <c r="C59" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="D59" s="84" t="s">
+      <c r="D59" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="E59" s="82" t="s">
+      <c r="E59" s="83" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="1:5">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="B60" s="85" t="s">
+      <c r="B60" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="C60" s="82" t="s">
+      <c r="C60" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="D60" s="84" t="s">
+      <c r="D60" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="82" t="s">
+      <c r="E60" s="83" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:5">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="85" t="s">
+      <c r="B61" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="82" t="s">
+      <c r="C61" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="D61" s="84" t="s">
+      <c r="D61" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="E61" s="82"/>
+      <c r="E61" s="83"/>
     </row>
     <row r="62" ht="21" customHeight="1" spans="1:5">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="85" t="s">
+      <c r="B62" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="C62" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="84" t="s">
+      <c r="D62" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="E62" s="82"/>
+      <c r="E62" s="83"/>
     </row>
     <row r="63" ht="54" spans="1:5">
-      <c r="A63" s="82" t="s">
+      <c r="A63" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="C63" s="88"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="82" t="s">
+      <c r="C63" s="89"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="83" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="64" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A64" s="82" t="s">
+      <c r="A64" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="88"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="82" t="s">
+      <c r="C64" s="89"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="83" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="65" ht="36" spans="1:5">
-      <c r="A65" s="82" t="s">
+      <c r="A65" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="88"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="82" t="s">
+      <c r="C65" s="89"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="83" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="66" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A66" s="82" t="s">
+      <c r="A66" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="B66" s="85" t="s">
+      <c r="B66" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="C66" s="88"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="82" t="s">
+      <c r="C66" s="89"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="83" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="67" ht="38.25" customHeight="1" spans="1:5">
-      <c r="A67" s="82" t="s">
+      <c r="A67" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="82" t="s">
+      <c r="C67" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="D67" s="84" t="s">
+      <c r="D67" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="E67" s="82" t="s">
+      <c r="E67" s="83" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="68" ht="48" customHeight="1" spans="1:5">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="B68" s="85" t="s">
+      <c r="B68" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="84" t="s">
+      <c r="D68" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="E68" s="82" t="s">
+      <c r="E68" s="83" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="69" ht="18" spans="1:5">
-      <c r="A69" s="82" t="s">
+      <c r="A69" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="B69" s="85" t="s">
+      <c r="B69" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="82" t="s">
+      <c r="C69" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="82" t="s">
+      <c r="D69" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="E69" s="82" t="s">
+      <c r="E69" s="83" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" s="73" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A70" s="82" t="s">
+    <row r="70" s="74" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A70" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="83" t="s">
+      <c r="B70" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="C70" s="82" t="s">
+      <c r="C70" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="82" t="s">
+      <c r="D70" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="E70" s="82"/>
-    </row>
-    <row r="71" s="73" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A71" s="82" t="s">
+      <c r="E70" s="83"/>
+    </row>
+    <row r="71" s="74" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A71" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="B71" s="83" t="s">
+      <c r="B71" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="82" t="s">
+      <c r="C71" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="D71" s="90" t="s">
+      <c r="D71" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="E71" s="82"/>
-    </row>
-    <row r="72" s="73" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A72" s="82" t="s">
+      <c r="E71" s="83"/>
+    </row>
+    <row r="72" s="74" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A72" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="B72" s="83" t="s">
+      <c r="B72" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="82" t="s">
+      <c r="C72" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="D72" s="90" t="s">
+      <c r="D72" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="E72" s="82"/>
-    </row>
-    <row r="73" s="74" customFormat="1" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A73" s="82" t="s">
+      <c r="E72" s="83"/>
+    </row>
+    <row r="73" s="75" customFormat="1" ht="34.5" customHeight="1" spans="1:5">
+      <c r="A73" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="B73" s="85" t="s">
+      <c r="B73" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="90" t="s">
+      <c r="C73" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="E73" s="82"/>
+      <c r="E73" s="83"/>
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="B74" s="85" t="s">
+      <c r="B74" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C74" s="82" t="s">
+      <c r="C74" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="D74" s="84" t="s">
+      <c r="D74" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="E74" s="82"/>
+      <c r="E74" s="83"/>
     </row>
     <row r="75" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A75" s="82" t="s">
+      <c r="A75" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="B75" s="87" t="s">
+      <c r="B75" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="C75" s="82" t="s">
+      <c r="C75" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="D75" s="84" t="s">
+      <c r="D75" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="E75" s="82"/>
+      <c r="E75" s="83"/>
     </row>
     <row r="76" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A76" s="82" t="s">
+      <c r="A76" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="B76" s="83" t="s">
+      <c r="B76" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="C76" s="82" t="s">
+      <c r="C76" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="84" t="s">
+      <c r="D76" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="E76" s="82"/>
+      <c r="E76" s="83"/>
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A77" s="82" t="s">
+      <c r="A77" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="B77" s="83" t="s">
+      <c r="B77" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="C77" s="82" t="s">
+      <c r="C77" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="84" t="s">
+      <c r="D77" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="E77" s="82"/>
+      <c r="E77" s="83"/>
     </row>
     <row r="78" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A78" s="82" t="s">
+      <c r="A78" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="B78" s="91" t="s">
+      <c r="B78" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="C78" s="82" t="s">
+      <c r="C78" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="D78" s="84" t="s">
+      <c r="D78" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="E78" s="82"/>
+      <c r="E78" s="83"/>
     </row>
     <row r="79" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A79" s="82" t="s">
+      <c r="A79" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B79" s="91" t="s">
+      <c r="B79" s="92" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="82" t="s">
+      <c r="C79" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="D79" s="92" t="s">
+      <c r="D79" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="E79" s="82"/>
+      <c r="E79" s="83"/>
     </row>
     <row r="80" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A80" s="82" t="s">
+      <c r="A80" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="91" t="s">
+      <c r="B80" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="82" t="s">
+      <c r="C80" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="D80" s="92" t="s">
+      <c r="D80" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="E80" s="82"/>
+      <c r="E80" s="83"/>
     </row>
     <row r="81" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A81" s="82" t="s">
+      <c r="A81" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="B81" s="83" t="s">
+      <c r="B81" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="C81" s="82" t="s">
+      <c r="C81" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="D81" s="92" t="s">
+      <c r="D81" s="93" t="s">
         <v>275</v>
       </c>
-      <c r="E81" s="82"/>
+      <c r="E81" s="83"/>
     </row>
     <row r="82" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A82" s="82" t="s">
+      <c r="A82" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="83" t="s">
+      <c r="B82" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="93">
+      <c r="C82" s="94">
         <v>45383</v>
       </c>
-      <c r="D82" s="92" t="s">
+      <c r="D82" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="E82" s="82"/>
+      <c r="E82" s="83"/>
     </row>
     <row r="83" ht="54" spans="1:5">
-      <c r="A83" s="82" t="s">
+      <c r="A83" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="B83" s="85" t="s">
+      <c r="B83" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="C83" s="82"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="82" t="s">
+      <c r="C83" s="83"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="83" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="84" ht="54" spans="1:5">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="83" t="s">
         <v>282</v>
       </c>
-      <c r="B84" s="85" t="s">
+      <c r="B84" s="86" t="s">
         <v>283</v>
       </c>
-      <c r="C84" s="82"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="82" t="s">
+      <c r="C84" s="83"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="83" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="85" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="B85" s="85" t="s">
+      <c r="B85" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="82"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="82" t="s">
+      <c r="C85" s="83"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="83" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="86" ht="36" spans="1:5">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="85" t="s">
+      <c r="B86" s="86" t="s">
         <v>288</v>
       </c>
-      <c r="C86" s="82"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="82" t="s">
+      <c r="C86" s="83"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="83" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="87" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A87" s="82" t="s">
+      <c r="A87" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="B87" s="85" t="s">
+      <c r="B87" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="82" t="s">
+      <c r="C87" s="83"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="83" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="88" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="83" t="s">
         <v>292</v>
       </c>
-      <c r="B88" s="85" t="s">
+      <c r="B88" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="82" t="s">
+      <c r="C88" s="83"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="83" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" ht="48.75" customHeight="1" spans="1:5">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="B89" s="85" t="s">
+      <c r="B89" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="C89" s="82"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="82" t="s">
+      <c r="C89" s="83"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="83" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="90" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A90" s="82" t="s">
+      <c r="A90" s="83" t="s">
         <v>297</v>
       </c>
-      <c r="B90" s="85" t="s">
+      <c r="B90" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="C90" s="82"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="82" t="s">
+      <c r="C90" s="83"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="83" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="91" ht="51" customHeight="1" spans="1:5">
-      <c r="A91" s="82" t="s">
+      <c r="A91" s="83" t="s">
         <v>298</v>
       </c>
-      <c r="B91" s="85" t="s">
+      <c r="B91" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="C91" s="82"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="82" t="s">
+      <c r="C91" s="83"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="83" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="92" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A92" s="82" t="s">
+      <c r="A92" s="83" t="s">
         <v>301</v>
       </c>
-      <c r="B92" s="85" t="s">
+      <c r="B92" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="82"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="82" t="s">
+      <c r="C92" s="83"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="83" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" ht="48" customHeight="1" spans="1:5">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="83" t="s">
         <v>302</v>
       </c>
-      <c r="B93" s="85" t="s">
+      <c r="B93" s="86" t="s">
         <v>303</v>
       </c>
-      <c r="C93" s="82"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="82" t="s">
+      <c r="C93" s="83"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="83" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="94" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="B94" s="85" t="s">
+      <c r="B94" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="C94" s="82"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="82" t="s">
+      <c r="C94" s="83"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="83" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="95" ht="64.5" customHeight="1" spans="1:5">
-      <c r="A95" s="82" t="s">
+      <c r="A95" s="83" t="s">
         <v>306</v>
       </c>
-      <c r="B95" s="85" t="s">
+      <c r="B95" s="86" t="s">
         <v>307</v>
       </c>
-      <c r="C95" s="82"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="82" t="s">
+      <c r="C95" s="83"/>
+      <c r="D95" s="85"/>
+      <c r="E95" s="83" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="96" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A96" s="82" t="s">
+      <c r="A96" s="83" t="s">
         <v>309</v>
       </c>
-      <c r="B96" s="85" t="s">
+      <c r="B96" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="C96" s="82"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="82" t="s">
+      <c r="C96" s="83"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="83" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="97" ht="48.75" customHeight="1" spans="1:5">
-      <c r="A97" s="82" t="s">
+      <c r="A97" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="B97" s="85" t="s">
+      <c r="B97" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="C97" s="82"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="82" t="s">
+      <c r="C97" s="83"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="83" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="98" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A98" s="82" t="s">
+      <c r="A98" s="83" t="s">
         <v>313</v>
       </c>
-      <c r="B98" s="85" t="s">
+      <c r="B98" s="86" t="s">
         <v>314</v>
       </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="82" t="s">
+      <c r="C98" s="83"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="83" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="99" ht="38.25" customHeight="1" spans="1:5">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B99" s="85" t="s">
+      <c r="B99" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="82"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="82" t="s">
+      <c r="C99" s="83"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="83" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="100" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="83" t="s">
         <v>318</v>
       </c>
-      <c r="B100" s="85" t="s">
+      <c r="B100" s="86" t="s">
         <v>319</v>
       </c>
-      <c r="C100" s="82"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="82" t="s">
+      <c r="C100" s="83"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="83" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="101" ht="48" customHeight="1" spans="1:5">
-      <c r="A101" s="82" t="s">
+      <c r="A101" s="83" t="s">
         <v>320</v>
       </c>
-      <c r="B101" s="85" t="s">
+      <c r="B101" s="86" t="s">
         <v>321</v>
       </c>
-      <c r="C101" s="82"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="82" t="s">
+      <c r="C101" s="83"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="83" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="102" ht="33" customHeight="1" spans="1:5">
-      <c r="A102" s="82" t="s">
+      <c r="A102" s="83" t="s">
         <v>323</v>
       </c>
-      <c r="B102" s="85" t="s">
+      <c r="B102" s="86" t="s">
         <v>324</v>
       </c>
-      <c r="C102" s="82"/>
-      <c r="D102" s="84"/>
-      <c r="E102" s="82" t="s">
+      <c r="C102" s="83"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="83" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="103" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="83" t="s">
         <v>325</v>
       </c>
-      <c r="B103" s="85" t="s">
+      <c r="B103" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="C103" s="82"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="82" t="s">
+      <c r="C103" s="83"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="83" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="104" ht="46.5" customHeight="1" spans="1:5">
-      <c r="A104" s="82" t="s">
+      <c r="A104" s="83" t="s">
         <v>327</v>
       </c>
-      <c r="B104" s="85" t="s">
+      <c r="B104" s="86" t="s">
         <v>328</v>
       </c>
-      <c r="C104" s="82"/>
-      <c r="D104" s="84"/>
-      <c r="E104" s="82" t="s">
+      <c r="C104" s="83"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="83" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="105" ht="33" customHeight="1" spans="1:5">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="83" t="s">
         <v>330</v>
       </c>
-      <c r="B105" s="85" t="s">
+      <c r="B105" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="C105" s="82"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="82" t="s">
+      <c r="C105" s="83"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="83" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="106" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="B106" s="85" t="s">
+      <c r="B106" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="C106" s="82"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="82" t="s">
+      <c r="C106" s="83"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="83" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="107" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A107" s="82" t="s">
+      <c r="A107" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="85" t="s">
+      <c r="B107" s="86" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="82"/>
-      <c r="D107" s="84"/>
-      <c r="E107" s="82" t="s">
+      <c r="C107" s="83"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="83" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="108" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A108" s="82" t="s">
+      <c r="A108" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="B108" s="85" t="s">
+      <c r="B108" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="C108" s="82"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="82" t="s">
+      <c r="C108" s="83"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="83" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="109" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A109" s="82" t="s">
+      <c r="A109" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="85" t="s">
+      <c r="B109" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="C109" s="82"/>
-      <c r="D109" s="84"/>
-      <c r="E109" s="82" t="s">
+      <c r="C109" s="83"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="83" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="110" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A110" s="82" t="s">
+      <c r="A110" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="B110" s="85" t="s">
+      <c r="B110" s="86" t="s">
         <v>339</v>
       </c>
-      <c r="C110" s="82"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="82" t="s">
+      <c r="C110" s="83"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="83" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="111" ht="33" customHeight="1" spans="1:5">
-      <c r="A111" s="82" t="s">
+      <c r="A111" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="B111" s="85" t="s">
+      <c r="B111" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="C111" s="82"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="82" t="s">
+      <c r="C111" s="83"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="83" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="112" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A112" s="82" t="s">
+      <c r="A112" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="B112" s="85" t="s">
+      <c r="B112" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="C112" s="82"/>
-      <c r="D112" s="84"/>
-      <c r="E112" s="82" t="s">
+      <c r="C112" s="83"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="83" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="113" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A113" s="82" t="s">
+      <c r="A113" s="83" t="s">
         <v>342</v>
       </c>
-      <c r="B113" s="85" t="s">
+      <c r="B113" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="C113" s="82"/>
-      <c r="D113" s="84"/>
-      <c r="E113" s="82" t="s">
+      <c r="C113" s="83"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="83" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="114" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A114" s="82" t="s">
+      <c r="A114" s="83" t="s">
         <v>344</v>
       </c>
-      <c r="B114" s="85" t="s">
+      <c r="B114" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="C114" s="82"/>
-      <c r="D114" s="84"/>
-      <c r="E114" s="82" t="s">
+      <c r="C114" s="83"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="83" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="115" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A115" s="82" t="s">
+      <c r="A115" s="83" t="s">
         <v>345</v>
       </c>
-      <c r="B115" s="85" t="s">
+      <c r="B115" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="C115" s="82"/>
-      <c r="D115" s="84"/>
-      <c r="E115" s="82" t="s">
+      <c r="C115" s="83"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="83" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="116" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A116" s="82" t="s">
+      <c r="A116" s="83" t="s">
         <v>346</v>
       </c>
-      <c r="B116" s="85" t="s">
+      <c r="B116" s="86" t="s">
         <v>347</v>
       </c>
-      <c r="C116" s="82"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="82" t="s">
+      <c r="C116" s="83"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="83" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="117" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A117" s="82" t="s">
+      <c r="A117" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="B117" s="85" t="s">
+      <c r="B117" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="82"/>
-      <c r="D117" s="84"/>
-      <c r="E117" s="82" t="s">
+      <c r="C117" s="83"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="83" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="94"/>
+      <c r="A118" s="95"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B118">
@@ -7690,8 +7700,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11488,20 +11498,22 @@
         <v>842</v>
       </c>
       <c r="E230" s="57"/>
-      <c r="F230" s="62"/>
+      <c r="F230" s="68" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="231" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A231" s="46" t="s">
         <v>527</v>
       </c>
       <c r="B231" s="64" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C231" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D231" s="46" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E231" s="57"/>
       <c r="F231" s="62"/>
@@ -11511,13 +11523,13 @@
         <v>529</v>
       </c>
       <c r="B232" s="64" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C232" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D232" s="46" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E232" s="57"/>
       <c r="F232" s="62"/>
@@ -11527,13 +11539,13 @@
         <v>531</v>
       </c>
       <c r="B233" s="64" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C233" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D233" s="46" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E233" s="57"/>
       <c r="F233" s="62"/>
@@ -11543,13 +11555,13 @@
         <v>534</v>
       </c>
       <c r="B234" s="64" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C234" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D234" s="46" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E234" s="57"/>
       <c r="F234" s="62"/>
@@ -11559,13 +11571,13 @@
         <v>537</v>
       </c>
       <c r="B235" s="64" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C235" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D235" s="46" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E235" s="57"/>
       <c r="F235" s="62"/>
@@ -11575,13 +11587,13 @@
         <v>539</v>
       </c>
       <c r="B236" s="66" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C236" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D236" s="46" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E236" s="57"/>
       <c r="F236" s="62"/>
@@ -11591,13 +11603,13 @@
         <v>541</v>
       </c>
       <c r="B237" s="66" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C237" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D237" s="46" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E237" s="57"/>
       <c r="F237" s="62"/>
@@ -11607,13 +11619,13 @@
         <v>543</v>
       </c>
       <c r="B238" s="66" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C238" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D238" s="46" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E238" s="57"/>
       <c r="F238" s="62"/>
@@ -11623,13 +11635,13 @@
         <v>545</v>
       </c>
       <c r="B239" s="64" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C239" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D239" s="46" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E239" s="57"/>
       <c r="F239" s="62"/>
@@ -11639,17 +11651,17 @@
         <v>547</v>
       </c>
       <c r="B240" s="67" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C240" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D240" s="46" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E240" s="57"/>
       <c r="F240" s="62" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="241" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11657,17 +11669,17 @@
         <v>549</v>
       </c>
       <c r="B241" s="67" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C241" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D241" s="46" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E241" s="57"/>
       <c r="F241" s="62" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="242" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11675,13 +11687,13 @@
         <v>552</v>
       </c>
       <c r="B242" s="65" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C242" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D242" s="46" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E242" s="57"/>
       <c r="F242" s="62"/>
@@ -11691,13 +11703,13 @@
         <v>554</v>
       </c>
       <c r="B243" s="63" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C243" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D243" s="46" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E243" s="57"/>
       <c r="F243" s="62"/>
@@ -11707,13 +11719,13 @@
         <v>556</v>
       </c>
       <c r="B244" s="48" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C244" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D244" s="46" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E244" s="57"/>
       <c r="F244" s="62"/>
@@ -11723,13 +11735,13 @@
         <v>558</v>
       </c>
       <c r="B245" s="63" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C245" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D245" s="46" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E245" s="57"/>
       <c r="F245" s="62"/>
@@ -11739,16 +11751,16 @@
         <v>560</v>
       </c>
       <c r="B246" s="37" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C246" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D246" s="46" t="s">
-        <v>876</v>
-      </c>
-      <c r="E246" s="68" t="s">
         <v>877</v>
+      </c>
+      <c r="E246" s="69" t="s">
+        <v>878</v>
       </c>
       <c r="F246" s="54"/>
     </row>
@@ -11757,15 +11769,15 @@
         <v>562</v>
       </c>
       <c r="B247" s="37" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C247" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D247" s="46" t="s">
-        <v>879</v>
-      </c>
-      <c r="E247" s="68"/>
+        <v>880</v>
+      </c>
+      <c r="E247" s="69"/>
       <c r="F247" s="54"/>
     </row>
     <row r="248" ht="29.25" customHeight="1" spans="1:6">
@@ -11773,15 +11785,15 @@
         <v>564</v>
       </c>
       <c r="B248" s="37" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C248" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D248" s="46" t="s">
-        <v>881</v>
-      </c>
-      <c r="E248" s="68"/>
+        <v>882</v>
+      </c>
+      <c r="E248" s="69"/>
       <c r="F248" s="54"/>
     </row>
     <row r="249" ht="19.5" customHeight="1" spans="1:6">
@@ -11789,15 +11801,15 @@
         <v>566</v>
       </c>
       <c r="B249" s="37" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C249" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D249" s="46" t="s">
-        <v>883</v>
-      </c>
-      <c r="E249" s="68"/>
+        <v>884</v>
+      </c>
+      <c r="E249" s="69"/>
       <c r="F249" s="54"/>
     </row>
     <row r="250" ht="19.5" customHeight="1" spans="1:6">
@@ -11805,15 +11817,15 @@
         <v>568</v>
       </c>
       <c r="B250" s="37" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C250" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D250" s="46" t="s">
-        <v>885</v>
-      </c>
-      <c r="E250" s="68"/>
+        <v>886</v>
+      </c>
+      <c r="E250" s="69"/>
       <c r="F250" s="54"/>
     </row>
     <row r="251" ht="43.5" customHeight="1" spans="1:6">
@@ -11821,15 +11833,15 @@
         <v>570</v>
       </c>
       <c r="B251" s="37" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C251" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D251" s="46" t="s">
-        <v>887</v>
-      </c>
-      <c r="E251" s="68"/>
+        <v>888</v>
+      </c>
+      <c r="E251" s="69"/>
       <c r="F251" s="54"/>
     </row>
     <row r="252" s="41" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11837,7 +11849,7 @@
         <v>572</v>
       </c>
       <c r="B252" s="48" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C252" s="49"/>
       <c r="D252" s="46"/>
@@ -11851,7 +11863,7 @@
         <v>574</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C253" s="49"/>
       <c r="D253" s="46"/>
@@ -11865,19 +11877,19 @@
         <v>576</v>
       </c>
       <c r="B254" s="37" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C254" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D254" s="46" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E254" s="51" t="s">
         <v>329</v>
       </c>
       <c r="F254" s="56" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="255" ht="19.5" customHeight="1" spans="1:6">
@@ -11885,13 +11897,13 @@
         <v>578</v>
       </c>
       <c r="B255" s="37" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C255" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D255" s="46" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E255" s="51"/>
       <c r="F255" s="56"/>
@@ -11901,13 +11913,13 @@
         <v>580</v>
       </c>
       <c r="B256" s="37" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C256" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D256" s="46" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E256" s="51"/>
       <c r="F256" s="56"/>
@@ -11917,13 +11929,13 @@
         <v>582</v>
       </c>
       <c r="B257" s="37" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C257" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D257" s="46" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E257" s="46" t="s">
         <v>329</v>
@@ -11935,13 +11947,13 @@
         <v>584</v>
       </c>
       <c r="B258" s="37" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C258" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D258" s="46" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E258" s="46" t="s">
         <v>329</v>
@@ -11953,13 +11965,13 @@
         <v>586</v>
       </c>
       <c r="B259" s="37" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C259" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D259" s="46" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E259" s="46" t="s">
         <v>329</v>
@@ -11971,13 +11983,13 @@
         <v>589</v>
       </c>
       <c r="B260" s="37" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C260" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D260" s="46" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E260" s="46" t="s">
         <v>329</v>
@@ -11989,13 +12001,13 @@
         <v>592</v>
       </c>
       <c r="B261" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C261" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D261" s="46" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E261" s="46" t="s">
         <v>329</v>
@@ -12007,13 +12019,13 @@
         <v>595</v>
       </c>
       <c r="B262" s="37" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C262" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D262" s="46" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E262" s="46" t="s">
         <v>329</v>
@@ -12025,13 +12037,13 @@
         <v>598</v>
       </c>
       <c r="B263" s="37" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C263" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D263" s="46" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E263" s="46" t="s">
         <v>329</v>
@@ -12043,13 +12055,13 @@
         <v>604</v>
       </c>
       <c r="B264" s="37" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C264" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D264" s="46" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E264" s="46"/>
       <c r="F264" s="54"/>
@@ -12059,13 +12071,13 @@
         <v>607</v>
       </c>
       <c r="B265" s="37" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C265" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D265" s="46" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E265" s="46"/>
       <c r="F265" s="54"/>
@@ -12075,13 +12087,13 @@
         <v>610</v>
       </c>
       <c r="B266" s="37" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C266" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D266" s="46" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E266" s="46"/>
       <c r="F266" s="54"/>
@@ -12091,13 +12103,13 @@
         <v>613</v>
       </c>
       <c r="B267" s="37" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C267" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D267" s="46" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E267" s="46"/>
       <c r="F267" s="54"/>
@@ -12107,13 +12119,13 @@
         <v>619</v>
       </c>
       <c r="B268" s="37" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C268" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D268" s="46" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E268" s="46"/>
       <c r="F268" s="54"/>
@@ -12123,13 +12135,13 @@
         <v>622</v>
       </c>
       <c r="B269" s="37" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C269" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D269" s="46" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E269" s="46"/>
       <c r="F269" s="54"/>
@@ -12139,13 +12151,13 @@
         <v>625</v>
       </c>
       <c r="B270" s="37" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C270" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D270" s="46" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E270" s="46"/>
       <c r="F270" s="54"/>
@@ -12155,13 +12167,13 @@
         <v>628</v>
       </c>
       <c r="B271" s="37" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C271" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D271" s="46" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E271" s="46"/>
       <c r="F271" s="54"/>
@@ -12171,13 +12183,13 @@
         <v>631</v>
       </c>
       <c r="B272" s="37" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C272" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D272" s="46" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E272" s="46"/>
       <c r="F272" s="54"/>
@@ -12187,13 +12199,13 @@
         <v>634</v>
       </c>
       <c r="B273" s="37" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C273" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D273" s="46" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E273" s="46"/>
       <c r="F273" s="54"/>
@@ -12203,13 +12215,13 @@
         <v>637</v>
       </c>
       <c r="B274" s="37" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C274" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D274" s="46" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E274" s="46"/>
       <c r="F274" s="54"/>
@@ -12219,13 +12231,13 @@
         <v>640</v>
       </c>
       <c r="B275" s="37" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C275" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D275" s="46" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E275" s="46"/>
       <c r="F275" s="54"/>
@@ -12235,13 +12247,13 @@
         <v>643</v>
       </c>
       <c r="B276" s="37" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C276" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D276" s="46" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E276" s="46"/>
       <c r="F276" s="54"/>
@@ -12251,13 +12263,13 @@
         <v>646</v>
       </c>
       <c r="B277" s="37" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C277" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D277" s="46" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E277" s="46"/>
       <c r="F277" s="54"/>
@@ -12267,13 +12279,13 @@
         <v>649</v>
       </c>
       <c r="B278" s="37" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C278" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D278" s="46" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E278" s="46"/>
       <c r="F278" s="54"/>
@@ -12283,13 +12295,13 @@
         <v>652</v>
       </c>
       <c r="B279" s="37" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C279" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D279" s="46" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E279" s="46"/>
       <c r="F279" s="54"/>
@@ -12299,13 +12311,13 @@
         <v>655</v>
       </c>
       <c r="B280" s="37" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C280" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D280" s="46" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E280" s="46"/>
       <c r="F280" s="54"/>
@@ -12315,13 +12327,13 @@
         <v>658</v>
       </c>
       <c r="B281" s="37" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C281" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D281" s="46" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E281" s="46"/>
       <c r="F281" s="54"/>
@@ -12331,13 +12343,13 @@
         <v>661</v>
       </c>
       <c r="B282" s="37" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C282" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E282" s="46"/>
       <c r="F282" s="54"/>
@@ -12347,7 +12359,7 @@
         <v>664</v>
       </c>
       <c r="B283" s="48" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C283" s="49"/>
       <c r="D283" s="46"/>
@@ -12361,7 +12373,7 @@
         <v>667</v>
       </c>
       <c r="B284" s="48" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C284" s="49"/>
       <c r="D284" s="46"/>
@@ -12375,7 +12387,7 @@
         <v>670</v>
       </c>
       <c r="B285" s="48" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C285" s="49"/>
       <c r="D285" s="46"/>
@@ -12389,13 +12401,13 @@
         <v>673</v>
       </c>
       <c r="B286" s="37" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C286" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E286" s="57" t="s">
         <v>335</v>
@@ -12407,13 +12419,13 @@
         <v>676</v>
       </c>
       <c r="B287" s="37" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C287" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D287" s="46" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E287" s="57" t="s">
         <v>335</v>
@@ -12425,13 +12437,13 @@
         <v>679</v>
       </c>
       <c r="B288" s="37" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C288" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E288" s="57" t="s">
         <v>335</v>
@@ -12443,13 +12455,13 @@
         <v>682</v>
       </c>
       <c r="B289" s="37" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C289" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D289" s="46" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E289" s="57" t="s">
         <v>335</v>
@@ -12461,13 +12473,13 @@
         <v>685</v>
       </c>
       <c r="B290" s="37" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C290" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D290" s="46" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E290" s="57" t="s">
         <v>335</v>
@@ -12479,13 +12491,13 @@
         <v>688</v>
       </c>
       <c r="B291" s="37" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C291" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D291" s="46" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E291" s="57" t="s">
         <v>335</v>
@@ -12497,13 +12509,13 @@
         <v>691</v>
       </c>
       <c r="B292" s="37" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C292" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D292" s="46" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E292" s="57" t="s">
         <v>335</v>
@@ -12515,13 +12527,13 @@
         <v>694</v>
       </c>
       <c r="B293" s="37" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C293" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D293" s="46" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E293" s="57" t="s">
         <v>335</v>
@@ -12533,13 +12545,13 @@
         <v>697</v>
       </c>
       <c r="B294" s="37" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C294" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D294" s="46" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E294" s="57" t="s">
         <v>335</v>
@@ -12551,13 +12563,13 @@
         <v>699</v>
       </c>
       <c r="B295" s="37" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C295" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D295" s="46" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E295" s="57"/>
       <c r="F295" s="54"/>
@@ -12567,13 +12579,13 @@
         <v>702</v>
       </c>
       <c r="B296" s="37" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C296" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D296" s="46" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E296" s="57"/>
       <c r="F296" s="54"/>
@@ -12583,13 +12595,13 @@
         <v>704</v>
       </c>
       <c r="B297" s="37" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C297" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D297" s="46" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E297" s="57"/>
       <c r="F297" s="54"/>
@@ -12599,13 +12611,13 @@
         <v>706</v>
       </c>
       <c r="B298" s="37" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C298" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D298" s="46" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E298" s="57"/>
       <c r="F298" s="54"/>
@@ -12615,13 +12627,13 @@
         <v>708</v>
       </c>
       <c r="B299" s="37" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C299" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D299" s="46" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E299" s="57"/>
       <c r="F299" s="54"/>
@@ -12631,13 +12643,13 @@
         <v>710</v>
       </c>
       <c r="B300" s="37" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C300" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D300" s="46" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E300" s="57"/>
       <c r="F300" s="54"/>
@@ -12647,13 +12659,13 @@
         <v>712</v>
       </c>
       <c r="B301" s="37" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C301" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D301" s="46" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E301" s="57"/>
       <c r="F301" s="54"/>
@@ -12663,13 +12675,13 @@
         <v>714</v>
       </c>
       <c r="B302" s="37" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C302" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D302" s="46" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E302" s="57"/>
       <c r="F302" s="54"/>
@@ -12679,13 +12691,13 @@
         <v>716</v>
       </c>
       <c r="B303" s="37" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C303" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D303" s="46" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E303" s="57"/>
       <c r="F303" s="54"/>
@@ -12695,13 +12707,13 @@
         <v>718</v>
       </c>
       <c r="B304" s="37" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C304" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D304" s="46" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E304" s="57"/>
       <c r="F304" s="54"/>
@@ -12711,13 +12723,13 @@
         <v>720</v>
       </c>
       <c r="B305" s="37" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C305" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D305" s="46" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E305" s="57"/>
       <c r="F305" s="54"/>
@@ -12727,13 +12739,13 @@
         <v>722</v>
       </c>
       <c r="B306" s="37" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C306" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D306" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E306" s="57"/>
       <c r="F306" s="54"/>
@@ -12743,13 +12755,13 @@
         <v>724</v>
       </c>
       <c r="B307" s="37" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C307" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D307" s="46" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E307" s="57"/>
       <c r="F307" s="54"/>
@@ -12759,7 +12771,7 @@
         <v>726</v>
       </c>
       <c r="B308" s="48" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C308" s="49"/>
       <c r="D308" s="49"/>
@@ -12773,7 +12785,7 @@
         <v>728</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C309" s="49"/>
       <c r="D309" s="49"/>
@@ -12787,13 +12799,13 @@
         <v>730</v>
       </c>
       <c r="B310" s="37" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C310" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D310" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E310" s="57" t="s">
         <v>52</v>
@@ -12805,13 +12817,13 @@
         <v>732</v>
       </c>
       <c r="B311" s="37" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C311" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D311" s="46" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E311" s="57" t="s">
         <v>52</v>
@@ -12823,13 +12835,13 @@
         <v>734</v>
       </c>
       <c r="B312" s="37" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C312" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D312" s="46" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E312" s="57" t="s">
         <v>52</v>
@@ -12841,13 +12853,13 @@
         <v>736</v>
       </c>
       <c r="B313" s="37" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C313" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D313" s="46" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E313" s="57" t="s">
         <v>52</v>
@@ -12859,13 +12871,13 @@
         <v>738</v>
       </c>
       <c r="B314" s="37" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C314" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D314" s="46" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E314" s="57" t="s">
         <v>52</v>
@@ -12877,13 +12889,13 @@
         <v>740</v>
       </c>
       <c r="B315" s="37" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C315" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D315" s="46" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E315" s="57" t="s">
         <v>52</v>
@@ -12895,13 +12907,13 @@
         <v>742</v>
       </c>
       <c r="B316" s="37" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C316" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D316" s="46" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E316" s="57" t="s">
         <v>52</v>
@@ -12913,13 +12925,13 @@
         <v>744</v>
       </c>
       <c r="B317" s="37" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C317" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D317" s="46" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E317" s="57" t="s">
         <v>52</v>
@@ -12931,7 +12943,7 @@
         <v>746</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C318" s="49"/>
       <c r="D318" s="49"/>
@@ -12945,7 +12957,7 @@
         <v>748</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C319" s="49"/>
       <c r="D319" s="49"/>
@@ -12959,7 +12971,7 @@
         <v>750</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C320" s="49"/>
       <c r="D320" s="49"/>
@@ -12972,14 +12984,14 @@
       <c r="A321" s="46" t="s">
         <v>752</v>
       </c>
-      <c r="B321" s="69" t="s">
-        <v>1011</v>
+      <c r="B321" s="70" t="s">
+        <v>1012</v>
       </c>
       <c r="C321" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D321" s="46" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E321" s="57" t="s">
         <v>167</v>
@@ -12991,13 +13003,13 @@
         <v>754</v>
       </c>
       <c r="B322" s="37" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C322" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D322" s="46" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E322" s="57" t="s">
         <v>167</v>
@@ -13009,13 +13021,13 @@
         <v>756</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C323" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D323" s="46" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E323" s="57" t="s">
         <v>167</v>
@@ -13027,7 +13039,7 @@
         <v>758</v>
       </c>
       <c r="B324" s="48" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C324" s="49"/>
       <c r="D324" s="49"/>
@@ -13041,13 +13053,13 @@
         <v>760</v>
       </c>
       <c r="B325" s="37" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C325" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D325" s="46" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E325" s="46" t="s">
         <v>171</v>
@@ -13059,13 +13071,13 @@
         <v>762</v>
       </c>
       <c r="B326" s="37" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C326" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D326" s="46" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E326" s="46" t="s">
         <v>175</v>
@@ -13077,13 +13089,13 @@
         <v>764</v>
       </c>
       <c r="B327" s="37" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C327" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D327" s="46" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E327" s="46" t="s">
         <v>179</v>
@@ -13095,13 +13107,13 @@
         <v>766</v>
       </c>
       <c r="B328" s="37" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C328" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D328" s="46" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E328" s="46" t="s">
         <v>179</v>
@@ -13113,16 +13125,16 @@
         <v>768</v>
       </c>
       <c r="B329" s="37" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C329" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D329" s="46" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E329" s="46" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F329" s="54"/>
     </row>
@@ -13131,16 +13143,16 @@
         <v>770</v>
       </c>
       <c r="B330" s="37" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C330" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D330" s="46" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E330" s="46" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F330" s="54"/>
     </row>
@@ -13149,16 +13161,16 @@
         <v>772</v>
       </c>
       <c r="B331" s="37" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C331" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D331" s="46" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E331" s="46" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F331" s="54"/>
     </row>
@@ -13167,16 +13179,16 @@
         <v>774</v>
       </c>
       <c r="B332" s="37" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C332" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D332" s="46" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E332" s="46" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F332" s="54"/>
     </row>
@@ -13185,16 +13197,16 @@
         <v>776</v>
       </c>
       <c r="B333" s="37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C333" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D333" s="46" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E333" s="46" t="s">
         <v>1037</v>
-      </c>
-      <c r="C333" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D333" s="46" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E333" s="46" t="s">
-        <v>1036</v>
       </c>
       <c r="F333" s="54"/>
     </row>
@@ -13203,16 +13215,16 @@
         <v>778</v>
       </c>
       <c r="B334" s="37" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C334" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D334" s="46" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E334" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F334" s="54"/>
     </row>
@@ -13221,16 +13233,16 @@
         <v>780</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C335" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D335" s="46" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E335" s="46" t="s">
         <v>1042</v>
-      </c>
-      <c r="C335" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D335" s="46" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E335" s="46" t="s">
-        <v>1041</v>
       </c>
       <c r="F335" s="54"/>
     </row>
@@ -13239,16 +13251,16 @@
         <v>782</v>
       </c>
       <c r="B336" s="37" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C336" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D336" s="46" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E336" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F336" s="54"/>
     </row>
@@ -13257,13 +13269,13 @@
         <v>784</v>
       </c>
       <c r="B337" s="37" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C337" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D337" s="46" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E337" s="46" t="s">
         <v>183</v>
@@ -13275,13 +13287,13 @@
         <v>786</v>
       </c>
       <c r="B338" s="37" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C338" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D338" s="46" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E338" s="46" t="s">
         <v>183</v>
@@ -13293,7 +13305,7 @@
         <v>788</v>
       </c>
       <c r="B339" s="48" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C339" s="49"/>
       <c r="D339" s="49"/>
@@ -13307,16 +13319,16 @@
         <v>790</v>
       </c>
       <c r="B340" s="37" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C340" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D340" s="46" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E340" s="46" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F340" s="54"/>
     </row>
@@ -13325,16 +13337,16 @@
         <v>792</v>
       </c>
       <c r="B341" s="37" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C341" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D341" s="46" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E341" s="46" t="s">
         <v>1054</v>
-      </c>
-      <c r="C341" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D341" s="46" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E341" s="46" t="s">
-        <v>1053</v>
       </c>
       <c r="F341" s="54"/>
     </row>
@@ -13343,19 +13355,19 @@
         <v>794</v>
       </c>
       <c r="B342" s="37" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C342" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D342" s="46" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E342" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F342" s="56" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="343" ht="19.5" customHeight="1" spans="1:6">
@@ -13363,16 +13375,16 @@
         <v>796</v>
       </c>
       <c r="B343" s="37" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C343" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D343" s="46" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E343" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F343" s="56"/>
     </row>
@@ -13381,16 +13393,16 @@
         <v>798</v>
       </c>
       <c r="B344" s="37" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C344" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D344" s="46" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E344" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F344" s="56"/>
     </row>
@@ -13399,16 +13411,16 @@
         <v>800</v>
       </c>
       <c r="B345" s="37" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C345" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D345" s="46" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E345" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F345" s="56"/>
     </row>
@@ -13417,16 +13429,16 @@
         <v>802</v>
       </c>
       <c r="B346" s="37" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C346" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D346" s="46" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E346" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F346" s="56"/>
     </row>
@@ -13435,16 +13447,16 @@
         <v>804</v>
       </c>
       <c r="B347" s="37" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C347" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D347" s="46" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E347" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F347" s="56"/>
     </row>
@@ -13453,16 +13465,16 @@
         <v>806</v>
       </c>
       <c r="B348" s="37" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C348" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D348" s="46" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E348" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F348" s="56"/>
     </row>
@@ -13471,16 +13483,16 @@
         <v>808</v>
       </c>
       <c r="B349" s="37" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C349" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D349" s="46" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E349" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F349" s="56"/>
     </row>
@@ -13489,16 +13501,16 @@
         <v>810</v>
       </c>
       <c r="B350" s="37" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C350" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D350" s="46" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E350" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F350" s="56"/>
     </row>
@@ -13507,16 +13519,16 @@
         <v>812</v>
       </c>
       <c r="B351" s="37" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C351" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D351" s="46" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E351" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F351" s="56"/>
     </row>
@@ -13525,16 +13537,16 @@
         <v>814</v>
       </c>
       <c r="B352" s="37" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C352" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D352" s="46" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E352" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F352" s="56"/>
     </row>
@@ -13543,16 +13555,16 @@
         <v>816</v>
       </c>
       <c r="B353" s="37" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C353" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D353" s="46" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E353" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F353" s="56"/>
     </row>
@@ -13561,16 +13573,16 @@
         <v>818</v>
       </c>
       <c r="B354" s="37" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C354" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D354" s="46" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E354" s="46" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F354" s="54"/>
     </row>
@@ -13579,16 +13591,16 @@
         <v>820</v>
       </c>
       <c r="B355" s="37" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C355" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D355" s="46" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E355" s="46" t="s">
         <v>1085</v>
-      </c>
-      <c r="C355" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D355" s="46" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E355" s="46" t="s">
-        <v>1084</v>
       </c>
       <c r="F355" s="54"/>
     </row>
@@ -13597,13 +13609,13 @@
         <v>822</v>
       </c>
       <c r="B356" s="37" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C356" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D356" s="46" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E356" s="54"/>
       <c r="F356" s="54"/>
@@ -13613,13 +13625,13 @@
         <v>824</v>
       </c>
       <c r="B357" s="37" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C357" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D357" s="46" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E357" s="54"/>
       <c r="F357" s="54"/>
@@ -13629,13 +13641,13 @@
         <v>826</v>
       </c>
       <c r="B358" s="37" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C358" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D358" s="46" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E358" s="54"/>
       <c r="F358" s="54"/>
@@ -13645,13 +13657,13 @@
         <v>828</v>
       </c>
       <c r="B359" s="37" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C359" s="46" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D359" s="46" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E359" s="54"/>
       <c r="F359" s="54"/>
@@ -13661,13 +13673,13 @@
         <v>830</v>
       </c>
       <c r="B360" s="37" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C360" s="70">
+        <v>1097</v>
+      </c>
+      <c r="C360" s="71">
         <v>45313</v>
       </c>
       <c r="D360" s="46" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E360" s="54"/>
       <c r="F360" s="54"/>
@@ -13677,13 +13689,13 @@
         <v>832</v>
       </c>
       <c r="B361" s="37" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C361" s="71">
+        <v>1099</v>
+      </c>
+      <c r="C361" s="72">
         <v>45344</v>
       </c>
       <c r="D361" s="46" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E361" s="54"/>
       <c r="F361" s="54"/>
@@ -13693,13 +13705,13 @@
         <v>834</v>
       </c>
       <c r="B362" s="37" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C362" s="71">
+        <v>1101</v>
+      </c>
+      <c r="C362" s="72">
         <v>45344</v>
       </c>
       <c r="D362" s="46" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E362" s="54"/>
       <c r="F362" s="54"/>
@@ -13709,13 +13721,13 @@
         <v>836</v>
       </c>
       <c r="B363" s="37" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C363" s="71">
+        <v>1103</v>
+      </c>
+      <c r="C363" s="72">
         <v>45344</v>
       </c>
       <c r="D363" s="46" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E363" s="54"/>
       <c r="F363" s="54"/>
@@ -13725,13 +13737,13 @@
         <v>838</v>
       </c>
       <c r="B364" s="37" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C364" s="71">
+        <v>1105</v>
+      </c>
+      <c r="C364" s="72">
         <v>45344</v>
       </c>
       <c r="D364" s="46" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E364" s="54"/>
       <c r="F364" s="54"/>
@@ -13741,13 +13753,13 @@
         <v>840</v>
       </c>
       <c r="B365" s="37" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C365" s="71">
+        <v>1107</v>
+      </c>
+      <c r="C365" s="72">
         <v>45344</v>
       </c>
       <c r="D365" s="46" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E365" s="54"/>
       <c r="F365" s="54"/>
@@ -13757,125 +13769,125 @@
         <v>842</v>
       </c>
       <c r="B366" s="37" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C366" s="71">
+        <v>1109</v>
+      </c>
+      <c r="C366" s="72">
         <v>45344</v>
       </c>
       <c r="D366" s="46" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E366" s="54"/>
       <c r="F366" s="54"/>
     </row>
     <row r="367" ht="19.5" customHeight="1" spans="1:6">
       <c r="A367" s="46" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B367" s="37" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C367" s="71">
+        <v>1111</v>
+      </c>
+      <c r="C367" s="72">
         <v>45344</v>
       </c>
       <c r="D367" s="46" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E367" s="54"/>
       <c r="F367" s="54"/>
     </row>
     <row r="368" ht="19.5" customHeight="1" spans="1:6">
       <c r="A368" s="46" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B368" s="37" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C368" s="71">
+        <v>1113</v>
+      </c>
+      <c r="C368" s="72">
         <v>45344</v>
       </c>
       <c r="D368" s="46" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E368" s="54"/>
       <c r="F368" s="54"/>
     </row>
     <row r="369" ht="19.5" customHeight="1" spans="1:6">
       <c r="A369" s="46" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B369" s="37" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C369" s="71">
+        <v>1115</v>
+      </c>
+      <c r="C369" s="72">
         <v>45344</v>
       </c>
       <c r="D369" s="46" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E369" s="54"/>
       <c r="F369" s="54"/>
     </row>
     <row r="370" ht="19.5" customHeight="1" spans="1:6">
       <c r="A370" s="46" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B370" s="37" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C370" s="71">
+        <v>1117</v>
+      </c>
+      <c r="C370" s="72">
         <v>45344</v>
       </c>
       <c r="D370" s="46" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E370" s="54"/>
       <c r="F370" s="54"/>
     </row>
     <row r="371" ht="19.5" customHeight="1" spans="1:6">
       <c r="A371" s="46" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B371" s="37" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C371" s="71">
+        <v>1119</v>
+      </c>
+      <c r="C371" s="72">
         <v>45344</v>
       </c>
       <c r="D371" s="46" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E371" s="54"/>
       <c r="F371" s="54"/>
     </row>
     <row r="372" ht="19.5" customHeight="1" spans="1:6">
       <c r="A372" s="46" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B372" s="37" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C372" s="71">
+        <v>1121</v>
+      </c>
+      <c r="C372" s="72">
         <v>45344</v>
       </c>
       <c r="D372" s="46" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E372" s="54"/>
       <c r="F372" s="54"/>
     </row>
     <row r="373" ht="19.5" customHeight="1" spans="1:6">
       <c r="A373" s="46" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B373" s="37" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C373" s="71">
+        <v>1123</v>
+      </c>
+      <c r="C373" s="72">
         <v>45344</v>
       </c>
       <c r="D373" s="46" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E373" s="54"/>
       <c r="F373" s="54"/>
@@ -13925,7 +13937,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:5">
       <c r="A1" s="38" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -13934,7 +13946,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -13962,7 +13974,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>4</v>
@@ -13979,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>195</v>
@@ -13996,7 +14008,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>195</v>
@@ -14013,7 +14025,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>195</v>
@@ -14030,7 +14042,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>195</v>
@@ -14047,7 +14059,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>195</v>
@@ -14064,7 +14076,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>195</v>
@@ -14081,7 +14093,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>195</v>
@@ -14096,7 +14108,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>195</v>
@@ -14111,7 +14123,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>195</v>
@@ -14126,13 +14138,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E15" s="20"/>
     </row>
@@ -14168,7 +14180,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
       <c r="A1" s="15" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -14178,7 +14190,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14207,7 +14219,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>4</v>
@@ -14225,7 +14237,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>195</v>
@@ -14243,7 +14255,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>195</v>
@@ -14261,7 +14273,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>195</v>
@@ -14279,7 +14291,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>195</v>
@@ -14297,7 +14309,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>195</v>
@@ -14315,7 +14327,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>195</v>
@@ -14324,7 +14336,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F11" s="29"/>
     </row>
@@ -14333,7 +14345,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>195</v>
@@ -14351,7 +14363,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>195</v>
@@ -14360,7 +14372,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="F13" s="29"/>
     </row>
@@ -14369,7 +14381,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>195</v>
@@ -14387,12 +14399,12 @@
         <v>38</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F15" s="30"/>
     </row>
@@ -14401,7 +14413,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -14415,13 +14427,13 @@
         <v>45</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
@@ -14433,7 +14445,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>195</v>
@@ -14449,7 +14461,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>195</v>
@@ -14465,7 +14477,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>195</v>
@@ -14481,7 +14493,7 @@
         <v>384</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>195</v>
@@ -14497,7 +14509,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>195</v>
@@ -14513,7 +14525,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>195</v>
@@ -14529,7 +14541,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>195</v>
@@ -14545,7 +14557,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>195</v>
@@ -14561,7 +14573,7 @@
         <v>73</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>195</v>
@@ -14577,7 +14589,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>195</v>
@@ -14593,7 +14605,7 @@
         <v>80</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>195</v>
@@ -14609,7 +14621,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>195</v>
@@ -14625,7 +14637,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>195</v>
@@ -14641,7 +14653,7 @@
         <v>88</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>195</v>
@@ -14657,7 +14669,7 @@
         <v>91</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>195</v>
@@ -14673,13 +14685,13 @@
         <v>94</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="33"/>
@@ -14689,13 +14701,13 @@
         <v>97</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="33"/>
@@ -14705,7 +14717,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>195</v>
@@ -14715,7 +14727,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="36" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14723,7 +14735,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>195</v>
@@ -14739,7 +14751,7 @@
         <v>109</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>195</v>
@@ -14755,7 +14767,7 @@
         <v>113</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>195</v>
@@ -14771,7 +14783,7 @@
         <v>117</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>195</v>
@@ -14787,7 +14799,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>195</v>
@@ -14803,7 +14815,7 @@
         <v>125</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>195</v>
@@ -14819,13 +14831,13 @@
         <v>129</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31"/>
@@ -14835,7 +14847,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -14849,17 +14861,17 @@
         <v>136</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="31" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="45" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14867,13 +14879,13 @@
         <v>140</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="31"/>
@@ -14883,7 +14895,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>195</v>
@@ -14899,7 +14911,7 @@
         <v>147</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>195</v>
@@ -14915,7 +14927,7 @@
         <v>150</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>195</v>
@@ -14931,7 +14943,7 @@
         <v>154</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>195</v>
@@ -14947,7 +14959,7 @@
         <v>157</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>195</v>
@@ -14963,7 +14975,7 @@
         <v>160</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>195</v>
@@ -14979,7 +14991,7 @@
         <v>164</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>195</v>
@@ -14995,13 +15007,13 @@
         <v>168</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="31"/>
@@ -15011,13 +15023,13 @@
         <v>172</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="31"/>
@@ -15027,13 +15039,13 @@
         <v>176</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="31"/>
@@ -15043,13 +15055,13 @@
         <v>180</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="31"/>
@@ -15059,13 +15071,13 @@
         <v>184</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="31"/>
@@ -15075,7 +15087,7 @@
         <v>187</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>195</v>
@@ -15091,7 +15103,7 @@
         <v>190</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>195</v>
@@ -15107,7 +15119,7 @@
         <v>193</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>195</v>
@@ -15123,7 +15135,7 @@
         <v>198</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>195</v>
@@ -15139,7 +15151,7 @@
         <v>203</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>195</v>
@@ -15155,7 +15167,7 @@
         <v>208</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>195</v>
@@ -15171,7 +15183,7 @@
         <v>211</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>195</v>
@@ -15187,7 +15199,7 @@
         <v>214</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>195</v>
@@ -15203,13 +15215,13 @@
         <v>217</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="31"/>
@@ -15219,7 +15231,7 @@
         <v>219</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>195</v>
@@ -15247,7 +15259,7 @@
         <v>224</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>195</v>
@@ -15257,7 +15269,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="31" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="70" s="13" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -15265,7 +15277,7 @@
         <v>229</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>195</v>
@@ -15281,7 +15293,7 @@
         <v>234</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>195</v>
@@ -15297,7 +15309,7 @@
         <v>237</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>195</v>
@@ -15313,7 +15325,7 @@
         <v>241</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>195</v>
@@ -15329,7 +15341,7 @@
         <v>245</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>195</v>
@@ -15345,7 +15357,7 @@
         <v>248</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>195</v>
@@ -15361,7 +15373,7 @@
         <v>251</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>195</v>
@@ -15377,7 +15389,7 @@
         <v>254</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -15391,7 +15403,7 @@
         <v>257</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>195</v>
@@ -15409,13 +15421,13 @@
         <v>260</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="31"/>
@@ -15425,13 +15437,13 @@
         <v>263</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="31"/>
@@ -15441,13 +15453,13 @@
         <v>266</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31"/>
@@ -15457,13 +15469,13 @@
         <v>269</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31"/>
@@ -15473,13 +15485,13 @@
         <v>272</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31"/>
@@ -15489,13 +15501,13 @@
         <v>276</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="31"/>
@@ -15505,13 +15517,13 @@
         <v>279</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="31"/>
@@ -15521,13 +15533,13 @@
         <v>282</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="31"/>
@@ -15537,13 +15549,13 @@
         <v>285</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="31"/>
@@ -15553,13 +15565,13 @@
         <v>287</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="31"/>
@@ -15569,13 +15581,13 @@
         <v>289</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="31"/>
@@ -15585,13 +15597,13 @@
         <v>292</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="31"/>
@@ -15601,13 +15613,13 @@
         <v>294</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="31"/>
@@ -15617,13 +15629,13 @@
         <v>297</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="31"/>
@@ -15633,13 +15645,13 @@
         <v>298</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="31"/>
@@ -15649,13 +15661,13 @@
         <v>301</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="31"/>
@@ -15665,13 +15677,13 @@
         <v>302</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="31"/>
@@ -15681,13 +15693,13 @@
         <v>305</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="31"/>
@@ -15697,13 +15709,13 @@
         <v>306</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="31"/>
@@ -15713,13 +15725,13 @@
         <v>309</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="31"/>
@@ -15729,13 +15741,13 @@
         <v>310</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="31"/>
@@ -15745,13 +15757,13 @@
         <v>313</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="31"/>
@@ -15761,7 +15773,7 @@
         <v>315</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -15775,17 +15787,17 @@
         <v>318</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="31" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="103" s="13" customFormat="1" ht="30" customHeight="1" spans="1:6">
@@ -15793,13 +15805,13 @@
         <v>320</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="31"/>
@@ -15809,13 +15821,13 @@
         <v>323</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="31"/>
@@ -15825,13 +15837,13 @@
         <v>325</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C105" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="31"/>
@@ -15841,16 +15853,16 @@
         <v>327</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C106" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F106" s="31"/>
     </row>
@@ -15859,16 +15871,16 @@
         <v>330</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="F107" s="24"/>
     </row>
@@ -15877,13 +15889,13 @@
         <v>332</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E108" s="31"/>
       <c r="F108" s="24"/>
@@ -15893,13 +15905,13 @@
         <v>333</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E109" s="31"/>
       <c r="F109" s="24"/>
@@ -15909,7 +15921,7 @@
         <v>336</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>195</v>
@@ -15925,7 +15937,7 @@
         <v>337</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>195</v>
@@ -15941,7 +15953,7 @@
         <v>338</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>195</v>
@@ -15957,7 +15969,7 @@
         <v>340</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>195</v>
@@ -15967,7 +15979,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="114" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -15975,7 +15987,7 @@
         <v>341</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>195</v>
@@ -15991,7 +16003,7 @@
         <v>342</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>195</v>
@@ -16007,7 +16019,7 @@
         <v>344</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>195</v>
@@ -16023,7 +16035,7 @@
         <v>345</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>195</v>
@@ -16039,7 +16051,7 @@
         <v>346</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>195</v>
@@ -16055,7 +16067,7 @@
         <v>349</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>195</v>
@@ -16071,7 +16083,7 @@
         <v>587</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>195</v>
@@ -16087,7 +16099,7 @@
         <v>590</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>195</v>
@@ -16103,7 +16115,7 @@
         <v>593</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>195</v>
@@ -16119,7 +16131,7 @@
         <v>596</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>195</v>
@@ -16135,7 +16147,7 @@
         <v>599</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>195</v>
@@ -16151,7 +16163,7 @@
         <v>600</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>195</v>
@@ -16167,7 +16179,7 @@
         <v>602</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>195</v>
@@ -16183,7 +16195,7 @@
         <v>605</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>195</v>
@@ -16199,7 +16211,7 @@
         <v>608</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>195</v>
@@ -16215,7 +16227,7 @@
         <v>611</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>195</v>
@@ -16231,7 +16243,7 @@
         <v>614</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>195</v>
@@ -16247,7 +16259,7 @@
         <v>615</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>195</v>
@@ -16263,7 +16275,7 @@
         <v>617</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>195</v>
@@ -16279,7 +16291,7 @@
         <v>620</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>195</v>
@@ -16295,7 +16307,7 @@
         <v>623</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>195</v>
@@ -16311,7 +16323,7 @@
         <v>626</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>195</v>
@@ -16327,7 +16339,7 @@
         <v>629</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>195</v>
@@ -16343,7 +16355,7 @@
         <v>632</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>195</v>
@@ -16359,7 +16371,7 @@
         <v>635</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>195</v>
@@ -16375,7 +16387,7 @@
         <v>638</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>195</v>
@@ -16391,7 +16403,7 @@
         <v>641</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>195</v>
@@ -16407,7 +16419,7 @@
         <v>644</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>195</v>
@@ -16423,7 +16435,7 @@
         <v>647</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -16437,7 +16449,7 @@
         <v>650</v>
       </c>
       <c r="B143" s="37" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>195</v>
@@ -16449,7 +16461,7 @@
         <v>335</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="144" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16457,7 +16469,7 @@
         <v>653</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>195</v>
@@ -16475,7 +16487,7 @@
         <v>656</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>195</v>
@@ -16493,7 +16505,7 @@
         <v>659</v>
       </c>
       <c r="B146" s="37" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>195</v>
@@ -16511,7 +16523,7 @@
         <v>662</v>
       </c>
       <c r="B147" s="37" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C147" s="20" t="s">
         <v>195</v>
@@ -16529,7 +16541,7 @@
         <v>665</v>
       </c>
       <c r="B148" s="37" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>195</v>
@@ -16547,7 +16559,7 @@
         <v>668</v>
       </c>
       <c r="B149" s="37" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>195</v>
@@ -16565,7 +16577,7 @@
         <v>671</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>195</v>
@@ -16583,7 +16595,7 @@
         <v>674</v>
       </c>
       <c r="B151" s="37" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>195</v>
@@ -16601,7 +16613,7 @@
         <v>677</v>
       </c>
       <c r="B152" s="37" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>195</v>
@@ -16613,7 +16625,7 @@
         <v>52</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="153" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16621,7 +16633,7 @@
         <v>680</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>195</v>
@@ -16639,7 +16651,7 @@
         <v>683</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C154" s="20" t="s">
         <v>195</v>
@@ -16657,7 +16669,7 @@
         <v>686</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C155" s="20" t="s">
         <v>195</v>
@@ -16673,7 +16685,7 @@
         <v>689</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C156" s="20" t="s">
         <v>195</v>
@@ -16689,7 +16701,7 @@
         <v>692</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C157" s="20" t="s">
         <v>195</v>
@@ -16705,7 +16717,7 @@
         <v>367</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C158" s="20" t="s">
         <v>195</v>
@@ -16721,7 +16733,7 @@
         <v>369</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C159" s="20" t="s">
         <v>195</v>
@@ -16737,7 +16749,7 @@
         <v>371</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C160" s="20" t="s">
         <v>195</v>
@@ -16747,7 +16759,7 @@
       </c>
       <c r="E160" s="32"/>
       <c r="F160" s="31" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="161" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16755,7 +16767,7 @@
         <v>373</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C161" s="20" t="s">
         <v>195</v>
@@ -16771,7 +16783,7 @@
         <v>376</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>195</v>
@@ -16787,7 +16799,7 @@
         <v>379</v>
       </c>
       <c r="B163" s="37" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C163" s="20" t="s">
         <v>195</v>
@@ -16815,7 +16827,7 @@
         <v>383</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>195</v>
@@ -16833,7 +16845,7 @@
         <v>386</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C166" s="20" t="s">
         <v>195</v>
@@ -16849,7 +16861,7 @@
         <v>388</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C167" s="20" t="s">
         <v>195</v>
@@ -16865,7 +16877,7 @@
         <v>390</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>195</v>
@@ -16881,7 +16893,7 @@
         <v>393</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>195</v>
@@ -16897,7 +16909,7 @@
         <v>395</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C170" s="20" t="s">
         <v>195</v>
@@ -16913,7 +16925,7 @@
         <v>398</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C171" s="20" t="s">
         <v>195</v>
@@ -16979,13 +16991,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16993,7 +17005,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>58</v>
@@ -17004,10 +17016,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -17015,7 +17027,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -17026,7 +17038,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>75</v>
@@ -17037,7 +17049,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>79</v>
@@ -17048,7 +17060,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>90</v>
@@ -17059,7 +17071,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>93</v>
@@ -17070,7 +17082,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>96</v>
@@ -17081,7 +17093,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -17092,7 +17104,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>107</v>
@@ -17103,7 +17115,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>111</v>
@@ -17114,7 +17126,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>115</v>
@@ -17125,7 +17137,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>119</v>
@@ -17136,7 +17148,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>123</v>
@@ -17147,7 +17159,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>127</v>
@@ -17158,7 +17170,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>131</v>
@@ -17169,7 +17181,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>135</v>
@@ -17180,7 +17192,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>138</v>
@@ -17191,10 +17203,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -17202,10 +17214,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -17213,7 +17225,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>142</v>
@@ -17224,7 +17236,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>145</v>
@@ -17235,7 +17247,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>149</v>
@@ -17246,7 +17258,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>152</v>
@@ -17257,7 +17269,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>156</v>
@@ -17268,7 +17280,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>159</v>
@@ -17279,7 +17291,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>162</v>
@@ -17290,10 +17302,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -17301,10 +17313,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17312,10 +17324,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -17323,7 +17335,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>166</v>
@@ -17334,7 +17346,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>170</v>
@@ -17345,7 +17357,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>174</v>
@@ -17356,7 +17368,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>178</v>
@@ -17367,7 +17379,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>182</v>
@@ -17378,7 +17390,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>186</v>
@@ -17389,7 +17401,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>189</v>
@@ -17400,10 +17412,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -17411,10 +17423,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -17422,10 +17434,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -17433,10 +17445,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -17444,10 +17456,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -17455,7 +17467,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>192</v>
@@ -17466,7 +17478,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>196</v>
@@ -17477,7 +17489,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>201</v>
@@ -17488,7 +17500,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>206</v>
@@ -17499,7 +17511,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>227</v>
@@ -17510,7 +17522,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>232</v>
@@ -17521,7 +17533,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>236</v>
@@ -17532,7 +17544,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>240</v>
@@ -17543,10 +17555,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -17554,7 +17566,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>250</v>
@@ -17565,7 +17577,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>253</v>
@@ -17576,7 +17588,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>256</v>
@@ -17587,7 +17599,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>259</v>
@@ -17598,7 +17610,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>262</v>
@@ -17609,7 +17621,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>265</v>
@@ -17620,7 +17632,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>268</v>
@@ -17631,7 +17643,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>271</v>
@@ -17642,7 +17654,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>275</v>
@@ -17653,7 +17665,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>278</v>
@@ -17664,10 +17676,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -17675,10 +17687,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -17686,10 +17698,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -17697,10 +17709,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -17708,10 +17720,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -17719,10 +17731,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -17730,10 +17742,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -17741,10 +17753,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -17752,10 +17764,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17763,10 +17775,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -17774,10 +17786,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17785,10 +17797,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17796,10 +17808,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17807,10 +17819,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17818,10 +17830,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17829,10 +17841,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17840,10 +17852,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17851,10 +17863,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17862,10 +17874,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17873,10 +17885,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17884,10 +17896,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17895,10 +17907,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17906,10 +17918,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17917,10 +17929,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17928,10 +17940,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17939,10 +17951,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17950,10 +17962,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -17961,10 +17973,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -17972,10 +17984,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -17983,10 +17995,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -17994,7 +18006,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>325</v>
@@ -18005,7 +18017,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>327</v>
@@ -18016,7 +18028,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>330</v>
@@ -18027,7 +18039,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>332</v>
@@ -18038,7 +18050,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>333</v>
@@ -18049,7 +18061,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>336</v>
@@ -18060,7 +18072,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>337</v>
@@ -18071,7 +18083,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>338</v>
@@ -18082,7 +18094,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>340</v>
@@ -18093,7 +18105,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>341</v>
@@ -18104,7 +18116,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>342</v>
@@ -18115,7 +18127,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>344</v>
@@ -18126,7 +18138,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>345</v>
@@ -18137,7 +18149,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>346</v>
@@ -18148,7 +18160,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>349</v>
@@ -18159,7 +18171,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>587</v>
@@ -18170,7 +18182,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>590</v>
@@ -18181,7 +18193,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>593</v>
@@ -18192,7 +18204,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>596</v>
@@ -18203,7 +18215,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>599</v>
@@ -18214,7 +18226,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>600</v>
@@ -18225,7 +18237,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>602</v>
@@ -18236,7 +18248,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>605</v>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="1475">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -2493,6 +2493,9 @@
     <t>350</t>
   </si>
   <si>
+    <t>uploaded with sampul</t>
+  </si>
+  <si>
     <t>SOP pemantauan/ monitoring obat gawat darurat secara berkala</t>
   </si>
   <si>
@@ -2557,9 +2560,6 @@
   </si>
   <si>
     <t>361</t>
-  </si>
-  <si>
-    <t>uploaded with sampul</t>
   </si>
   <si>
     <t>SOP Pengelolaan Obat Kadaluarsa</t>
@@ -4464,12 +4464,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4571,24 +4571,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4602,41 +4593,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4648,16 +4609,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4678,23 +4631,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4709,6 +4671,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4771,37 +4771,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4819,19 +4807,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4843,31 +4861,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4879,25 +4921,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4909,43 +4945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5050,36 +5050,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5109,11 +5083,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5133,151 +5113,171 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5461,10 +5461,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5528,7 +5528,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7700,8 +7700,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="F231" sqref="F231"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11320,38 +11320,42 @@
       <c r="E219" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F219" s="54"/>
+      <c r="F219" s="68" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="220" ht="19.5" customHeight="1" spans="1:6">
       <c r="A220" s="46" t="s">
         <v>505</v>
       </c>
       <c r="B220" s="63" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C220" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D220" s="46" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E220" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F220" s="54"/>
+      <c r="F220" s="68" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="221" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A221" s="46" t="s">
         <v>507</v>
       </c>
       <c r="B221" s="64" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C221" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D221" s="46" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E221" s="57"/>
       <c r="F221" s="62"/>
@@ -11361,13 +11365,13 @@
         <v>509</v>
       </c>
       <c r="B222" s="64" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C222" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D222" s="46" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E222" s="57"/>
       <c r="F222" s="62"/>
@@ -11377,13 +11381,13 @@
         <v>511</v>
       </c>
       <c r="B223" s="64" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C223" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D223" s="46" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E223" s="57"/>
       <c r="F223" s="62"/>
@@ -11393,13 +11397,13 @@
         <v>513</v>
       </c>
       <c r="B224" s="64" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C224" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D224" s="46" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E224" s="57"/>
       <c r="F224" s="62"/>
@@ -11409,13 +11413,13 @@
         <v>515</v>
       </c>
       <c r="B225" s="64" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C225" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D225" s="46" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E225" s="57"/>
       <c r="F225" s="62"/>
@@ -11425,13 +11429,13 @@
         <v>517</v>
       </c>
       <c r="B226" s="64" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C226" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D226" s="46" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E226" s="57"/>
       <c r="F226" s="62"/>
@@ -11441,13 +11445,13 @@
         <v>519</v>
       </c>
       <c r="B227" s="64" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C227" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D227" s="46" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E227" s="57"/>
       <c r="F227" s="62"/>
@@ -11457,13 +11461,13 @@
         <v>521</v>
       </c>
       <c r="B228" s="64" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C228" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D228" s="46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E228" s="57"/>
       <c r="F228" s="62"/>
@@ -11473,13 +11477,13 @@
         <v>523</v>
       </c>
       <c r="B229" s="64" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C229" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D229" s="46" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E229" s="57"/>
       <c r="F229" s="62"/>
@@ -11489,17 +11493,17 @@
         <v>525</v>
       </c>
       <c r="B230" s="65" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C230" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D230" s="46" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E230" s="57"/>
       <c r="F230" s="68" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
     </row>
     <row r="231" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11718,7 +11722,7 @@
       <c r="A244" s="46" t="s">
         <v>556</v>
       </c>
-      <c r="B244" s="48" t="s">
+      <c r="B244" s="65" t="s">
         <v>872</v>
       </c>
       <c r="C244" s="46" t="s">
@@ -11728,7 +11732,9 @@
         <v>873</v>
       </c>
       <c r="E244" s="57"/>
-      <c r="F244" s="62"/>
+      <c r="F244" s="68" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="245" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A245" s="46" t="s">
@@ -13606,7 +13612,7 @@
     </row>
     <row r="356" ht="19.5" customHeight="1" spans="1:6">
       <c r="A356" s="46" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B356" s="37" t="s">
         <v>1088</v>
@@ -13622,7 +13628,7 @@
     </row>
     <row r="357" ht="19.5" customHeight="1" spans="1:6">
       <c r="A357" s="46" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B357" s="37" t="s">
         <v>1090</v>
@@ -13638,7 +13644,7 @@
     </row>
     <row r="358" ht="19.5" customHeight="1" spans="1:6">
       <c r="A358" s="46" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B358" s="37" t="s">
         <v>1092</v>
@@ -13654,7 +13660,7 @@
     </row>
     <row r="359" ht="19.5" customHeight="1" spans="1:6">
       <c r="A359" s="46" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B359" s="37" t="s">
         <v>1094</v>
@@ -13670,7 +13676,7 @@
     </row>
     <row r="360" ht="19.5" customHeight="1" spans="1:6">
       <c r="A360" s="46" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B360" s="37" t="s">
         <v>1097</v>
@@ -13686,7 +13692,7 @@
     </row>
     <row r="361" ht="19.5" customHeight="1" spans="1:6">
       <c r="A361" s="46" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B361" s="37" t="s">
         <v>1099</v>
@@ -13702,7 +13708,7 @@
     </row>
     <row r="362" ht="19.5" customHeight="1" spans="1:6">
       <c r="A362" s="46" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B362" s="37" t="s">
         <v>1101</v>
@@ -13718,7 +13724,7 @@
     </row>
     <row r="363" ht="19.5" customHeight="1" spans="1:6">
       <c r="A363" s="46" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B363" s="37" t="s">
         <v>1103</v>
@@ -13734,7 +13740,7 @@
     </row>
     <row r="364" ht="19.5" customHeight="1" spans="1:6">
       <c r="A364" s="46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B364" s="37" t="s">
         <v>1105</v>
@@ -13750,7 +13756,7 @@
     </row>
     <row r="365" ht="19.5" customHeight="1" spans="1:6">
       <c r="A365" s="46" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B365" s="37" t="s">
         <v>1107</v>
@@ -13766,7 +13772,7 @@
     </row>
     <row r="366" ht="19.5" customHeight="1" spans="1:6">
       <c r="A366" s="46" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B366" s="37" t="s">
         <v>1109</v>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1476">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -2467,6 +2467,9 @@
   </si>
   <si>
     <t>346</t>
+  </si>
+  <si>
+    <t>rawat jalan tidak perlu buat</t>
   </si>
   <si>
     <t>SOP pelayanan farmasi klinik</t>
@@ -4466,10 +4469,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
     <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4558,28 +4561,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4593,19 +4582,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4616,16 +4604,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4639,9 +4620,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4659,13 +4668,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4694,13 +4696,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -4708,7 +4703,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4771,96 +4774,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4873,7 +4786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4885,7 +4798,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4897,25 +4876,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4927,19 +4930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4951,7 +4942,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5060,16 +5063,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5083,17 +5086,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5138,154 +5150,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5454,6 +5457,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5930,37 +5934,37 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="59.5" style="76" customWidth="1"/>
-    <col min="3" max="3" width="19.6166666666667" style="77" customWidth="1"/>
-    <col min="4" max="4" width="18.8666666666667" style="77" customWidth="1"/>
+    <col min="2" max="2" width="59.5" style="77" customWidth="1"/>
+    <col min="3" max="3" width="19.6166666666667" style="78" customWidth="1"/>
+    <col min="4" max="4" width="18.8666666666667" style="78" customWidth="1"/>
     <col min="5" max="5" width="18.8666666666667" style="40" customWidth="1"/>
     <col min="6" max="1024" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" s="73" customFormat="1" ht="12" customHeight="1" spans="1:5">
-      <c r="A1" s="78" t="s">
+    <row r="1" s="74" customFormat="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-    </row>
-    <row r="2" s="73" customFormat="1" ht="12" customHeight="1" spans="1:5">
-      <c r="A2" s="78" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+    </row>
+    <row r="2" s="74" customFormat="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" ht="17.25" spans="1:5">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:5">
       <c r="A4" s="39" t="s">
@@ -5969,7 +5973,7 @@
       <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="83" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -5980,1706 +5984,1706 @@
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:5">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="84"/>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="83"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:5">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="84"/>
     </row>
     <row r="8" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="84" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="84" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:5">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="84"/>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:5">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="84" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:5">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="84" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:5">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="83"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" s="13" customFormat="1" ht="48.75" customHeight="1" spans="1:5">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="84" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:5">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="84" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:5">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:5">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="84"/>
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:5">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="83"/>
+      <c r="E20" s="84"/>
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:5">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="84" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:5">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="84"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:5">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="83"/>
+      <c r="E23" s="84"/>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:5">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="84" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:5">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="84"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:5">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="84"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:5">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="84"/>
     </row>
     <row r="28" ht="21" customHeight="1" spans="1:5">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="84"/>
     </row>
     <row r="29" ht="21" customHeight="1" spans="1:5">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="E29" s="84" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="83" t="s">
+      <c r="E30" s="84" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="83" t="s">
+      <c r="E31" s="84" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" ht="21" customHeight="1" spans="1:5">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="84" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" ht="47.25" customHeight="1" spans="1:5">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="E33" s="84" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" ht="36" customHeight="1" spans="1:5">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" ht="36" customHeight="1" spans="1:5">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="83" t="s">
+      <c r="E35" s="84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" ht="47.25" customHeight="1" spans="1:5">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="84" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37" ht="21" customHeight="1" spans="1:5">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="84" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" ht="48" customHeight="1" spans="1:5">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="84" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" ht="21" customHeight="1" spans="1:5">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="83" t="s">
+      <c r="E39" s="84" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="1:5">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="84" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="41" ht="21" customHeight="1" spans="1:5">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="86" t="s">
+      <c r="B41" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="83" t="s">
+      <c r="E41" s="84" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="42" ht="21" customHeight="1" spans="1:5">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="83" t="s">
+      <c r="E42" s="84" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:5">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="84" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:5">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="86" t="s">
+      <c r="B44" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="83" t="s">
+      <c r="E44" s="84" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="45" ht="36" customHeight="1" spans="1:5">
-      <c r="A45" s="83" t="s">
+      <c r="A45" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="85" t="s">
+      <c r="D45" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="83" t="s">
+      <c r="E45" s="84" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="1:6">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="87" t="s">
         <v>151</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="85" t="s">
+      <c r="D46" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="90"/>
+      <c r="F46" s="91"/>
     </row>
     <row r="47" ht="21" customHeight="1" spans="1:6">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="85" t="s">
+      <c r="D47" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="83" t="s">
+      <c r="E47" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="90"/>
+      <c r="F47" s="91"/>
     </row>
     <row r="48" ht="21" customHeight="1" spans="1:6">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="83" t="s">
+      <c r="C48" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="85" t="s">
+      <c r="D48" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="E48" s="83" t="s">
+      <c r="E48" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="90"/>
+      <c r="F48" s="91"/>
     </row>
     <row r="49" ht="21" customHeight="1" spans="1:5">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="85" t="s">
+      <c r="D49" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="83" t="s">
+      <c r="E49" s="84" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="50" ht="21" customHeight="1" spans="1:5">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="85" t="s">
+      <c r="D50" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="E50" s="83" t="s">
+      <c r="E50" s="84" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" ht="21" customHeight="1" spans="1:5">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="83" t="s">
+      <c r="E51" s="84" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="52" ht="21" customHeight="1" spans="1:5">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="85" t="s">
+      <c r="D52" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="83" t="s">
+      <c r="E52" s="84" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" ht="21" customHeight="1" spans="1:5">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="85" t="s">
+      <c r="D53" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="83" t="s">
+      <c r="E53" s="84" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="54" ht="21" customHeight="1" spans="1:5">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="86" t="s">
+      <c r="B54" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="85" t="s">
+      <c r="D54" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="E54" s="83" t="s">
+      <c r="E54" s="84" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="55" ht="21" customHeight="1" spans="1:5">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="C55" s="83" t="s">
+      <c r="C55" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="85" t="s">
+      <c r="D55" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="83"/>
+      <c r="E55" s="84"/>
     </row>
     <row r="56" ht="21" customHeight="1" spans="1:5">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="B56" s="84" t="s">
+      <c r="B56" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="83" t="s">
+      <c r="C56" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="85" t="s">
+      <c r="D56" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="83"/>
+      <c r="E56" s="84"/>
     </row>
     <row r="57" ht="21" customHeight="1" spans="1:5">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="85" t="s">
+      <c r="D57" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="E57" s="83"/>
+      <c r="E57" s="84"/>
     </row>
     <row r="58" ht="21" customHeight="1" spans="1:6">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="85" t="s">
+      <c r="C58" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="83" t="s">
+      <c r="E58" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="F58" s="90"/>
+      <c r="F58" s="91"/>
     </row>
     <row r="59" ht="21" customHeight="1" spans="1:5">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="C59" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="E59" s="83" t="s">
+      <c r="E59" s="84" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="60" ht="21" customHeight="1" spans="1:5">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="B60" s="86" t="s">
+      <c r="B60" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="C60" s="83" t="s">
+      <c r="C60" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="D60" s="85" t="s">
+      <c r="D60" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="83" t="s">
+      <c r="E60" s="84" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="61" ht="21" customHeight="1" spans="1:5">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="86" t="s">
+      <c r="B61" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="83" t="s">
+      <c r="C61" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="D61" s="85" t="s">
+      <c r="D61" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="E61" s="83"/>
+      <c r="E61" s="84"/>
     </row>
     <row r="62" ht="21" customHeight="1" spans="1:5">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="86" t="s">
+      <c r="B62" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="83" t="s">
+      <c r="C62" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="85" t="s">
+      <c r="D62" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="E62" s="83"/>
+      <c r="E62" s="84"/>
     </row>
     <row r="63" ht="54" spans="1:5">
-      <c r="A63" s="83" t="s">
+      <c r="A63" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="86" t="s">
+      <c r="B63" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="83" t="s">
+      <c r="C63" s="90"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="84" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="64" ht="32.25" customHeight="1" spans="1:5">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="B64" s="86" t="s">
+      <c r="B64" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="89"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="83" t="s">
+      <c r="C64" s="90"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="84" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="65" ht="36" spans="1:5">
-      <c r="A65" s="83" t="s">
+      <c r="A65" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="83" t="s">
+      <c r="C65" s="90"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="84" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="66" ht="33.75" customHeight="1" spans="1:5">
-      <c r="A66" s="83" t="s">
+      <c r="A66" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="83" t="s">
+      <c r="C66" s="90"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="84" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="67" ht="38.25" customHeight="1" spans="1:5">
-      <c r="A67" s="83" t="s">
+      <c r="A67" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="83" t="s">
+      <c r="C67" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="D67" s="85" t="s">
+      <c r="D67" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="E67" s="83" t="s">
+      <c r="E67" s="84" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="68" ht="48" customHeight="1" spans="1:5">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="B68" s="86" t="s">
+      <c r="B68" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="C68" s="83" t="s">
+      <c r="C68" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="E68" s="83" t="s">
+      <c r="E68" s="84" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="69" ht="18" spans="1:5">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="B69" s="86" t="s">
+      <c r="B69" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="83" t="s">
+      <c r="D69" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="E69" s="83" t="s">
+      <c r="E69" s="84" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" s="74" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A70" s="83" t="s">
+    <row r="70" s="75" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A70" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="84" t="s">
+      <c r="B70" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="C70" s="83" t="s">
+      <c r="C70" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="83" t="s">
+      <c r="D70" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="E70" s="83"/>
-    </row>
-    <row r="71" s="74" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A71" s="83" t="s">
+      <c r="E70" s="84"/>
+    </row>
+    <row r="71" s="75" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A71" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="85" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="83" t="s">
+      <c r="C71" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="D71" s="91" t="s">
+      <c r="D71" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="E71" s="83"/>
-    </row>
-    <row r="72" s="74" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A72" s="83" t="s">
+      <c r="E71" s="84"/>
+    </row>
+    <row r="72" s="75" customFormat="1" ht="19.5" customHeight="1" spans="1:5">
+      <c r="A72" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="83" t="s">
+      <c r="C72" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="D72" s="91" t="s">
+      <c r="D72" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="E72" s="83"/>
-    </row>
-    <row r="73" s="75" customFormat="1" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A73" s="83" t="s">
+      <c r="E72" s="84"/>
+    </row>
+    <row r="73" s="76" customFormat="1" ht="34.5" customHeight="1" spans="1:5">
+      <c r="A73" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="B73" s="86" t="s">
+      <c r="B73" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="91" t="s">
+      <c r="C73" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="E73" s="83"/>
+      <c r="E73" s="84"/>
     </row>
     <row r="74" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A74" s="83" t="s">
+      <c r="A74" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="B74" s="86" t="s">
+      <c r="B74" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C74" s="83" t="s">
+      <c r="C74" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="D74" s="85" t="s">
+      <c r="D74" s="86" t="s">
         <v>253</v>
       </c>
-      <c r="E74" s="83"/>
+      <c r="E74" s="84"/>
     </row>
     <row r="75" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="C75" s="83" t="s">
+      <c r="C75" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="D75" s="85" t="s">
+      <c r="D75" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="E75" s="83"/>
+      <c r="E75" s="84"/>
     </row>
     <row r="76" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="B76" s="84" t="s">
+      <c r="B76" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="D76" s="85" t="s">
+      <c r="D76" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="E76" s="83"/>
+      <c r="E76" s="84"/>
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="B77" s="84" t="s">
+      <c r="B77" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="C77" s="83" t="s">
+      <c r="C77" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="85" t="s">
+      <c r="D77" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="E77" s="83"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A78" s="83" t="s">
+      <c r="A78" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="B78" s="92" t="s">
+      <c r="B78" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="D78" s="85" t="s">
+      <c r="D78" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="E78" s="83"/>
+      <c r="E78" s="84"/>
     </row>
     <row r="79" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A79" s="83" t="s">
+      <c r="A79" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="B79" s="92" t="s">
+      <c r="B79" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="83" t="s">
+      <c r="C79" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="D79" s="93" t="s">
+      <c r="D79" s="94" t="s">
         <v>268</v>
       </c>
-      <c r="E79" s="83"/>
+      <c r="E79" s="84"/>
     </row>
     <row r="80" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A80" s="83" t="s">
+      <c r="A80" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="92" t="s">
+      <c r="B80" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="83" t="s">
+      <c r="C80" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="D80" s="93" t="s">
+      <c r="D80" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="E80" s="83"/>
+      <c r="E80" s="84"/>
     </row>
     <row r="81" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A81" s="83" t="s">
+      <c r="A81" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="B81" s="84" t="s">
+      <c r="B81" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="C81" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="D81" s="93" t="s">
+      <c r="D81" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="E81" s="83"/>
+      <c r="E81" s="84"/>
     </row>
     <row r="82" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A82" s="83" t="s">
+      <c r="A82" s="84" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="84" t="s">
+      <c r="B82" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="94">
+      <c r="C82" s="95">
         <v>45383</v>
       </c>
-      <c r="D82" s="93" t="s">
+      <c r="D82" s="94" t="s">
         <v>278</v>
       </c>
-      <c r="E82" s="83"/>
+      <c r="E82" s="84"/>
     </row>
     <row r="83" ht="54" spans="1:5">
-      <c r="A83" s="83" t="s">
+      <c r="A83" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="B83" s="86" t="s">
+      <c r="B83" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="83" t="s">
+      <c r="C83" s="84"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="84" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="84" ht="54" spans="1:5">
-      <c r="A84" s="83" t="s">
+      <c r="A84" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="B84" s="86" t="s">
+      <c r="B84" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="C84" s="83"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="83" t="s">
+      <c r="C84" s="84"/>
+      <c r="D84" s="86"/>
+      <c r="E84" s="84" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="85" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A85" s="83" t="s">
+      <c r="A85" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="B85" s="86" t="s">
+      <c r="B85" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="83" t="s">
+      <c r="C85" s="84"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="84" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="86" ht="36" spans="1:5">
-      <c r="A86" s="83" t="s">
+      <c r="A86" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="86" t="s">
+      <c r="B86" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="83" t="s">
+      <c r="C86" s="84"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="84" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="87" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A87" s="83" t="s">
+      <c r="A87" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="B87" s="86" t="s">
+      <c r="B87" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="C87" s="83"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="83" t="s">
+      <c r="C87" s="84"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="84" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="88" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A88" s="83" t="s">
+      <c r="A88" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B88" s="86" t="s">
+      <c r="B88" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="83"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="83" t="s">
+      <c r="C88" s="84"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="84" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" ht="48.75" customHeight="1" spans="1:5">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="B89" s="86" t="s">
+      <c r="B89" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="83" t="s">
+      <c r="C89" s="84"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="84" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="90" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A90" s="83" t="s">
+      <c r="A90" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="B90" s="86" t="s">
+      <c r="B90" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="83" t="s">
+      <c r="C90" s="84"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="84" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="91" ht="51" customHeight="1" spans="1:5">
-      <c r="A91" s="83" t="s">
+      <c r="A91" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="B91" s="86" t="s">
+      <c r="B91" s="87" t="s">
         <v>299</v>
       </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="83" t="s">
+      <c r="C91" s="84"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="84" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="92" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="84" t="s">
         <v>301</v>
       </c>
-      <c r="B92" s="86" t="s">
+      <c r="B92" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="83" t="s">
+      <c r="C92" s="84"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="84" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="93" ht="48" customHeight="1" spans="1:5">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="B93" s="86" t="s">
+      <c r="B93" s="87" t="s">
         <v>303</v>
       </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="83" t="s">
+      <c r="C93" s="84"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="84" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="94" ht="18.75" customHeight="1" spans="1:5">
-      <c r="A94" s="83" t="s">
+      <c r="A94" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="B94" s="86" t="s">
+      <c r="B94" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="C94" s="83"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="83" t="s">
+      <c r="C94" s="84"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="84" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="95" ht="64.5" customHeight="1" spans="1:5">
-      <c r="A95" s="83" t="s">
+      <c r="A95" s="84" t="s">
         <v>306</v>
       </c>
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="C95" s="83"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="83" t="s">
+      <c r="C95" s="84"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="84" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="96" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A96" s="83" t="s">
+      <c r="A96" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="B96" s="86" t="s">
+      <c r="B96" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="C96" s="83"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="83" t="s">
+      <c r="C96" s="84"/>
+      <c r="D96" s="86"/>
+      <c r="E96" s="84" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="97" ht="48.75" customHeight="1" spans="1:5">
-      <c r="A97" s="83" t="s">
+      <c r="A97" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="B97" s="86" t="s">
+      <c r="B97" s="87" t="s">
         <v>311</v>
       </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="85"/>
-      <c r="E97" s="83" t="s">
+      <c r="C97" s="84"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="84" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="98" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A98" s="83" t="s">
+      <c r="A98" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="B98" s="86" t="s">
+      <c r="B98" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="83" t="s">
+      <c r="C98" s="84"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="84" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="99" ht="38.25" customHeight="1" spans="1:5">
-      <c r="A99" s="83" t="s">
+      <c r="A99" s="84" t="s">
         <v>315</v>
       </c>
-      <c r="B99" s="86" t="s">
+      <c r="B99" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="83"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="83" t="s">
+      <c r="C99" s="84"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="84" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="100" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A100" s="83" t="s">
+      <c r="A100" s="84" t="s">
         <v>318</v>
       </c>
-      <c r="B100" s="86" t="s">
+      <c r="B100" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="83" t="s">
+      <c r="C100" s="84"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="84" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="101" ht="48" customHeight="1" spans="1:5">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="84" t="s">
         <v>320</v>
       </c>
-      <c r="B101" s="86" t="s">
+      <c r="B101" s="87" t="s">
         <v>321</v>
       </c>
-      <c r="C101" s="83"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="83" t="s">
+      <c r="C101" s="84"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="84" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="102" ht="33" customHeight="1" spans="1:5">
-      <c r="A102" s="83" t="s">
+      <c r="A102" s="84" t="s">
         <v>323</v>
       </c>
-      <c r="B102" s="86" t="s">
+      <c r="B102" s="87" t="s">
         <v>324</v>
       </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="83" t="s">
+      <c r="C102" s="84"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="84" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="103" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A103" s="83" t="s">
+      <c r="A103" s="84" t="s">
         <v>325</v>
       </c>
-      <c r="B103" s="86" t="s">
+      <c r="B103" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="83" t="s">
+      <c r="C103" s="84"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="84" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="104" ht="46.5" customHeight="1" spans="1:5">
-      <c r="A104" s="83" t="s">
+      <c r="A104" s="84" t="s">
         <v>327</v>
       </c>
-      <c r="B104" s="86" t="s">
+      <c r="B104" s="87" t="s">
         <v>328</v>
       </c>
-      <c r="C104" s="83"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="83" t="s">
+      <c r="C104" s="84"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="84" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="105" ht="33" customHeight="1" spans="1:5">
-      <c r="A105" s="83" t="s">
+      <c r="A105" s="84" t="s">
         <v>330</v>
       </c>
-      <c r="B105" s="86" t="s">
+      <c r="B105" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="83" t="s">
+      <c r="C105" s="84"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="84" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="106" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A106" s="83" t="s">
+      <c r="A106" s="84" t="s">
         <v>332</v>
       </c>
-      <c r="B106" s="86" t="s">
+      <c r="B106" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="C106" s="83"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="83" t="s">
+      <c r="C106" s="84"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="84" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="107" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A107" s="83" t="s">
+      <c r="A107" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="86" t="s">
+      <c r="B107" s="87" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="83"/>
-      <c r="D107" s="85"/>
-      <c r="E107" s="83" t="s">
+      <c r="C107" s="84"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="84" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="108" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A108" s="83" t="s">
+      <c r="A108" s="84" t="s">
         <v>336</v>
       </c>
-      <c r="B108" s="86" t="s">
+      <c r="B108" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="83" t="s">
+      <c r="C108" s="84"/>
+      <c r="D108" s="86"/>
+      <c r="E108" s="84" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="109" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A109" s="83" t="s">
+      <c r="A109" s="84" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="86" t="s">
+      <c r="B109" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="85"/>
-      <c r="E109" s="83" t="s">
+      <c r="C109" s="84"/>
+      <c r="D109" s="86"/>
+      <c r="E109" s="84" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="110" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A110" s="83" t="s">
+      <c r="A110" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="B110" s="86" t="s">
+      <c r="B110" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="C110" s="83"/>
-      <c r="D110" s="85"/>
-      <c r="E110" s="83" t="s">
+      <c r="C110" s="84"/>
+      <c r="D110" s="86"/>
+      <c r="E110" s="84" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="111" ht="33" customHeight="1" spans="1:5">
-      <c r="A111" s="83" t="s">
+      <c r="A111" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="B111" s="86" t="s">
+      <c r="B111" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="C111" s="83"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="83" t="s">
+      <c r="C111" s="84"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="84" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="112" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A112" s="83" t="s">
+      <c r="A112" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="B112" s="86" t="s">
+      <c r="B112" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="85"/>
-      <c r="E112" s="83" t="s">
+      <c r="C112" s="84"/>
+      <c r="D112" s="86"/>
+      <c r="E112" s="84" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="113" ht="49.5" customHeight="1" spans="1:5">
-      <c r="A113" s="83" t="s">
+      <c r="A113" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="B113" s="86" t="s">
+      <c r="B113" s="87" t="s">
         <v>343</v>
       </c>
-      <c r="C113" s="83"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="83" t="s">
+      <c r="C113" s="84"/>
+      <c r="D113" s="86"/>
+      <c r="E113" s="84" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="114" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A114" s="83" t="s">
+      <c r="A114" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="B114" s="86" t="s">
+      <c r="B114" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="85"/>
-      <c r="E114" s="83" t="s">
+      <c r="C114" s="84"/>
+      <c r="D114" s="86"/>
+      <c r="E114" s="84" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="115" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A115" s="83" t="s">
+      <c r="A115" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="B115" s="86" t="s">
+      <c r="B115" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="C115" s="83"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="83" t="s">
+      <c r="C115" s="84"/>
+      <c r="D115" s="86"/>
+      <c r="E115" s="84" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="116" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A116" s="83" t="s">
+      <c r="A116" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="B116" s="86" t="s">
+      <c r="B116" s="87" t="s">
         <v>347</v>
       </c>
-      <c r="C116" s="83"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="83" t="s">
+      <c r="C116" s="84"/>
+      <c r="D116" s="86"/>
+      <c r="E116" s="84" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="117" ht="34.5" customHeight="1" spans="1:5">
-      <c r="A117" s="83" t="s">
+      <c r="A117" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="B117" s="86" t="s">
+      <c r="B117" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="83"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="83" t="s">
+      <c r="C117" s="84"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="84" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="95"/>
+      <c r="A118" s="96"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B118">
@@ -7700,8 +7704,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11248,20 +11252,22 @@
       <c r="E215" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F215" s="54"/>
+      <c r="F215" s="68" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="216" ht="19.5" customHeight="1" spans="1:6">
       <c r="A216" s="46" t="s">
         <v>497</v>
       </c>
       <c r="B216" s="63" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C216" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D216" s="46" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E216" s="46" t="s">
         <v>146</v>
@@ -11273,13 +11279,13 @@
         <v>499</v>
       </c>
       <c r="B217" s="63" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C217" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D217" s="46" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E217" s="46" t="s">
         <v>146</v>
@@ -11291,13 +11297,13 @@
         <v>501</v>
       </c>
       <c r="B218" s="63" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C218" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D218" s="46" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E218" s="46" t="s">
         <v>146</v>
@@ -11309,19 +11315,19 @@
         <v>503</v>
       </c>
       <c r="B219" s="63" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C219" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D219" s="46" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E219" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F219" s="68" t="s">
-        <v>821</v>
+      <c r="F219" s="69" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="220" ht="19.5" customHeight="1" spans="1:6">
@@ -11329,19 +11335,19 @@
         <v>505</v>
       </c>
       <c r="B220" s="63" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C220" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D220" s="46" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E220" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F220" s="68" t="s">
-        <v>821</v>
+      <c r="F220" s="69" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="221" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11349,13 +11355,13 @@
         <v>507</v>
       </c>
       <c r="B221" s="64" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C221" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D221" s="46" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E221" s="57"/>
       <c r="F221" s="62"/>
@@ -11365,13 +11371,13 @@
         <v>509</v>
       </c>
       <c r="B222" s="64" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C222" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D222" s="46" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E222" s="57"/>
       <c r="F222" s="62"/>
@@ -11381,13 +11387,13 @@
         <v>511</v>
       </c>
       <c r="B223" s="64" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C223" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D223" s="46" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E223" s="57"/>
       <c r="F223" s="62"/>
@@ -11397,13 +11403,13 @@
         <v>513</v>
       </c>
       <c r="B224" s="64" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C224" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D224" s="46" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E224" s="57"/>
       <c r="F224" s="62"/>
@@ -11413,13 +11419,13 @@
         <v>515</v>
       </c>
       <c r="B225" s="64" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C225" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D225" s="46" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E225" s="57"/>
       <c r="F225" s="62"/>
@@ -11429,13 +11435,13 @@
         <v>517</v>
       </c>
       <c r="B226" s="64" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C226" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D226" s="46" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E226" s="57"/>
       <c r="F226" s="62"/>
@@ -11445,13 +11451,13 @@
         <v>519</v>
       </c>
       <c r="B227" s="64" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C227" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D227" s="46" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E227" s="57"/>
       <c r="F227" s="62"/>
@@ -11461,13 +11467,13 @@
         <v>521</v>
       </c>
       <c r="B228" s="64" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C228" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D228" s="46" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E228" s="57"/>
       <c r="F228" s="62"/>
@@ -11477,13 +11483,13 @@
         <v>523</v>
       </c>
       <c r="B229" s="64" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C229" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D229" s="46" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E229" s="57"/>
       <c r="F229" s="62"/>
@@ -11493,17 +11499,17 @@
         <v>525</v>
       </c>
       <c r="B230" s="65" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C230" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D230" s="46" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E230" s="57"/>
-      <c r="F230" s="68" t="s">
-        <v>821</v>
+      <c r="F230" s="69" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="231" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11511,13 +11517,13 @@
         <v>527</v>
       </c>
       <c r="B231" s="64" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C231" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D231" s="46" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E231" s="57"/>
       <c r="F231" s="62"/>
@@ -11527,13 +11533,13 @@
         <v>529</v>
       </c>
       <c r="B232" s="64" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C232" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D232" s="46" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E232" s="57"/>
       <c r="F232" s="62"/>
@@ -11543,13 +11549,13 @@
         <v>531</v>
       </c>
       <c r="B233" s="64" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C233" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D233" s="46" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E233" s="57"/>
       <c r="F233" s="62"/>
@@ -11559,13 +11565,13 @@
         <v>534</v>
       </c>
       <c r="B234" s="64" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C234" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D234" s="46" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E234" s="57"/>
       <c r="F234" s="62"/>
@@ -11575,13 +11581,13 @@
         <v>537</v>
       </c>
       <c r="B235" s="64" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C235" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D235" s="46" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E235" s="57"/>
       <c r="F235" s="62"/>
@@ -11591,13 +11597,13 @@
         <v>539</v>
       </c>
       <c r="B236" s="66" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C236" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D236" s="46" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E236" s="57"/>
       <c r="F236" s="62"/>
@@ -11607,13 +11613,13 @@
         <v>541</v>
       </c>
       <c r="B237" s="66" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C237" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D237" s="46" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E237" s="57"/>
       <c r="F237" s="62"/>
@@ -11623,13 +11629,13 @@
         <v>543</v>
       </c>
       <c r="B238" s="66" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C238" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D238" s="46" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E238" s="57"/>
       <c r="F238" s="62"/>
@@ -11639,13 +11645,13 @@
         <v>545</v>
       </c>
       <c r="B239" s="64" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C239" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D239" s="46" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E239" s="57"/>
       <c r="F239" s="62"/>
@@ -11655,17 +11661,17 @@
         <v>547</v>
       </c>
       <c r="B240" s="67" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C240" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D240" s="46" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E240" s="57"/>
       <c r="F240" s="62" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="241" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11673,17 +11679,17 @@
         <v>549</v>
       </c>
       <c r="B241" s="67" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C241" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D241" s="46" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E241" s="57"/>
       <c r="F241" s="62" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="242" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11691,13 +11697,13 @@
         <v>552</v>
       </c>
       <c r="B242" s="65" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C242" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D242" s="46" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E242" s="57"/>
       <c r="F242" s="62"/>
@@ -11707,33 +11713,35 @@
         <v>554</v>
       </c>
       <c r="B243" s="63" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C243" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D243" s="46" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E243" s="57"/>
-      <c r="F243" s="62"/>
+      <c r="F243" s="69" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="244" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A244" s="46" t="s">
         <v>556</v>
       </c>
       <c r="B244" s="65" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C244" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D244" s="46" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E244" s="57"/>
-      <c r="F244" s="68" t="s">
-        <v>821</v>
+      <c r="F244" s="69" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="245" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11741,13 +11749,13 @@
         <v>558</v>
       </c>
       <c r="B245" s="63" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C245" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D245" s="46" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E245" s="57"/>
       <c r="F245" s="62"/>
@@ -11757,16 +11765,16 @@
         <v>560</v>
       </c>
       <c r="B246" s="37" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C246" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D246" s="46" t="s">
-        <v>877</v>
-      </c>
-      <c r="E246" s="69" t="s">
         <v>878</v>
+      </c>
+      <c r="E246" s="70" t="s">
+        <v>879</v>
       </c>
       <c r="F246" s="54"/>
     </row>
@@ -11775,15 +11783,15 @@
         <v>562</v>
       </c>
       <c r="B247" s="37" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C247" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D247" s="46" t="s">
-        <v>880</v>
-      </c>
-      <c r="E247" s="69"/>
+        <v>881</v>
+      </c>
+      <c r="E247" s="70"/>
       <c r="F247" s="54"/>
     </row>
     <row r="248" ht="29.25" customHeight="1" spans="1:6">
@@ -11791,15 +11799,15 @@
         <v>564</v>
       </c>
       <c r="B248" s="37" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C248" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D248" s="46" t="s">
-        <v>882</v>
-      </c>
-      <c r="E248" s="69"/>
+        <v>883</v>
+      </c>
+      <c r="E248" s="70"/>
       <c r="F248" s="54"/>
     </row>
     <row r="249" ht="19.5" customHeight="1" spans="1:6">
@@ -11807,15 +11815,15 @@
         <v>566</v>
       </c>
       <c r="B249" s="37" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C249" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D249" s="46" t="s">
-        <v>884</v>
-      </c>
-      <c r="E249" s="69"/>
+        <v>885</v>
+      </c>
+      <c r="E249" s="70"/>
       <c r="F249" s="54"/>
     </row>
     <row r="250" ht="19.5" customHeight="1" spans="1:6">
@@ -11823,15 +11831,15 @@
         <v>568</v>
       </c>
       <c r="B250" s="37" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C250" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D250" s="46" t="s">
-        <v>886</v>
-      </c>
-      <c r="E250" s="69"/>
+        <v>887</v>
+      </c>
+      <c r="E250" s="70"/>
       <c r="F250" s="54"/>
     </row>
     <row r="251" ht="43.5" customHeight="1" spans="1:6">
@@ -11839,15 +11847,15 @@
         <v>570</v>
       </c>
       <c r="B251" s="37" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C251" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D251" s="46" t="s">
-        <v>888</v>
-      </c>
-      <c r="E251" s="69"/>
+        <v>889</v>
+      </c>
+      <c r="E251" s="70"/>
       <c r="F251" s="54"/>
     </row>
     <row r="252" s="41" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11855,7 +11863,7 @@
         <v>572</v>
       </c>
       <c r="B252" s="48" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C252" s="49"/>
       <c r="D252" s="46"/>
@@ -11869,7 +11877,7 @@
         <v>574</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C253" s="49"/>
       <c r="D253" s="46"/>
@@ -11883,19 +11891,19 @@
         <v>576</v>
       </c>
       <c r="B254" s="37" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C254" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D254" s="46" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E254" s="51" t="s">
         <v>329</v>
       </c>
       <c r="F254" s="56" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="255" ht="19.5" customHeight="1" spans="1:6">
@@ -11903,13 +11911,13 @@
         <v>578</v>
       </c>
       <c r="B255" s="37" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C255" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D255" s="46" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E255" s="51"/>
       <c r="F255" s="56"/>
@@ -11919,13 +11927,13 @@
         <v>580</v>
       </c>
       <c r="B256" s="37" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C256" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D256" s="46" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E256" s="51"/>
       <c r="F256" s="56"/>
@@ -11935,13 +11943,13 @@
         <v>582</v>
       </c>
       <c r="B257" s="37" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C257" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D257" s="46" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E257" s="46" t="s">
         <v>329</v>
@@ -11953,13 +11961,13 @@
         <v>584</v>
       </c>
       <c r="B258" s="37" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C258" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D258" s="46" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="E258" s="46" t="s">
         <v>329</v>
@@ -11971,13 +11979,13 @@
         <v>586</v>
       </c>
       <c r="B259" s="37" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C259" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D259" s="46" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E259" s="46" t="s">
         <v>329</v>
@@ -11989,13 +11997,13 @@
         <v>589</v>
       </c>
       <c r="B260" s="37" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C260" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D260" s="46" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E260" s="46" t="s">
         <v>329</v>
@@ -12007,13 +12015,13 @@
         <v>592</v>
       </c>
       <c r="B261" s="37" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C261" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D261" s="46" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E261" s="46" t="s">
         <v>329</v>
@@ -12025,13 +12033,13 @@
         <v>595</v>
       </c>
       <c r="B262" s="37" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C262" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D262" s="46" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E262" s="46" t="s">
         <v>329</v>
@@ -12043,13 +12051,13 @@
         <v>598</v>
       </c>
       <c r="B263" s="37" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C263" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D263" s="46" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E263" s="46" t="s">
         <v>329</v>
@@ -12061,13 +12069,13 @@
         <v>604</v>
       </c>
       <c r="B264" s="37" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C264" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D264" s="46" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E264" s="46"/>
       <c r="F264" s="54"/>
@@ -12077,13 +12085,13 @@
         <v>607</v>
       </c>
       <c r="B265" s="37" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C265" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D265" s="46" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E265" s="46"/>
       <c r="F265" s="54"/>
@@ -12093,13 +12101,13 @@
         <v>610</v>
       </c>
       <c r="B266" s="37" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C266" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D266" s="46" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E266" s="46"/>
       <c r="F266" s="54"/>
@@ -12109,13 +12117,13 @@
         <v>613</v>
       </c>
       <c r="B267" s="37" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C267" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D267" s="46" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E267" s="46"/>
       <c r="F267" s="54"/>
@@ -12125,13 +12133,13 @@
         <v>619</v>
       </c>
       <c r="B268" s="37" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C268" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D268" s="46" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E268" s="46"/>
       <c r="F268" s="54"/>
@@ -12141,13 +12149,13 @@
         <v>622</v>
       </c>
       <c r="B269" s="37" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C269" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D269" s="46" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E269" s="46"/>
       <c r="F269" s="54"/>
@@ -12157,13 +12165,13 @@
         <v>625</v>
       </c>
       <c r="B270" s="37" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C270" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D270" s="46" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E270" s="46"/>
       <c r="F270" s="54"/>
@@ -12173,13 +12181,13 @@
         <v>628</v>
       </c>
       <c r="B271" s="37" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C271" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D271" s="46" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E271" s="46"/>
       <c r="F271" s="54"/>
@@ -12189,13 +12197,13 @@
         <v>631</v>
       </c>
       <c r="B272" s="37" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C272" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D272" s="46" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E272" s="46"/>
       <c r="F272" s="54"/>
@@ -12205,13 +12213,13 @@
         <v>634</v>
       </c>
       <c r="B273" s="37" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C273" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D273" s="46" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E273" s="46"/>
       <c r="F273" s="54"/>
@@ -12221,13 +12229,13 @@
         <v>637</v>
       </c>
       <c r="B274" s="37" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C274" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D274" s="46" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E274" s="46"/>
       <c r="F274" s="54"/>
@@ -12237,13 +12245,13 @@
         <v>640</v>
       </c>
       <c r="B275" s="37" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C275" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D275" s="46" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E275" s="46"/>
       <c r="F275" s="54"/>
@@ -12253,13 +12261,13 @@
         <v>643</v>
       </c>
       <c r="B276" s="37" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C276" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D276" s="46" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E276" s="46"/>
       <c r="F276" s="54"/>
@@ -12269,13 +12277,13 @@
         <v>646</v>
       </c>
       <c r="B277" s="37" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C277" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D277" s="46" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E277" s="46"/>
       <c r="F277" s="54"/>
@@ -12285,13 +12293,13 @@
         <v>649</v>
       </c>
       <c r="B278" s="37" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C278" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D278" s="46" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E278" s="46"/>
       <c r="F278" s="54"/>
@@ -12301,13 +12309,13 @@
         <v>652</v>
       </c>
       <c r="B279" s="37" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C279" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D279" s="46" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E279" s="46"/>
       <c r="F279" s="54"/>
@@ -12317,13 +12325,13 @@
         <v>655</v>
       </c>
       <c r="B280" s="37" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C280" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D280" s="46" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E280" s="46"/>
       <c r="F280" s="54"/>
@@ -12333,13 +12341,13 @@
         <v>658</v>
       </c>
       <c r="B281" s="37" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C281" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D281" s="46" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E281" s="46"/>
       <c r="F281" s="54"/>
@@ -12349,13 +12357,13 @@
         <v>661</v>
       </c>
       <c r="B282" s="37" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C282" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E282" s="46"/>
       <c r="F282" s="54"/>
@@ -12365,7 +12373,7 @@
         <v>664</v>
       </c>
       <c r="B283" s="48" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C283" s="49"/>
       <c r="D283" s="46"/>
@@ -12379,7 +12387,7 @@
         <v>667</v>
       </c>
       <c r="B284" s="48" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C284" s="49"/>
       <c r="D284" s="46"/>
@@ -12393,7 +12401,7 @@
         <v>670</v>
       </c>
       <c r="B285" s="48" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C285" s="49"/>
       <c r="D285" s="46"/>
@@ -12407,13 +12415,13 @@
         <v>673</v>
       </c>
       <c r="B286" s="37" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C286" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E286" s="57" t="s">
         <v>335</v>
@@ -12425,13 +12433,13 @@
         <v>676</v>
       </c>
       <c r="B287" s="37" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C287" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D287" s="46" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E287" s="57" t="s">
         <v>335</v>
@@ -12443,13 +12451,13 @@
         <v>679</v>
       </c>
       <c r="B288" s="37" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C288" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E288" s="57" t="s">
         <v>335</v>
@@ -12461,13 +12469,13 @@
         <v>682</v>
       </c>
       <c r="B289" s="37" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C289" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D289" s="46" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E289" s="57" t="s">
         <v>335</v>
@@ -12479,13 +12487,13 @@
         <v>685</v>
       </c>
       <c r="B290" s="37" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C290" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D290" s="46" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E290" s="57" t="s">
         <v>335</v>
@@ -12497,13 +12505,13 @@
         <v>688</v>
       </c>
       <c r="B291" s="37" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C291" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D291" s="46" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E291" s="57" t="s">
         <v>335</v>
@@ -12515,13 +12523,13 @@
         <v>691</v>
       </c>
       <c r="B292" s="37" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C292" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D292" s="46" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E292" s="57" t="s">
         <v>335</v>
@@ -12533,13 +12541,13 @@
         <v>694</v>
       </c>
       <c r="B293" s="37" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C293" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D293" s="46" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E293" s="57" t="s">
         <v>335</v>
@@ -12551,13 +12559,13 @@
         <v>697</v>
       </c>
       <c r="B294" s="37" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C294" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D294" s="46" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E294" s="57" t="s">
         <v>335</v>
@@ -12569,13 +12577,13 @@
         <v>699</v>
       </c>
       <c r="B295" s="37" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C295" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D295" s="46" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E295" s="57"/>
       <c r="F295" s="54"/>
@@ -12585,13 +12593,13 @@
         <v>702</v>
       </c>
       <c r="B296" s="37" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C296" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D296" s="46" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E296" s="57"/>
       <c r="F296" s="54"/>
@@ -12601,13 +12609,13 @@
         <v>704</v>
       </c>
       <c r="B297" s="37" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C297" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D297" s="46" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E297" s="57"/>
       <c r="F297" s="54"/>
@@ -12617,13 +12625,13 @@
         <v>706</v>
       </c>
       <c r="B298" s="37" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C298" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D298" s="46" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E298" s="57"/>
       <c r="F298" s="54"/>
@@ -12633,13 +12641,13 @@
         <v>708</v>
       </c>
       <c r="B299" s="37" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C299" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D299" s="46" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E299" s="57"/>
       <c r="F299" s="54"/>
@@ -12649,13 +12657,13 @@
         <v>710</v>
       </c>
       <c r="B300" s="37" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C300" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D300" s="46" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E300" s="57"/>
       <c r="F300" s="54"/>
@@ -12665,13 +12673,13 @@
         <v>712</v>
       </c>
       <c r="B301" s="37" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C301" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D301" s="46" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E301" s="57"/>
       <c r="F301" s="54"/>
@@ -12681,13 +12689,13 @@
         <v>714</v>
       </c>
       <c r="B302" s="37" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C302" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D302" s="46" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E302" s="57"/>
       <c r="F302" s="54"/>
@@ -12697,13 +12705,13 @@
         <v>716</v>
       </c>
       <c r="B303" s="37" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C303" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D303" s="46" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E303" s="57"/>
       <c r="F303" s="54"/>
@@ -12713,13 +12721,13 @@
         <v>718</v>
       </c>
       <c r="B304" s="37" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C304" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D304" s="46" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E304" s="57"/>
       <c r="F304" s="54"/>
@@ -12729,13 +12737,13 @@
         <v>720</v>
       </c>
       <c r="B305" s="37" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C305" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D305" s="46" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E305" s="57"/>
       <c r="F305" s="54"/>
@@ -12745,13 +12753,13 @@
         <v>722</v>
       </c>
       <c r="B306" s="37" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C306" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D306" s="46" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E306" s="57"/>
       <c r="F306" s="54"/>
@@ -12761,13 +12769,13 @@
         <v>724</v>
       </c>
       <c r="B307" s="37" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C307" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D307" s="46" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E307" s="57"/>
       <c r="F307" s="54"/>
@@ -12777,7 +12785,7 @@
         <v>726</v>
       </c>
       <c r="B308" s="48" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C308" s="49"/>
       <c r="D308" s="49"/>
@@ -12791,7 +12799,7 @@
         <v>728</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C309" s="49"/>
       <c r="D309" s="49"/>
@@ -12805,13 +12813,13 @@
         <v>730</v>
       </c>
       <c r="B310" s="37" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C310" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D310" s="46" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E310" s="57" t="s">
         <v>52</v>
@@ -12823,13 +12831,13 @@
         <v>732</v>
       </c>
       <c r="B311" s="37" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C311" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D311" s="46" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E311" s="57" t="s">
         <v>52</v>
@@ -12841,13 +12849,13 @@
         <v>734</v>
       </c>
       <c r="B312" s="37" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C312" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D312" s="46" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E312" s="57" t="s">
         <v>52</v>
@@ -12859,13 +12867,13 @@
         <v>736</v>
       </c>
       <c r="B313" s="37" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C313" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D313" s="46" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E313" s="57" t="s">
         <v>52</v>
@@ -12877,13 +12885,13 @@
         <v>738</v>
       </c>
       <c r="B314" s="37" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C314" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D314" s="46" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E314" s="57" t="s">
         <v>52</v>
@@ -12895,13 +12903,13 @@
         <v>740</v>
       </c>
       <c r="B315" s="37" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C315" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D315" s="46" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E315" s="57" t="s">
         <v>52</v>
@@ -12913,13 +12921,13 @@
         <v>742</v>
       </c>
       <c r="B316" s="37" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C316" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D316" s="46" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E316" s="57" t="s">
         <v>52</v>
@@ -12931,13 +12939,13 @@
         <v>744</v>
       </c>
       <c r="B317" s="37" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C317" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D317" s="46" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E317" s="57" t="s">
         <v>52</v>
@@ -12949,7 +12957,7 @@
         <v>746</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C318" s="49"/>
       <c r="D318" s="49"/>
@@ -12963,7 +12971,7 @@
         <v>748</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C319" s="49"/>
       <c r="D319" s="49"/>
@@ -12977,7 +12985,7 @@
         <v>750</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C320" s="49"/>
       <c r="D320" s="49"/>
@@ -12990,14 +12998,14 @@
       <c r="A321" s="46" t="s">
         <v>752</v>
       </c>
-      <c r="B321" s="70" t="s">
-        <v>1012</v>
+      <c r="B321" s="71" t="s">
+        <v>1013</v>
       </c>
       <c r="C321" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D321" s="46" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E321" s="57" t="s">
         <v>167</v>
@@ -13009,13 +13017,13 @@
         <v>754</v>
       </c>
       <c r="B322" s="37" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C322" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D322" s="46" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E322" s="57" t="s">
         <v>167</v>
@@ -13027,13 +13035,13 @@
         <v>756</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C323" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D323" s="46" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E323" s="57" t="s">
         <v>167</v>
@@ -13045,7 +13053,7 @@
         <v>758</v>
       </c>
       <c r="B324" s="48" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C324" s="49"/>
       <c r="D324" s="49"/>
@@ -13059,13 +13067,13 @@
         <v>760</v>
       </c>
       <c r="B325" s="37" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C325" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D325" s="46" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E325" s="46" t="s">
         <v>171</v>
@@ -13077,13 +13085,13 @@
         <v>762</v>
       </c>
       <c r="B326" s="37" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C326" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D326" s="46" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E326" s="46" t="s">
         <v>175</v>
@@ -13095,13 +13103,13 @@
         <v>764</v>
       </c>
       <c r="B327" s="37" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C327" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D327" s="46" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E327" s="46" t="s">
         <v>179</v>
@@ -13113,13 +13121,13 @@
         <v>766</v>
       </c>
       <c r="B328" s="37" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C328" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D328" s="46" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E328" s="46" t="s">
         <v>179</v>
@@ -13131,16 +13139,16 @@
         <v>768</v>
       </c>
       <c r="B329" s="37" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C329" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D329" s="46" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E329" s="46" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F329" s="54"/>
     </row>
@@ -13149,16 +13157,16 @@
         <v>770</v>
       </c>
       <c r="B330" s="37" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C330" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D330" s="46" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E330" s="46" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F330" s="54"/>
     </row>
@@ -13167,16 +13175,16 @@
         <v>772</v>
       </c>
       <c r="B331" s="37" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C331" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D331" s="46" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E331" s="46" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F331" s="54"/>
     </row>
@@ -13185,16 +13193,16 @@
         <v>774</v>
       </c>
       <c r="B332" s="37" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C332" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D332" s="46" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E332" s="46" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F332" s="54"/>
     </row>
@@ -13203,16 +13211,16 @@
         <v>776</v>
       </c>
       <c r="B333" s="37" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C333" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D333" s="46" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E333" s="46" t="s">
         <v>1038</v>
-      </c>
-      <c r="C333" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D333" s="46" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E333" s="46" t="s">
-        <v>1037</v>
       </c>
       <c r="F333" s="54"/>
     </row>
@@ -13221,16 +13229,16 @@
         <v>778</v>
       </c>
       <c r="B334" s="37" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C334" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D334" s="46" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E334" s="46" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F334" s="54"/>
     </row>
@@ -13239,16 +13247,16 @@
         <v>780</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C335" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D335" s="46" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E335" s="46" t="s">
         <v>1043</v>
-      </c>
-      <c r="C335" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D335" s="46" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E335" s="46" t="s">
-        <v>1042</v>
       </c>
       <c r="F335" s="54"/>
     </row>
@@ -13257,16 +13265,16 @@
         <v>782</v>
       </c>
       <c r="B336" s="37" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C336" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D336" s="46" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E336" s="46" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F336" s="54"/>
     </row>
@@ -13275,13 +13283,13 @@
         <v>784</v>
       </c>
       <c r="B337" s="37" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C337" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D337" s="46" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E337" s="46" t="s">
         <v>183</v>
@@ -13293,13 +13301,13 @@
         <v>786</v>
       </c>
       <c r="B338" s="37" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C338" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D338" s="46" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E338" s="46" t="s">
         <v>183</v>
@@ -13311,7 +13319,7 @@
         <v>788</v>
       </c>
       <c r="B339" s="48" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C339" s="49"/>
       <c r="D339" s="49"/>
@@ -13325,16 +13333,16 @@
         <v>790</v>
       </c>
       <c r="B340" s="37" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C340" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D340" s="46" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E340" s="46" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F340" s="54"/>
     </row>
@@ -13343,16 +13351,16 @@
         <v>792</v>
       </c>
       <c r="B341" s="37" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C341" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D341" s="46" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E341" s="46" t="s">
         <v>1055</v>
-      </c>
-      <c r="C341" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D341" s="46" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E341" s="46" t="s">
-        <v>1054</v>
       </c>
       <c r="F341" s="54"/>
     </row>
@@ -13361,19 +13369,19 @@
         <v>794</v>
       </c>
       <c r="B342" s="37" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C342" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D342" s="46" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E342" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F342" s="56" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="343" ht="19.5" customHeight="1" spans="1:6">
@@ -13381,16 +13389,16 @@
         <v>796</v>
       </c>
       <c r="B343" s="37" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C343" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D343" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E343" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F343" s="56"/>
     </row>
@@ -13399,16 +13407,16 @@
         <v>798</v>
       </c>
       <c r="B344" s="37" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C344" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D344" s="46" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E344" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F344" s="56"/>
     </row>
@@ -13417,16 +13425,16 @@
         <v>800</v>
       </c>
       <c r="B345" s="37" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C345" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D345" s="46" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E345" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F345" s="56"/>
     </row>
@@ -13435,16 +13443,16 @@
         <v>802</v>
       </c>
       <c r="B346" s="37" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C346" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D346" s="46" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E346" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F346" s="56"/>
     </row>
@@ -13453,16 +13461,16 @@
         <v>804</v>
       </c>
       <c r="B347" s="37" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C347" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D347" s="46" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E347" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F347" s="56"/>
     </row>
@@ -13471,16 +13479,16 @@
         <v>806</v>
       </c>
       <c r="B348" s="37" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C348" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D348" s="46" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E348" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F348" s="56"/>
     </row>
@@ -13489,16 +13497,16 @@
         <v>808</v>
       </c>
       <c r="B349" s="37" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C349" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D349" s="46" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E349" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F349" s="56"/>
     </row>
@@ -13507,16 +13515,16 @@
         <v>810</v>
       </c>
       <c r="B350" s="37" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C350" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D350" s="46" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E350" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F350" s="56"/>
     </row>
@@ -13525,375 +13533,375 @@
         <v>812</v>
       </c>
       <c r="B351" s="37" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C351" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D351" s="46" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E351" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F351" s="56"/>
     </row>
     <row r="352" ht="19.5" customHeight="1" spans="1:6">
       <c r="A352" s="46" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B352" s="37" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C352" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D352" s="46" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E352" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F352" s="56"/>
     </row>
     <row r="353" ht="19.5" customHeight="1" spans="1:6">
       <c r="A353" s="46" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B353" s="37" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C353" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D353" s="46" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E353" s="46" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F353" s="56"/>
     </row>
     <row r="354" ht="30" customHeight="1" spans="1:6">
       <c r="A354" s="46" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B354" s="37" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C354" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D354" s="46" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E354" s="46" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F354" s="54"/>
     </row>
     <row r="355" ht="30" customHeight="1" spans="1:6">
       <c r="A355" s="46" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B355" s="37" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C355" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D355" s="46" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E355" s="46" t="s">
         <v>1086</v>
-      </c>
-      <c r="C355" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D355" s="46" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E355" s="46" t="s">
-        <v>1085</v>
       </c>
       <c r="F355" s="54"/>
     </row>
     <row r="356" ht="19.5" customHeight="1" spans="1:6">
       <c r="A356" s="46" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B356" s="37" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C356" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D356" s="46" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E356" s="54"/>
       <c r="F356" s="54"/>
     </row>
     <row r="357" ht="19.5" customHeight="1" spans="1:6">
       <c r="A357" s="46" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B357" s="37" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C357" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D357" s="46" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E357" s="54"/>
       <c r="F357" s="54"/>
     </row>
     <row r="358" ht="19.5" customHeight="1" spans="1:6">
       <c r="A358" s="46" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B358" s="37" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C358" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D358" s="46" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E358" s="54"/>
       <c r="F358" s="54"/>
     </row>
     <row r="359" ht="19.5" customHeight="1" spans="1:6">
       <c r="A359" s="46" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B359" s="37" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C359" s="46" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D359" s="46" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E359" s="54"/>
       <c r="F359" s="54"/>
     </row>
     <row r="360" ht="19.5" customHeight="1" spans="1:6">
       <c r="A360" s="46" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B360" s="37" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C360" s="71">
+        <v>1098</v>
+      </c>
+      <c r="C360" s="72">
         <v>45313</v>
       </c>
       <c r="D360" s="46" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E360" s="54"/>
       <c r="F360" s="54"/>
     </row>
     <row r="361" ht="19.5" customHeight="1" spans="1:6">
       <c r="A361" s="46" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B361" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C361" s="72">
+        <v>1100</v>
+      </c>
+      <c r="C361" s="73">
         <v>45344</v>
       </c>
       <c r="D361" s="46" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E361" s="54"/>
       <c r="F361" s="54"/>
     </row>
     <row r="362" ht="19.5" customHeight="1" spans="1:6">
       <c r="A362" s="46" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B362" s="37" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C362" s="72">
+        <v>1102</v>
+      </c>
+      <c r="C362" s="73">
         <v>45344</v>
       </c>
       <c r="D362" s="46" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E362" s="54"/>
       <c r="F362" s="54"/>
     </row>
     <row r="363" ht="19.5" customHeight="1" spans="1:6">
       <c r="A363" s="46" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B363" s="37" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C363" s="72">
+        <v>1104</v>
+      </c>
+      <c r="C363" s="73">
         <v>45344</v>
       </c>
       <c r="D363" s="46" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E363" s="54"/>
       <c r="F363" s="54"/>
     </row>
     <row r="364" ht="19.5" customHeight="1" spans="1:6">
       <c r="A364" s="46" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B364" s="37" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C364" s="72">
+        <v>1106</v>
+      </c>
+      <c r="C364" s="73">
         <v>45344</v>
       </c>
       <c r="D364" s="46" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E364" s="54"/>
       <c r="F364" s="54"/>
     </row>
     <row r="365" ht="19.5" customHeight="1" spans="1:6">
       <c r="A365" s="46" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B365" s="37" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C365" s="72">
+        <v>1108</v>
+      </c>
+      <c r="C365" s="73">
         <v>45344</v>
       </c>
       <c r="D365" s="46" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E365" s="54"/>
       <c r="F365" s="54"/>
     </row>
     <row r="366" ht="19.5" customHeight="1" spans="1:6">
       <c r="A366" s="46" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B366" s="37" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C366" s="72">
+        <v>1110</v>
+      </c>
+      <c r="C366" s="73">
         <v>45344</v>
       </c>
       <c r="D366" s="46" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E366" s="54"/>
       <c r="F366" s="54"/>
     </row>
     <row r="367" ht="19.5" customHeight="1" spans="1:6">
       <c r="A367" s="46" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B367" s="37" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C367" s="72">
+        <v>1112</v>
+      </c>
+      <c r="C367" s="73">
         <v>45344</v>
       </c>
       <c r="D367" s="46" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E367" s="54"/>
       <c r="F367" s="54"/>
     </row>
     <row r="368" ht="19.5" customHeight="1" spans="1:6">
       <c r="A368" s="46" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B368" s="37" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C368" s="72">
+        <v>1114</v>
+      </c>
+      <c r="C368" s="73">
         <v>45344</v>
       </c>
       <c r="D368" s="46" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E368" s="54"/>
       <c r="F368" s="54"/>
     </row>
     <row r="369" ht="19.5" customHeight="1" spans="1:6">
       <c r="A369" s="46" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B369" s="37" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C369" s="72">
+        <v>1116</v>
+      </c>
+      <c r="C369" s="73">
         <v>45344</v>
       </c>
       <c r="D369" s="46" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E369" s="54"/>
       <c r="F369" s="54"/>
     </row>
     <row r="370" ht="19.5" customHeight="1" spans="1:6">
       <c r="A370" s="46" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B370" s="37" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C370" s="72">
+        <v>1118</v>
+      </c>
+      <c r="C370" s="73">
         <v>45344</v>
       </c>
       <c r="D370" s="46" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E370" s="54"/>
       <c r="F370" s="54"/>
     </row>
     <row r="371" ht="19.5" customHeight="1" spans="1:6">
       <c r="A371" s="46" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B371" s="37" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C371" s="72">
+        <v>1120</v>
+      </c>
+      <c r="C371" s="73">
         <v>45344</v>
       </c>
       <c r="D371" s="46" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E371" s="54"/>
       <c r="F371" s="54"/>
     </row>
     <row r="372" ht="19.5" customHeight="1" spans="1:6">
       <c r="A372" s="46" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B372" s="37" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C372" s="72">
+        <v>1122</v>
+      </c>
+      <c r="C372" s="73">
         <v>45344</v>
       </c>
       <c r="D372" s="46" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E372" s="54"/>
       <c r="F372" s="54"/>
     </row>
     <row r="373" ht="19.5" customHeight="1" spans="1:6">
       <c r="A373" s="46" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B373" s="37" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C373" s="72">
+        <v>1124</v>
+      </c>
+      <c r="C373" s="73">
         <v>45344</v>
       </c>
       <c r="D373" s="46" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E373" s="54"/>
       <c r="F373" s="54"/>
@@ -13943,7 +13951,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:5">
       <c r="A1" s="38" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -13952,7 +13960,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -13980,7 +13988,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>4</v>
@@ -13997,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>195</v>
@@ -14014,7 +14022,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>195</v>
@@ -14031,7 +14039,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>195</v>
@@ -14048,7 +14056,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>195</v>
@@ -14065,7 +14073,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>195</v>
@@ -14082,7 +14090,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>195</v>
@@ -14099,7 +14107,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>195</v>
@@ -14114,7 +14122,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>195</v>
@@ -14129,7 +14137,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>195</v>
@@ -14144,13 +14152,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E15" s="20"/>
     </row>
@@ -14186,7 +14194,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
       <c r="A1" s="15" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -14196,7 +14204,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14225,7 +14233,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>4</v>
@@ -14243,7 +14251,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>195</v>
@@ -14261,7 +14269,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>195</v>
@@ -14279,7 +14287,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>195</v>
@@ -14297,7 +14305,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>195</v>
@@ -14315,7 +14323,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>195</v>
@@ -14333,7 +14341,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>195</v>
@@ -14342,7 +14350,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F11" s="29"/>
     </row>
@@ -14351,7 +14359,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>195</v>
@@ -14369,7 +14377,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>195</v>
@@ -14378,7 +14386,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F13" s="29"/>
     </row>
@@ -14387,7 +14395,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>195</v>
@@ -14405,12 +14413,12 @@
         <v>38</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F15" s="30"/>
     </row>
@@ -14419,7 +14427,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -14433,13 +14441,13 @@
         <v>45</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
@@ -14451,7 +14459,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>195</v>
@@ -14467,7 +14475,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>195</v>
@@ -14483,7 +14491,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>195</v>
@@ -14499,7 +14507,7 @@
         <v>384</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>195</v>
@@ -14515,7 +14523,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>195</v>
@@ -14531,7 +14539,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>195</v>
@@ -14547,7 +14555,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>195</v>
@@ -14563,7 +14571,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>195</v>
@@ -14579,7 +14587,7 @@
         <v>73</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>195</v>
@@ -14595,7 +14603,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>195</v>
@@ -14611,7 +14619,7 @@
         <v>80</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>195</v>
@@ -14627,7 +14635,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>195</v>
@@ -14643,7 +14651,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>195</v>
@@ -14659,7 +14667,7 @@
         <v>88</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>195</v>
@@ -14675,7 +14683,7 @@
         <v>91</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>195</v>
@@ -14691,13 +14699,13 @@
         <v>94</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="33"/>
@@ -14707,13 +14715,13 @@
         <v>97</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="33"/>
@@ -14723,7 +14731,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>195</v>
@@ -14733,7 +14741,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="36" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14741,7 +14749,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>195</v>
@@ -14757,7 +14765,7 @@
         <v>109</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>195</v>
@@ -14773,7 +14781,7 @@
         <v>113</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>195</v>
@@ -14789,7 +14797,7 @@
         <v>117</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>195</v>
@@ -14805,7 +14813,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>195</v>
@@ -14821,7 +14829,7 @@
         <v>125</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>195</v>
@@ -14837,13 +14845,13 @@
         <v>129</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31"/>
@@ -14853,7 +14861,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -14867,17 +14875,17 @@
         <v>136</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="31" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="45" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14885,13 +14893,13 @@
         <v>140</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="31"/>
@@ -14901,7 +14909,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>195</v>
@@ -14917,7 +14925,7 @@
         <v>147</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>195</v>
@@ -14933,7 +14941,7 @@
         <v>150</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>195</v>
@@ -14949,7 +14957,7 @@
         <v>154</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>195</v>
@@ -14965,7 +14973,7 @@
         <v>157</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>195</v>
@@ -14981,7 +14989,7 @@
         <v>160</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>195</v>
@@ -14997,7 +15005,7 @@
         <v>164</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>195</v>
@@ -15013,13 +15021,13 @@
         <v>168</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="31"/>
@@ -15029,13 +15037,13 @@
         <v>172</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="31"/>
@@ -15045,13 +15053,13 @@
         <v>176</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="31"/>
@@ -15061,13 +15069,13 @@
         <v>180</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="31"/>
@@ -15077,13 +15085,13 @@
         <v>184</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="31"/>
@@ -15093,7 +15101,7 @@
         <v>187</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>195</v>
@@ -15109,7 +15117,7 @@
         <v>190</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>195</v>
@@ -15125,7 +15133,7 @@
         <v>193</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>195</v>
@@ -15141,7 +15149,7 @@
         <v>198</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>195</v>
@@ -15157,7 +15165,7 @@
         <v>203</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>195</v>
@@ -15173,7 +15181,7 @@
         <v>208</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>195</v>
@@ -15189,7 +15197,7 @@
         <v>211</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>195</v>
@@ -15205,7 +15213,7 @@
         <v>214</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>195</v>
@@ -15221,13 +15229,13 @@
         <v>217</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="31"/>
@@ -15237,7 +15245,7 @@
         <v>219</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>195</v>
@@ -15265,7 +15273,7 @@
         <v>224</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>195</v>
@@ -15275,7 +15283,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="31" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="70" s="13" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -15283,7 +15291,7 @@
         <v>229</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>195</v>
@@ -15299,7 +15307,7 @@
         <v>234</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>195</v>
@@ -15315,7 +15323,7 @@
         <v>237</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>195</v>
@@ -15331,7 +15339,7 @@
         <v>241</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>195</v>
@@ -15347,7 +15355,7 @@
         <v>245</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>195</v>
@@ -15363,7 +15371,7 @@
         <v>248</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>195</v>
@@ -15379,7 +15387,7 @@
         <v>251</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>195</v>
@@ -15395,7 +15403,7 @@
         <v>254</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -15409,7 +15417,7 @@
         <v>257</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>195</v>
@@ -15427,13 +15435,13 @@
         <v>260</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="31"/>
@@ -15443,13 +15451,13 @@
         <v>263</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="31"/>
@@ -15459,13 +15467,13 @@
         <v>266</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31"/>
@@ -15475,13 +15483,13 @@
         <v>269</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31"/>
@@ -15491,13 +15499,13 @@
         <v>272</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31"/>
@@ -15507,13 +15515,13 @@
         <v>276</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="31"/>
@@ -15523,13 +15531,13 @@
         <v>279</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="31"/>
@@ -15539,13 +15547,13 @@
         <v>282</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="31"/>
@@ -15555,13 +15563,13 @@
         <v>285</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="31"/>
@@ -15571,13 +15579,13 @@
         <v>287</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="31"/>
@@ -15587,13 +15595,13 @@
         <v>289</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="31"/>
@@ -15603,13 +15611,13 @@
         <v>292</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="31"/>
@@ -15619,13 +15627,13 @@
         <v>294</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="31"/>
@@ -15635,13 +15643,13 @@
         <v>297</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="31"/>
@@ -15651,13 +15659,13 @@
         <v>298</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="31"/>
@@ -15667,13 +15675,13 @@
         <v>301</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="31"/>
@@ -15683,13 +15691,13 @@
         <v>302</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="31"/>
@@ -15699,13 +15707,13 @@
         <v>305</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="31"/>
@@ -15715,13 +15723,13 @@
         <v>306</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="31"/>
@@ -15731,13 +15739,13 @@
         <v>309</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="31"/>
@@ -15747,13 +15755,13 @@
         <v>310</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="31"/>
@@ -15763,13 +15771,13 @@
         <v>313</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="31"/>
@@ -15779,7 +15787,7 @@
         <v>315</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -15793,17 +15801,17 @@
         <v>318</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="31" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="103" s="13" customFormat="1" ht="30" customHeight="1" spans="1:6">
@@ -15811,13 +15819,13 @@
         <v>320</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="31"/>
@@ -15827,13 +15835,13 @@
         <v>323</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="31"/>
@@ -15843,13 +15851,13 @@
         <v>325</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C105" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="31"/>
@@ -15859,16 +15867,16 @@
         <v>327</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C106" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="F106" s="31"/>
     </row>
@@ -15877,16 +15885,16 @@
         <v>330</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F107" s="24"/>
     </row>
@@ -15895,13 +15903,13 @@
         <v>332</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="E108" s="31"/>
       <c r="F108" s="24"/>
@@ -15911,13 +15919,13 @@
         <v>333</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E109" s="31"/>
       <c r="F109" s="24"/>
@@ -15927,7 +15935,7 @@
         <v>336</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>195</v>
@@ -15943,7 +15951,7 @@
         <v>337</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>195</v>
@@ -15959,7 +15967,7 @@
         <v>338</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>195</v>
@@ -15975,7 +15983,7 @@
         <v>340</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>195</v>
@@ -15985,7 +15993,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="114" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -15993,7 +16001,7 @@
         <v>341</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>195</v>
@@ -16009,7 +16017,7 @@
         <v>342</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>195</v>
@@ -16025,7 +16033,7 @@
         <v>344</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>195</v>
@@ -16041,7 +16049,7 @@
         <v>345</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>195</v>
@@ -16057,7 +16065,7 @@
         <v>346</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>195</v>
@@ -16073,7 +16081,7 @@
         <v>349</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>195</v>
@@ -16089,7 +16097,7 @@
         <v>587</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>195</v>
@@ -16105,7 +16113,7 @@
         <v>590</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>195</v>
@@ -16121,7 +16129,7 @@
         <v>593</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>195</v>
@@ -16137,7 +16145,7 @@
         <v>596</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>195</v>
@@ -16153,7 +16161,7 @@
         <v>599</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>195</v>
@@ -16169,7 +16177,7 @@
         <v>600</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>195</v>
@@ -16185,7 +16193,7 @@
         <v>602</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>195</v>
@@ -16201,7 +16209,7 @@
         <v>605</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>195</v>
@@ -16217,7 +16225,7 @@
         <v>608</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>195</v>
@@ -16233,7 +16241,7 @@
         <v>611</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>195</v>
@@ -16249,7 +16257,7 @@
         <v>614</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>195</v>
@@ -16265,7 +16273,7 @@
         <v>615</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>195</v>
@@ -16281,7 +16289,7 @@
         <v>617</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>195</v>
@@ -16297,7 +16305,7 @@
         <v>620</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>195</v>
@@ -16313,7 +16321,7 @@
         <v>623</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>195</v>
@@ -16329,7 +16337,7 @@
         <v>626</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>195</v>
@@ -16345,7 +16353,7 @@
         <v>629</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>195</v>
@@ -16361,7 +16369,7 @@
         <v>632</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>195</v>
@@ -16377,7 +16385,7 @@
         <v>635</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>195</v>
@@ -16393,7 +16401,7 @@
         <v>638</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>195</v>
@@ -16409,7 +16417,7 @@
         <v>641</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>195</v>
@@ -16425,7 +16433,7 @@
         <v>644</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>195</v>
@@ -16441,7 +16449,7 @@
         <v>647</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -16455,7 +16463,7 @@
         <v>650</v>
       </c>
       <c r="B143" s="37" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>195</v>
@@ -16467,7 +16475,7 @@
         <v>335</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="144" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16475,7 +16483,7 @@
         <v>653</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>195</v>
@@ -16493,7 +16501,7 @@
         <v>656</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>195</v>
@@ -16511,7 +16519,7 @@
         <v>659</v>
       </c>
       <c r="B146" s="37" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>195</v>
@@ -16529,7 +16537,7 @@
         <v>662</v>
       </c>
       <c r="B147" s="37" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C147" s="20" t="s">
         <v>195</v>
@@ -16547,7 +16555,7 @@
         <v>665</v>
       </c>
       <c r="B148" s="37" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>195</v>
@@ -16565,7 +16573,7 @@
         <v>668</v>
       </c>
       <c r="B149" s="37" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>195</v>
@@ -16583,7 +16591,7 @@
         <v>671</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>195</v>
@@ -16601,7 +16609,7 @@
         <v>674</v>
       </c>
       <c r="B151" s="37" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>195</v>
@@ -16619,7 +16627,7 @@
         <v>677</v>
       </c>
       <c r="B152" s="37" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>195</v>
@@ -16631,7 +16639,7 @@
         <v>52</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="153" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16639,7 +16647,7 @@
         <v>680</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>195</v>
@@ -16657,7 +16665,7 @@
         <v>683</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C154" s="20" t="s">
         <v>195</v>
@@ -16675,7 +16683,7 @@
         <v>686</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C155" s="20" t="s">
         <v>195</v>
@@ -16691,7 +16699,7 @@
         <v>689</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C156" s="20" t="s">
         <v>195</v>
@@ -16707,7 +16715,7 @@
         <v>692</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C157" s="20" t="s">
         <v>195</v>
@@ -16723,7 +16731,7 @@
         <v>367</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C158" s="20" t="s">
         <v>195</v>
@@ -16739,7 +16747,7 @@
         <v>369</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C159" s="20" t="s">
         <v>195</v>
@@ -16755,7 +16763,7 @@
         <v>371</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C160" s="20" t="s">
         <v>195</v>
@@ -16765,7 +16773,7 @@
       </c>
       <c r="E160" s="32"/>
       <c r="F160" s="31" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="161" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16773,7 +16781,7 @@
         <v>373</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C161" s="20" t="s">
         <v>195</v>
@@ -16789,7 +16797,7 @@
         <v>376</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>195</v>
@@ -16805,7 +16813,7 @@
         <v>379</v>
       </c>
       <c r="B163" s="37" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C163" s="20" t="s">
         <v>195</v>
@@ -16833,7 +16841,7 @@
         <v>383</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>195</v>
@@ -16851,7 +16859,7 @@
         <v>386</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C166" s="20" t="s">
         <v>195</v>
@@ -16867,7 +16875,7 @@
         <v>388</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C167" s="20" t="s">
         <v>195</v>
@@ -16883,7 +16891,7 @@
         <v>390</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>195</v>
@@ -16899,7 +16907,7 @@
         <v>393</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>195</v>
@@ -16915,7 +16923,7 @@
         <v>395</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C170" s="20" t="s">
         <v>195</v>
@@ -16931,7 +16939,7 @@
         <v>398</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C171" s="20" t="s">
         <v>195</v>
@@ -16997,13 +17005,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -17011,7 +17019,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>58</v>
@@ -17022,10 +17030,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -17033,7 +17041,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -17044,7 +17052,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>75</v>
@@ -17055,7 +17063,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>79</v>
@@ -17066,7 +17074,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>90</v>
@@ -17077,7 +17085,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>93</v>
@@ -17088,7 +17096,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>96</v>
@@ -17099,7 +17107,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -17110,7 +17118,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>107</v>
@@ -17121,7 +17129,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>111</v>
@@ -17132,7 +17140,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>115</v>
@@ -17143,7 +17151,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>119</v>
@@ -17154,7 +17162,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>123</v>
@@ -17165,7 +17173,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>127</v>
@@ -17176,7 +17184,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>131</v>
@@ -17187,7 +17195,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>135</v>
@@ -17198,7 +17206,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>138</v>
@@ -17209,10 +17217,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -17220,10 +17228,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -17231,7 +17239,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>142</v>
@@ -17242,7 +17250,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>145</v>
@@ -17253,7 +17261,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>149</v>
@@ -17264,7 +17272,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>152</v>
@@ -17275,7 +17283,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>156</v>
@@ -17286,7 +17294,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>159</v>
@@ -17297,7 +17305,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>162</v>
@@ -17308,10 +17316,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -17319,10 +17327,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17330,10 +17338,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -17341,7 +17349,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>166</v>
@@ -17352,7 +17360,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>170</v>
@@ -17363,7 +17371,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>174</v>
@@ -17374,7 +17382,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>178</v>
@@ -17385,7 +17393,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>182</v>
@@ -17396,7 +17404,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>186</v>
@@ -17407,7 +17415,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>189</v>
@@ -17418,10 +17426,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -17429,10 +17437,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -17440,10 +17448,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -17451,10 +17459,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -17462,10 +17470,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -17473,7 +17481,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>192</v>
@@ -17484,7 +17492,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>196</v>
@@ -17495,7 +17503,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>201</v>
@@ -17506,7 +17514,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>206</v>
@@ -17517,7 +17525,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>227</v>
@@ -17528,7 +17536,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>232</v>
@@ -17539,7 +17547,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>236</v>
@@ -17550,7 +17558,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>240</v>
@@ -17561,10 +17569,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -17572,7 +17580,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>250</v>
@@ -17583,7 +17591,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>253</v>
@@ -17594,7 +17602,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>256</v>
@@ -17605,7 +17613,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>259</v>
@@ -17616,7 +17624,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>262</v>
@@ -17627,7 +17635,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>265</v>
@@ -17638,7 +17646,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>268</v>
@@ -17649,7 +17657,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>271</v>
@@ -17660,7 +17668,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>275</v>
@@ -17671,7 +17679,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>278</v>
@@ -17682,10 +17690,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -17693,10 +17701,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -17704,10 +17712,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -17715,10 +17723,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -17726,10 +17734,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -17737,10 +17745,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -17748,10 +17756,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -17759,10 +17767,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -17770,10 +17778,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17781,10 +17789,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -17792,10 +17800,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17803,10 +17811,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17814,10 +17822,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17825,10 +17833,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17836,10 +17844,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17847,10 +17855,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17858,10 +17866,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17869,10 +17877,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17880,10 +17888,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17891,10 +17899,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17902,10 +17910,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17913,10 +17921,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17924,10 +17932,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17935,10 +17943,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17946,10 +17954,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17957,10 +17965,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17968,10 +17976,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -17979,10 +17987,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -17990,10 +17998,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -18001,10 +18009,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -18012,7 +18020,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>325</v>
@@ -18023,7 +18031,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>327</v>
@@ -18034,7 +18042,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>330</v>
@@ -18045,7 +18053,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>332</v>
@@ -18056,7 +18064,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>333</v>
@@ -18067,7 +18075,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>336</v>
@@ -18078,7 +18086,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>337</v>
@@ -18089,7 +18097,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>338</v>
@@ -18100,7 +18108,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>340</v>
@@ -18111,7 +18119,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>341</v>
@@ -18122,7 +18130,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>342</v>
@@ -18133,7 +18141,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>344</v>
@@ -18144,7 +18152,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>345</v>
@@ -18155,7 +18163,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>346</v>
@@ -18166,7 +18174,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>349</v>
@@ -18177,7 +18185,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>587</v>
@@ -18188,7 +18196,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>590</v>
@@ -18199,7 +18207,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>593</v>
@@ -18210,7 +18218,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>596</v>
@@ -18221,7 +18229,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>599</v>
@@ -18232,7 +18240,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>600</v>
@@ -18243,7 +18251,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>602</v>
@@ -18254,7 +18262,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>605</v>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="1478">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -2482,6 +2482,12 @@
   </si>
   <si>
     <t>348</t>
+  </si>
+  <si>
+    <t>dibagi 2 a dan b EP04</t>
+  </si>
+  <si>
+    <t>upload tanpa sampul</t>
   </si>
   <si>
     <t>SOP pemberian informasi obat (PIO)</t>
@@ -4467,12 +4473,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
-    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4566,9 +4572,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4582,15 +4587,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4604,19 +4602,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4627,16 +4623,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4650,29 +4662,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4688,9 +4678,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4702,16 +4715,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4774,13 +4780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4792,13 +4804,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4810,19 +4834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4840,7 +4858,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4852,91 +4936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4948,13 +4954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5057,7 +5063,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5079,18 +5085,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5125,17 +5124,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5150,141 +5138,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5927,7 +5933,7 @@
   <sheetPr/>
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A105" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -7704,8 +7710,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11274,7 +11280,7 @@
       </c>
       <c r="F216" s="54"/>
     </row>
-    <row r="217" ht="19.5" customHeight="1" spans="1:6">
+    <row r="217" ht="19.5" customHeight="1" spans="1:7">
       <c r="A217" s="46" t="s">
         <v>499</v>
       </c>
@@ -11290,20 +11296,25 @@
       <c r="E217" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F217" s="54"/>
+      <c r="F217" s="68" t="s">
+        <v>818</v>
+      </c>
+      <c r="G217" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="218" ht="19.5" customHeight="1" spans="1:6">
       <c r="A218" s="46" t="s">
         <v>501</v>
       </c>
       <c r="B218" s="63" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C218" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D218" s="46" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E218" s="46" t="s">
         <v>146</v>
@@ -11315,19 +11326,19 @@
         <v>503</v>
       </c>
       <c r="B219" s="63" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C219" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D219" s="46" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E219" s="46" t="s">
         <v>146</v>
       </c>
       <c r="F219" s="69" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="220" ht="19.5" customHeight="1" spans="1:6">
@@ -11335,19 +11346,19 @@
         <v>505</v>
       </c>
       <c r="B220" s="63" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C220" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D220" s="46" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E220" s="46" t="s">
         <v>146</v>
       </c>
       <c r="F220" s="69" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="221" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11355,13 +11366,13 @@
         <v>507</v>
       </c>
       <c r="B221" s="64" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C221" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D221" s="46" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E221" s="57"/>
       <c r="F221" s="62"/>
@@ -11371,13 +11382,13 @@
         <v>509</v>
       </c>
       <c r="B222" s="64" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C222" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D222" s="46" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E222" s="57"/>
       <c r="F222" s="62"/>
@@ -11387,13 +11398,13 @@
         <v>511</v>
       </c>
       <c r="B223" s="64" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C223" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D223" s="46" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E223" s="57"/>
       <c r="F223" s="62"/>
@@ -11403,13 +11414,13 @@
         <v>513</v>
       </c>
       <c r="B224" s="64" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C224" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D224" s="46" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E224" s="57"/>
       <c r="F224" s="62"/>
@@ -11419,13 +11430,13 @@
         <v>515</v>
       </c>
       <c r="B225" s="64" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C225" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D225" s="46" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E225" s="57"/>
       <c r="F225" s="62"/>
@@ -11435,13 +11446,13 @@
         <v>517</v>
       </c>
       <c r="B226" s="64" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C226" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D226" s="46" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="E226" s="57"/>
       <c r="F226" s="62"/>
@@ -11451,13 +11462,13 @@
         <v>519</v>
       </c>
       <c r="B227" s="64" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C227" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D227" s="46" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E227" s="57"/>
       <c r="F227" s="62"/>
@@ -11467,13 +11478,13 @@
         <v>521</v>
       </c>
       <c r="B228" s="64" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C228" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D228" s="46" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E228" s="57"/>
       <c r="F228" s="62"/>
@@ -11483,13 +11494,13 @@
         <v>523</v>
       </c>
       <c r="B229" s="64" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C229" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D229" s="46" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E229" s="57"/>
       <c r="F229" s="62"/>
@@ -11499,17 +11510,17 @@
         <v>525</v>
       </c>
       <c r="B230" s="65" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C230" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D230" s="46" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E230" s="57"/>
       <c r="F230" s="69" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="231" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11517,13 +11528,13 @@
         <v>527</v>
       </c>
       <c r="B231" s="64" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C231" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D231" s="46" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E231" s="57"/>
       <c r="F231" s="62"/>
@@ -11533,13 +11544,13 @@
         <v>529</v>
       </c>
       <c r="B232" s="64" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C232" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D232" s="46" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E232" s="57"/>
       <c r="F232" s="62"/>
@@ -11549,13 +11560,13 @@
         <v>531</v>
       </c>
       <c r="B233" s="64" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C233" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D233" s="46" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E233" s="57"/>
       <c r="F233" s="62"/>
@@ -11565,13 +11576,13 @@
         <v>534</v>
       </c>
       <c r="B234" s="64" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C234" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D234" s="46" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E234" s="57"/>
       <c r="F234" s="62"/>
@@ -11581,13 +11592,13 @@
         <v>537</v>
       </c>
       <c r="B235" s="64" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C235" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D235" s="46" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E235" s="57"/>
       <c r="F235" s="62"/>
@@ -11597,13 +11608,13 @@
         <v>539</v>
       </c>
       <c r="B236" s="66" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C236" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D236" s="46" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E236" s="57"/>
       <c r="F236" s="62"/>
@@ -11613,13 +11624,13 @@
         <v>541</v>
       </c>
       <c r="B237" s="66" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C237" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D237" s="46" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E237" s="57"/>
       <c r="F237" s="62"/>
@@ -11629,13 +11640,13 @@
         <v>543</v>
       </c>
       <c r="B238" s="66" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C238" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D238" s="46" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="E238" s="57"/>
       <c r="F238" s="62"/>
@@ -11645,13 +11656,13 @@
         <v>545</v>
       </c>
       <c r="B239" s="64" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C239" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D239" s="46" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E239" s="57"/>
       <c r="F239" s="62"/>
@@ -11661,17 +11672,17 @@
         <v>547</v>
       </c>
       <c r="B240" s="67" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C240" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D240" s="46" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E240" s="57"/>
       <c r="F240" s="62" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="241" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11679,17 +11690,17 @@
         <v>549</v>
       </c>
       <c r="B241" s="67" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C241" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D241" s="46" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E241" s="57"/>
       <c r="F241" s="62" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="242" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11697,13 +11708,13 @@
         <v>552</v>
       </c>
       <c r="B242" s="65" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C242" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D242" s="46" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="E242" s="57"/>
       <c r="F242" s="62"/>
@@ -11713,17 +11724,17 @@
         <v>554</v>
       </c>
       <c r="B243" s="63" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C243" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D243" s="46" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="E243" s="57"/>
       <c r="F243" s="69" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="244" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11731,17 +11742,17 @@
         <v>556</v>
       </c>
       <c r="B244" s="65" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C244" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D244" s="46" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="E244" s="57"/>
       <c r="F244" s="69" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="245" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11749,13 +11760,13 @@
         <v>558</v>
       </c>
       <c r="B245" s="63" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C245" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D245" s="46" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E245" s="57"/>
       <c r="F245" s="62"/>
@@ -11765,16 +11776,16 @@
         <v>560</v>
       </c>
       <c r="B246" s="37" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C246" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D246" s="46" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E246" s="70" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F246" s="54"/>
     </row>
@@ -11783,13 +11794,13 @@
         <v>562</v>
       </c>
       <c r="B247" s="37" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C247" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D247" s="46" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E247" s="70"/>
       <c r="F247" s="54"/>
@@ -11799,13 +11810,13 @@
         <v>564</v>
       </c>
       <c r="B248" s="37" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C248" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D248" s="46" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E248" s="70"/>
       <c r="F248" s="54"/>
@@ -11815,13 +11826,13 @@
         <v>566</v>
       </c>
       <c r="B249" s="37" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C249" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D249" s="46" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E249" s="70"/>
       <c r="F249" s="54"/>
@@ -11831,13 +11842,13 @@
         <v>568</v>
       </c>
       <c r="B250" s="37" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C250" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D250" s="46" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E250" s="70"/>
       <c r="F250" s="54"/>
@@ -11847,13 +11858,13 @@
         <v>570</v>
       </c>
       <c r="B251" s="37" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C251" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D251" s="46" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E251" s="70"/>
       <c r="F251" s="54"/>
@@ -11863,7 +11874,7 @@
         <v>572</v>
       </c>
       <c r="B252" s="48" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C252" s="49"/>
       <c r="D252" s="46"/>
@@ -11877,7 +11888,7 @@
         <v>574</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C253" s="49"/>
       <c r="D253" s="46"/>
@@ -11891,19 +11902,19 @@
         <v>576</v>
       </c>
       <c r="B254" s="37" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C254" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D254" s="46" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E254" s="51" t="s">
         <v>329</v>
       </c>
       <c r="F254" s="56" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="255" ht="19.5" customHeight="1" spans="1:6">
@@ -11911,13 +11922,13 @@
         <v>578</v>
       </c>
       <c r="B255" s="37" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C255" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D255" s="46" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E255" s="51"/>
       <c r="F255" s="56"/>
@@ -11927,13 +11938,13 @@
         <v>580</v>
       </c>
       <c r="B256" s="37" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C256" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D256" s="46" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E256" s="51"/>
       <c r="F256" s="56"/>
@@ -11943,13 +11954,13 @@
         <v>582</v>
       </c>
       <c r="B257" s="37" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C257" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D257" s="46" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E257" s="46" t="s">
         <v>329</v>
@@ -11961,13 +11972,13 @@
         <v>584</v>
       </c>
       <c r="B258" s="37" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C258" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D258" s="46" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E258" s="46" t="s">
         <v>329</v>
@@ -11979,13 +11990,13 @@
         <v>586</v>
       </c>
       <c r="B259" s="37" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C259" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D259" s="46" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E259" s="46" t="s">
         <v>329</v>
@@ -11997,13 +12008,13 @@
         <v>589</v>
       </c>
       <c r="B260" s="37" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C260" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D260" s="46" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E260" s="46" t="s">
         <v>329</v>
@@ -12015,13 +12026,13 @@
         <v>592</v>
       </c>
       <c r="B261" s="37" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C261" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D261" s="46" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E261" s="46" t="s">
         <v>329</v>
@@ -12033,13 +12044,13 @@
         <v>595</v>
       </c>
       <c r="B262" s="37" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C262" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D262" s="46" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E262" s="46" t="s">
         <v>329</v>
@@ -12051,13 +12062,13 @@
         <v>598</v>
       </c>
       <c r="B263" s="37" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C263" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D263" s="46" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E263" s="46" t="s">
         <v>329</v>
@@ -12069,13 +12080,13 @@
         <v>604</v>
       </c>
       <c r="B264" s="37" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C264" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D264" s="46" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E264" s="46"/>
       <c r="F264" s="54"/>
@@ -12085,13 +12096,13 @@
         <v>607</v>
       </c>
       <c r="B265" s="37" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C265" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D265" s="46" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E265" s="46"/>
       <c r="F265" s="54"/>
@@ -12101,13 +12112,13 @@
         <v>610</v>
       </c>
       <c r="B266" s="37" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C266" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D266" s="46" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E266" s="46"/>
       <c r="F266" s="54"/>
@@ -12117,13 +12128,13 @@
         <v>613</v>
       </c>
       <c r="B267" s="37" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C267" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D267" s="46" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E267" s="46"/>
       <c r="F267" s="54"/>
@@ -12133,13 +12144,13 @@
         <v>619</v>
       </c>
       <c r="B268" s="37" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C268" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D268" s="46" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E268" s="46"/>
       <c r="F268" s="54"/>
@@ -12149,13 +12160,13 @@
         <v>622</v>
       </c>
       <c r="B269" s="37" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C269" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D269" s="46" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E269" s="46"/>
       <c r="F269" s="54"/>
@@ -12165,13 +12176,13 @@
         <v>625</v>
       </c>
       <c r="B270" s="37" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C270" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D270" s="46" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="E270" s="46"/>
       <c r="F270" s="54"/>
@@ -12181,13 +12192,13 @@
         <v>628</v>
       </c>
       <c r="B271" s="37" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C271" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D271" s="46" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E271" s="46"/>
       <c r="F271" s="54"/>
@@ -12197,13 +12208,13 @@
         <v>631</v>
       </c>
       <c r="B272" s="37" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C272" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D272" s="46" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E272" s="46"/>
       <c r="F272" s="54"/>
@@ -12213,13 +12224,13 @@
         <v>634</v>
       </c>
       <c r="B273" s="37" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C273" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D273" s="46" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="E273" s="46"/>
       <c r="F273" s="54"/>
@@ -12229,13 +12240,13 @@
         <v>637</v>
       </c>
       <c r="B274" s="37" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C274" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D274" s="46" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E274" s="46"/>
       <c r="F274" s="54"/>
@@ -12245,13 +12256,13 @@
         <v>640</v>
       </c>
       <c r="B275" s="37" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C275" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D275" s="46" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E275" s="46"/>
       <c r="F275" s="54"/>
@@ -12261,13 +12272,13 @@
         <v>643</v>
       </c>
       <c r="B276" s="37" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C276" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D276" s="46" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E276" s="46"/>
       <c r="F276" s="54"/>
@@ -12277,13 +12288,13 @@
         <v>646</v>
       </c>
       <c r="B277" s="37" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C277" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D277" s="46" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="E277" s="46"/>
       <c r="F277" s="54"/>
@@ -12293,13 +12304,13 @@
         <v>649</v>
       </c>
       <c r="B278" s="37" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C278" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D278" s="46" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E278" s="46"/>
       <c r="F278" s="54"/>
@@ -12309,13 +12320,13 @@
         <v>652</v>
       </c>
       <c r="B279" s="37" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C279" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D279" s="46" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E279" s="46"/>
       <c r="F279" s="54"/>
@@ -12325,13 +12336,13 @@
         <v>655</v>
       </c>
       <c r="B280" s="37" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C280" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D280" s="46" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E280" s="46"/>
       <c r="F280" s="54"/>
@@ -12341,13 +12352,13 @@
         <v>658</v>
       </c>
       <c r="B281" s="37" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C281" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D281" s="46" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E281" s="46"/>
       <c r="F281" s="54"/>
@@ -12357,13 +12368,13 @@
         <v>661</v>
       </c>
       <c r="B282" s="37" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C282" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E282" s="46"/>
       <c r="F282" s="54"/>
@@ -12373,7 +12384,7 @@
         <v>664</v>
       </c>
       <c r="B283" s="48" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C283" s="49"/>
       <c r="D283" s="46"/>
@@ -12387,7 +12398,7 @@
         <v>667</v>
       </c>
       <c r="B284" s="48" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C284" s="49"/>
       <c r="D284" s="46"/>
@@ -12401,7 +12412,7 @@
         <v>670</v>
       </c>
       <c r="B285" s="48" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C285" s="49"/>
       <c r="D285" s="46"/>
@@ -12415,13 +12426,13 @@
         <v>673</v>
       </c>
       <c r="B286" s="37" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C286" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E286" s="57" t="s">
         <v>335</v>
@@ -12433,13 +12444,13 @@
         <v>676</v>
       </c>
       <c r="B287" s="37" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C287" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D287" s="46" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E287" s="57" t="s">
         <v>335</v>
@@ -12451,13 +12462,13 @@
         <v>679</v>
       </c>
       <c r="B288" s="37" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C288" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E288" s="57" t="s">
         <v>335</v>
@@ -12469,13 +12480,13 @@
         <v>682</v>
       </c>
       <c r="B289" s="37" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C289" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D289" s="46" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E289" s="57" t="s">
         <v>335</v>
@@ -12487,13 +12498,13 @@
         <v>685</v>
       </c>
       <c r="B290" s="37" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C290" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D290" s="46" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E290" s="57" t="s">
         <v>335</v>
@@ -12505,13 +12516,13 @@
         <v>688</v>
       </c>
       <c r="B291" s="37" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C291" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D291" s="46" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E291" s="57" t="s">
         <v>335</v>
@@ -12523,13 +12534,13 @@
         <v>691</v>
       </c>
       <c r="B292" s="37" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C292" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D292" s="46" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E292" s="57" t="s">
         <v>335</v>
@@ -12541,13 +12552,13 @@
         <v>694</v>
       </c>
       <c r="B293" s="37" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C293" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D293" s="46" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E293" s="57" t="s">
         <v>335</v>
@@ -12559,13 +12570,13 @@
         <v>697</v>
       </c>
       <c r="B294" s="37" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C294" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D294" s="46" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="E294" s="57" t="s">
         <v>335</v>
@@ -12577,13 +12588,13 @@
         <v>699</v>
       </c>
       <c r="B295" s="37" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C295" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D295" s="46" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E295" s="57"/>
       <c r="F295" s="54"/>
@@ -12593,13 +12604,13 @@
         <v>702</v>
       </c>
       <c r="B296" s="37" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C296" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D296" s="46" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E296" s="57"/>
       <c r="F296" s="54"/>
@@ -12609,13 +12620,13 @@
         <v>704</v>
       </c>
       <c r="B297" s="37" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C297" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D297" s="46" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E297" s="57"/>
       <c r="F297" s="54"/>
@@ -12625,13 +12636,13 @@
         <v>706</v>
       </c>
       <c r="B298" s="37" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C298" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D298" s="46" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E298" s="57"/>
       <c r="F298" s="54"/>
@@ -12641,13 +12652,13 @@
         <v>708</v>
       </c>
       <c r="B299" s="37" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C299" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D299" s="46" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E299" s="57"/>
       <c r="F299" s="54"/>
@@ -12657,13 +12668,13 @@
         <v>710</v>
       </c>
       <c r="B300" s="37" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C300" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D300" s="46" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E300" s="57"/>
       <c r="F300" s="54"/>
@@ -12673,13 +12684,13 @@
         <v>712</v>
       </c>
       <c r="B301" s="37" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C301" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D301" s="46" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E301" s="57"/>
       <c r="F301" s="54"/>
@@ -12689,13 +12700,13 @@
         <v>714</v>
       </c>
       <c r="B302" s="37" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C302" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D302" s="46" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E302" s="57"/>
       <c r="F302" s="54"/>
@@ -12705,13 +12716,13 @@
         <v>716</v>
       </c>
       <c r="B303" s="37" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C303" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D303" s="46" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E303" s="57"/>
       <c r="F303" s="54"/>
@@ -12721,13 +12732,13 @@
         <v>718</v>
       </c>
       <c r="B304" s="37" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C304" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D304" s="46" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E304" s="57"/>
       <c r="F304" s="54"/>
@@ -12737,13 +12748,13 @@
         <v>720</v>
       </c>
       <c r="B305" s="37" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C305" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D305" s="46" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E305" s="57"/>
       <c r="F305" s="54"/>
@@ -12753,13 +12764,13 @@
         <v>722</v>
       </c>
       <c r="B306" s="37" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C306" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D306" s="46" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="E306" s="57"/>
       <c r="F306" s="54"/>
@@ -12769,13 +12780,13 @@
         <v>724</v>
       </c>
       <c r="B307" s="37" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C307" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D307" s="46" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E307" s="57"/>
       <c r="F307" s="54"/>
@@ -12785,7 +12796,7 @@
         <v>726</v>
       </c>
       <c r="B308" s="48" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C308" s="49"/>
       <c r="D308" s="49"/>
@@ -12799,7 +12810,7 @@
         <v>728</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C309" s="49"/>
       <c r="D309" s="49"/>
@@ -12813,13 +12824,13 @@
         <v>730</v>
       </c>
       <c r="B310" s="37" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C310" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D310" s="46" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E310" s="57" t="s">
         <v>52</v>
@@ -12831,13 +12842,13 @@
         <v>732</v>
       </c>
       <c r="B311" s="37" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C311" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D311" s="46" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E311" s="57" t="s">
         <v>52</v>
@@ -12849,13 +12860,13 @@
         <v>734</v>
       </c>
       <c r="B312" s="37" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C312" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D312" s="46" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E312" s="57" t="s">
         <v>52</v>
@@ -12867,13 +12878,13 @@
         <v>736</v>
       </c>
       <c r="B313" s="37" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C313" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D313" s="46" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E313" s="57" t="s">
         <v>52</v>
@@ -12885,13 +12896,13 @@
         <v>738</v>
       </c>
       <c r="B314" s="37" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C314" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D314" s="46" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E314" s="57" t="s">
         <v>52</v>
@@ -12903,13 +12914,13 @@
         <v>740</v>
       </c>
       <c r="B315" s="37" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C315" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D315" s="46" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E315" s="57" t="s">
         <v>52</v>
@@ -12921,13 +12932,13 @@
         <v>742</v>
       </c>
       <c r="B316" s="37" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C316" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D316" s="46" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E316" s="57" t="s">
         <v>52</v>
@@ -12939,13 +12950,13 @@
         <v>744</v>
       </c>
       <c r="B317" s="37" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C317" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D317" s="46" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E317" s="57" t="s">
         <v>52</v>
@@ -12957,7 +12968,7 @@
         <v>746</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C318" s="49"/>
       <c r="D318" s="49"/>
@@ -12971,7 +12982,7 @@
         <v>748</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C319" s="49"/>
       <c r="D319" s="49"/>
@@ -12985,7 +12996,7 @@
         <v>750</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C320" s="49"/>
       <c r="D320" s="49"/>
@@ -12999,13 +13010,13 @@
         <v>752</v>
       </c>
       <c r="B321" s="71" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C321" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D321" s="46" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E321" s="57" t="s">
         <v>167</v>
@@ -13017,13 +13028,13 @@
         <v>754</v>
       </c>
       <c r="B322" s="37" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C322" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D322" s="46" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E322" s="57" t="s">
         <v>167</v>
@@ -13035,13 +13046,13 @@
         <v>756</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C323" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D323" s="46" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E323" s="57" t="s">
         <v>167</v>
@@ -13053,7 +13064,7 @@
         <v>758</v>
       </c>
       <c r="B324" s="48" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C324" s="49"/>
       <c r="D324" s="49"/>
@@ -13067,13 +13078,13 @@
         <v>760</v>
       </c>
       <c r="B325" s="37" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C325" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D325" s="46" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E325" s="46" t="s">
         <v>171</v>
@@ -13085,13 +13096,13 @@
         <v>762</v>
       </c>
       <c r="B326" s="37" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C326" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D326" s="46" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E326" s="46" t="s">
         <v>175</v>
@@ -13103,13 +13114,13 @@
         <v>764</v>
       </c>
       <c r="B327" s="37" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C327" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D327" s="46" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E327" s="46" t="s">
         <v>179</v>
@@ -13121,13 +13132,13 @@
         <v>766</v>
       </c>
       <c r="B328" s="37" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C328" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D328" s="46" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E328" s="46" t="s">
         <v>179</v>
@@ -13139,16 +13150,16 @@
         <v>768</v>
       </c>
       <c r="B329" s="37" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C329" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D329" s="46" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E329" s="46" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="F329" s="54"/>
     </row>
@@ -13157,16 +13168,16 @@
         <v>770</v>
       </c>
       <c r="B330" s="37" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C330" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D330" s="46" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E330" s="46" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="F330" s="54"/>
     </row>
@@ -13175,16 +13186,16 @@
         <v>772</v>
       </c>
       <c r="B331" s="37" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C331" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D331" s="46" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E331" s="46" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="F331" s="54"/>
     </row>
@@ -13193,16 +13204,16 @@
         <v>774</v>
       </c>
       <c r="B332" s="37" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C332" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D332" s="46" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E332" s="46" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="F332" s="54"/>
     </row>
@@ -13211,16 +13222,16 @@
         <v>776</v>
       </c>
       <c r="B333" s="37" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C333" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D333" s="46" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E333" s="46" t="s">
         <v>1040</v>
-      </c>
-      <c r="E333" s="46" t="s">
-        <v>1038</v>
       </c>
       <c r="F333" s="54"/>
     </row>
@@ -13229,16 +13240,16 @@
         <v>778</v>
       </c>
       <c r="B334" s="37" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C334" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D334" s="46" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E334" s="46" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F334" s="54"/>
     </row>
@@ -13247,16 +13258,16 @@
         <v>780</v>
       </c>
       <c r="B335" s="37" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C335" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D335" s="46" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E335" s="46" t="s">
         <v>1045</v>
-      </c>
-      <c r="E335" s="46" t="s">
-        <v>1043</v>
       </c>
       <c r="F335" s="54"/>
     </row>
@@ -13265,16 +13276,16 @@
         <v>782</v>
       </c>
       <c r="B336" s="37" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C336" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D336" s="46" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E336" s="46" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F336" s="54"/>
     </row>
@@ -13283,13 +13294,13 @@
         <v>784</v>
       </c>
       <c r="B337" s="37" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C337" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D337" s="46" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E337" s="46" t="s">
         <v>183</v>
@@ -13301,13 +13312,13 @@
         <v>786</v>
       </c>
       <c r="B338" s="37" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C338" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D338" s="46" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E338" s="46" t="s">
         <v>183</v>
@@ -13319,7 +13330,7 @@
         <v>788</v>
       </c>
       <c r="B339" s="48" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C339" s="49"/>
       <c r="D339" s="49"/>
@@ -13333,16 +13344,16 @@
         <v>790</v>
       </c>
       <c r="B340" s="37" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C340" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D340" s="46" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E340" s="46" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="F340" s="54"/>
     </row>
@@ -13351,16 +13362,16 @@
         <v>792</v>
       </c>
       <c r="B341" s="37" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C341" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D341" s="46" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E341" s="46" t="s">
         <v>1057</v>
-      </c>
-      <c r="E341" s="46" t="s">
-        <v>1055</v>
       </c>
       <c r="F341" s="54"/>
     </row>
@@ -13369,19 +13380,19 @@
         <v>794</v>
       </c>
       <c r="B342" s="37" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C342" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D342" s="46" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E342" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F342" s="56" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="343" ht="19.5" customHeight="1" spans="1:6">
@@ -13389,16 +13400,16 @@
         <v>796</v>
       </c>
       <c r="B343" s="37" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C343" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D343" s="46" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E343" s="46" t="s">
         <v>1062</v>
-      </c>
-      <c r="C343" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D343" s="46" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E343" s="46" t="s">
-        <v>1060</v>
       </c>
       <c r="F343" s="56"/>
     </row>
@@ -13407,16 +13418,16 @@
         <v>798</v>
       </c>
       <c r="B344" s="37" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C344" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D344" s="46" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E344" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F344" s="56"/>
     </row>
@@ -13425,16 +13436,16 @@
         <v>800</v>
       </c>
       <c r="B345" s="37" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C345" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D345" s="46" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E345" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F345" s="56"/>
     </row>
@@ -13443,16 +13454,16 @@
         <v>802</v>
       </c>
       <c r="B346" s="37" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C346" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D346" s="46" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E346" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F346" s="56"/>
     </row>
@@ -13461,16 +13472,16 @@
         <v>804</v>
       </c>
       <c r="B347" s="37" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C347" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D347" s="46" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E347" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F347" s="56"/>
     </row>
@@ -13479,16 +13490,16 @@
         <v>806</v>
       </c>
       <c r="B348" s="37" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C348" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D348" s="46" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E348" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F348" s="56"/>
     </row>
@@ -13497,16 +13508,16 @@
         <v>808</v>
       </c>
       <c r="B349" s="37" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C349" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D349" s="46" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="E349" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F349" s="56"/>
     </row>
@@ -13515,16 +13526,16 @@
         <v>810</v>
       </c>
       <c r="B350" s="37" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C350" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D350" s="46" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="E350" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F350" s="56"/>
     </row>
@@ -13533,16 +13544,16 @@
         <v>812</v>
       </c>
       <c r="B351" s="37" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C351" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D351" s="46" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E351" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F351" s="56"/>
     </row>
@@ -13551,16 +13562,16 @@
         <v>815</v>
       </c>
       <c r="B352" s="37" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C352" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D352" s="46" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="E352" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F352" s="56"/>
     </row>
@@ -13569,339 +13580,339 @@
         <v>817</v>
       </c>
       <c r="B353" s="37" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C353" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D353" s="46" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="E353" s="46" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F353" s="56"/>
     </row>
     <row r="354" ht="30" customHeight="1" spans="1:6">
       <c r="A354" s="46" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B354" s="37" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C354" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D354" s="46" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E354" s="46" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F354" s="54"/>
     </row>
     <row r="355" ht="30" customHeight="1" spans="1:6">
       <c r="A355" s="46" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B355" s="37" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C355" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D355" s="46" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E355" s="46" t="s">
         <v>1088</v>
-      </c>
-      <c r="E355" s="46" t="s">
-        <v>1086</v>
       </c>
       <c r="F355" s="54"/>
     </row>
     <row r="356" ht="19.5" customHeight="1" spans="1:6">
       <c r="A356" s="46" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B356" s="37" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C356" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D356" s="46" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="E356" s="54"/>
       <c r="F356" s="54"/>
     </row>
     <row r="357" ht="19.5" customHeight="1" spans="1:6">
       <c r="A357" s="46" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B357" s="37" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C357" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D357" s="46" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="E357" s="54"/>
       <c r="F357" s="54"/>
     </row>
     <row r="358" ht="19.5" customHeight="1" spans="1:6">
       <c r="A358" s="46" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B358" s="37" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C358" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D358" s="46" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E358" s="54"/>
       <c r="F358" s="54"/>
     </row>
     <row r="359" ht="19.5" customHeight="1" spans="1:6">
       <c r="A359" s="46" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B359" s="37" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C359" s="46" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D359" s="46" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="E359" s="54"/>
       <c r="F359" s="54"/>
     </row>
     <row r="360" ht="19.5" customHeight="1" spans="1:6">
       <c r="A360" s="46" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B360" s="37" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C360" s="72">
         <v>45313</v>
       </c>
       <c r="D360" s="46" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="E360" s="54"/>
       <c r="F360" s="54"/>
     </row>
     <row r="361" ht="19.5" customHeight="1" spans="1:6">
       <c r="A361" s="46" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B361" s="37" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C361" s="73">
         <v>45344</v>
       </c>
       <c r="D361" s="46" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E361" s="54"/>
       <c r="F361" s="54"/>
     </row>
     <row r="362" ht="19.5" customHeight="1" spans="1:6">
       <c r="A362" s="46" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B362" s="37" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C362" s="73">
         <v>45344</v>
       </c>
       <c r="D362" s="46" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E362" s="54"/>
       <c r="F362" s="54"/>
     </row>
     <row r="363" ht="19.5" customHeight="1" spans="1:6">
       <c r="A363" s="46" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B363" s="37" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C363" s="73">
         <v>45344</v>
       </c>
       <c r="D363" s="46" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E363" s="54"/>
       <c r="F363" s="54"/>
     </row>
     <row r="364" ht="19.5" customHeight="1" spans="1:6">
       <c r="A364" s="46" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B364" s="37" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C364" s="73">
         <v>45344</v>
       </c>
       <c r="D364" s="46" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="E364" s="54"/>
       <c r="F364" s="54"/>
     </row>
     <row r="365" ht="19.5" customHeight="1" spans="1:6">
       <c r="A365" s="46" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B365" s="37" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C365" s="73">
         <v>45344</v>
       </c>
       <c r="D365" s="46" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="E365" s="54"/>
       <c r="F365" s="54"/>
     </row>
     <row r="366" ht="19.5" customHeight="1" spans="1:6">
       <c r="A366" s="46" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B366" s="37" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C366" s="73">
         <v>45344</v>
       </c>
       <c r="D366" s="46" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="E366" s="54"/>
       <c r="F366" s="54"/>
     </row>
     <row r="367" ht="19.5" customHeight="1" spans="1:6">
       <c r="A367" s="46" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B367" s="37" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C367" s="73">
         <v>45344</v>
       </c>
       <c r="D367" s="46" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E367" s="54"/>
       <c r="F367" s="54"/>
     </row>
     <row r="368" ht="19.5" customHeight="1" spans="1:6">
       <c r="A368" s="46" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B368" s="37" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C368" s="73">
         <v>45344</v>
       </c>
       <c r="D368" s="46" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E368" s="54"/>
       <c r="F368" s="54"/>
     </row>
     <row r="369" ht="19.5" customHeight="1" spans="1:6">
       <c r="A369" s="46" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B369" s="37" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="C369" s="73">
         <v>45344</v>
       </c>
       <c r="D369" s="46" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="E369" s="54"/>
       <c r="F369" s="54"/>
     </row>
     <row r="370" ht="19.5" customHeight="1" spans="1:6">
       <c r="A370" s="46" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B370" s="37" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C370" s="73">
         <v>45344</v>
       </c>
       <c r="D370" s="46" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E370" s="54"/>
       <c r="F370" s="54"/>
     </row>
     <row r="371" ht="19.5" customHeight="1" spans="1:6">
       <c r="A371" s="46" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B371" s="37" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C371" s="73">
         <v>45344</v>
       </c>
       <c r="D371" s="46" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="E371" s="54"/>
       <c r="F371" s="54"/>
     </row>
     <row r="372" ht="19.5" customHeight="1" spans="1:6">
       <c r="A372" s="46" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B372" s="37" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C372" s="73">
         <v>45344</v>
       </c>
       <c r="D372" s="46" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="E372" s="54"/>
       <c r="F372" s="54"/>
     </row>
     <row r="373" ht="19.5" customHeight="1" spans="1:6">
       <c r="A373" s="46" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B373" s="37" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C373" s="73">
         <v>45344</v>
       </c>
       <c r="D373" s="46" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="E373" s="54"/>
       <c r="F373" s="54"/>
@@ -13951,7 +13962,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:5">
       <c r="A1" s="38" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -13960,7 +13971,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -13988,7 +13999,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>4</v>
@@ -14005,7 +14016,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>195</v>
@@ -14022,7 +14033,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>195</v>
@@ -14039,7 +14050,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>195</v>
@@ -14056,7 +14067,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>195</v>
@@ -14073,7 +14084,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>195</v>
@@ -14090,7 +14101,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>195</v>
@@ -14107,7 +14118,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>195</v>
@@ -14122,7 +14133,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>195</v>
@@ -14137,7 +14148,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>195</v>
@@ -14152,13 +14163,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E15" s="20"/>
     </row>
@@ -14194,7 +14205,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
       <c r="A1" s="15" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -14204,7 +14215,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14233,7 +14244,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>4</v>
@@ -14251,7 +14262,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>195</v>
@@ -14269,7 +14280,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>195</v>
@@ -14287,7 +14298,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>195</v>
@@ -14305,7 +14316,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>195</v>
@@ -14323,7 +14334,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>195</v>
@@ -14341,7 +14352,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>195</v>
@@ -14350,7 +14361,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F11" s="29"/>
     </row>
@@ -14359,7 +14370,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>195</v>
@@ -14377,7 +14388,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>195</v>
@@ -14386,7 +14397,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="F13" s="29"/>
     </row>
@@ -14395,7 +14406,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>195</v>
@@ -14413,12 +14424,12 @@
         <v>38</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="F15" s="30"/>
     </row>
@@ -14427,7 +14438,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -14441,13 +14452,13 @@
         <v>45</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
@@ -14459,7 +14470,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>195</v>
@@ -14475,7 +14486,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>195</v>
@@ -14491,7 +14502,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>195</v>
@@ -14507,7 +14518,7 @@
         <v>384</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>195</v>
@@ -14523,7 +14534,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>195</v>
@@ -14539,7 +14550,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>195</v>
@@ -14555,7 +14566,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>195</v>
@@ -14571,7 +14582,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>195</v>
@@ -14587,7 +14598,7 @@
         <v>73</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>195</v>
@@ -14603,7 +14614,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>195</v>
@@ -14619,7 +14630,7 @@
         <v>80</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>195</v>
@@ -14635,7 +14646,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>195</v>
@@ -14651,7 +14662,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>195</v>
@@ -14667,7 +14678,7 @@
         <v>88</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>195</v>
@@ -14683,7 +14694,7 @@
         <v>91</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>195</v>
@@ -14699,13 +14710,13 @@
         <v>94</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="33"/>
@@ -14715,13 +14726,13 @@
         <v>97</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="33"/>
@@ -14731,7 +14742,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>195</v>
@@ -14741,7 +14752,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="36" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14749,7 +14760,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>195</v>
@@ -14765,7 +14776,7 @@
         <v>109</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>195</v>
@@ -14781,7 +14792,7 @@
         <v>113</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>195</v>
@@ -14797,7 +14808,7 @@
         <v>117</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>195</v>
@@ -14813,7 +14824,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>195</v>
@@ -14829,7 +14840,7 @@
         <v>125</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>195</v>
@@ -14845,13 +14856,13 @@
         <v>129</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31"/>
@@ -14861,7 +14872,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -14875,17 +14886,17 @@
         <v>136</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="31" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="45" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14893,13 +14904,13 @@
         <v>140</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="31"/>
@@ -14909,7 +14920,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>195</v>
@@ -14925,7 +14936,7 @@
         <v>147</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>195</v>
@@ -14941,7 +14952,7 @@
         <v>150</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>195</v>
@@ -14957,7 +14968,7 @@
         <v>154</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>195</v>
@@ -14973,7 +14984,7 @@
         <v>157</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>195</v>
@@ -14989,7 +15000,7 @@
         <v>160</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>195</v>
@@ -15005,7 +15016,7 @@
         <v>164</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>195</v>
@@ -15021,13 +15032,13 @@
         <v>168</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="31"/>
@@ -15037,13 +15048,13 @@
         <v>172</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="31"/>
@@ -15053,13 +15064,13 @@
         <v>176</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="31"/>
@@ -15069,13 +15080,13 @@
         <v>180</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="31"/>
@@ -15085,13 +15096,13 @@
         <v>184</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="31"/>
@@ -15101,7 +15112,7 @@
         <v>187</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>195</v>
@@ -15117,7 +15128,7 @@
         <v>190</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>195</v>
@@ -15133,7 +15144,7 @@
         <v>193</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>195</v>
@@ -15149,7 +15160,7 @@
         <v>198</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>195</v>
@@ -15165,7 +15176,7 @@
         <v>203</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>195</v>
@@ -15181,7 +15192,7 @@
         <v>208</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>195</v>
@@ -15197,7 +15208,7 @@
         <v>211</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>195</v>
@@ -15213,7 +15224,7 @@
         <v>214</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>195</v>
@@ -15229,13 +15240,13 @@
         <v>217</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="31"/>
@@ -15245,7 +15256,7 @@
         <v>219</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>195</v>
@@ -15273,7 +15284,7 @@
         <v>224</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>195</v>
@@ -15283,7 +15294,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="31" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="70" s="13" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -15291,7 +15302,7 @@
         <v>229</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>195</v>
@@ -15307,7 +15318,7 @@
         <v>234</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>195</v>
@@ -15323,7 +15334,7 @@
         <v>237</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>195</v>
@@ -15339,7 +15350,7 @@
         <v>241</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>195</v>
@@ -15355,7 +15366,7 @@
         <v>245</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>195</v>
@@ -15371,7 +15382,7 @@
         <v>248</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>195</v>
@@ -15387,7 +15398,7 @@
         <v>251</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>195</v>
@@ -15403,7 +15414,7 @@
         <v>254</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -15417,7 +15428,7 @@
         <v>257</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>195</v>
@@ -15435,13 +15446,13 @@
         <v>260</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="31"/>
@@ -15451,13 +15462,13 @@
         <v>263</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="31"/>
@@ -15467,13 +15478,13 @@
         <v>266</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31"/>
@@ -15483,13 +15494,13 @@
         <v>269</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31"/>
@@ -15499,13 +15510,13 @@
         <v>272</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31"/>
@@ -15515,13 +15526,13 @@
         <v>276</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="31"/>
@@ -15531,13 +15542,13 @@
         <v>279</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="31"/>
@@ -15547,13 +15558,13 @@
         <v>282</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="31"/>
@@ -15563,13 +15574,13 @@
         <v>285</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="31"/>
@@ -15579,13 +15590,13 @@
         <v>287</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="31"/>
@@ -15595,13 +15606,13 @@
         <v>289</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="31"/>
@@ -15611,13 +15622,13 @@
         <v>292</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="31"/>
@@ -15627,13 +15638,13 @@
         <v>294</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="31"/>
@@ -15643,13 +15654,13 @@
         <v>297</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="31"/>
@@ -15659,13 +15670,13 @@
         <v>298</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="31"/>
@@ -15675,13 +15686,13 @@
         <v>301</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="31"/>
@@ -15691,13 +15702,13 @@
         <v>302</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="31"/>
@@ -15707,13 +15718,13 @@
         <v>305</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="31"/>
@@ -15723,13 +15734,13 @@
         <v>306</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="31"/>
@@ -15739,13 +15750,13 @@
         <v>309</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="31"/>
@@ -15755,13 +15766,13 @@
         <v>310</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="31"/>
@@ -15771,13 +15782,13 @@
         <v>313</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="31"/>
@@ -15787,7 +15798,7 @@
         <v>315</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -15801,17 +15812,17 @@
         <v>318</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="31" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="103" s="13" customFormat="1" ht="30" customHeight="1" spans="1:6">
@@ -15819,13 +15830,13 @@
         <v>320</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="31"/>
@@ -15835,13 +15846,13 @@
         <v>323</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="31"/>
@@ -15851,13 +15862,13 @@
         <v>325</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C105" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="31"/>
@@ -15867,16 +15878,16 @@
         <v>327</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C106" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="F106" s="31"/>
     </row>
@@ -15885,16 +15896,16 @@
         <v>330</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="F107" s="24"/>
     </row>
@@ -15903,13 +15914,13 @@
         <v>332</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E108" s="31"/>
       <c r="F108" s="24"/>
@@ -15919,13 +15930,13 @@
         <v>333</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E109" s="31"/>
       <c r="F109" s="24"/>
@@ -15935,7 +15946,7 @@
         <v>336</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>195</v>
@@ -15951,7 +15962,7 @@
         <v>337</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>195</v>
@@ -15967,7 +15978,7 @@
         <v>338</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>195</v>
@@ -15983,7 +15994,7 @@
         <v>340</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>195</v>
@@ -15993,7 +16004,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="114" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16001,7 +16012,7 @@
         <v>341</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>195</v>
@@ -16017,7 +16028,7 @@
         <v>342</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>195</v>
@@ -16033,7 +16044,7 @@
         <v>344</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>195</v>
@@ -16049,7 +16060,7 @@
         <v>345</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>195</v>
@@ -16065,7 +16076,7 @@
         <v>346</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>195</v>
@@ -16081,7 +16092,7 @@
         <v>349</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>195</v>
@@ -16097,7 +16108,7 @@
         <v>587</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>195</v>
@@ -16113,7 +16124,7 @@
         <v>590</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>195</v>
@@ -16129,7 +16140,7 @@
         <v>593</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>195</v>
@@ -16145,7 +16156,7 @@
         <v>596</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>195</v>
@@ -16161,7 +16172,7 @@
         <v>599</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>195</v>
@@ -16177,7 +16188,7 @@
         <v>600</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>195</v>
@@ -16193,7 +16204,7 @@
         <v>602</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>195</v>
@@ -16209,7 +16220,7 @@
         <v>605</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>195</v>
@@ -16225,7 +16236,7 @@
         <v>608</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>195</v>
@@ -16241,7 +16252,7 @@
         <v>611</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>195</v>
@@ -16257,7 +16268,7 @@
         <v>614</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>195</v>
@@ -16273,7 +16284,7 @@
         <v>615</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>195</v>
@@ -16289,7 +16300,7 @@
         <v>617</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>195</v>
@@ -16305,7 +16316,7 @@
         <v>620</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>195</v>
@@ -16321,7 +16332,7 @@
         <v>623</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>195</v>
@@ -16337,7 +16348,7 @@
         <v>626</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>195</v>
@@ -16353,7 +16364,7 @@
         <v>629</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>195</v>
@@ -16369,7 +16380,7 @@
         <v>632</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>195</v>
@@ -16385,7 +16396,7 @@
         <v>635</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>195</v>
@@ -16401,7 +16412,7 @@
         <v>638</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>195</v>
@@ -16417,7 +16428,7 @@
         <v>641</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>195</v>
@@ -16433,7 +16444,7 @@
         <v>644</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>195</v>
@@ -16449,7 +16460,7 @@
         <v>647</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -16463,7 +16474,7 @@
         <v>650</v>
       </c>
       <c r="B143" s="37" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>195</v>
@@ -16475,7 +16486,7 @@
         <v>335</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="144" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16483,7 +16494,7 @@
         <v>653</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>195</v>
@@ -16501,7 +16512,7 @@
         <v>656</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>195</v>
@@ -16519,7 +16530,7 @@
         <v>659</v>
       </c>
       <c r="B146" s="37" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>195</v>
@@ -16537,7 +16548,7 @@
         <v>662</v>
       </c>
       <c r="B147" s="37" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C147" s="20" t="s">
         <v>195</v>
@@ -16555,7 +16566,7 @@
         <v>665</v>
       </c>
       <c r="B148" s="37" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>195</v>
@@ -16573,7 +16584,7 @@
         <v>668</v>
       </c>
       <c r="B149" s="37" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>195</v>
@@ -16591,7 +16602,7 @@
         <v>671</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>195</v>
@@ -16609,7 +16620,7 @@
         <v>674</v>
       </c>
       <c r="B151" s="37" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>195</v>
@@ -16627,7 +16638,7 @@
         <v>677</v>
       </c>
       <c r="B152" s="37" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>195</v>
@@ -16639,7 +16650,7 @@
         <v>52</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="153" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16647,7 +16658,7 @@
         <v>680</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>195</v>
@@ -16665,7 +16676,7 @@
         <v>683</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="C154" s="20" t="s">
         <v>195</v>
@@ -16683,7 +16694,7 @@
         <v>686</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C155" s="20" t="s">
         <v>195</v>
@@ -16699,7 +16710,7 @@
         <v>689</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C156" s="20" t="s">
         <v>195</v>
@@ -16715,7 +16726,7 @@
         <v>692</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C157" s="20" t="s">
         <v>195</v>
@@ -16731,7 +16742,7 @@
         <v>367</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="C158" s="20" t="s">
         <v>195</v>
@@ -16747,7 +16758,7 @@
         <v>369</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C159" s="20" t="s">
         <v>195</v>
@@ -16763,7 +16774,7 @@
         <v>371</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C160" s="20" t="s">
         <v>195</v>
@@ -16773,7 +16784,7 @@
       </c>
       <c r="E160" s="32"/>
       <c r="F160" s="31" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="161" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16781,7 +16792,7 @@
         <v>373</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C161" s="20" t="s">
         <v>195</v>
@@ -16797,7 +16808,7 @@
         <v>376</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>195</v>
@@ -16813,7 +16824,7 @@
         <v>379</v>
       </c>
       <c r="B163" s="37" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C163" s="20" t="s">
         <v>195</v>
@@ -16841,7 +16852,7 @@
         <v>383</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>195</v>
@@ -16859,7 +16870,7 @@
         <v>386</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="C166" s="20" t="s">
         <v>195</v>
@@ -16875,7 +16886,7 @@
         <v>388</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C167" s="20" t="s">
         <v>195</v>
@@ -16891,7 +16902,7 @@
         <v>390</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>195</v>
@@ -16907,7 +16918,7 @@
         <v>393</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>195</v>
@@ -16923,7 +16934,7 @@
         <v>395</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C170" s="20" t="s">
         <v>195</v>
@@ -16939,7 +16950,7 @@
         <v>398</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C171" s="20" t="s">
         <v>195</v>
@@ -17005,13 +17016,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -17019,7 +17030,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>58</v>
@@ -17030,10 +17041,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -17041,7 +17052,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -17052,7 +17063,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>75</v>
@@ -17063,7 +17074,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>79</v>
@@ -17074,7 +17085,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>90</v>
@@ -17085,7 +17096,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>93</v>
@@ -17096,7 +17107,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>96</v>
@@ -17107,7 +17118,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -17118,7 +17129,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>107</v>
@@ -17129,7 +17140,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>111</v>
@@ -17140,7 +17151,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>115</v>
@@ -17151,7 +17162,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>119</v>
@@ -17162,7 +17173,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>123</v>
@@ -17173,7 +17184,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>127</v>
@@ -17184,7 +17195,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>131</v>
@@ -17195,7 +17206,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>135</v>
@@ -17206,7 +17217,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>138</v>
@@ -17217,10 +17228,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -17228,10 +17239,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -17239,7 +17250,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>142</v>
@@ -17250,7 +17261,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>145</v>
@@ -17261,7 +17272,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>149</v>
@@ -17272,7 +17283,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>152</v>
@@ -17283,7 +17294,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>156</v>
@@ -17294,7 +17305,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>159</v>
@@ -17305,7 +17316,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>162</v>
@@ -17316,10 +17327,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -17327,10 +17338,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17338,10 +17349,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -17349,7 +17360,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>166</v>
@@ -17360,7 +17371,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>170</v>
@@ -17371,7 +17382,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>174</v>
@@ -17382,7 +17393,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>178</v>
@@ -17393,7 +17404,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>182</v>
@@ -17404,7 +17415,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>186</v>
@@ -17415,7 +17426,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>189</v>
@@ -17426,10 +17437,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -17437,10 +17448,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -17448,10 +17459,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -17459,10 +17470,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -17470,10 +17481,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -17481,7 +17492,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>192</v>
@@ -17492,7 +17503,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>196</v>
@@ -17503,7 +17514,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>201</v>
@@ -17514,7 +17525,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>206</v>
@@ -17525,7 +17536,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>227</v>
@@ -17536,7 +17547,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>232</v>
@@ -17547,7 +17558,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>236</v>
@@ -17558,7 +17569,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>240</v>
@@ -17569,10 +17580,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -17580,7 +17591,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>250</v>
@@ -17591,7 +17602,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>253</v>
@@ -17602,7 +17613,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>256</v>
@@ -17613,7 +17624,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>259</v>
@@ -17624,7 +17635,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>262</v>
@@ -17635,7 +17646,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>265</v>
@@ -17646,7 +17657,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>268</v>
@@ -17657,7 +17668,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>271</v>
@@ -17668,7 +17679,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>275</v>
@@ -17679,7 +17690,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>278</v>
@@ -17690,10 +17701,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -17701,10 +17712,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -17712,10 +17723,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -17723,10 +17734,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -17734,10 +17745,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -17745,10 +17756,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -17756,10 +17767,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -17767,10 +17778,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -17778,10 +17789,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17789,10 +17800,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -17800,10 +17811,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17811,10 +17822,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17822,10 +17833,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17833,10 +17844,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17844,10 +17855,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17855,10 +17866,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17866,10 +17877,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17877,10 +17888,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17888,10 +17899,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17899,10 +17910,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17910,10 +17921,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17921,10 +17932,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17932,10 +17943,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17943,10 +17954,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17954,10 +17965,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17965,10 +17976,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17976,10 +17987,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -17987,10 +17998,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -17998,10 +18009,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -18009,10 +18020,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -18020,7 +18031,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>325</v>
@@ -18031,7 +18042,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>327</v>
@@ -18042,7 +18053,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>330</v>
@@ -18053,7 +18064,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>332</v>
@@ -18064,7 +18075,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>333</v>
@@ -18075,7 +18086,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>336</v>
@@ -18086,7 +18097,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>337</v>
@@ -18097,7 +18108,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>338</v>
@@ -18108,7 +18119,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>340</v>
@@ -18119,7 +18130,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>341</v>
@@ -18130,7 +18141,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>342</v>
@@ -18141,7 +18152,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>344</v>
@@ -18152,7 +18163,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>345</v>
@@ -18163,7 +18174,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>346</v>
@@ -18174,7 +18185,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>349</v>
@@ -18185,7 +18196,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>587</v>
@@ -18196,7 +18207,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>590</v>
@@ -18207,7 +18218,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>593</v>
@@ -18218,7 +18229,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>596</v>
@@ -18229,7 +18240,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>599</v>
@@ -18240,7 +18251,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>600</v>
@@ -18251,7 +18262,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>602</v>
@@ -18262,7 +18273,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>605</v>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1479">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -2653,6 +2653,9 @@
   </si>
   <si>
     <t>374</t>
+  </si>
+  <si>
+    <t>ini sama dgn no 349 di atas</t>
   </si>
   <si>
     <t>SOP Evaluasi Kesesuaian Peresepan terhadap Formularium</t>
@@ -4473,12 +4476,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4567,23 +4570,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4602,8 +4606,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4631,9 +4668,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4641,14 +4686,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4668,30 +4705,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -4699,25 +4712,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4780,13 +4783,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4798,31 +4831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4840,7 +4861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4852,13 +4873,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4870,7 +4909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4882,13 +4921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4900,13 +4933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4918,49 +4957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5059,11 +5062,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5095,21 +5137,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -5120,30 +5147,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5159,138 +5162,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7710,8 +7713,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="G217" sqref="G217"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11303,7 +11306,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="218" ht="19.5" customHeight="1" spans="1:6">
+    <row r="218" ht="19.5" customHeight="1" spans="1:7">
       <c r="A218" s="46" t="s">
         <v>501</v>
       </c>
@@ -11320,6 +11323,9 @@
         <v>146</v>
       </c>
       <c r="F218" s="54"/>
+      <c r="G218" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="219" ht="19.5" customHeight="1" spans="1:6">
       <c r="A219" s="46" t="s">
@@ -11734,7 +11740,7 @@
       </c>
       <c r="E243" s="57"/>
       <c r="F243" s="69" t="s">
-        <v>824</v>
+        <v>875</v>
       </c>
     </row>
     <row r="244" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11742,13 +11748,13 @@
         <v>556</v>
       </c>
       <c r="B244" s="65" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C244" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D244" s="46" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E244" s="57"/>
       <c r="F244" s="69" t="s">
@@ -11760,13 +11766,13 @@
         <v>558</v>
       </c>
       <c r="B245" s="63" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C245" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D245" s="46" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E245" s="57"/>
       <c r="F245" s="62"/>
@@ -11776,16 +11782,16 @@
         <v>560</v>
       </c>
       <c r="B246" s="37" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C246" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D246" s="46" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E246" s="70" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F246" s="54"/>
     </row>
@@ -11794,13 +11800,13 @@
         <v>562</v>
       </c>
       <c r="B247" s="37" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C247" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D247" s="46" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E247" s="70"/>
       <c r="F247" s="54"/>
@@ -11810,13 +11816,13 @@
         <v>564</v>
       </c>
       <c r="B248" s="37" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C248" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D248" s="46" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E248" s="70"/>
       <c r="F248" s="54"/>
@@ -11826,13 +11832,13 @@
         <v>566</v>
       </c>
       <c r="B249" s="37" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C249" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D249" s="46" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E249" s="70"/>
       <c r="F249" s="54"/>
@@ -11842,13 +11848,13 @@
         <v>568</v>
       </c>
       <c r="B250" s="37" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C250" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D250" s="46" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E250" s="70"/>
       <c r="F250" s="54"/>
@@ -11858,13 +11864,13 @@
         <v>570</v>
       </c>
       <c r="B251" s="37" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C251" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D251" s="46" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E251" s="70"/>
       <c r="F251" s="54"/>
@@ -11874,7 +11880,7 @@
         <v>572</v>
       </c>
       <c r="B252" s="48" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C252" s="49"/>
       <c r="D252" s="46"/>
@@ -11888,7 +11894,7 @@
         <v>574</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C253" s="49"/>
       <c r="D253" s="46"/>
@@ -11902,19 +11908,19 @@
         <v>576</v>
       </c>
       <c r="B254" s="37" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C254" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D254" s="46" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E254" s="51" t="s">
         <v>329</v>
       </c>
       <c r="F254" s="56" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="255" ht="19.5" customHeight="1" spans="1:6">
@@ -11922,13 +11928,13 @@
         <v>578</v>
       </c>
       <c r="B255" s="37" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C255" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D255" s="46" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E255" s="51"/>
       <c r="F255" s="56"/>
@@ -11938,13 +11944,13 @@
         <v>580</v>
       </c>
       <c r="B256" s="37" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C256" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D256" s="46" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E256" s="51"/>
       <c r="F256" s="56"/>
@@ -11954,13 +11960,13 @@
         <v>582</v>
       </c>
       <c r="B257" s="37" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C257" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D257" s="46" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E257" s="46" t="s">
         <v>329</v>
@@ -11972,13 +11978,13 @@
         <v>584</v>
       </c>
       <c r="B258" s="37" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C258" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D258" s="46" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E258" s="46" t="s">
         <v>329</v>
@@ -11990,13 +11996,13 @@
         <v>586</v>
       </c>
       <c r="B259" s="37" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C259" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D259" s="46" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E259" s="46" t="s">
         <v>329</v>
@@ -12008,13 +12014,13 @@
         <v>589</v>
       </c>
       <c r="B260" s="37" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C260" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D260" s="46" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E260" s="46" t="s">
         <v>329</v>
@@ -12026,13 +12032,13 @@
         <v>592</v>
       </c>
       <c r="B261" s="37" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C261" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D261" s="46" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E261" s="46" t="s">
         <v>329</v>
@@ -12044,13 +12050,13 @@
         <v>595</v>
       </c>
       <c r="B262" s="37" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C262" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D262" s="46" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E262" s="46" t="s">
         <v>329</v>
@@ -12062,13 +12068,13 @@
         <v>598</v>
       </c>
       <c r="B263" s="37" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C263" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D263" s="46" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E263" s="46" t="s">
         <v>329</v>
@@ -12080,13 +12086,13 @@
         <v>604</v>
       </c>
       <c r="B264" s="37" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C264" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D264" s="46" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E264" s="46"/>
       <c r="F264" s="54"/>
@@ -12096,13 +12102,13 @@
         <v>607</v>
       </c>
       <c r="B265" s="37" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C265" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D265" s="46" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E265" s="46"/>
       <c r="F265" s="54"/>
@@ -12112,13 +12118,13 @@
         <v>610</v>
       </c>
       <c r="B266" s="37" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C266" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D266" s="46" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E266" s="46"/>
       <c r="F266" s="54"/>
@@ -12128,13 +12134,13 @@
         <v>613</v>
       </c>
       <c r="B267" s="37" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C267" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D267" s="46" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E267" s="46"/>
       <c r="F267" s="54"/>
@@ -12144,13 +12150,13 @@
         <v>619</v>
       </c>
       <c r="B268" s="37" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C268" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D268" s="46" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E268" s="46"/>
       <c r="F268" s="54"/>
@@ -12160,13 +12166,13 @@
         <v>622</v>
       </c>
       <c r="B269" s="37" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C269" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D269" s="46" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E269" s="46"/>
       <c r="F269" s="54"/>
@@ -12176,13 +12182,13 @@
         <v>625</v>
       </c>
       <c r="B270" s="37" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C270" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D270" s="46" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E270" s="46"/>
       <c r="F270" s="54"/>
@@ -12192,13 +12198,13 @@
         <v>628</v>
       </c>
       <c r="B271" s="37" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C271" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D271" s="46" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E271" s="46"/>
       <c r="F271" s="54"/>
@@ -12208,13 +12214,13 @@
         <v>631</v>
       </c>
       <c r="B272" s="37" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C272" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D272" s="46" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E272" s="46"/>
       <c r="F272" s="54"/>
@@ -12224,13 +12230,13 @@
         <v>634</v>
       </c>
       <c r="B273" s="37" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C273" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D273" s="46" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E273" s="46"/>
       <c r="F273" s="54"/>
@@ -12240,13 +12246,13 @@
         <v>637</v>
       </c>
       <c r="B274" s="37" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C274" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D274" s="46" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E274" s="46"/>
       <c r="F274" s="54"/>
@@ -12256,13 +12262,13 @@
         <v>640</v>
       </c>
       <c r="B275" s="37" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C275" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D275" s="46" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E275" s="46"/>
       <c r="F275" s="54"/>
@@ -12272,13 +12278,13 @@
         <v>643</v>
       </c>
       <c r="B276" s="37" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C276" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D276" s="46" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E276" s="46"/>
       <c r="F276" s="54"/>
@@ -12288,13 +12294,13 @@
         <v>646</v>
       </c>
       <c r="B277" s="37" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C277" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D277" s="46" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E277" s="46"/>
       <c r="F277" s="54"/>
@@ -12304,13 +12310,13 @@
         <v>649</v>
       </c>
       <c r="B278" s="37" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C278" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D278" s="46" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E278" s="46"/>
       <c r="F278" s="54"/>
@@ -12320,13 +12326,13 @@
         <v>652</v>
       </c>
       <c r="B279" s="37" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C279" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D279" s="46" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E279" s="46"/>
       <c r="F279" s="54"/>
@@ -12336,13 +12342,13 @@
         <v>655</v>
       </c>
       <c r="B280" s="37" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C280" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D280" s="46" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E280" s="46"/>
       <c r="F280" s="54"/>
@@ -12352,13 +12358,13 @@
         <v>658</v>
       </c>
       <c r="B281" s="37" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C281" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D281" s="46" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E281" s="46"/>
       <c r="F281" s="54"/>
@@ -12368,13 +12374,13 @@
         <v>661</v>
       </c>
       <c r="B282" s="37" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C282" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E282" s="46"/>
       <c r="F282" s="54"/>
@@ -12384,7 +12390,7 @@
         <v>664</v>
       </c>
       <c r="B283" s="48" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C283" s="49"/>
       <c r="D283" s="46"/>
@@ -12398,7 +12404,7 @@
         <v>667</v>
       </c>
       <c r="B284" s="48" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C284" s="49"/>
       <c r="D284" s="46"/>
@@ -12412,7 +12418,7 @@
         <v>670</v>
       </c>
       <c r="B285" s="48" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C285" s="49"/>
       <c r="D285" s="46"/>
@@ -12426,13 +12432,13 @@
         <v>673</v>
       </c>
       <c r="B286" s="37" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C286" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E286" s="57" t="s">
         <v>335</v>
@@ -12444,13 +12450,13 @@
         <v>676</v>
       </c>
       <c r="B287" s="37" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C287" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D287" s="46" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E287" s="57" t="s">
         <v>335</v>
@@ -12462,13 +12468,13 @@
         <v>679</v>
       </c>
       <c r="B288" s="37" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C288" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E288" s="57" t="s">
         <v>335</v>
@@ -12480,13 +12486,13 @@
         <v>682</v>
       </c>
       <c r="B289" s="37" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C289" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D289" s="46" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E289" s="57" t="s">
         <v>335</v>
@@ -12498,13 +12504,13 @@
         <v>685</v>
       </c>
       <c r="B290" s="37" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C290" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D290" s="46" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E290" s="57" t="s">
         <v>335</v>
@@ -12516,13 +12522,13 @@
         <v>688</v>
       </c>
       <c r="B291" s="37" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C291" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D291" s="46" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E291" s="57" t="s">
         <v>335</v>
@@ -12534,13 +12540,13 @@
         <v>691</v>
       </c>
       <c r="B292" s="37" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C292" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D292" s="46" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E292" s="57" t="s">
         <v>335</v>
@@ -12552,13 +12558,13 @@
         <v>694</v>
       </c>
       <c r="B293" s="37" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C293" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D293" s="46" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E293" s="57" t="s">
         <v>335</v>
@@ -12570,13 +12576,13 @@
         <v>697</v>
       </c>
       <c r="B294" s="37" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C294" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D294" s="46" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E294" s="57" t="s">
         <v>335</v>
@@ -12588,13 +12594,13 @@
         <v>699</v>
       </c>
       <c r="B295" s="37" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C295" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D295" s="46" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E295" s="57"/>
       <c r="F295" s="54"/>
@@ -12604,13 +12610,13 @@
         <v>702</v>
       </c>
       <c r="B296" s="37" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C296" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D296" s="46" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E296" s="57"/>
       <c r="F296" s="54"/>
@@ -12620,13 +12626,13 @@
         <v>704</v>
       </c>
       <c r="B297" s="37" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C297" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D297" s="46" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E297" s="57"/>
       <c r="F297" s="54"/>
@@ -12636,13 +12642,13 @@
         <v>706</v>
       </c>
       <c r="B298" s="37" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C298" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D298" s="46" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E298" s="57"/>
       <c r="F298" s="54"/>
@@ -12652,13 +12658,13 @@
         <v>708</v>
       </c>
       <c r="B299" s="37" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C299" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D299" s="46" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E299" s="57"/>
       <c r="F299" s="54"/>
@@ -12668,13 +12674,13 @@
         <v>710</v>
       </c>
       <c r="B300" s="37" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C300" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D300" s="46" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E300" s="57"/>
       <c r="F300" s="54"/>
@@ -12684,13 +12690,13 @@
         <v>712</v>
       </c>
       <c r="B301" s="37" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C301" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D301" s="46" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E301" s="57"/>
       <c r="F301" s="54"/>
@@ -12700,13 +12706,13 @@
         <v>714</v>
       </c>
       <c r="B302" s="37" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C302" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D302" s="46" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E302" s="57"/>
       <c r="F302" s="54"/>
@@ -12716,13 +12722,13 @@
         <v>716</v>
       </c>
       <c r="B303" s="37" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C303" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D303" s="46" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E303" s="57"/>
       <c r="F303" s="54"/>
@@ -12732,13 +12738,13 @@
         <v>718</v>
       </c>
       <c r="B304" s="37" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C304" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D304" s="46" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E304" s="57"/>
       <c r="F304" s="54"/>
@@ -12748,13 +12754,13 @@
         <v>720</v>
       </c>
       <c r="B305" s="37" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C305" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D305" s="46" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E305" s="57"/>
       <c r="F305" s="54"/>
@@ -12764,13 +12770,13 @@
         <v>722</v>
       </c>
       <c r="B306" s="37" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C306" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D306" s="46" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E306" s="57"/>
       <c r="F306" s="54"/>
@@ -12780,13 +12786,13 @@
         <v>724</v>
       </c>
       <c r="B307" s="37" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C307" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D307" s="46" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E307" s="57"/>
       <c r="F307" s="54"/>
@@ -12796,7 +12802,7 @@
         <v>726</v>
       </c>
       <c r="B308" s="48" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C308" s="49"/>
       <c r="D308" s="49"/>
@@ -12810,7 +12816,7 @@
         <v>728</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C309" s="49"/>
       <c r="D309" s="49"/>
@@ -12824,13 +12830,13 @@
         <v>730</v>
       </c>
       <c r="B310" s="37" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C310" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D310" s="46" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E310" s="57" t="s">
         <v>52</v>
@@ -12842,13 +12848,13 @@
         <v>732</v>
       </c>
       <c r="B311" s="37" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C311" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D311" s="46" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E311" s="57" t="s">
         <v>52</v>
@@ -12860,13 +12866,13 @@
         <v>734</v>
       </c>
       <c r="B312" s="37" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C312" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D312" s="46" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E312" s="57" t="s">
         <v>52</v>
@@ -12878,13 +12884,13 @@
         <v>736</v>
       </c>
       <c r="B313" s="37" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C313" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D313" s="46" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E313" s="57" t="s">
         <v>52</v>
@@ -12896,13 +12902,13 @@
         <v>738</v>
       </c>
       <c r="B314" s="37" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C314" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D314" s="46" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E314" s="57" t="s">
         <v>52</v>
@@ -12914,13 +12920,13 @@
         <v>740</v>
       </c>
       <c r="B315" s="37" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C315" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D315" s="46" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E315" s="57" t="s">
         <v>52</v>
@@ -12932,13 +12938,13 @@
         <v>742</v>
       </c>
       <c r="B316" s="37" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C316" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D316" s="46" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E316" s="57" t="s">
         <v>52</v>
@@ -12950,13 +12956,13 @@
         <v>744</v>
       </c>
       <c r="B317" s="37" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C317" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D317" s="46" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E317" s="57" t="s">
         <v>52</v>
@@ -12968,7 +12974,7 @@
         <v>746</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C318" s="49"/>
       <c r="D318" s="49"/>
@@ -12982,7 +12988,7 @@
         <v>748</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C319" s="49"/>
       <c r="D319" s="49"/>
@@ -12996,7 +13002,7 @@
         <v>750</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C320" s="49"/>
       <c r="D320" s="49"/>
@@ -13010,13 +13016,13 @@
         <v>752</v>
       </c>
       <c r="B321" s="71" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C321" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D321" s="46" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E321" s="57" t="s">
         <v>167</v>
@@ -13028,13 +13034,13 @@
         <v>754</v>
       </c>
       <c r="B322" s="37" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C322" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D322" s="46" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E322" s="57" t="s">
         <v>167</v>
@@ -13046,13 +13052,13 @@
         <v>756</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C323" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D323" s="46" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E323" s="57" t="s">
         <v>167</v>
@@ -13064,7 +13070,7 @@
         <v>758</v>
       </c>
       <c r="B324" s="48" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C324" s="49"/>
       <c r="D324" s="49"/>
@@ -13078,13 +13084,13 @@
         <v>760</v>
       </c>
       <c r="B325" s="37" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C325" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D325" s="46" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E325" s="46" t="s">
         <v>171</v>
@@ -13096,13 +13102,13 @@
         <v>762</v>
       </c>
       <c r="B326" s="37" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C326" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D326" s="46" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E326" s="46" t="s">
         <v>175</v>
@@ -13114,13 +13120,13 @@
         <v>764</v>
       </c>
       <c r="B327" s="37" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C327" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D327" s="46" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E327" s="46" t="s">
         <v>179</v>
@@ -13132,13 +13138,13 @@
         <v>766</v>
       </c>
       <c r="B328" s="37" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C328" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D328" s="46" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E328" s="46" t="s">
         <v>179</v>
@@ -13150,16 +13156,16 @@
         <v>768</v>
       </c>
       <c r="B329" s="37" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C329" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D329" s="46" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E329" s="46" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F329" s="54"/>
     </row>
@@ -13168,16 +13174,16 @@
         <v>770</v>
       </c>
       <c r="B330" s="37" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C330" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D330" s="46" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E330" s="46" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F330" s="54"/>
     </row>
@@ -13186,16 +13192,16 @@
         <v>772</v>
       </c>
       <c r="B331" s="37" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C331" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D331" s="46" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E331" s="46" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F331" s="54"/>
     </row>
@@ -13204,16 +13210,16 @@
         <v>774</v>
       </c>
       <c r="B332" s="37" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C332" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D332" s="46" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E332" s="46" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F332" s="54"/>
     </row>
@@ -13222,16 +13228,16 @@
         <v>776</v>
       </c>
       <c r="B333" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C333" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D333" s="46" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E333" s="46" t="s">
         <v>1041</v>
-      </c>
-      <c r="C333" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D333" s="46" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E333" s="46" t="s">
-        <v>1040</v>
       </c>
       <c r="F333" s="54"/>
     </row>
@@ -13240,16 +13246,16 @@
         <v>778</v>
       </c>
       <c r="B334" s="37" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C334" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D334" s="46" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E334" s="46" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F334" s="54"/>
     </row>
@@ -13258,16 +13264,16 @@
         <v>780</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C335" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D335" s="46" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E335" s="46" t="s">
         <v>1046</v>
-      </c>
-      <c r="C335" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D335" s="46" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E335" s="46" t="s">
-        <v>1045</v>
       </c>
       <c r="F335" s="54"/>
     </row>
@@ -13276,16 +13282,16 @@
         <v>782</v>
       </c>
       <c r="B336" s="37" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C336" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D336" s="46" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E336" s="46" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F336" s="54"/>
     </row>
@@ -13294,13 +13300,13 @@
         <v>784</v>
       </c>
       <c r="B337" s="37" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C337" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D337" s="46" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E337" s="46" t="s">
         <v>183</v>
@@ -13312,13 +13318,13 @@
         <v>786</v>
       </c>
       <c r="B338" s="37" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C338" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D338" s="46" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E338" s="46" t="s">
         <v>183</v>
@@ -13330,7 +13336,7 @@
         <v>788</v>
       </c>
       <c r="B339" s="48" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C339" s="49"/>
       <c r="D339" s="49"/>
@@ -13344,16 +13350,16 @@
         <v>790</v>
       </c>
       <c r="B340" s="37" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C340" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D340" s="46" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E340" s="46" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F340" s="54"/>
     </row>
@@ -13362,16 +13368,16 @@
         <v>792</v>
       </c>
       <c r="B341" s="37" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C341" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D341" s="46" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E341" s="46" t="s">
         <v>1058</v>
-      </c>
-      <c r="C341" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D341" s="46" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E341" s="46" t="s">
-        <v>1057</v>
       </c>
       <c r="F341" s="54"/>
     </row>
@@ -13380,19 +13386,19 @@
         <v>794</v>
       </c>
       <c r="B342" s="37" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C342" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D342" s="46" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E342" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F342" s="56" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="343" ht="19.5" customHeight="1" spans="1:6">
@@ -13400,16 +13406,16 @@
         <v>796</v>
       </c>
       <c r="B343" s="37" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C343" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D343" s="46" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E343" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F343" s="56"/>
     </row>
@@ -13418,16 +13424,16 @@
         <v>798</v>
       </c>
       <c r="B344" s="37" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C344" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D344" s="46" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E344" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F344" s="56"/>
     </row>
@@ -13436,16 +13442,16 @@
         <v>800</v>
       </c>
       <c r="B345" s="37" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C345" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D345" s="46" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E345" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F345" s="56"/>
     </row>
@@ -13454,16 +13460,16 @@
         <v>802</v>
       </c>
       <c r="B346" s="37" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C346" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D346" s="46" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E346" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F346" s="56"/>
     </row>
@@ -13472,16 +13478,16 @@
         <v>804</v>
       </c>
       <c r="B347" s="37" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C347" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D347" s="46" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E347" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F347" s="56"/>
     </row>
@@ -13490,16 +13496,16 @@
         <v>806</v>
       </c>
       <c r="B348" s="37" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C348" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D348" s="46" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E348" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F348" s="56"/>
     </row>
@@ -13508,16 +13514,16 @@
         <v>808</v>
       </c>
       <c r="B349" s="37" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C349" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D349" s="46" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E349" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F349" s="56"/>
     </row>
@@ -13526,16 +13532,16 @@
         <v>810</v>
       </c>
       <c r="B350" s="37" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C350" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D350" s="46" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E350" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F350" s="56"/>
     </row>
@@ -13544,16 +13550,16 @@
         <v>812</v>
       </c>
       <c r="B351" s="37" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C351" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D351" s="46" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E351" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F351" s="56"/>
     </row>
@@ -13562,16 +13568,16 @@
         <v>815</v>
       </c>
       <c r="B352" s="37" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C352" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D352" s="46" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E352" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F352" s="56"/>
     </row>
@@ -13580,16 +13586,16 @@
         <v>817</v>
       </c>
       <c r="B353" s="37" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C353" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D353" s="46" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E353" s="46" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F353" s="56"/>
     </row>
@@ -13598,16 +13604,16 @@
         <v>821</v>
       </c>
       <c r="B354" s="37" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C354" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D354" s="46" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E354" s="46" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F354" s="54"/>
     </row>
@@ -13616,16 +13622,16 @@
         <v>823</v>
       </c>
       <c r="B355" s="37" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C355" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D355" s="46" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E355" s="46" t="s">
         <v>1089</v>
-      </c>
-      <c r="C355" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D355" s="46" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E355" s="46" t="s">
-        <v>1088</v>
       </c>
       <c r="F355" s="54"/>
     </row>
@@ -13634,13 +13640,13 @@
         <v>826</v>
       </c>
       <c r="B356" s="37" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C356" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D356" s="46" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E356" s="54"/>
       <c r="F356" s="54"/>
@@ -13650,13 +13656,13 @@
         <v>828</v>
       </c>
       <c r="B357" s="37" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C357" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D357" s="46" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E357" s="54"/>
       <c r="F357" s="54"/>
@@ -13666,13 +13672,13 @@
         <v>830</v>
       </c>
       <c r="B358" s="37" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C358" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D358" s="46" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E358" s="54"/>
       <c r="F358" s="54"/>
@@ -13682,13 +13688,13 @@
         <v>832</v>
       </c>
       <c r="B359" s="37" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C359" s="46" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D359" s="46" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E359" s="54"/>
       <c r="F359" s="54"/>
@@ -13698,13 +13704,13 @@
         <v>834</v>
       </c>
       <c r="B360" s="37" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C360" s="72">
         <v>45313</v>
       </c>
       <c r="D360" s="46" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E360" s="54"/>
       <c r="F360" s="54"/>
@@ -13714,13 +13720,13 @@
         <v>836</v>
       </c>
       <c r="B361" s="37" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C361" s="73">
         <v>45344</v>
       </c>
       <c r="D361" s="46" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E361" s="54"/>
       <c r="F361" s="54"/>
@@ -13730,13 +13736,13 @@
         <v>838</v>
       </c>
       <c r="B362" s="37" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C362" s="73">
         <v>45344</v>
       </c>
       <c r="D362" s="46" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E362" s="54"/>
       <c r="F362" s="54"/>
@@ -13746,13 +13752,13 @@
         <v>840</v>
       </c>
       <c r="B363" s="37" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C363" s="73">
         <v>45344</v>
       </c>
       <c r="D363" s="46" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E363" s="54"/>
       <c r="F363" s="54"/>
@@ -13762,13 +13768,13 @@
         <v>842</v>
       </c>
       <c r="B364" s="37" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C364" s="73">
         <v>45344</v>
       </c>
       <c r="D364" s="46" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E364" s="54"/>
       <c r="F364" s="54"/>
@@ -13778,13 +13784,13 @@
         <v>844</v>
       </c>
       <c r="B365" s="37" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C365" s="73">
         <v>45344</v>
       </c>
       <c r="D365" s="46" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E365" s="54"/>
       <c r="F365" s="54"/>
@@ -13794,13 +13800,13 @@
         <v>846</v>
       </c>
       <c r="B366" s="37" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C366" s="73">
         <v>45344</v>
       </c>
       <c r="D366" s="46" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E366" s="54"/>
       <c r="F366" s="54"/>
@@ -13810,13 +13816,13 @@
         <v>848</v>
       </c>
       <c r="B367" s="37" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C367" s="73">
         <v>45344</v>
       </c>
       <c r="D367" s="46" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E367" s="54"/>
       <c r="F367" s="54"/>
@@ -13826,13 +13832,13 @@
         <v>850</v>
       </c>
       <c r="B368" s="37" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C368" s="73">
         <v>45344</v>
       </c>
       <c r="D368" s="46" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E368" s="54"/>
       <c r="F368" s="54"/>
@@ -13842,13 +13848,13 @@
         <v>852</v>
       </c>
       <c r="B369" s="37" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C369" s="73">
         <v>45344</v>
       </c>
       <c r="D369" s="46" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E369" s="54"/>
       <c r="F369" s="54"/>
@@ -13858,13 +13864,13 @@
         <v>854</v>
       </c>
       <c r="B370" s="37" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C370" s="73">
         <v>45344</v>
       </c>
       <c r="D370" s="46" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E370" s="54"/>
       <c r="F370" s="54"/>
@@ -13874,13 +13880,13 @@
         <v>856</v>
       </c>
       <c r="B371" s="37" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C371" s="73">
         <v>45344</v>
       </c>
       <c r="D371" s="46" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E371" s="54"/>
       <c r="F371" s="54"/>
@@ -13890,13 +13896,13 @@
         <v>858</v>
       </c>
       <c r="B372" s="37" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C372" s="73">
         <v>45344</v>
       </c>
       <c r="D372" s="46" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E372" s="54"/>
       <c r="F372" s="54"/>
@@ -13906,13 +13912,13 @@
         <v>860</v>
       </c>
       <c r="B373" s="37" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C373" s="73">
         <v>45344</v>
       </c>
       <c r="D373" s="46" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E373" s="54"/>
       <c r="F373" s="54"/>
@@ -13962,7 +13968,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:5">
       <c r="A1" s="38" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -13971,7 +13977,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -13999,7 +14005,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>4</v>
@@ -14016,7 +14022,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>195</v>
@@ -14033,7 +14039,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>195</v>
@@ -14050,7 +14056,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>195</v>
@@ -14067,7 +14073,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>195</v>
@@ -14084,7 +14090,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>195</v>
@@ -14101,7 +14107,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>195</v>
@@ -14118,7 +14124,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>195</v>
@@ -14133,7 +14139,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>195</v>
@@ -14148,7 +14154,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>195</v>
@@ -14163,13 +14169,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="E15" s="20"/>
     </row>
@@ -14205,7 +14211,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
       <c r="A1" s="15" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -14215,7 +14221,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14244,7 +14250,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>4</v>
@@ -14262,7 +14268,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>195</v>
@@ -14280,7 +14286,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>195</v>
@@ -14298,7 +14304,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>195</v>
@@ -14316,7 +14322,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>195</v>
@@ -14334,7 +14340,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>195</v>
@@ -14352,7 +14358,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>195</v>
@@ -14361,7 +14367,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F11" s="29"/>
     </row>
@@ -14370,7 +14376,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>195</v>
@@ -14388,7 +14394,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>195</v>
@@ -14397,7 +14403,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F13" s="29"/>
     </row>
@@ -14406,7 +14412,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>195</v>
@@ -14424,12 +14430,12 @@
         <v>38</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F15" s="30"/>
     </row>
@@ -14438,7 +14444,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -14452,13 +14458,13 @@
         <v>45</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
@@ -14470,7 +14476,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>195</v>
@@ -14486,7 +14492,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>195</v>
@@ -14502,7 +14508,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>195</v>
@@ -14518,7 +14524,7 @@
         <v>384</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>195</v>
@@ -14534,7 +14540,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>195</v>
@@ -14550,7 +14556,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>195</v>
@@ -14566,7 +14572,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>195</v>
@@ -14582,7 +14588,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>195</v>
@@ -14598,7 +14604,7 @@
         <v>73</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>195</v>
@@ -14614,7 +14620,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>195</v>
@@ -14630,7 +14636,7 @@
         <v>80</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>195</v>
@@ -14646,7 +14652,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>195</v>
@@ -14662,7 +14668,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>195</v>
@@ -14678,7 +14684,7 @@
         <v>88</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>195</v>
@@ -14694,7 +14700,7 @@
         <v>91</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>195</v>
@@ -14710,13 +14716,13 @@
         <v>94</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="33"/>
@@ -14726,13 +14732,13 @@
         <v>97</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>195</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="33"/>
@@ -14742,7 +14748,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>195</v>
@@ -14752,7 +14758,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="36" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14760,7 +14766,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>195</v>
@@ -14776,7 +14782,7 @@
         <v>109</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>195</v>
@@ -14792,7 +14798,7 @@
         <v>113</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>195</v>
@@ -14808,7 +14814,7 @@
         <v>117</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>195</v>
@@ -14824,7 +14830,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>195</v>
@@ -14840,7 +14846,7 @@
         <v>125</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>195</v>
@@ -14856,13 +14862,13 @@
         <v>129</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31"/>
@@ -14872,7 +14878,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -14886,17 +14892,17 @@
         <v>136</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="31" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="45" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14904,13 +14910,13 @@
         <v>140</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="31"/>
@@ -14920,7 +14926,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>195</v>
@@ -14936,7 +14942,7 @@
         <v>147</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>195</v>
@@ -14952,7 +14958,7 @@
         <v>150</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>195</v>
@@ -14968,7 +14974,7 @@
         <v>154</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>195</v>
@@ -14984,7 +14990,7 @@
         <v>157</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>195</v>
@@ -15000,7 +15006,7 @@
         <v>160</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>195</v>
@@ -15016,7 +15022,7 @@
         <v>164</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>195</v>
@@ -15032,13 +15038,13 @@
         <v>168</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="31"/>
@@ -15048,13 +15054,13 @@
         <v>172</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="31"/>
@@ -15064,13 +15070,13 @@
         <v>176</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="31"/>
@@ -15080,13 +15086,13 @@
         <v>180</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="31"/>
@@ -15096,13 +15102,13 @@
         <v>184</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="31"/>
@@ -15112,7 +15118,7 @@
         <v>187</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>195</v>
@@ -15128,7 +15134,7 @@
         <v>190</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>195</v>
@@ -15144,7 +15150,7 @@
         <v>193</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>195</v>
@@ -15160,7 +15166,7 @@
         <v>198</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>195</v>
@@ -15176,7 +15182,7 @@
         <v>203</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>195</v>
@@ -15192,7 +15198,7 @@
         <v>208</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>195</v>
@@ -15208,7 +15214,7 @@
         <v>211</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>195</v>
@@ -15224,7 +15230,7 @@
         <v>214</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>195</v>
@@ -15240,13 +15246,13 @@
         <v>217</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="31"/>
@@ -15256,7 +15262,7 @@
         <v>219</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>195</v>
@@ -15284,7 +15290,7 @@
         <v>224</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>195</v>
@@ -15294,7 +15300,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="31" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="70" s="13" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -15302,7 +15308,7 @@
         <v>229</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>195</v>
@@ -15318,7 +15324,7 @@
         <v>234</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>195</v>
@@ -15334,7 +15340,7 @@
         <v>237</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>195</v>
@@ -15350,7 +15356,7 @@
         <v>241</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>195</v>
@@ -15366,7 +15372,7 @@
         <v>245</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>195</v>
@@ -15382,7 +15388,7 @@
         <v>248</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>195</v>
@@ -15398,7 +15404,7 @@
         <v>251</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>195</v>
@@ -15414,7 +15420,7 @@
         <v>254</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -15428,7 +15434,7 @@
         <v>257</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>195</v>
@@ -15446,13 +15452,13 @@
         <v>260</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="31"/>
@@ -15462,13 +15468,13 @@
         <v>263</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="31"/>
@@ -15478,13 +15484,13 @@
         <v>266</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31"/>
@@ -15494,13 +15500,13 @@
         <v>269</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31"/>
@@ -15510,13 +15516,13 @@
         <v>272</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31"/>
@@ -15526,13 +15532,13 @@
         <v>276</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="31"/>
@@ -15542,13 +15548,13 @@
         <v>279</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C85" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="31"/>
@@ -15558,13 +15564,13 @@
         <v>282</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="31"/>
@@ -15574,13 +15580,13 @@
         <v>285</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="31"/>
@@ -15590,13 +15596,13 @@
         <v>287</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C88" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="31"/>
@@ -15606,13 +15612,13 @@
         <v>289</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C89" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="31"/>
@@ -15622,13 +15628,13 @@
         <v>292</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C90" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="31"/>
@@ -15638,13 +15644,13 @@
         <v>294</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="31"/>
@@ -15654,13 +15660,13 @@
         <v>297</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="31"/>
@@ -15670,13 +15676,13 @@
         <v>298</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="31"/>
@@ -15686,13 +15692,13 @@
         <v>301</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="31"/>
@@ -15702,13 +15708,13 @@
         <v>302</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="31"/>
@@ -15718,13 +15724,13 @@
         <v>305</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="31"/>
@@ -15734,13 +15740,13 @@
         <v>306</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C97" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="31"/>
@@ -15750,13 +15756,13 @@
         <v>309</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C98" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="31"/>
@@ -15766,13 +15772,13 @@
         <v>310</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="31"/>
@@ -15782,13 +15788,13 @@
         <v>313</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="31"/>
@@ -15798,7 +15804,7 @@
         <v>315</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -15812,17 +15818,17 @@
         <v>318</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="31" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="103" s="13" customFormat="1" ht="30" customHeight="1" spans="1:6">
@@ -15830,13 +15836,13 @@
         <v>320</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="31"/>
@@ -15846,13 +15852,13 @@
         <v>323</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="31"/>
@@ -15862,13 +15868,13 @@
         <v>325</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C105" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="31"/>
@@ -15878,16 +15884,16 @@
         <v>327</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C106" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F106" s="31"/>
     </row>
@@ -15896,16 +15902,16 @@
         <v>330</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C107" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="F107" s="24"/>
     </row>
@@ -15914,13 +15920,13 @@
         <v>332</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C108" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D108" s="32" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E108" s="31"/>
       <c r="F108" s="24"/>
@@ -15930,13 +15936,13 @@
         <v>333</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C109" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D109" s="32" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E109" s="31"/>
       <c r="F109" s="24"/>
@@ -15946,7 +15952,7 @@
         <v>336</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>195</v>
@@ -15962,7 +15968,7 @@
         <v>337</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>195</v>
@@ -15978,7 +15984,7 @@
         <v>338</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>195</v>
@@ -15994,7 +16000,7 @@
         <v>340</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>195</v>
@@ -16004,7 +16010,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="114" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16012,7 +16018,7 @@
         <v>341</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>195</v>
@@ -16028,7 +16034,7 @@
         <v>342</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>195</v>
@@ -16044,7 +16050,7 @@
         <v>344</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>195</v>
@@ -16060,7 +16066,7 @@
         <v>345</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>195</v>
@@ -16076,7 +16082,7 @@
         <v>346</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>195</v>
@@ -16092,7 +16098,7 @@
         <v>349</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>195</v>
@@ -16108,7 +16114,7 @@
         <v>587</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>195</v>
@@ -16124,7 +16130,7 @@
         <v>590</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>195</v>
@@ -16140,7 +16146,7 @@
         <v>593</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>195</v>
@@ -16156,7 +16162,7 @@
         <v>596</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>195</v>
@@ -16172,7 +16178,7 @@
         <v>599</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>195</v>
@@ -16188,7 +16194,7 @@
         <v>600</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>195</v>
@@ -16204,7 +16210,7 @@
         <v>602</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>195</v>
@@ -16220,7 +16226,7 @@
         <v>605</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>195</v>
@@ -16236,7 +16242,7 @@
         <v>608</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>195</v>
@@ -16252,7 +16258,7 @@
         <v>611</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>195</v>
@@ -16268,7 +16274,7 @@
         <v>614</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>195</v>
@@ -16284,7 +16290,7 @@
         <v>615</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>195</v>
@@ -16300,7 +16306,7 @@
         <v>617</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>195</v>
@@ -16316,7 +16322,7 @@
         <v>620</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>195</v>
@@ -16332,7 +16338,7 @@
         <v>623</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>195</v>
@@ -16348,7 +16354,7 @@
         <v>626</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>195</v>
@@ -16364,7 +16370,7 @@
         <v>629</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>195</v>
@@ -16380,7 +16386,7 @@
         <v>632</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>195</v>
@@ -16396,7 +16402,7 @@
         <v>635</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>195</v>
@@ -16412,7 +16418,7 @@
         <v>638</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>195</v>
@@ -16428,7 +16434,7 @@
         <v>641</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>195</v>
@@ -16444,7 +16450,7 @@
         <v>644</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>195</v>
@@ -16460,7 +16466,7 @@
         <v>647</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -16474,7 +16480,7 @@
         <v>650</v>
       </c>
       <c r="B143" s="37" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>195</v>
@@ -16486,7 +16492,7 @@
         <v>335</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="144" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16494,7 +16500,7 @@
         <v>653</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>195</v>
@@ -16512,7 +16518,7 @@
         <v>656</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>195</v>
@@ -16530,7 +16536,7 @@
         <v>659</v>
       </c>
       <c r="B146" s="37" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>195</v>
@@ -16548,7 +16554,7 @@
         <v>662</v>
       </c>
       <c r="B147" s="37" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C147" s="20" t="s">
         <v>195</v>
@@ -16566,7 +16572,7 @@
         <v>665</v>
       </c>
       <c r="B148" s="37" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>195</v>
@@ -16584,7 +16590,7 @@
         <v>668</v>
       </c>
       <c r="B149" s="37" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>195</v>
@@ -16602,7 +16608,7 @@
         <v>671</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>195</v>
@@ -16620,7 +16626,7 @@
         <v>674</v>
       </c>
       <c r="B151" s="37" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>195</v>
@@ -16638,7 +16644,7 @@
         <v>677</v>
       </c>
       <c r="B152" s="37" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>195</v>
@@ -16650,7 +16656,7 @@
         <v>52</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="153" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16658,7 +16664,7 @@
         <v>680</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>195</v>
@@ -16676,7 +16682,7 @@
         <v>683</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C154" s="20" t="s">
         <v>195</v>
@@ -16694,7 +16700,7 @@
         <v>686</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C155" s="20" t="s">
         <v>195</v>
@@ -16710,7 +16716,7 @@
         <v>689</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C156" s="20" t="s">
         <v>195</v>
@@ -16726,7 +16732,7 @@
         <v>692</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C157" s="20" t="s">
         <v>195</v>
@@ -16742,7 +16748,7 @@
         <v>367</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C158" s="20" t="s">
         <v>195</v>
@@ -16758,7 +16764,7 @@
         <v>369</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C159" s="20" t="s">
         <v>195</v>
@@ -16774,7 +16780,7 @@
         <v>371</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C160" s="20" t="s">
         <v>195</v>
@@ -16784,7 +16790,7 @@
       </c>
       <c r="E160" s="32"/>
       <c r="F160" s="31" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="161" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16792,7 +16798,7 @@
         <v>373</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C161" s="20" t="s">
         <v>195</v>
@@ -16808,7 +16814,7 @@
         <v>376</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>195</v>
@@ -16824,7 +16830,7 @@
         <v>379</v>
       </c>
       <c r="B163" s="37" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C163" s="20" t="s">
         <v>195</v>
@@ -16852,7 +16858,7 @@
         <v>383</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>195</v>
@@ -16870,7 +16876,7 @@
         <v>386</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C166" s="20" t="s">
         <v>195</v>
@@ -16886,7 +16892,7 @@
         <v>388</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C167" s="20" t="s">
         <v>195</v>
@@ -16902,7 +16908,7 @@
         <v>390</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>195</v>
@@ -16918,7 +16924,7 @@
         <v>393</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>195</v>
@@ -16934,7 +16940,7 @@
         <v>395</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C170" s="20" t="s">
         <v>195</v>
@@ -16950,7 +16956,7 @@
         <v>398</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C171" s="20" t="s">
         <v>195</v>
@@ -17016,13 +17022,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -17030,7 +17036,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>58</v>
@@ -17041,10 +17047,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -17052,7 +17058,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -17063,7 +17069,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>75</v>
@@ -17074,7 +17080,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>79</v>
@@ -17085,7 +17091,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>90</v>
@@ -17096,7 +17102,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>93</v>
@@ -17107,7 +17113,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>96</v>
@@ -17118,7 +17124,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -17129,7 +17135,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>107</v>
@@ -17140,7 +17146,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>111</v>
@@ -17151,7 +17157,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>115</v>
@@ -17162,7 +17168,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>119</v>
@@ -17173,7 +17179,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>123</v>
@@ -17184,7 +17190,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>127</v>
@@ -17195,7 +17201,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>131</v>
@@ -17206,7 +17212,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>135</v>
@@ -17217,7 +17223,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>138</v>
@@ -17228,10 +17234,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -17239,10 +17245,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -17250,7 +17256,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>142</v>
@@ -17261,7 +17267,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>145</v>
@@ -17272,7 +17278,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>149</v>
@@ -17283,7 +17289,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>152</v>
@@ -17294,7 +17300,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>156</v>
@@ -17305,7 +17311,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>159</v>
@@ -17316,7 +17322,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>162</v>
@@ -17327,10 +17333,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -17338,10 +17344,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17349,10 +17355,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -17360,7 +17366,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>166</v>
@@ -17371,7 +17377,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>170</v>
@@ -17382,7 +17388,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>174</v>
@@ -17393,7 +17399,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>178</v>
@@ -17404,7 +17410,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>182</v>
@@ -17415,7 +17421,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>186</v>
@@ -17426,7 +17432,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>189</v>
@@ -17437,10 +17443,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -17448,10 +17454,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -17459,10 +17465,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -17470,10 +17476,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -17481,10 +17487,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -17492,7 +17498,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>192</v>
@@ -17503,7 +17509,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>196</v>
@@ -17514,7 +17520,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>201</v>
@@ -17525,7 +17531,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>206</v>
@@ -17536,7 +17542,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>227</v>
@@ -17547,7 +17553,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>232</v>
@@ -17558,7 +17564,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>236</v>
@@ -17569,7 +17575,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>240</v>
@@ -17580,10 +17586,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -17591,7 +17597,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>250</v>
@@ -17602,7 +17608,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>253</v>
@@ -17613,7 +17619,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>256</v>
@@ -17624,7 +17630,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>259</v>
@@ -17635,7 +17641,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>262</v>
@@ -17646,7 +17652,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>265</v>
@@ -17657,7 +17663,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>268</v>
@@ -17668,7 +17674,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>271</v>
@@ -17679,7 +17685,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>275</v>
@@ -17690,7 +17696,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>278</v>
@@ -17701,10 +17707,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -17712,10 +17718,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -17723,10 +17729,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -17734,10 +17740,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -17745,10 +17751,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -17756,10 +17762,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -17767,10 +17773,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -17778,10 +17784,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -17789,10 +17795,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17800,10 +17806,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -17811,10 +17817,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17822,10 +17828,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17833,10 +17839,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17844,10 +17850,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17855,10 +17861,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17866,10 +17872,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17877,10 +17883,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17888,10 +17894,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17899,10 +17905,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17910,10 +17916,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17921,10 +17927,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17932,10 +17938,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17943,10 +17949,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17954,10 +17960,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17965,10 +17971,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17976,10 +17982,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17987,10 +17993,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -17998,10 +18004,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -18009,10 +18015,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -18020,10 +18026,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -18031,7 +18037,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>325</v>
@@ -18042,7 +18048,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>327</v>
@@ -18053,7 +18059,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>330</v>
@@ -18064,7 +18070,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>332</v>
@@ -18075,7 +18081,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>333</v>
@@ -18086,7 +18092,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>336</v>
@@ -18097,7 +18103,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>337</v>
@@ -18108,7 +18114,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>338</v>
@@ -18119,7 +18125,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>340</v>
@@ -18130,7 +18136,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>341</v>
@@ -18141,7 +18147,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>342</v>
@@ -18152,7 +18158,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>344</v>
@@ -18163,7 +18169,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>345</v>
@@ -18174,7 +18180,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>346</v>
@@ -18185,7 +18191,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>349</v>
@@ -18196,7 +18202,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>587</v>
@@ -18207,7 +18213,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>590</v>
@@ -18218,7 +18224,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>593</v>
@@ -18229,7 +18235,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>596</v>
@@ -18240,7 +18246,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>599</v>
@@ -18251,7 +18257,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>600</v>
@@ -18262,7 +18268,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>602</v>
@@ -18273,7 +18279,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>605</v>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -2502,13 +2502,13 @@
     <t>350</t>
   </si>
   <si>
+    <t>SOP pemantauan/ monitoring obat gawat darurat secara berkala</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
     <t>uploaded with sampul</t>
-  </si>
-  <si>
-    <t>SOP pemantauan/ monitoring obat gawat darurat secara berkala</t>
-  </si>
-  <si>
-    <t>351</t>
   </si>
   <si>
     <t>SOP Formularium Puskesmas</t>
@@ -4476,12 +4476,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4583,19 +4583,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4607,16 +4606,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4630,24 +4629,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4660,9 +4652,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4678,28 +4705,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4712,17 +4718,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4783,7 +4783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4795,13 +4795,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4813,13 +4837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4831,19 +4849,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4855,7 +4909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4867,25 +4933,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4897,73 +4963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5062,69 +5062,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5151,6 +5088,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -5162,131 +5162,131 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7713,8 +7713,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="G218" sqref="G218"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11327,7 +11327,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="219" ht="19.5" customHeight="1" spans="1:6">
+    <row r="219" ht="19.5" customHeight="1" spans="1:7">
       <c r="A219" s="46" t="s">
         <v>503</v>
       </c>
@@ -11343,8 +11343,9 @@
       <c r="E219" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F219" s="69" t="s">
-        <v>824</v>
+      <c r="F219" s="69"/>
+      <c r="G219" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="220" ht="19.5" customHeight="1" spans="1:6">
@@ -11352,19 +11353,19 @@
         <v>505</v>
       </c>
       <c r="B220" s="63" t="s">
+        <v>824</v>
+      </c>
+      <c r="C220" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D220" s="46" t="s">
         <v>825</v>
-      </c>
-      <c r="C220" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D220" s="46" t="s">
-        <v>826</v>
       </c>
       <c r="E220" s="46" t="s">
         <v>146</v>
       </c>
       <c r="F220" s="69" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="221" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11526,7 +11527,7 @@
       </c>
       <c r="E230" s="57"/>
       <c r="F230" s="69" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="231" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11758,7 +11759,7 @@
       </c>
       <c r="E244" s="57"/>
       <c r="F244" s="69" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="245" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -13637,7 +13638,7 @@
     </row>
     <row r="356" ht="19.5" customHeight="1" spans="1:6">
       <c r="A356" s="46" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B356" s="37" t="s">
         <v>1092</v>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -2508,67 +2508,67 @@
     <t>351</t>
   </si>
   <si>
+    <t>SOP Formularium Puskesmas</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOP Perencanaan </t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOP Permintaan dan Pengadaan </t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOP Permintaan Internal </t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOP Penerimaan </t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>SOP Penyimpanan</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOP Pendistribusian </t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOP Pengendalian </t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOP Pencatatan Pelaporan Farmasi </t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>SOP Evaluasi Ketersediaan Obat Terhadap Formularium</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
     <t>uploaded with sampul</t>
-  </si>
-  <si>
-    <t>SOP Formularium Puskesmas</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOP Perencanaan </t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOP Permintaan dan Pengadaan </t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOP Permintaan Internal </t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOP Penerimaan </t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>SOP Penyimpanan</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOP Pendistribusian </t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOP Pengendalian </t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOP Pencatatan Pelaporan Farmasi </t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>SOP Evaluasi Ketersediaan Obat Terhadap Formularium</t>
-  </si>
-  <si>
-    <t>361</t>
   </si>
   <si>
     <t>SOP Pengelolaan Obat Kadaluarsa</t>
@@ -4476,11 +4476,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="35">
@@ -4578,23 +4578,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4605,9 +4593,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4616,6 +4624,42 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4631,15 +4675,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4652,77 +4718,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4783,7 +4783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4795,19 +4807,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4825,7 +4921,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4837,133 +4957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5064,41 +5064,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5114,6 +5082,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5135,164 +5121,178 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -7714,7 +7714,7 @@
   <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="G219" sqref="G219"/>
+      <selection activeCell="G220" sqref="G220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11348,7 +11348,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="220" ht="19.5" customHeight="1" spans="1:6">
+    <row r="220" ht="19.5" customHeight="1" spans="1:7">
       <c r="A220" s="46" t="s">
         <v>505</v>
       </c>
@@ -11364,8 +11364,9 @@
       <c r="E220" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F220" s="69" t="s">
-        <v>826</v>
+      <c r="F220" s="69"/>
+      <c r="G220" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="221" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11373,13 +11374,13 @@
         <v>507</v>
       </c>
       <c r="B221" s="64" t="s">
+        <v>826</v>
+      </c>
+      <c r="C221" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D221" s="46" t="s">
         <v>827</v>
-      </c>
-      <c r="C221" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D221" s="46" t="s">
-        <v>828</v>
       </c>
       <c r="E221" s="57"/>
       <c r="F221" s="62"/>
@@ -11389,13 +11390,13 @@
         <v>509</v>
       </c>
       <c r="B222" s="64" t="s">
+        <v>828</v>
+      </c>
+      <c r="C222" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D222" s="46" t="s">
         <v>829</v>
-      </c>
-      <c r="C222" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D222" s="46" t="s">
-        <v>830</v>
       </c>
       <c r="E222" s="57"/>
       <c r="F222" s="62"/>
@@ -11405,13 +11406,13 @@
         <v>511</v>
       </c>
       <c r="B223" s="64" t="s">
+        <v>830</v>
+      </c>
+      <c r="C223" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D223" s="46" t="s">
         <v>831</v>
-      </c>
-      <c r="C223" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D223" s="46" t="s">
-        <v>832</v>
       </c>
       <c r="E223" s="57"/>
       <c r="F223" s="62"/>
@@ -11421,13 +11422,13 @@
         <v>513</v>
       </c>
       <c r="B224" s="64" t="s">
+        <v>832</v>
+      </c>
+      <c r="C224" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D224" s="46" t="s">
         <v>833</v>
-      </c>
-      <c r="C224" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D224" s="46" t="s">
-        <v>834</v>
       </c>
       <c r="E224" s="57"/>
       <c r="F224" s="62"/>
@@ -11437,13 +11438,13 @@
         <v>515</v>
       </c>
       <c r="B225" s="64" t="s">
+        <v>834</v>
+      </c>
+      <c r="C225" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D225" s="46" t="s">
         <v>835</v>
-      </c>
-      <c r="C225" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D225" s="46" t="s">
-        <v>836</v>
       </c>
       <c r="E225" s="57"/>
       <c r="F225" s="62"/>
@@ -11453,13 +11454,13 @@
         <v>517</v>
       </c>
       <c r="B226" s="64" t="s">
+        <v>836</v>
+      </c>
+      <c r="C226" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D226" s="46" t="s">
         <v>837</v>
-      </c>
-      <c r="C226" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D226" s="46" t="s">
-        <v>838</v>
       </c>
       <c r="E226" s="57"/>
       <c r="F226" s="62"/>
@@ -11469,13 +11470,13 @@
         <v>519</v>
       </c>
       <c r="B227" s="64" t="s">
+        <v>838</v>
+      </c>
+      <c r="C227" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D227" s="46" t="s">
         <v>839</v>
-      </c>
-      <c r="C227" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D227" s="46" t="s">
-        <v>840</v>
       </c>
       <c r="E227" s="57"/>
       <c r="F227" s="62"/>
@@ -11485,13 +11486,13 @@
         <v>521</v>
       </c>
       <c r="B228" s="64" t="s">
+        <v>840</v>
+      </c>
+      <c r="C228" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D228" s="46" t="s">
         <v>841</v>
-      </c>
-      <c r="C228" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D228" s="46" t="s">
-        <v>842</v>
       </c>
       <c r="E228" s="57"/>
       <c r="F228" s="62"/>
@@ -11501,13 +11502,13 @@
         <v>523</v>
       </c>
       <c r="B229" s="64" t="s">
+        <v>842</v>
+      </c>
+      <c r="C229" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D229" s="46" t="s">
         <v>843</v>
-      </c>
-      <c r="C229" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D229" s="46" t="s">
-        <v>844</v>
       </c>
       <c r="E229" s="57"/>
       <c r="F229" s="62"/>
@@ -11517,17 +11518,17 @@
         <v>525</v>
       </c>
       <c r="B230" s="65" t="s">
+        <v>844</v>
+      </c>
+      <c r="C230" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D230" s="46" t="s">
         <v>845</v>
-      </c>
-      <c r="C230" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D230" s="46" t="s">
-        <v>846</v>
       </c>
       <c r="E230" s="57"/>
       <c r="F230" s="69" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
     </row>
     <row r="231" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11759,7 +11760,7 @@
       </c>
       <c r="E244" s="57"/>
       <c r="F244" s="69" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
     </row>
     <row r="245" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -13654,7 +13655,7 @@
     </row>
     <row r="357" ht="19.5" customHeight="1" spans="1:6">
       <c r="A357" s="46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B357" s="37" t="s">
         <v>1094</v>
@@ -13670,7 +13671,7 @@
     </row>
     <row r="358" ht="19.5" customHeight="1" spans="1:6">
       <c r="A358" s="46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B358" s="37" t="s">
         <v>1096</v>
@@ -13686,7 +13687,7 @@
     </row>
     <row r="359" ht="19.5" customHeight="1" spans="1:6">
       <c r="A359" s="46" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B359" s="37" t="s">
         <v>1098</v>
@@ -13702,7 +13703,7 @@
     </row>
     <row r="360" ht="19.5" customHeight="1" spans="1:6">
       <c r="A360" s="46" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B360" s="37" t="s">
         <v>1101</v>
@@ -13718,7 +13719,7 @@
     </row>
     <row r="361" ht="19.5" customHeight="1" spans="1:6">
       <c r="A361" s="46" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B361" s="37" t="s">
         <v>1103</v>
@@ -13734,7 +13735,7 @@
     </row>
     <row r="362" ht="19.5" customHeight="1" spans="1:6">
       <c r="A362" s="46" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B362" s="37" t="s">
         <v>1105</v>
@@ -13750,7 +13751,7 @@
     </row>
     <row r="363" ht="19.5" customHeight="1" spans="1:6">
       <c r="A363" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B363" s="37" t="s">
         <v>1107</v>
@@ -13766,7 +13767,7 @@
     </row>
     <row r="364" ht="19.5" customHeight="1" spans="1:6">
       <c r="A364" s="46" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B364" s="37" t="s">
         <v>1109</v>
@@ -13782,7 +13783,7 @@
     </row>
     <row r="365" ht="19.5" customHeight="1" spans="1:6">
       <c r="A365" s="46" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B365" s="37" t="s">
         <v>1111</v>
@@ -13798,7 +13799,7 @@
     </row>
     <row r="366" ht="19.5" customHeight="1" spans="1:6">
       <c r="A366" s="46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B366" s="37" t="s">
         <v>1113</v>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1478">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -2566,9 +2566,6 @@
   </si>
   <si>
     <t>361</t>
-  </si>
-  <si>
-    <t>uploaded with sampul</t>
   </si>
   <si>
     <t>SOP Pengelolaan Obat Kadaluarsa</t>
@@ -4476,12 +4473,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
-    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4570,9 +4567,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4587,43 +4687,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4645,59 +4709,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4705,22 +4717,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4783,7 +4780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4795,13 +4798,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4813,25 +4852,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4849,37 +4930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4891,79 +4954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5062,15 +5059,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5082,24 +5070,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5121,10 +5091,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5159,141 +5127,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5474,10 +5471,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5541,7 +5538,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7713,8 +7710,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="G220" sqref="G220"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="G230" sqref="G230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11513,7 +11510,7 @@
       <c r="E229" s="57"/>
       <c r="F229" s="62"/>
     </row>
-    <row r="230" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="230" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A230" s="46" t="s">
         <v>525</v>
       </c>
@@ -11527,8 +11524,9 @@
         <v>845</v>
       </c>
       <c r="E230" s="57"/>
-      <c r="F230" s="69" t="s">
-        <v>846</v>
+      <c r="F230" s="69"/>
+      <c r="G230" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="231" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11536,13 +11534,13 @@
         <v>527</v>
       </c>
       <c r="B231" s="64" t="s">
+        <v>846</v>
+      </c>
+      <c r="C231" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D231" s="46" t="s">
         <v>847</v>
-      </c>
-      <c r="C231" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D231" s="46" t="s">
-        <v>848</v>
       </c>
       <c r="E231" s="57"/>
       <c r="F231" s="62"/>
@@ -11552,13 +11550,13 @@
         <v>529</v>
       </c>
       <c r="B232" s="64" t="s">
+        <v>848</v>
+      </c>
+      <c r="C232" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D232" s="46" t="s">
         <v>849</v>
-      </c>
-      <c r="C232" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D232" s="46" t="s">
-        <v>850</v>
       </c>
       <c r="E232" s="57"/>
       <c r="F232" s="62"/>
@@ -11568,13 +11566,13 @@
         <v>531</v>
       </c>
       <c r="B233" s="64" t="s">
+        <v>850</v>
+      </c>
+      <c r="C233" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D233" s="46" t="s">
         <v>851</v>
-      </c>
-      <c r="C233" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D233" s="46" t="s">
-        <v>852</v>
       </c>
       <c r="E233" s="57"/>
       <c r="F233" s="62"/>
@@ -11584,13 +11582,13 @@
         <v>534</v>
       </c>
       <c r="B234" s="64" t="s">
+        <v>852</v>
+      </c>
+      <c r="C234" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D234" s="46" t="s">
         <v>853</v>
-      </c>
-      <c r="C234" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D234" s="46" t="s">
-        <v>854</v>
       </c>
       <c r="E234" s="57"/>
       <c r="F234" s="62"/>
@@ -11600,13 +11598,13 @@
         <v>537</v>
       </c>
       <c r="B235" s="64" t="s">
+        <v>854</v>
+      </c>
+      <c r="C235" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D235" s="46" t="s">
         <v>855</v>
-      </c>
-      <c r="C235" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D235" s="46" t="s">
-        <v>856</v>
       </c>
       <c r="E235" s="57"/>
       <c r="F235" s="62"/>
@@ -11616,13 +11614,13 @@
         <v>539</v>
       </c>
       <c r="B236" s="66" t="s">
+        <v>856</v>
+      </c>
+      <c r="C236" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D236" s="46" t="s">
         <v>857</v>
-      </c>
-      <c r="C236" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D236" s="46" t="s">
-        <v>858</v>
       </c>
       <c r="E236" s="57"/>
       <c r="F236" s="62"/>
@@ -11632,13 +11630,13 @@
         <v>541</v>
       </c>
       <c r="B237" s="66" t="s">
+        <v>858</v>
+      </c>
+      <c r="C237" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D237" s="46" t="s">
         <v>859</v>
-      </c>
-      <c r="C237" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D237" s="46" t="s">
-        <v>860</v>
       </c>
       <c r="E237" s="57"/>
       <c r="F237" s="62"/>
@@ -11648,13 +11646,13 @@
         <v>543</v>
       </c>
       <c r="B238" s="66" t="s">
+        <v>860</v>
+      </c>
+      <c r="C238" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D238" s="46" t="s">
         <v>861</v>
-      </c>
-      <c r="C238" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D238" s="46" t="s">
-        <v>862</v>
       </c>
       <c r="E238" s="57"/>
       <c r="F238" s="62"/>
@@ -11664,13 +11662,13 @@
         <v>545</v>
       </c>
       <c r="B239" s="64" t="s">
+        <v>862</v>
+      </c>
+      <c r="C239" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D239" s="46" t="s">
         <v>863</v>
-      </c>
-      <c r="C239" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D239" s="46" t="s">
-        <v>864</v>
       </c>
       <c r="E239" s="57"/>
       <c r="F239" s="62"/>
@@ -11680,17 +11678,17 @@
         <v>547</v>
       </c>
       <c r="B240" s="67" t="s">
+        <v>864</v>
+      </c>
+      <c r="C240" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D240" s="46" t="s">
         <v>865</v>
-      </c>
-      <c r="C240" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D240" s="46" t="s">
-        <v>866</v>
       </c>
       <c r="E240" s="57"/>
       <c r="F240" s="62" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="241" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11698,17 +11696,17 @@
         <v>549</v>
       </c>
       <c r="B241" s="67" t="s">
+        <v>867</v>
+      </c>
+      <c r="C241" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D241" s="46" t="s">
         <v>868</v>
-      </c>
-      <c r="C241" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D241" s="46" t="s">
-        <v>869</v>
       </c>
       <c r="E241" s="57"/>
       <c r="F241" s="62" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="242" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11716,13 +11714,13 @@
         <v>552</v>
       </c>
       <c r="B242" s="65" t="s">
+        <v>870</v>
+      </c>
+      <c r="C242" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D242" s="46" t="s">
         <v>871</v>
-      </c>
-      <c r="C242" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D242" s="46" t="s">
-        <v>872</v>
       </c>
       <c r="E242" s="57"/>
       <c r="F242" s="62"/>
@@ -11732,35 +11730,36 @@
         <v>554</v>
       </c>
       <c r="B243" s="63" t="s">
+        <v>872</v>
+      </c>
+      <c r="C243" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D243" s="46" t="s">
         <v>873</v>
-      </c>
-      <c r="C243" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D243" s="46" t="s">
-        <v>874</v>
       </c>
       <c r="E243" s="57"/>
       <c r="F243" s="69" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="244" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="244" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A244" s="46" t="s">
         <v>556</v>
       </c>
       <c r="B244" s="65" t="s">
+        <v>875</v>
+      </c>
+      <c r="C244" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D244" s="46" t="s">
         <v>876</v>
       </c>
-      <c r="C244" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D244" s="46" t="s">
-        <v>877</v>
-      </c>
       <c r="E244" s="57"/>
-      <c r="F244" s="69" t="s">
-        <v>846</v>
+      <c r="F244" s="69"/>
+      <c r="G244" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="245" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11768,13 +11767,13 @@
         <v>558</v>
       </c>
       <c r="B245" s="63" t="s">
+        <v>877</v>
+      </c>
+      <c r="C245" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D245" s="46" t="s">
         <v>878</v>
-      </c>
-      <c r="C245" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D245" s="46" t="s">
-        <v>879</v>
       </c>
       <c r="E245" s="57"/>
       <c r="F245" s="62"/>
@@ -11784,16 +11783,16 @@
         <v>560</v>
       </c>
       <c r="B246" s="37" t="s">
+        <v>879</v>
+      </c>
+      <c r="C246" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D246" s="46" t="s">
         <v>880</v>
       </c>
-      <c r="C246" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D246" s="46" t="s">
+      <c r="E246" s="70" t="s">
         <v>881</v>
-      </c>
-      <c r="E246" s="70" t="s">
-        <v>882</v>
       </c>
       <c r="F246" s="54"/>
     </row>
@@ -11802,13 +11801,13 @@
         <v>562</v>
       </c>
       <c r="B247" s="37" t="s">
+        <v>882</v>
+      </c>
+      <c r="C247" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D247" s="46" t="s">
         <v>883</v>
-      </c>
-      <c r="C247" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D247" s="46" t="s">
-        <v>884</v>
       </c>
       <c r="E247" s="70"/>
       <c r="F247" s="54"/>
@@ -11818,13 +11817,13 @@
         <v>564</v>
       </c>
       <c r="B248" s="37" t="s">
+        <v>884</v>
+      </c>
+      <c r="C248" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D248" s="46" t="s">
         <v>885</v>
-      </c>
-      <c r="C248" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D248" s="46" t="s">
-        <v>886</v>
       </c>
       <c r="E248" s="70"/>
       <c r="F248" s="54"/>
@@ -11834,13 +11833,13 @@
         <v>566</v>
       </c>
       <c r="B249" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="C249" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D249" s="46" t="s">
         <v>887</v>
-      </c>
-      <c r="C249" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D249" s="46" t="s">
-        <v>888</v>
       </c>
       <c r="E249" s="70"/>
       <c r="F249" s="54"/>
@@ -11850,13 +11849,13 @@
         <v>568</v>
       </c>
       <c r="B250" s="37" t="s">
+        <v>888</v>
+      </c>
+      <c r="C250" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D250" s="46" t="s">
         <v>889</v>
-      </c>
-      <c r="C250" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D250" s="46" t="s">
-        <v>890</v>
       </c>
       <c r="E250" s="70"/>
       <c r="F250" s="54"/>
@@ -11866,13 +11865,13 @@
         <v>570</v>
       </c>
       <c r="B251" s="37" t="s">
+        <v>890</v>
+      </c>
+      <c r="C251" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D251" s="46" t="s">
         <v>891</v>
-      </c>
-      <c r="C251" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D251" s="46" t="s">
-        <v>892</v>
       </c>
       <c r="E251" s="70"/>
       <c r="F251" s="54"/>
@@ -11882,7 +11881,7 @@
         <v>572</v>
       </c>
       <c r="B252" s="48" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C252" s="49"/>
       <c r="D252" s="46"/>
@@ -11896,7 +11895,7 @@
         <v>574</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C253" s="49"/>
       <c r="D253" s="46"/>
@@ -11910,19 +11909,19 @@
         <v>576</v>
       </c>
       <c r="B254" s="37" t="s">
+        <v>894</v>
+      </c>
+      <c r="C254" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D254" s="46" t="s">
         <v>895</v>
-      </c>
-      <c r="C254" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D254" s="46" t="s">
-        <v>896</v>
       </c>
       <c r="E254" s="51" t="s">
         <v>329</v>
       </c>
       <c r="F254" s="56" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="255" ht="19.5" customHeight="1" spans="1:6">
@@ -11930,13 +11929,13 @@
         <v>578</v>
       </c>
       <c r="B255" s="37" t="s">
+        <v>897</v>
+      </c>
+      <c r="C255" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D255" s="46" t="s">
         <v>898</v>
-      </c>
-      <c r="C255" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D255" s="46" t="s">
-        <v>899</v>
       </c>
       <c r="E255" s="51"/>
       <c r="F255" s="56"/>
@@ -11946,13 +11945,13 @@
         <v>580</v>
       </c>
       <c r="B256" s="37" t="s">
+        <v>899</v>
+      </c>
+      <c r="C256" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D256" s="46" t="s">
         <v>900</v>
-      </c>
-      <c r="C256" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D256" s="46" t="s">
-        <v>901</v>
       </c>
       <c r="E256" s="51"/>
       <c r="F256" s="56"/>
@@ -11962,13 +11961,13 @@
         <v>582</v>
       </c>
       <c r="B257" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="C257" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D257" s="46" t="s">
         <v>902</v>
-      </c>
-      <c r="C257" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D257" s="46" t="s">
-        <v>903</v>
       </c>
       <c r="E257" s="46" t="s">
         <v>329</v>
@@ -11980,13 +11979,13 @@
         <v>584</v>
       </c>
       <c r="B258" s="37" t="s">
+        <v>903</v>
+      </c>
+      <c r="C258" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D258" s="46" t="s">
         <v>904</v>
-      </c>
-      <c r="C258" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D258" s="46" t="s">
-        <v>905</v>
       </c>
       <c r="E258" s="46" t="s">
         <v>329</v>
@@ -11998,13 +11997,13 @@
         <v>586</v>
       </c>
       <c r="B259" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="C259" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D259" s="46" t="s">
         <v>906</v>
-      </c>
-      <c r="C259" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D259" s="46" t="s">
-        <v>907</v>
       </c>
       <c r="E259" s="46" t="s">
         <v>329</v>
@@ -12016,13 +12015,13 @@
         <v>589</v>
       </c>
       <c r="B260" s="37" t="s">
+        <v>907</v>
+      </c>
+      <c r="C260" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D260" s="46" t="s">
         <v>908</v>
-      </c>
-      <c r="C260" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D260" s="46" t="s">
-        <v>909</v>
       </c>
       <c r="E260" s="46" t="s">
         <v>329</v>
@@ -12034,13 +12033,13 @@
         <v>592</v>
       </c>
       <c r="B261" s="37" t="s">
+        <v>909</v>
+      </c>
+      <c r="C261" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D261" s="46" t="s">
         <v>910</v>
-      </c>
-      <c r="C261" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D261" s="46" t="s">
-        <v>911</v>
       </c>
       <c r="E261" s="46" t="s">
         <v>329</v>
@@ -12052,13 +12051,13 @@
         <v>595</v>
       </c>
       <c r="B262" s="37" t="s">
+        <v>911</v>
+      </c>
+      <c r="C262" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D262" s="46" t="s">
         <v>912</v>
-      </c>
-      <c r="C262" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D262" s="46" t="s">
-        <v>913</v>
       </c>
       <c r="E262" s="46" t="s">
         <v>329</v>
@@ -12070,13 +12069,13 @@
         <v>598</v>
       </c>
       <c r="B263" s="37" t="s">
+        <v>913</v>
+      </c>
+      <c r="C263" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D263" s="46" t="s">
         <v>914</v>
-      </c>
-      <c r="C263" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D263" s="46" t="s">
-        <v>915</v>
       </c>
       <c r="E263" s="46" t="s">
         <v>329</v>
@@ -12088,13 +12087,13 @@
         <v>604</v>
       </c>
       <c r="B264" s="37" t="s">
+        <v>915</v>
+      </c>
+      <c r="C264" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D264" s="46" t="s">
         <v>916</v>
-      </c>
-      <c r="C264" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D264" s="46" t="s">
-        <v>917</v>
       </c>
       <c r="E264" s="46"/>
       <c r="F264" s="54"/>
@@ -12104,13 +12103,13 @@
         <v>607</v>
       </c>
       <c r="B265" s="37" t="s">
+        <v>917</v>
+      </c>
+      <c r="C265" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D265" s="46" t="s">
         <v>918</v>
-      </c>
-      <c r="C265" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D265" s="46" t="s">
-        <v>919</v>
       </c>
       <c r="E265" s="46"/>
       <c r="F265" s="54"/>
@@ -12120,13 +12119,13 @@
         <v>610</v>
       </c>
       <c r="B266" s="37" t="s">
+        <v>919</v>
+      </c>
+      <c r="C266" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D266" s="46" t="s">
         <v>920</v>
-      </c>
-      <c r="C266" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D266" s="46" t="s">
-        <v>921</v>
       </c>
       <c r="E266" s="46"/>
       <c r="F266" s="54"/>
@@ -12136,13 +12135,13 @@
         <v>613</v>
       </c>
       <c r="B267" s="37" t="s">
+        <v>921</v>
+      </c>
+      <c r="C267" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D267" s="46" t="s">
         <v>922</v>
-      </c>
-      <c r="C267" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D267" s="46" t="s">
-        <v>923</v>
       </c>
       <c r="E267" s="46"/>
       <c r="F267" s="54"/>
@@ -12152,13 +12151,13 @@
         <v>619</v>
       </c>
       <c r="B268" s="37" t="s">
+        <v>923</v>
+      </c>
+      <c r="C268" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D268" s="46" t="s">
         <v>924</v>
-      </c>
-      <c r="C268" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D268" s="46" t="s">
-        <v>925</v>
       </c>
       <c r="E268" s="46"/>
       <c r="F268" s="54"/>
@@ -12168,13 +12167,13 @@
         <v>622</v>
       </c>
       <c r="B269" s="37" t="s">
+        <v>925</v>
+      </c>
+      <c r="C269" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D269" s="46" t="s">
         <v>926</v>
-      </c>
-      <c r="C269" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D269" s="46" t="s">
-        <v>927</v>
       </c>
       <c r="E269" s="46"/>
       <c r="F269" s="54"/>
@@ -12184,13 +12183,13 @@
         <v>625</v>
       </c>
       <c r="B270" s="37" t="s">
+        <v>927</v>
+      </c>
+      <c r="C270" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D270" s="46" t="s">
         <v>928</v>
-      </c>
-      <c r="C270" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D270" s="46" t="s">
-        <v>929</v>
       </c>
       <c r="E270" s="46"/>
       <c r="F270" s="54"/>
@@ -12200,13 +12199,13 @@
         <v>628</v>
       </c>
       <c r="B271" s="37" t="s">
+        <v>929</v>
+      </c>
+      <c r="C271" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D271" s="46" t="s">
         <v>930</v>
-      </c>
-      <c r="C271" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D271" s="46" t="s">
-        <v>931</v>
       </c>
       <c r="E271" s="46"/>
       <c r="F271" s="54"/>
@@ -12216,13 +12215,13 @@
         <v>631</v>
       </c>
       <c r="B272" s="37" t="s">
+        <v>931</v>
+      </c>
+      <c r="C272" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D272" s="46" t="s">
         <v>932</v>
-      </c>
-      <c r="C272" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D272" s="46" t="s">
-        <v>933</v>
       </c>
       <c r="E272" s="46"/>
       <c r="F272" s="54"/>
@@ -12232,13 +12231,13 @@
         <v>634</v>
       </c>
       <c r="B273" s="37" t="s">
+        <v>933</v>
+      </c>
+      <c r="C273" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D273" s="46" t="s">
         <v>934</v>
-      </c>
-      <c r="C273" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D273" s="46" t="s">
-        <v>935</v>
       </c>
       <c r="E273" s="46"/>
       <c r="F273" s="54"/>
@@ -12248,13 +12247,13 @@
         <v>637</v>
       </c>
       <c r="B274" s="37" t="s">
+        <v>935</v>
+      </c>
+      <c r="C274" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D274" s="46" t="s">
         <v>936</v>
-      </c>
-      <c r="C274" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D274" s="46" t="s">
-        <v>937</v>
       </c>
       <c r="E274" s="46"/>
       <c r="F274" s="54"/>
@@ -12264,13 +12263,13 @@
         <v>640</v>
       </c>
       <c r="B275" s="37" t="s">
+        <v>937</v>
+      </c>
+      <c r="C275" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D275" s="46" t="s">
         <v>938</v>
-      </c>
-      <c r="C275" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D275" s="46" t="s">
-        <v>939</v>
       </c>
       <c r="E275" s="46"/>
       <c r="F275" s="54"/>
@@ -12280,13 +12279,13 @@
         <v>643</v>
       </c>
       <c r="B276" s="37" t="s">
+        <v>939</v>
+      </c>
+      <c r="C276" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D276" s="46" t="s">
         <v>940</v>
-      </c>
-      <c r="C276" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D276" s="46" t="s">
-        <v>941</v>
       </c>
       <c r="E276" s="46"/>
       <c r="F276" s="54"/>
@@ -12296,13 +12295,13 @@
         <v>646</v>
       </c>
       <c r="B277" s="37" t="s">
+        <v>941</v>
+      </c>
+      <c r="C277" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D277" s="46" t="s">
         <v>942</v>
-      </c>
-      <c r="C277" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D277" s="46" t="s">
-        <v>943</v>
       </c>
       <c r="E277" s="46"/>
       <c r="F277" s="54"/>
@@ -12312,13 +12311,13 @@
         <v>649</v>
       </c>
       <c r="B278" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="C278" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D278" s="46" t="s">
         <v>944</v>
-      </c>
-      <c r="C278" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D278" s="46" t="s">
-        <v>945</v>
       </c>
       <c r="E278" s="46"/>
       <c r="F278" s="54"/>
@@ -12328,13 +12327,13 @@
         <v>652</v>
       </c>
       <c r="B279" s="37" t="s">
+        <v>945</v>
+      </c>
+      <c r="C279" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D279" s="46" t="s">
         <v>946</v>
-      </c>
-      <c r="C279" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D279" s="46" t="s">
-        <v>947</v>
       </c>
       <c r="E279" s="46"/>
       <c r="F279" s="54"/>
@@ -12344,13 +12343,13 @@
         <v>655</v>
       </c>
       <c r="B280" s="37" t="s">
+        <v>947</v>
+      </c>
+      <c r="C280" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D280" s="46" t="s">
         <v>948</v>
-      </c>
-      <c r="C280" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D280" s="46" t="s">
-        <v>949</v>
       </c>
       <c r="E280" s="46"/>
       <c r="F280" s="54"/>
@@ -12360,13 +12359,13 @@
         <v>658</v>
       </c>
       <c r="B281" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="C281" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D281" s="46" t="s">
         <v>950</v>
-      </c>
-      <c r="C281" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D281" s="46" t="s">
-        <v>951</v>
       </c>
       <c r="E281" s="46"/>
       <c r="F281" s="54"/>
@@ -12376,13 +12375,13 @@
         <v>661</v>
       </c>
       <c r="B282" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="C282" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D282" s="46" t="s">
         <v>952</v>
-      </c>
-      <c r="C282" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D282" s="46" t="s">
-        <v>953</v>
       </c>
       <c r="E282" s="46"/>
       <c r="F282" s="54"/>
@@ -12392,7 +12391,7 @@
         <v>664</v>
       </c>
       <c r="B283" s="48" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C283" s="49"/>
       <c r="D283" s="46"/>
@@ -12406,7 +12405,7 @@
         <v>667</v>
       </c>
       <c r="B284" s="48" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C284" s="49"/>
       <c r="D284" s="46"/>
@@ -12420,7 +12419,7 @@
         <v>670</v>
       </c>
       <c r="B285" s="48" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C285" s="49"/>
       <c r="D285" s="46"/>
@@ -12434,13 +12433,13 @@
         <v>673</v>
       </c>
       <c r="B286" s="37" t="s">
+        <v>955</v>
+      </c>
+      <c r="C286" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D286" s="46" t="s">
         <v>956</v>
-      </c>
-      <c r="C286" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D286" s="46" t="s">
-        <v>957</v>
       </c>
       <c r="E286" s="57" t="s">
         <v>335</v>
@@ -12452,13 +12451,13 @@
         <v>676</v>
       </c>
       <c r="B287" s="37" t="s">
+        <v>957</v>
+      </c>
+      <c r="C287" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D287" s="46" t="s">
         <v>958</v>
-      </c>
-      <c r="C287" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D287" s="46" t="s">
-        <v>959</v>
       </c>
       <c r="E287" s="57" t="s">
         <v>335</v>
@@ -12470,13 +12469,13 @@
         <v>679</v>
       </c>
       <c r="B288" s="37" t="s">
+        <v>959</v>
+      </c>
+      <c r="C288" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D288" s="46" t="s">
         <v>960</v>
-      </c>
-      <c r="C288" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D288" s="46" t="s">
-        <v>961</v>
       </c>
       <c r="E288" s="57" t="s">
         <v>335</v>
@@ -12488,13 +12487,13 @@
         <v>682</v>
       </c>
       <c r="B289" s="37" t="s">
+        <v>961</v>
+      </c>
+      <c r="C289" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D289" s="46" t="s">
         <v>962</v>
-      </c>
-      <c r="C289" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D289" s="46" t="s">
-        <v>963</v>
       </c>
       <c r="E289" s="57" t="s">
         <v>335</v>
@@ -12506,13 +12505,13 @@
         <v>685</v>
       </c>
       <c r="B290" s="37" t="s">
+        <v>963</v>
+      </c>
+      <c r="C290" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D290" s="46" t="s">
         <v>964</v>
-      </c>
-      <c r="C290" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D290" s="46" t="s">
-        <v>965</v>
       </c>
       <c r="E290" s="57" t="s">
         <v>335</v>
@@ -12524,13 +12523,13 @@
         <v>688</v>
       </c>
       <c r="B291" s="37" t="s">
+        <v>965</v>
+      </c>
+      <c r="C291" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D291" s="46" t="s">
         <v>966</v>
-      </c>
-      <c r="C291" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D291" s="46" t="s">
-        <v>967</v>
       </c>
       <c r="E291" s="57" t="s">
         <v>335</v>
@@ -12542,13 +12541,13 @@
         <v>691</v>
       </c>
       <c r="B292" s="37" t="s">
+        <v>967</v>
+      </c>
+      <c r="C292" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D292" s="46" t="s">
         <v>968</v>
-      </c>
-      <c r="C292" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D292" s="46" t="s">
-        <v>969</v>
       </c>
       <c r="E292" s="57" t="s">
         <v>335</v>
@@ -12560,13 +12559,13 @@
         <v>694</v>
       </c>
       <c r="B293" s="37" t="s">
+        <v>969</v>
+      </c>
+      <c r="C293" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D293" s="46" t="s">
         <v>970</v>
-      </c>
-      <c r="C293" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D293" s="46" t="s">
-        <v>971</v>
       </c>
       <c r="E293" s="57" t="s">
         <v>335</v>
@@ -12578,13 +12577,13 @@
         <v>697</v>
       </c>
       <c r="B294" s="37" t="s">
+        <v>971</v>
+      </c>
+      <c r="C294" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D294" s="46" t="s">
         <v>972</v>
-      </c>
-      <c r="C294" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D294" s="46" t="s">
-        <v>973</v>
       </c>
       <c r="E294" s="57" t="s">
         <v>335</v>
@@ -12596,13 +12595,13 @@
         <v>699</v>
       </c>
       <c r="B295" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="C295" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D295" s="46" t="s">
         <v>974</v>
-      </c>
-      <c r="C295" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D295" s="46" t="s">
-        <v>975</v>
       </c>
       <c r="E295" s="57"/>
       <c r="F295" s="54"/>
@@ -12612,13 +12611,13 @@
         <v>702</v>
       </c>
       <c r="B296" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="C296" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D296" s="46" t="s">
         <v>976</v>
-      </c>
-      <c r="C296" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D296" s="46" t="s">
-        <v>977</v>
       </c>
       <c r="E296" s="57"/>
       <c r="F296" s="54"/>
@@ -12628,13 +12627,13 @@
         <v>704</v>
       </c>
       <c r="B297" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="C297" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D297" s="46" t="s">
         <v>978</v>
-      </c>
-      <c r="C297" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D297" s="46" t="s">
-        <v>979</v>
       </c>
       <c r="E297" s="57"/>
       <c r="F297" s="54"/>
@@ -12644,13 +12643,13 @@
         <v>706</v>
       </c>
       <c r="B298" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="C298" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D298" s="46" t="s">
         <v>980</v>
-      </c>
-      <c r="C298" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D298" s="46" t="s">
-        <v>981</v>
       </c>
       <c r="E298" s="57"/>
       <c r="F298" s="54"/>
@@ -12660,13 +12659,13 @@
         <v>708</v>
       </c>
       <c r="B299" s="37" t="s">
+        <v>981</v>
+      </c>
+      <c r="C299" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D299" s="46" t="s">
         <v>982</v>
-      </c>
-      <c r="C299" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D299" s="46" t="s">
-        <v>983</v>
       </c>
       <c r="E299" s="57"/>
       <c r="F299" s="54"/>
@@ -12676,13 +12675,13 @@
         <v>710</v>
       </c>
       <c r="B300" s="37" t="s">
+        <v>983</v>
+      </c>
+      <c r="C300" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D300" s="46" t="s">
         <v>984</v>
-      </c>
-      <c r="C300" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D300" s="46" t="s">
-        <v>985</v>
       </c>
       <c r="E300" s="57"/>
       <c r="F300" s="54"/>
@@ -12692,13 +12691,13 @@
         <v>712</v>
       </c>
       <c r="B301" s="37" t="s">
+        <v>985</v>
+      </c>
+      <c r="C301" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D301" s="46" t="s">
         <v>986</v>
-      </c>
-      <c r="C301" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D301" s="46" t="s">
-        <v>987</v>
       </c>
       <c r="E301" s="57"/>
       <c r="F301" s="54"/>
@@ -12708,13 +12707,13 @@
         <v>714</v>
       </c>
       <c r="B302" s="37" t="s">
+        <v>987</v>
+      </c>
+      <c r="C302" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D302" s="46" t="s">
         <v>988</v>
-      </c>
-      <c r="C302" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D302" s="46" t="s">
-        <v>989</v>
       </c>
       <c r="E302" s="57"/>
       <c r="F302" s="54"/>
@@ -12724,13 +12723,13 @@
         <v>716</v>
       </c>
       <c r="B303" s="37" t="s">
+        <v>989</v>
+      </c>
+      <c r="C303" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D303" s="46" t="s">
         <v>990</v>
-      </c>
-      <c r="C303" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D303" s="46" t="s">
-        <v>991</v>
       </c>
       <c r="E303" s="57"/>
       <c r="F303" s="54"/>
@@ -12740,13 +12739,13 @@
         <v>718</v>
       </c>
       <c r="B304" s="37" t="s">
+        <v>991</v>
+      </c>
+      <c r="C304" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D304" s="46" t="s">
         <v>992</v>
-      </c>
-      <c r="C304" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D304" s="46" t="s">
-        <v>993</v>
       </c>
       <c r="E304" s="57"/>
       <c r="F304" s="54"/>
@@ -12756,13 +12755,13 @@
         <v>720</v>
       </c>
       <c r="B305" s="37" t="s">
+        <v>993</v>
+      </c>
+      <c r="C305" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D305" s="46" t="s">
         <v>994</v>
-      </c>
-      <c r="C305" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D305" s="46" t="s">
-        <v>995</v>
       </c>
       <c r="E305" s="57"/>
       <c r="F305" s="54"/>
@@ -12772,13 +12771,13 @@
         <v>722</v>
       </c>
       <c r="B306" s="37" t="s">
+        <v>995</v>
+      </c>
+      <c r="C306" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D306" s="46" t="s">
         <v>996</v>
-      </c>
-      <c r="C306" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D306" s="46" t="s">
-        <v>997</v>
       </c>
       <c r="E306" s="57"/>
       <c r="F306" s="54"/>
@@ -12788,13 +12787,13 @@
         <v>724</v>
       </c>
       <c r="B307" s="37" t="s">
+        <v>997</v>
+      </c>
+      <c r="C307" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D307" s="46" t="s">
         <v>998</v>
-      </c>
-      <c r="C307" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D307" s="46" t="s">
-        <v>999</v>
       </c>
       <c r="E307" s="57"/>
       <c r="F307" s="54"/>
@@ -12804,7 +12803,7 @@
         <v>726</v>
       </c>
       <c r="B308" s="48" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C308" s="49"/>
       <c r="D308" s="49"/>
@@ -12818,7 +12817,7 @@
         <v>728</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C309" s="49"/>
       <c r="D309" s="49"/>
@@ -12832,13 +12831,13 @@
         <v>730</v>
       </c>
       <c r="B310" s="37" t="s">
+        <v>999</v>
+      </c>
+      <c r="C310" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D310" s="46" t="s">
         <v>1000</v>
-      </c>
-      <c r="C310" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D310" s="46" t="s">
-        <v>1001</v>
       </c>
       <c r="E310" s="57" t="s">
         <v>52</v>
@@ -12850,13 +12849,13 @@
         <v>732</v>
       </c>
       <c r="B311" s="37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C311" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D311" s="46" t="s">
         <v>1002</v>
-      </c>
-      <c r="C311" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D311" s="46" t="s">
-        <v>1003</v>
       </c>
       <c r="E311" s="57" t="s">
         <v>52</v>
@@ -12868,13 +12867,13 @@
         <v>734</v>
       </c>
       <c r="B312" s="37" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C312" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D312" s="46" t="s">
         <v>1004</v>
-      </c>
-      <c r="C312" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D312" s="46" t="s">
-        <v>1005</v>
       </c>
       <c r="E312" s="57" t="s">
         <v>52</v>
@@ -12886,13 +12885,13 @@
         <v>736</v>
       </c>
       <c r="B313" s="37" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C313" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D313" s="46" t="s">
         <v>1006</v>
-      </c>
-      <c r="C313" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D313" s="46" t="s">
-        <v>1007</v>
       </c>
       <c r="E313" s="57" t="s">
         <v>52</v>
@@ -12904,13 +12903,13 @@
         <v>738</v>
       </c>
       <c r="B314" s="37" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C314" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D314" s="46" t="s">
         <v>1008</v>
-      </c>
-      <c r="C314" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D314" s="46" t="s">
-        <v>1009</v>
       </c>
       <c r="E314" s="57" t="s">
         <v>52</v>
@@ -12922,13 +12921,13 @@
         <v>740</v>
       </c>
       <c r="B315" s="37" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C315" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D315" s="46" t="s">
         <v>1010</v>
-      </c>
-      <c r="C315" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D315" s="46" t="s">
-        <v>1011</v>
       </c>
       <c r="E315" s="57" t="s">
         <v>52</v>
@@ -12940,13 +12939,13 @@
         <v>742</v>
       </c>
       <c r="B316" s="37" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C316" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D316" s="46" t="s">
         <v>1012</v>
-      </c>
-      <c r="C316" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D316" s="46" t="s">
-        <v>1013</v>
       </c>
       <c r="E316" s="57" t="s">
         <v>52</v>
@@ -12958,13 +12957,13 @@
         <v>744</v>
       </c>
       <c r="B317" s="37" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C317" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D317" s="46" t="s">
         <v>1014</v>
-      </c>
-      <c r="C317" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D317" s="46" t="s">
-        <v>1015</v>
       </c>
       <c r="E317" s="57" t="s">
         <v>52</v>
@@ -12976,7 +12975,7 @@
         <v>746</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C318" s="49"/>
       <c r="D318" s="49"/>
@@ -12990,7 +12989,7 @@
         <v>748</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C319" s="49"/>
       <c r="D319" s="49"/>
@@ -13004,7 +13003,7 @@
         <v>750</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C320" s="49"/>
       <c r="D320" s="49"/>
@@ -13018,13 +13017,13 @@
         <v>752</v>
       </c>
       <c r="B321" s="71" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C321" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D321" s="46" t="s">
         <v>1016</v>
-      </c>
-      <c r="C321" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D321" s="46" t="s">
-        <v>1017</v>
       </c>
       <c r="E321" s="57" t="s">
         <v>167</v>
@@ -13036,13 +13035,13 @@
         <v>754</v>
       </c>
       <c r="B322" s="37" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C322" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D322" s="46" t="s">
         <v>1018</v>
-      </c>
-      <c r="C322" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D322" s="46" t="s">
-        <v>1019</v>
       </c>
       <c r="E322" s="57" t="s">
         <v>167</v>
@@ -13054,13 +13053,13 @@
         <v>756</v>
       </c>
       <c r="B323" s="37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C323" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D323" s="46" t="s">
         <v>1020</v>
-      </c>
-      <c r="C323" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D323" s="46" t="s">
-        <v>1021</v>
       </c>
       <c r="E323" s="57" t="s">
         <v>167</v>
@@ -13072,7 +13071,7 @@
         <v>758</v>
       </c>
       <c r="B324" s="48" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C324" s="49"/>
       <c r="D324" s="49"/>
@@ -13086,13 +13085,13 @@
         <v>760</v>
       </c>
       <c r="B325" s="37" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C325" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D325" s="46" t="s">
         <v>1022</v>
-      </c>
-      <c r="C325" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D325" s="46" t="s">
-        <v>1023</v>
       </c>
       <c r="E325" s="46" t="s">
         <v>171</v>
@@ -13104,13 +13103,13 @@
         <v>762</v>
       </c>
       <c r="B326" s="37" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C326" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D326" s="46" t="s">
         <v>1024</v>
-      </c>
-      <c r="C326" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D326" s="46" t="s">
-        <v>1025</v>
       </c>
       <c r="E326" s="46" t="s">
         <v>175</v>
@@ -13122,13 +13121,13 @@
         <v>764</v>
       </c>
       <c r="B327" s="37" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C327" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D327" s="46" t="s">
         <v>1026</v>
-      </c>
-      <c r="C327" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D327" s="46" t="s">
-        <v>1027</v>
       </c>
       <c r="E327" s="46" t="s">
         <v>179</v>
@@ -13140,13 +13139,13 @@
         <v>766</v>
       </c>
       <c r="B328" s="37" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C328" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D328" s="46" t="s">
         <v>1028</v>
-      </c>
-      <c r="C328" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D328" s="46" t="s">
-        <v>1029</v>
       </c>
       <c r="E328" s="46" t="s">
         <v>179</v>
@@ -13158,16 +13157,16 @@
         <v>768</v>
       </c>
       <c r="B329" s="37" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C329" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D329" s="46" t="s">
         <v>1030</v>
       </c>
-      <c r="C329" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D329" s="46" t="s">
+      <c r="E329" s="46" t="s">
         <v>1031</v>
-      </c>
-      <c r="E329" s="46" t="s">
-        <v>1032</v>
       </c>
       <c r="F329" s="54"/>
     </row>
@@ -13176,16 +13175,16 @@
         <v>770</v>
       </c>
       <c r="B330" s="37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C330" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D330" s="46" t="s">
         <v>1033</v>
       </c>
-      <c r="C330" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D330" s="46" t="s">
+      <c r="E330" s="46" t="s">
         <v>1034</v>
-      </c>
-      <c r="E330" s="46" t="s">
-        <v>1035</v>
       </c>
       <c r="F330" s="54"/>
     </row>
@@ -13194,16 +13193,16 @@
         <v>772</v>
       </c>
       <c r="B331" s="37" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C331" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D331" s="46" t="s">
         <v>1036</v>
       </c>
-      <c r="C331" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D331" s="46" t="s">
+      <c r="E331" s="46" t="s">
         <v>1037</v>
-      </c>
-      <c r="E331" s="46" t="s">
-        <v>1038</v>
       </c>
       <c r="F331" s="54"/>
     </row>
@@ -13212,16 +13211,16 @@
         <v>774</v>
       </c>
       <c r="B332" s="37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C332" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D332" s="46" t="s">
         <v>1039</v>
       </c>
-      <c r="C332" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D332" s="46" t="s">
+      <c r="E332" s="46" t="s">
         <v>1040</v>
-      </c>
-      <c r="E332" s="46" t="s">
-        <v>1041</v>
       </c>
       <c r="F332" s="54"/>
     </row>
@@ -13230,16 +13229,16 @@
         <v>776</v>
       </c>
       <c r="B333" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C333" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D333" s="46" t="s">
         <v>1042</v>
       </c>
-      <c r="C333" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D333" s="46" t="s">
-        <v>1043</v>
-      </c>
       <c r="E333" s="46" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F333" s="54"/>
     </row>
@@ -13248,16 +13247,16 @@
         <v>778</v>
       </c>
       <c r="B334" s="37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C334" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D334" s="46" t="s">
         <v>1044</v>
       </c>
-      <c r="C334" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D334" s="46" t="s">
+      <c r="E334" s="46" t="s">
         <v>1045</v>
-      </c>
-      <c r="E334" s="46" t="s">
-        <v>1046</v>
       </c>
       <c r="F334" s="54"/>
     </row>
@@ -13266,16 +13265,16 @@
         <v>780</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C335" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D335" s="46" t="s">
         <v>1047</v>
       </c>
-      <c r="C335" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D335" s="46" t="s">
-        <v>1048</v>
-      </c>
       <c r="E335" s="46" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F335" s="54"/>
     </row>
@@ -13284,16 +13283,16 @@
         <v>782</v>
       </c>
       <c r="B336" s="37" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C336" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D336" s="46" t="s">
         <v>1049</v>
       </c>
-      <c r="C336" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D336" s="46" t="s">
-        <v>1050</v>
-      </c>
       <c r="E336" s="46" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F336" s="54"/>
     </row>
@@ -13302,13 +13301,13 @@
         <v>784</v>
       </c>
       <c r="B337" s="37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C337" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D337" s="46" t="s">
         <v>1051</v>
-      </c>
-      <c r="C337" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D337" s="46" t="s">
-        <v>1052</v>
       </c>
       <c r="E337" s="46" t="s">
         <v>183</v>
@@ -13320,13 +13319,13 @@
         <v>786</v>
       </c>
       <c r="B338" s="37" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C338" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D338" s="46" t="s">
         <v>1053</v>
-      </c>
-      <c r="C338" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D338" s="46" t="s">
-        <v>1054</v>
       </c>
       <c r="E338" s="46" t="s">
         <v>183</v>
@@ -13338,7 +13337,7 @@
         <v>788</v>
       </c>
       <c r="B339" s="48" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C339" s="49"/>
       <c r="D339" s="49"/>
@@ -13352,16 +13351,16 @@
         <v>790</v>
       </c>
       <c r="B340" s="37" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C340" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D340" s="46" t="s">
         <v>1056</v>
       </c>
-      <c r="C340" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D340" s="46" t="s">
+      <c r="E340" s="46" t="s">
         <v>1057</v>
-      </c>
-      <c r="E340" s="46" t="s">
-        <v>1058</v>
       </c>
       <c r="F340" s="54"/>
     </row>
@@ -13370,16 +13369,16 @@
         <v>792</v>
       </c>
       <c r="B341" s="37" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C341" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D341" s="46" t="s">
         <v>1059</v>
       </c>
-      <c r="C341" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D341" s="46" t="s">
-        <v>1060</v>
-      </c>
       <c r="E341" s="46" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F341" s="54"/>
     </row>
@@ -13388,19 +13387,19 @@
         <v>794</v>
       </c>
       <c r="B342" s="37" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C342" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D342" s="46" t="s">
         <v>1061</v>
       </c>
-      <c r="C342" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D342" s="46" t="s">
+      <c r="E342" s="46" t="s">
         <v>1062</v>
       </c>
-      <c r="E342" s="46" t="s">
+      <c r="F342" s="56" t="s">
         <v>1063</v>
-      </c>
-      <c r="F342" s="56" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="343" ht="19.5" customHeight="1" spans="1:6">
@@ -13408,16 +13407,16 @@
         <v>796</v>
       </c>
       <c r="B343" s="37" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C343" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D343" s="46" t="s">
         <v>1065</v>
       </c>
-      <c r="C343" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D343" s="46" t="s">
-        <v>1066</v>
-      </c>
       <c r="E343" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F343" s="56"/>
     </row>
@@ -13426,16 +13425,16 @@
         <v>798</v>
       </c>
       <c r="B344" s="37" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C344" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D344" s="46" t="s">
         <v>1067</v>
       </c>
-      <c r="C344" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D344" s="46" t="s">
-        <v>1068</v>
-      </c>
       <c r="E344" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F344" s="56"/>
     </row>
@@ -13444,16 +13443,16 @@
         <v>800</v>
       </c>
       <c r="B345" s="37" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C345" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D345" s="46" t="s">
         <v>1069</v>
       </c>
-      <c r="C345" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D345" s="46" t="s">
-        <v>1070</v>
-      </c>
       <c r="E345" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F345" s="56"/>
     </row>
@@ -13462,16 +13461,16 @@
         <v>802</v>
       </c>
       <c r="B346" s="37" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C346" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D346" s="46" t="s">
         <v>1071</v>
       </c>
-      <c r="C346" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D346" s="46" t="s">
-        <v>1072</v>
-      </c>
       <c r="E346" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F346" s="56"/>
     </row>
@@ -13480,16 +13479,16 @@
         <v>804</v>
       </c>
       <c r="B347" s="37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C347" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D347" s="46" t="s">
         <v>1073</v>
       </c>
-      <c r="C347" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D347" s="46" t="s">
-        <v>1074</v>
-      </c>
       <c r="E347" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F347" s="56"/>
     </row>
@@ -13498,16 +13497,16 @@
         <v>806</v>
       </c>
       <c r="B348" s="37" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C348" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D348" s="46" t="s">
         <v>1075</v>
       </c>
-      <c r="C348" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D348" s="46" t="s">
-        <v>1076</v>
-      </c>
       <c r="E348" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F348" s="56"/>
     </row>
@@ -13516,16 +13515,16 @@
         <v>808</v>
       </c>
       <c r="B349" s="37" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C349" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D349" s="46" t="s">
         <v>1077</v>
       </c>
-      <c r="C349" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D349" s="46" t="s">
-        <v>1078</v>
-      </c>
       <c r="E349" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F349" s="56"/>
     </row>
@@ -13534,16 +13533,16 @@
         <v>810</v>
       </c>
       <c r="B350" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C350" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D350" s="46" t="s">
         <v>1079</v>
       </c>
-      <c r="C350" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D350" s="46" t="s">
-        <v>1080</v>
-      </c>
       <c r="E350" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F350" s="56"/>
     </row>
@@ -13552,16 +13551,16 @@
         <v>812</v>
       </c>
       <c r="B351" s="37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C351" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D351" s="46" t="s">
         <v>1081</v>
       </c>
-      <c r="C351" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D351" s="46" t="s">
-        <v>1082</v>
-      </c>
       <c r="E351" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F351" s="56"/>
     </row>
@@ -13570,16 +13569,16 @@
         <v>815</v>
       </c>
       <c r="B352" s="37" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C352" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D352" s="46" t="s">
         <v>1083</v>
       </c>
-      <c r="C352" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D352" s="46" t="s">
-        <v>1084</v>
-      </c>
       <c r="E352" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F352" s="56"/>
     </row>
@@ -13588,16 +13587,16 @@
         <v>817</v>
       </c>
       <c r="B353" s="37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C353" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D353" s="46" t="s">
         <v>1085</v>
       </c>
-      <c r="C353" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D353" s="46" t="s">
-        <v>1086</v>
-      </c>
       <c r="E353" s="46" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F353" s="56"/>
     </row>
@@ -13606,16 +13605,16 @@
         <v>821</v>
       </c>
       <c r="B354" s="37" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C354" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D354" s="46" t="s">
         <v>1087</v>
       </c>
-      <c r="C354" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D354" s="46" t="s">
+      <c r="E354" s="46" t="s">
         <v>1088</v>
-      </c>
-      <c r="E354" s="46" t="s">
-        <v>1089</v>
       </c>
       <c r="F354" s="54"/>
     </row>
@@ -13624,16 +13623,16 @@
         <v>823</v>
       </c>
       <c r="B355" s="37" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C355" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D355" s="46" t="s">
         <v>1090</v>
       </c>
-      <c r="C355" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D355" s="46" t="s">
-        <v>1091</v>
-      </c>
       <c r="E355" s="46" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F355" s="54"/>
     </row>
@@ -13642,13 +13641,13 @@
         <v>825</v>
       </c>
       <c r="B356" s="37" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C356" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D356" s="46" t="s">
         <v>1092</v>
-      </c>
-      <c r="C356" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D356" s="46" t="s">
-        <v>1093</v>
       </c>
       <c r="E356" s="54"/>
       <c r="F356" s="54"/>
@@ -13658,13 +13657,13 @@
         <v>827</v>
       </c>
       <c r="B357" s="37" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C357" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D357" s="46" t="s">
         <v>1094</v>
-      </c>
-      <c r="C357" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D357" s="46" t="s">
-        <v>1095</v>
       </c>
       <c r="E357" s="54"/>
       <c r="F357" s="54"/>
@@ -13674,13 +13673,13 @@
         <v>829</v>
       </c>
       <c r="B358" s="37" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C358" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D358" s="46" t="s">
         <v>1096</v>
-      </c>
-      <c r="C358" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D358" s="46" t="s">
-        <v>1097</v>
       </c>
       <c r="E358" s="54"/>
       <c r="F358" s="54"/>
@@ -13690,13 +13689,13 @@
         <v>831</v>
       </c>
       <c r="B359" s="37" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C359" s="46" t="s">
         <v>1098</v>
       </c>
-      <c r="C359" s="46" t="s">
+      <c r="D359" s="46" t="s">
         <v>1099</v>
-      </c>
-      <c r="D359" s="46" t="s">
-        <v>1100</v>
       </c>
       <c r="E359" s="54"/>
       <c r="F359" s="54"/>
@@ -13706,13 +13705,13 @@
         <v>833</v>
       </c>
       <c r="B360" s="37" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C360" s="72">
         <v>45313</v>
       </c>
       <c r="D360" s="46" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E360" s="54"/>
       <c r="F360" s="54"/>
@@ -13722,13 +13721,13 @@
         <v>835</v>
       </c>
       <c r="B361" s="37" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C361" s="73">
         <v>45344</v>
       </c>
       <c r="D361" s="46" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E361" s="54"/>
       <c r="F361" s="54"/>
@@ -13738,13 +13737,13 @@
         <v>837</v>
       </c>
       <c r="B362" s="37" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C362" s="73">
         <v>45344</v>
       </c>
       <c r="D362" s="46" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E362" s="54"/>
       <c r="F362" s="54"/>
@@ -13754,13 +13753,13 @@
         <v>839</v>
       </c>
       <c r="B363" s="37" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C363" s="73">
         <v>45344</v>
       </c>
       <c r="D363" s="46" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E363" s="54"/>
       <c r="F363" s="54"/>
@@ -13770,13 +13769,13 @@
         <v>841</v>
       </c>
       <c r="B364" s="37" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C364" s="73">
         <v>45344</v>
       </c>
       <c r="D364" s="46" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E364" s="54"/>
       <c r="F364" s="54"/>
@@ -13786,13 +13785,13 @@
         <v>843</v>
       </c>
       <c r="B365" s="37" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C365" s="73">
         <v>45344</v>
       </c>
       <c r="D365" s="46" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E365" s="54"/>
       <c r="F365" s="54"/>
@@ -13802,125 +13801,125 @@
         <v>845</v>
       </c>
       <c r="B366" s="37" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C366" s="73">
         <v>45344</v>
       </c>
       <c r="D366" s="46" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E366" s="54"/>
       <c r="F366" s="54"/>
     </row>
     <row r="367" ht="19.5" customHeight="1" spans="1:6">
       <c r="A367" s="46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B367" s="37" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C367" s="73">
         <v>45344</v>
       </c>
       <c r="D367" s="46" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E367" s="54"/>
       <c r="F367" s="54"/>
     </row>
     <row r="368" ht="19.5" customHeight="1" spans="1:6">
       <c r="A368" s="46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B368" s="37" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C368" s="73">
         <v>45344</v>
       </c>
       <c r="D368" s="46" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E368" s="54"/>
       <c r="F368" s="54"/>
     </row>
     <row r="369" ht="19.5" customHeight="1" spans="1:6">
       <c r="A369" s="46" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B369" s="37" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C369" s="73">
         <v>45344</v>
       </c>
       <c r="D369" s="46" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E369" s="54"/>
       <c r="F369" s="54"/>
     </row>
     <row r="370" ht="19.5" customHeight="1" spans="1:6">
       <c r="A370" s="46" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B370" s="37" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C370" s="73">
         <v>45344</v>
       </c>
       <c r="D370" s="46" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E370" s="54"/>
       <c r="F370" s="54"/>
     </row>
     <row r="371" ht="19.5" customHeight="1" spans="1:6">
       <c r="A371" s="46" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B371" s="37" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C371" s="73">
         <v>45344</v>
       </c>
       <c r="D371" s="46" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E371" s="54"/>
       <c r="F371" s="54"/>
     </row>
     <row r="372" ht="19.5" customHeight="1" spans="1:6">
       <c r="A372" s="46" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B372" s="37" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C372" s="73">
         <v>45344</v>
       </c>
       <c r="D372" s="46" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E372" s="54"/>
       <c r="F372" s="54"/>
     </row>
     <row r="373" ht="19.5" customHeight="1" spans="1:6">
       <c r="A373" s="46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B373" s="37" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C373" s="73">
         <v>45344</v>
       </c>
       <c r="D373" s="46" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E373" s="54"/>
       <c r="F373" s="54"/>
@@ -13970,7 +13969,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:5">
       <c r="A1" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -13979,7 +13978,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14007,7 +14006,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>4</v>
@@ -14024,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>195</v>
@@ -14041,7 +14040,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>195</v>
@@ -14058,7 +14057,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>195</v>
@@ -14075,7 +14074,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>195</v>
@@ -14092,7 +14091,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>195</v>
@@ -14109,7 +14108,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>195</v>
@@ -14126,7 +14125,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>195</v>
@@ -14141,7 +14140,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>195</v>
@@ -14156,7 +14155,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>195</v>
@@ -14171,13 +14170,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>1141</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>1142</v>
       </c>
       <c r="E15" s="20"/>
     </row>
@@ -14213,7 +14212,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
       <c r="A1" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -14223,7 +14222,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14252,7 +14251,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>4</v>
@@ -14270,7 +14269,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>195</v>
@@ -14288,7 +14287,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>195</v>
@@ -14306,7 +14305,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>195</v>
@@ -14324,7 +14323,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>195</v>
@@ -14342,7 +14341,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>195</v>
@@ -14360,7 +14359,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>195</v>
@@ -14369,7 +14368,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F11" s="29"/>
     </row>
@@ -14378,7 +14377,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>195</v>
@@ -14396,7 +14395,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>195</v>
@@ -14405,7 +14404,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F13" s="29"/>
     </row>
@@ -14414,7 +14413,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>195</v>
@@ -14432,12 +14431,12 @@
         <v>38</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F15" s="30"/>
     </row>
@@ -14446,7 +14445,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -14460,13 +14459,13 @@
         <v>45</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
@@ -14478,7 +14477,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>195</v>
@@ -14494,7 +14493,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>195</v>
@@ -14510,7 +14509,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>195</v>
@@ -14526,7 +14525,7 @@
         <v>384</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>195</v>
@@ -14542,7 +14541,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>195</v>
@@ -14558,7 +14557,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>195</v>
@@ -14574,7 +14573,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>195</v>
@@ -14590,7 +14589,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>195</v>
@@ -14606,7 +14605,7 @@
         <v>73</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>195</v>
@@ -14622,7 +14621,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>195</v>
@@ -14638,7 +14637,7 @@
         <v>80</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>195</v>
@@ -14654,7 +14653,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>195</v>
@@ -14670,7 +14669,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>195</v>
@@ -14686,7 +14685,7 @@
         <v>88</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>195</v>
@@ -14702,7 +14701,7 @@
         <v>91</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>195</v>
@@ -14718,13 +14717,13 @@
         <v>94</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>1176</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>1177</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="33"/>
@@ -14734,13 +14733,13 @@
         <v>97</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>1178</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>1179</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="33"/>
@@ -14750,7 +14749,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>195</v>
@@ -14760,7 +14759,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="36" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14768,7 +14767,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>195</v>
@@ -14784,7 +14783,7 @@
         <v>109</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>195</v>
@@ -14800,7 +14799,7 @@
         <v>113</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>195</v>
@@ -14816,7 +14815,7 @@
         <v>117</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>195</v>
@@ -14832,7 +14831,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>195</v>
@@ -14848,7 +14847,7 @@
         <v>125</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>195</v>
@@ -14864,13 +14863,13 @@
         <v>129</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>1188</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>1189</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31"/>
@@ -14880,7 +14879,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -14894,17 +14893,17 @@
         <v>136</v>
       </c>
       <c r="B44" s="26" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>1191</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>1192</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="31" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="45" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14912,13 +14911,13 @@
         <v>140</v>
       </c>
       <c r="B45" s="26" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="27" t="s">
         <v>1194</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>1195</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="31"/>
@@ -14928,7 +14927,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>195</v>
@@ -14944,7 +14943,7 @@
         <v>147</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>195</v>
@@ -14960,7 +14959,7 @@
         <v>150</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>195</v>
@@ -14976,7 +14975,7 @@
         <v>154</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>195</v>
@@ -14992,7 +14991,7 @@
         <v>157</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>195</v>
@@ -15008,7 +15007,7 @@
         <v>160</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>195</v>
@@ -15024,7 +15023,7 @@
         <v>164</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>195</v>
@@ -15040,13 +15039,13 @@
         <v>168</v>
       </c>
       <c r="B53" s="26" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>1203</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>1204</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="31"/>
@@ -15056,13 +15055,13 @@
         <v>172</v>
       </c>
       <c r="B54" s="26" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>1205</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>1206</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="31"/>
@@ -15072,13 +15071,13 @@
         <v>176</v>
       </c>
       <c r="B55" s="26" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="27" t="s">
         <v>1207</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>1208</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="31"/>
@@ -15088,13 +15087,13 @@
         <v>180</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>1209</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>1210</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="31"/>
@@ -15104,13 +15103,13 @@
         <v>184</v>
       </c>
       <c r="B57" s="24" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="27" t="s">
         <v>1211</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>1212</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="31"/>
@@ -15120,7 +15119,7 @@
         <v>187</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>195</v>
@@ -15136,7 +15135,7 @@
         <v>190</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>195</v>
@@ -15152,7 +15151,7 @@
         <v>193</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>195</v>
@@ -15168,7 +15167,7 @@
         <v>198</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>195</v>
@@ -15184,7 +15183,7 @@
         <v>203</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>195</v>
@@ -15200,7 +15199,7 @@
         <v>208</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>195</v>
@@ -15216,7 +15215,7 @@
         <v>211</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>195</v>
@@ -15232,7 +15231,7 @@
         <v>214</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>195</v>
@@ -15248,13 +15247,13 @@
         <v>217</v>
       </c>
       <c r="B66" s="25" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="27" t="s">
         <v>1221</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>1222</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="31"/>
@@ -15264,7 +15263,7 @@
         <v>219</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>195</v>
@@ -15292,7 +15291,7 @@
         <v>224</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>195</v>
@@ -15302,7 +15301,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="31" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="70" s="13" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -15310,7 +15309,7 @@
         <v>229</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>195</v>
@@ -15326,7 +15325,7 @@
         <v>234</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>195</v>
@@ -15342,7 +15341,7 @@
         <v>237</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>195</v>
@@ -15358,7 +15357,7 @@
         <v>241</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>195</v>
@@ -15374,7 +15373,7 @@
         <v>245</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>195</v>
@@ -15390,7 +15389,7 @@
         <v>248</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>195</v>
@@ -15406,7 +15405,7 @@
         <v>251</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>195</v>
@@ -15422,7 +15421,7 @@
         <v>254</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -15436,7 +15435,7 @@
         <v>257</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>195</v>
@@ -15454,13 +15453,13 @@
         <v>260</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="20" t="s">
         <v>1235</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>1236</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="31"/>
@@ -15470,13 +15469,13 @@
         <v>263</v>
       </c>
       <c r="B80" s="24" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="20" t="s">
         <v>1237</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>1238</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="31"/>
@@ -15486,13 +15485,13 @@
         <v>266</v>
       </c>
       <c r="B81" s="24" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="20" t="s">
         <v>1239</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>1240</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31"/>
@@ -15502,13 +15501,13 @@
         <v>269</v>
       </c>
       <c r="B82" s="24" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>1241</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>1242</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31"/>
@@ -15518,13 +15517,13 @@
         <v>272</v>
       </c>
       <c r="B83" s="24" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>1243</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>1244</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31"/>
@@ -15534,13 +15533,13 @@
         <v>276</v>
       </c>
       <c r="B84" s="25" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" s="20" t="s">
         <v>1245</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>1246</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="31"/>
@@ -15550,13 +15549,13 @@
         <v>279</v>
       </c>
       <c r="B85" s="25" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>1247</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>1248</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="31"/>
@@ -15566,13 +15565,13 @@
         <v>282</v>
       </c>
       <c r="B86" s="25" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="20" t="s">
         <v>1249</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>1250</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="31"/>
@@ -15582,13 +15581,13 @@
         <v>285</v>
       </c>
       <c r="B87" s="25" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>1251</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>1252</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="31"/>
@@ -15598,13 +15597,13 @@
         <v>287</v>
       </c>
       <c r="B88" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" s="20" t="s">
         <v>1253</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>1254</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="31"/>
@@ -15614,13 +15613,13 @@
         <v>289</v>
       </c>
       <c r="B89" s="25" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>1255</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>1256</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="31"/>
@@ -15630,13 +15629,13 @@
         <v>292</v>
       </c>
       <c r="B90" s="25" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" s="20" t="s">
         <v>1257</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>1258</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="31"/>
@@ -15646,13 +15645,13 @@
         <v>294</v>
       </c>
       <c r="B91" s="25" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" s="20" t="s">
         <v>1259</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>1260</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="31"/>
@@ -15662,13 +15661,13 @@
         <v>297</v>
       </c>
       <c r="B92" s="25" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="20" t="s">
         <v>1261</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>1262</v>
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="31"/>
@@ -15678,13 +15677,13 @@
         <v>298</v>
       </c>
       <c r="B93" s="25" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="20" t="s">
         <v>1263</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>1264</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="31"/>
@@ -15694,13 +15693,13 @@
         <v>301</v>
       </c>
       <c r="B94" s="35" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" s="20" t="s">
         <v>1265</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>1266</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="31"/>
@@ -15710,13 +15709,13 @@
         <v>302</v>
       </c>
       <c r="B95" s="35" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="20" t="s">
         <v>1267</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>1268</v>
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="31"/>
@@ -15726,13 +15725,13 @@
         <v>305</v>
       </c>
       <c r="B96" s="35" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" s="20" t="s">
         <v>1269</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>1270</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="31"/>
@@ -15742,13 +15741,13 @@
         <v>306</v>
       </c>
       <c r="B97" s="35" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="20" t="s">
         <v>1271</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>1272</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="31"/>
@@ -15758,13 +15757,13 @@
         <v>309</v>
       </c>
       <c r="B98" s="36" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" s="20" t="s">
         <v>1273</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>1274</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="31"/>
@@ -15774,13 +15773,13 @@
         <v>310</v>
       </c>
       <c r="B99" s="25" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" s="20" t="s">
         <v>1275</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>1276</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="31"/>
@@ -15790,13 +15789,13 @@
         <v>313</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="20" t="s">
         <v>1277</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>1278</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="31"/>
@@ -15806,7 +15805,7 @@
         <v>315</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -15820,17 +15819,17 @@
         <v>318</v>
       </c>
       <c r="B102" s="35" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="32" t="s">
         <v>1280</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D102" s="32" t="s">
-        <v>1281</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="31" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="103" s="13" customFormat="1" ht="30" customHeight="1" spans="1:6">
@@ -15838,13 +15837,13 @@
         <v>320</v>
       </c>
       <c r="B103" s="35" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="32" t="s">
         <v>1283</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>1284</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="31"/>
@@ -15854,13 +15853,13 @@
         <v>323</v>
       </c>
       <c r="B104" s="25" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="32" t="s">
         <v>1285</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>1286</v>
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="31"/>
@@ -15870,13 +15869,13 @@
         <v>325</v>
       </c>
       <c r="B105" s="25" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D105" s="32" t="s">
         <v>1287</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D105" s="32" t="s">
-        <v>1288</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="31"/>
@@ -15886,16 +15885,16 @@
         <v>327</v>
       </c>
       <c r="B106" s="25" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106" s="32" t="s">
         <v>1289</v>
       </c>
-      <c r="C106" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D106" s="32" t="s">
+      <c r="E106" s="32" t="s">
         <v>1290</v>
-      </c>
-      <c r="E106" s="32" t="s">
-        <v>1291</v>
       </c>
       <c r="F106" s="31"/>
     </row>
@@ -15904,16 +15903,16 @@
         <v>330</v>
       </c>
       <c r="B107" s="26" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" s="32" t="s">
         <v>1292</v>
       </c>
-      <c r="C107" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D107" s="32" t="s">
+      <c r="E107" s="31" t="s">
         <v>1293</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>1294</v>
       </c>
       <c r="F107" s="24"/>
     </row>
@@ -15922,13 +15921,13 @@
         <v>332</v>
       </c>
       <c r="B108" s="26" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" s="32" t="s">
         <v>1295</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D108" s="32" t="s">
-        <v>1296</v>
       </c>
       <c r="E108" s="31"/>
       <c r="F108" s="24"/>
@@ -15938,13 +15937,13 @@
         <v>333</v>
       </c>
       <c r="B109" s="26" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="32" t="s">
         <v>1297</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D109" s="32" t="s">
-        <v>1298</v>
       </c>
       <c r="E109" s="31"/>
       <c r="F109" s="24"/>
@@ -15954,7 +15953,7 @@
         <v>336</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>195</v>
@@ -15970,7 +15969,7 @@
         <v>337</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>195</v>
@@ -15986,7 +15985,7 @@
         <v>338</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>195</v>
@@ -16002,7 +16001,7 @@
         <v>340</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>195</v>
@@ -16012,7 +16011,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="114" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16020,7 +16019,7 @@
         <v>341</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>195</v>
@@ -16036,7 +16035,7 @@
         <v>342</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>195</v>
@@ -16052,7 +16051,7 @@
         <v>344</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>195</v>
@@ -16068,7 +16067,7 @@
         <v>345</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>195</v>
@@ -16084,7 +16083,7 @@
         <v>346</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>195</v>
@@ -16100,7 +16099,7 @@
         <v>349</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>195</v>
@@ -16116,7 +16115,7 @@
         <v>587</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>195</v>
@@ -16132,7 +16131,7 @@
         <v>590</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>195</v>
@@ -16148,7 +16147,7 @@
         <v>593</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>195</v>
@@ -16164,7 +16163,7 @@
         <v>596</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>195</v>
@@ -16180,7 +16179,7 @@
         <v>599</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>195</v>
@@ -16196,7 +16195,7 @@
         <v>600</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>195</v>
@@ -16212,7 +16211,7 @@
         <v>602</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>195</v>
@@ -16228,7 +16227,7 @@
         <v>605</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>195</v>
@@ -16244,7 +16243,7 @@
         <v>608</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>195</v>
@@ -16260,7 +16259,7 @@
         <v>611</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>195</v>
@@ -16276,7 +16275,7 @@
         <v>614</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>195</v>
@@ -16292,7 +16291,7 @@
         <v>615</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>195</v>
@@ -16308,7 +16307,7 @@
         <v>617</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>195</v>
@@ -16324,7 +16323,7 @@
         <v>620</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>195</v>
@@ -16340,7 +16339,7 @@
         <v>623</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>195</v>
@@ -16356,7 +16355,7 @@
         <v>626</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>195</v>
@@ -16372,7 +16371,7 @@
         <v>629</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>195</v>
@@ -16388,7 +16387,7 @@
         <v>632</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>195</v>
@@ -16404,7 +16403,7 @@
         <v>635</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>195</v>
@@ -16420,7 +16419,7 @@
         <v>638</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>195</v>
@@ -16436,7 +16435,7 @@
         <v>641</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>195</v>
@@ -16452,7 +16451,7 @@
         <v>644</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>195</v>
@@ -16468,7 +16467,7 @@
         <v>647</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -16482,7 +16481,7 @@
         <v>650</v>
       </c>
       <c r="B143" s="37" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>195</v>
@@ -16494,7 +16493,7 @@
         <v>335</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="144" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16502,7 +16501,7 @@
         <v>653</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>195</v>
@@ -16520,7 +16519,7 @@
         <v>656</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>195</v>
@@ -16538,7 +16537,7 @@
         <v>659</v>
       </c>
       <c r="B146" s="37" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>195</v>
@@ -16556,7 +16555,7 @@
         <v>662</v>
       </c>
       <c r="B147" s="37" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C147" s="20" t="s">
         <v>195</v>
@@ -16574,7 +16573,7 @@
         <v>665</v>
       </c>
       <c r="B148" s="37" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>195</v>
@@ -16592,7 +16591,7 @@
         <v>668</v>
       </c>
       <c r="B149" s="37" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>195</v>
@@ -16610,7 +16609,7 @@
         <v>671</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>195</v>
@@ -16628,7 +16627,7 @@
         <v>674</v>
       </c>
       <c r="B151" s="37" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>195</v>
@@ -16646,7 +16645,7 @@
         <v>677</v>
       </c>
       <c r="B152" s="37" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>195</v>
@@ -16658,7 +16657,7 @@
         <v>52</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="153" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16666,7 +16665,7 @@
         <v>680</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>195</v>
@@ -16684,7 +16683,7 @@
         <v>683</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C154" s="20" t="s">
         <v>195</v>
@@ -16702,7 +16701,7 @@
         <v>686</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C155" s="20" t="s">
         <v>195</v>
@@ -16718,7 +16717,7 @@
         <v>689</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C156" s="20" t="s">
         <v>195</v>
@@ -16734,7 +16733,7 @@
         <v>692</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C157" s="20" t="s">
         <v>195</v>
@@ -16750,7 +16749,7 @@
         <v>367</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C158" s="20" t="s">
         <v>195</v>
@@ -16766,7 +16765,7 @@
         <v>369</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C159" s="20" t="s">
         <v>195</v>
@@ -16782,7 +16781,7 @@
         <v>371</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C160" s="20" t="s">
         <v>195</v>
@@ -16792,7 +16791,7 @@
       </c>
       <c r="E160" s="32"/>
       <c r="F160" s="31" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="161" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16800,7 +16799,7 @@
         <v>373</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C161" s="20" t="s">
         <v>195</v>
@@ -16816,7 +16815,7 @@
         <v>376</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>195</v>
@@ -16832,7 +16831,7 @@
         <v>379</v>
       </c>
       <c r="B163" s="37" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C163" s="20" t="s">
         <v>195</v>
@@ -16860,7 +16859,7 @@
         <v>383</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>195</v>
@@ -16878,7 +16877,7 @@
         <v>386</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C166" s="20" t="s">
         <v>195</v>
@@ -16894,7 +16893,7 @@
         <v>388</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C167" s="20" t="s">
         <v>195</v>
@@ -16910,7 +16909,7 @@
         <v>390</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>195</v>
@@ -16926,7 +16925,7 @@
         <v>393</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>195</v>
@@ -16942,7 +16941,7 @@
         <v>395</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C170" s="20" t="s">
         <v>195</v>
@@ -16958,7 +16957,7 @@
         <v>398</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C171" s="20" t="s">
         <v>195</v>
@@ -17024,13 +17023,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -17038,7 +17037,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>58</v>
@@ -17049,10 +17048,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -17060,7 +17059,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -17071,7 +17070,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>75</v>
@@ -17082,7 +17081,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>79</v>
@@ -17093,7 +17092,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>90</v>
@@ -17104,7 +17103,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>93</v>
@@ -17115,7 +17114,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>96</v>
@@ -17126,7 +17125,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -17137,7 +17136,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>107</v>
@@ -17148,7 +17147,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>111</v>
@@ -17159,7 +17158,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>115</v>
@@ -17170,7 +17169,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>119</v>
@@ -17181,7 +17180,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>123</v>
@@ -17192,7 +17191,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>127</v>
@@ -17203,7 +17202,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>131</v>
@@ -17214,7 +17213,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>135</v>
@@ -17225,7 +17224,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>138</v>
@@ -17236,10 +17235,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -17247,10 +17246,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -17258,7 +17257,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>142</v>
@@ -17269,7 +17268,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>145</v>
@@ -17280,7 +17279,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>149</v>
@@ -17291,7 +17290,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>152</v>
@@ -17302,7 +17301,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>156</v>
@@ -17313,7 +17312,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>159</v>
@@ -17324,7 +17323,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>162</v>
@@ -17335,10 +17334,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -17346,10 +17345,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17357,10 +17356,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -17368,7 +17367,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>166</v>
@@ -17379,7 +17378,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>170</v>
@@ -17390,7 +17389,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>174</v>
@@ -17401,7 +17400,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>178</v>
@@ -17412,7 +17411,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>182</v>
@@ -17423,7 +17422,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>186</v>
@@ -17434,7 +17433,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>189</v>
@@ -17445,10 +17444,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -17456,10 +17455,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -17467,10 +17466,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -17478,10 +17477,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -17489,10 +17488,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -17500,7 +17499,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>192</v>
@@ -17511,7 +17510,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>196</v>
@@ -17522,7 +17521,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>201</v>
@@ -17533,7 +17532,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>206</v>
@@ -17544,7 +17543,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>227</v>
@@ -17555,7 +17554,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>232</v>
@@ -17566,7 +17565,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>236</v>
@@ -17577,7 +17576,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>240</v>
@@ -17588,10 +17587,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -17599,7 +17598,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>250</v>
@@ -17610,7 +17609,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>253</v>
@@ -17621,7 +17620,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>256</v>
@@ -17632,7 +17631,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>259</v>
@@ -17643,7 +17642,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>262</v>
@@ -17654,7 +17653,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>265</v>
@@ -17665,7 +17664,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>268</v>
@@ -17676,7 +17675,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>271</v>
@@ -17687,7 +17686,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>275</v>
@@ -17698,7 +17697,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>278</v>
@@ -17709,10 +17708,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -17720,10 +17719,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -17731,10 +17730,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -17742,10 +17741,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -17753,10 +17752,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -17764,10 +17763,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -17775,10 +17774,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -17786,10 +17785,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -17797,10 +17796,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17808,10 +17807,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -17819,10 +17818,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17830,10 +17829,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17841,10 +17840,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17852,10 +17851,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17863,10 +17862,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17874,10 +17873,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17885,10 +17884,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17896,10 +17895,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17907,10 +17906,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17918,10 +17917,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17929,10 +17928,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17940,10 +17939,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17951,10 +17950,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17962,10 +17961,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17973,10 +17972,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17984,10 +17983,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17995,10 +17994,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -18006,10 +18005,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -18017,10 +18016,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -18028,10 +18027,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -18039,7 +18038,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>325</v>
@@ -18050,7 +18049,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>327</v>
@@ -18061,7 +18060,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>330</v>
@@ -18072,7 +18071,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>332</v>
@@ -18083,7 +18082,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>333</v>
@@ -18094,7 +18093,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>336</v>
@@ -18105,7 +18104,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>337</v>
@@ -18116,7 +18115,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>338</v>
@@ -18127,7 +18126,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>340</v>
@@ -18138,7 +18137,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>341</v>
@@ -18149,7 +18148,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>342</v>
@@ -18160,7 +18159,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>344</v>
@@ -18171,7 +18170,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>345</v>
@@ -18182,7 +18181,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>346</v>
@@ -18193,7 +18192,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>349</v>
@@ -18204,7 +18203,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>587</v>
@@ -18215,7 +18214,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>590</v>
@@ -18226,7 +18225,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>593</v>
@@ -18237,7 +18236,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>596</v>
@@ -18248,7 +18247,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>599</v>
@@ -18259,7 +18258,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>600</v>
@@ -18270,7 +18269,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>602</v>
@@ -18281,7 +18280,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>605</v>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1478">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -2478,6 +2478,9 @@
     <t>347</t>
   </si>
   <si>
+    <t>upload tanpa sampul</t>
+  </si>
+  <si>
     <t>SOP kajian resep dan pemberian obat</t>
   </si>
   <si>
@@ -2485,9 +2488,6 @@
   </si>
   <si>
     <t>dibagi 2 a dan b EP04</t>
-  </si>
-  <si>
-    <t>upload tanpa sampul</t>
   </si>
   <si>
     <t>SOP pemberian informasi obat (PIO)</t>
@@ -4473,12 +4473,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4567,18 +4567,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -4587,9 +4575,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4604,13 +4627,57 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4627,7 +4694,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4641,20 +4708,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -4664,60 +4717,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4780,43 +4780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4834,13 +4804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4852,7 +4822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4864,7 +4834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4876,13 +4846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4906,7 +4870,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4918,13 +4936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4936,31 +4954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5074,6 +5074,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5113,6 +5122,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5131,166 +5151,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5471,10 +5471,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5538,7 +5538,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7710,8 +7710,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="G230" sqref="G230"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11262,7 +11262,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="216" ht="19.5" customHeight="1" spans="1:6">
+    <row r="216" ht="19.5" customHeight="1" spans="1:7">
       <c r="A216" s="46" t="s">
         <v>497</v>
       </c>
@@ -11279,28 +11279,31 @@
         <v>146</v>
       </c>
       <c r="F216" s="54"/>
+      <c r="G216" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="217" ht="19.5" customHeight="1" spans="1:7">
       <c r="A217" s="46" t="s">
         <v>499</v>
       </c>
       <c r="B217" s="63" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C217" s="46" t="s">
         <v>195</v>
       </c>
       <c r="D217" s="46" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E217" s="46" t="s">
         <v>146</v>
       </c>
       <c r="F217" s="68" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G217" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="218" ht="19.5" customHeight="1" spans="1:7">
@@ -11321,7 +11324,7 @@
       </c>
       <c r="F218" s="54"/>
       <c r="G218" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="219" ht="19.5" customHeight="1" spans="1:7">
@@ -11342,7 +11345,7 @@
       </c>
       <c r="F219" s="69"/>
       <c r="G219" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="220" ht="19.5" customHeight="1" spans="1:7">
@@ -11363,7 +11366,7 @@
       </c>
       <c r="F220" s="69"/>
       <c r="G220" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="221" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11526,7 +11529,7 @@
       <c r="E230" s="57"/>
       <c r="F230" s="69"/>
       <c r="G230" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="231" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11609,7 +11612,7 @@
       <c r="E235" s="57"/>
       <c r="F235" s="62"/>
     </row>
-    <row r="236" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="236" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A236" s="46" t="s">
         <v>539</v>
       </c>
@@ -11624,8 +11627,11 @@
       </c>
       <c r="E236" s="57"/>
       <c r="F236" s="62"/>
-    </row>
-    <row r="237" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+      <c r="G236" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="237" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A237" s="46" t="s">
         <v>541</v>
       </c>
@@ -11640,8 +11646,11 @@
       </c>
       <c r="E237" s="57"/>
       <c r="F237" s="62"/>
-    </row>
-    <row r="238" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+      <c r="G237" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="238" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A238" s="46" t="s">
         <v>543</v>
       </c>
@@ -11656,6 +11665,9 @@
       </c>
       <c r="E238" s="57"/>
       <c r="F238" s="62"/>
+      <c r="G238" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="239" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A239" s="46" t="s">
@@ -11759,7 +11771,7 @@
       <c r="E244" s="57"/>
       <c r="F244" s="69"/>
       <c r="G244" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="245" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -13584,7 +13596,7 @@
     </row>
     <row r="353" ht="19.5" customHeight="1" spans="1:6">
       <c r="A353" s="46" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B353" s="37" t="s">
         <v>1084</v>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="1478">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -4567,28 +4567,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4603,18 +4588,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4626,17 +4618,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4649,29 +4647,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4694,7 +4672,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4708,16 +4701,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4780,7 +4780,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4792,7 +4888,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4804,121 +4942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4930,37 +4954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5059,17 +5059,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5098,10 +5092,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5124,32 +5150,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -5159,138 +5159,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7710,8 +7710,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="G216" sqref="G216"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="G228" sqref="G228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11385,7 +11385,7 @@
       <c r="E221" s="57"/>
       <c r="F221" s="62"/>
     </row>
-    <row r="222" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="222" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A222" s="46" t="s">
         <v>509</v>
       </c>
@@ -11400,6 +11400,9 @@
       </c>
       <c r="E222" s="57"/>
       <c r="F222" s="62"/>
+      <c r="G222" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="223" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A223" s="46" t="s">
@@ -11417,7 +11420,7 @@
       <c r="E223" s="57"/>
       <c r="F223" s="62"/>
     </row>
-    <row r="224" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="224" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A224" s="46" t="s">
         <v>513</v>
       </c>
@@ -11432,8 +11435,11 @@
       </c>
       <c r="E224" s="57"/>
       <c r="F224" s="62"/>
-    </row>
-    <row r="225" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+      <c r="G224" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="225" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A225" s="46" t="s">
         <v>515</v>
       </c>
@@ -11448,6 +11454,9 @@
       </c>
       <c r="E225" s="57"/>
       <c r="F225" s="62"/>
+      <c r="G225" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="226" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A226" s="46" t="s">
@@ -11481,7 +11490,7 @@
       <c r="E227" s="57"/>
       <c r="F227" s="62"/>
     </row>
-    <row r="228" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="228" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A228" s="46" t="s">
         <v>521</v>
       </c>
@@ -11496,6 +11505,9 @@
       </c>
       <c r="E228" s="57"/>
       <c r="F228" s="62"/>
+      <c r="G228" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="229" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A229" s="46" t="s">
@@ -11580,7 +11592,7 @@
       <c r="E233" s="57"/>
       <c r="F233" s="62"/>
     </row>
-    <row r="234" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="234" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A234" s="46" t="s">
         <v>534</v>
       </c>
@@ -11595,6 +11607,9 @@
       </c>
       <c r="E234" s="57"/>
       <c r="F234" s="62"/>
+      <c r="G234" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="235" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A235" s="46" t="s">

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1478">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -4475,10 +4475,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
     <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4567,54 +4567,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4634,68 +4611,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4716,8 +4632,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4780,7 +4780,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4792,175 +4960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5059,11 +5059,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5073,6 +5079,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5088,21 +5105,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5124,10 +5126,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5159,138 +5159,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7710,8 +7710,8 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="G228" sqref="G228"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="G231" sqref="G231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11404,7 +11404,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="223" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="223" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A223" s="46" t="s">
         <v>511</v>
       </c>
@@ -11419,6 +11419,9 @@
       </c>
       <c r="E223" s="57"/>
       <c r="F223" s="62"/>
+      <c r="G223" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="224" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A224" s="46" t="s">
@@ -11509,7 +11512,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="229" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="229" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A229" s="46" t="s">
         <v>523</v>
       </c>
@@ -11524,6 +11527,9 @@
       </c>
       <c r="E229" s="57"/>
       <c r="F229" s="62"/>
+      <c r="G229" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="230" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A230" s="46" t="s">
@@ -11544,7 +11550,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="231" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="231" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A231" s="46" t="s">
         <v>527</v>
       </c>
@@ -11559,8 +11565,11 @@
       </c>
       <c r="E231" s="57"/>
       <c r="F231" s="62"/>
-    </row>
-    <row r="232" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+      <c r="G231" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="232" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A232" s="46" t="s">
         <v>529</v>
       </c>
@@ -11575,8 +11584,11 @@
       </c>
       <c r="E232" s="57"/>
       <c r="F232" s="62"/>
-    </row>
-    <row r="233" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+      <c r="G232" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="233" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A233" s="46" t="s">
         <v>531</v>
       </c>
@@ -11591,6 +11603,9 @@
       </c>
       <c r="E233" s="57"/>
       <c r="F233" s="62"/>
+      <c r="G233" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="234" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A234" s="46" t="s">
@@ -11736,7 +11751,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="242" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="242" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A242" s="46" t="s">
         <v>552</v>
       </c>
@@ -11751,6 +11766,9 @@
       </c>
       <c r="E242" s="57"/>
       <c r="F242" s="62"/>
+      <c r="G242" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="243" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A243" s="46" t="s">
@@ -11789,7 +11807,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="245" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="245" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A245" s="46" t="s">
         <v>558</v>
       </c>
@@ -11804,6 +11822,9 @@
       </c>
       <c r="E245" s="57"/>
       <c r="F245" s="62"/>
+      <c r="G245" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="246" ht="29.25" customHeight="1" spans="1:6">
       <c r="A246" s="46" t="s">

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="1477">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -2485,9 +2485,6 @@
   </si>
   <si>
     <t>348</t>
-  </si>
-  <si>
-    <t>dibagi 2 a dan b EP04</t>
   </si>
   <si>
     <t>SOP pemberian informasi obat (PIO)</t>
@@ -4473,12 +4470,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4581,17 +4578,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4610,6 +4607,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4617,8 +4630,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4632,78 +4661,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4716,6 +4675,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -4780,7 +4777,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4792,7 +4807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4804,7 +4819,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4816,79 +4927,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4900,67 +4951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5078,7 +5075,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5110,30 +5122,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -5156,137 +5144,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7711,7 +7708,7 @@
   <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="G231" sqref="G231"/>
+      <selection activeCell="G222" sqref="G222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -11299,9 +11296,7 @@
       <c r="E217" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F217" s="68" t="s">
-        <v>819</v>
-      </c>
+      <c r="F217" s="68"/>
       <c r="G217" t="s">
         <v>816</v>
       </c>
@@ -11311,13 +11306,13 @@
         <v>501</v>
       </c>
       <c r="B218" s="63" t="s">
+        <v>819</v>
+      </c>
+      <c r="C218" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D218" s="46" t="s">
         <v>820</v>
-      </c>
-      <c r="C218" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D218" s="46" t="s">
-        <v>821</v>
       </c>
       <c r="E218" s="46" t="s">
         <v>146</v>
@@ -11332,13 +11327,13 @@
         <v>503</v>
       </c>
       <c r="B219" s="63" t="s">
+        <v>821</v>
+      </c>
+      <c r="C219" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D219" s="46" t="s">
         <v>822</v>
-      </c>
-      <c r="C219" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D219" s="46" t="s">
-        <v>823</v>
       </c>
       <c r="E219" s="46" t="s">
         <v>146</v>
@@ -11353,13 +11348,13 @@
         <v>505</v>
       </c>
       <c r="B220" s="63" t="s">
+        <v>823</v>
+      </c>
+      <c r="C220" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D220" s="46" t="s">
         <v>824</v>
-      </c>
-      <c r="C220" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D220" s="46" t="s">
-        <v>825</v>
       </c>
       <c r="E220" s="46" t="s">
         <v>146</v>
@@ -11369,34 +11364,37 @@
         <v>816</v>
       </c>
     </row>
-    <row r="221" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="221" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A221" s="46" t="s">
         <v>507</v>
       </c>
       <c r="B221" s="64" t="s">
+        <v>825</v>
+      </c>
+      <c r="C221" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D221" s="46" t="s">
         <v>826</v>
-      </c>
-      <c r="C221" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D221" s="46" t="s">
-        <v>827</v>
       </c>
       <c r="E221" s="57"/>
       <c r="F221" s="62"/>
+      <c r="G221" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="222" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A222" s="46" t="s">
         <v>509</v>
       </c>
       <c r="B222" s="64" t="s">
+        <v>827</v>
+      </c>
+      <c r="C222" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D222" s="46" t="s">
         <v>828</v>
-      </c>
-      <c r="C222" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D222" s="46" t="s">
-        <v>829</v>
       </c>
       <c r="E222" s="57"/>
       <c r="F222" s="62"/>
@@ -11409,13 +11407,13 @@
         <v>511</v>
       </c>
       <c r="B223" s="64" t="s">
+        <v>829</v>
+      </c>
+      <c r="C223" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D223" s="46" t="s">
         <v>830</v>
-      </c>
-      <c r="C223" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D223" s="46" t="s">
-        <v>831</v>
       </c>
       <c r="E223" s="57"/>
       <c r="F223" s="62"/>
@@ -11428,13 +11426,13 @@
         <v>513</v>
       </c>
       <c r="B224" s="64" t="s">
+        <v>831</v>
+      </c>
+      <c r="C224" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D224" s="46" t="s">
         <v>832</v>
-      </c>
-      <c r="C224" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D224" s="46" t="s">
-        <v>833</v>
       </c>
       <c r="E224" s="57"/>
       <c r="F224" s="62"/>
@@ -11447,13 +11445,13 @@
         <v>515</v>
       </c>
       <c r="B225" s="64" t="s">
+        <v>833</v>
+      </c>
+      <c r="C225" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D225" s="46" t="s">
         <v>834</v>
-      </c>
-      <c r="C225" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D225" s="46" t="s">
-        <v>835</v>
       </c>
       <c r="E225" s="57"/>
       <c r="F225" s="62"/>
@@ -11466,45 +11464,48 @@
         <v>517</v>
       </c>
       <c r="B226" s="64" t="s">
+        <v>835</v>
+      </c>
+      <c r="C226" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D226" s="46" t="s">
         <v>836</v>
-      </c>
-      <c r="C226" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D226" s="46" t="s">
-        <v>837</v>
       </c>
       <c r="E226" s="57"/>
       <c r="F226" s="62"/>
     </row>
-    <row r="227" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="227" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A227" s="46" t="s">
         <v>519</v>
       </c>
       <c r="B227" s="64" t="s">
+        <v>837</v>
+      </c>
+      <c r="C227" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D227" s="46" t="s">
         <v>838</v>
-      </c>
-      <c r="C227" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D227" s="46" t="s">
-        <v>839</v>
       </c>
       <c r="E227" s="57"/>
       <c r="F227" s="62"/>
+      <c r="G227" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="228" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A228" s="46" t="s">
         <v>521</v>
       </c>
       <c r="B228" s="64" t="s">
+        <v>839</v>
+      </c>
+      <c r="C228" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D228" s="46" t="s">
         <v>840</v>
-      </c>
-      <c r="C228" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D228" s="46" t="s">
-        <v>841</v>
       </c>
       <c r="E228" s="57"/>
       <c r="F228" s="62"/>
@@ -11517,13 +11518,13 @@
         <v>523</v>
       </c>
       <c r="B229" s="64" t="s">
+        <v>841</v>
+      </c>
+      <c r="C229" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D229" s="46" t="s">
         <v>842</v>
-      </c>
-      <c r="C229" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D229" s="46" t="s">
-        <v>843</v>
       </c>
       <c r="E229" s="57"/>
       <c r="F229" s="62"/>
@@ -11536,13 +11537,13 @@
         <v>525</v>
       </c>
       <c r="B230" s="65" t="s">
+        <v>843</v>
+      </c>
+      <c r="C230" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D230" s="46" t="s">
         <v>844</v>
-      </c>
-      <c r="C230" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D230" s="46" t="s">
-        <v>845</v>
       </c>
       <c r="E230" s="57"/>
       <c r="F230" s="69"/>
@@ -11555,13 +11556,13 @@
         <v>527</v>
       </c>
       <c r="B231" s="64" t="s">
+        <v>845</v>
+      </c>
+      <c r="C231" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D231" s="46" t="s">
         <v>846</v>
-      </c>
-      <c r="C231" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D231" s="46" t="s">
-        <v>847</v>
       </c>
       <c r="E231" s="57"/>
       <c r="F231" s="62"/>
@@ -11574,13 +11575,13 @@
         <v>529</v>
       </c>
       <c r="B232" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="C232" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D232" s="46" t="s">
         <v>848</v>
-      </c>
-      <c r="C232" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D232" s="46" t="s">
-        <v>849</v>
       </c>
       <c r="E232" s="57"/>
       <c r="F232" s="62"/>
@@ -11593,13 +11594,13 @@
         <v>531</v>
       </c>
       <c r="B233" s="64" t="s">
+        <v>849</v>
+      </c>
+      <c r="C233" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D233" s="46" t="s">
         <v>850</v>
-      </c>
-      <c r="C233" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D233" s="46" t="s">
-        <v>851</v>
       </c>
       <c r="E233" s="57"/>
       <c r="F233" s="62"/>
@@ -11612,13 +11613,13 @@
         <v>534</v>
       </c>
       <c r="B234" s="64" t="s">
+        <v>851</v>
+      </c>
+      <c r="C234" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D234" s="46" t="s">
         <v>852</v>
-      </c>
-      <c r="C234" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D234" s="46" t="s">
-        <v>853</v>
       </c>
       <c r="E234" s="57"/>
       <c r="F234" s="62"/>
@@ -11626,34 +11627,37 @@
         <v>816</v>
       </c>
     </row>
-    <row r="235" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="235" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A235" s="46" t="s">
         <v>537</v>
       </c>
       <c r="B235" s="64" t="s">
+        <v>853</v>
+      </c>
+      <c r="C235" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D235" s="46" t="s">
         <v>854</v>
-      </c>
-      <c r="C235" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D235" s="46" t="s">
-        <v>855</v>
       </c>
       <c r="E235" s="57"/>
       <c r="F235" s="62"/>
+      <c r="G235" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="236" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A236" s="46" t="s">
         <v>539</v>
       </c>
       <c r="B236" s="66" t="s">
+        <v>855</v>
+      </c>
+      <c r="C236" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D236" s="46" t="s">
         <v>856</v>
-      </c>
-      <c r="C236" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D236" s="46" t="s">
-        <v>857</v>
       </c>
       <c r="E236" s="57"/>
       <c r="F236" s="62"/>
@@ -11666,13 +11670,13 @@
         <v>541</v>
       </c>
       <c r="B237" s="66" t="s">
+        <v>857</v>
+      </c>
+      <c r="C237" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D237" s="46" t="s">
         <v>858</v>
-      </c>
-      <c r="C237" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D237" s="46" t="s">
-        <v>859</v>
       </c>
       <c r="E237" s="57"/>
       <c r="F237" s="62"/>
@@ -11685,13 +11689,13 @@
         <v>543</v>
       </c>
       <c r="B238" s="66" t="s">
+        <v>859</v>
+      </c>
+      <c r="C238" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D238" s="46" t="s">
         <v>860</v>
-      </c>
-      <c r="C238" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D238" s="46" t="s">
-        <v>861</v>
       </c>
       <c r="E238" s="57"/>
       <c r="F238" s="62"/>
@@ -11699,38 +11703,41 @@
         <v>816</v>
       </c>
     </row>
-    <row r="239" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="239" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A239" s="46" t="s">
         <v>545</v>
       </c>
       <c r="B239" s="64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C239" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D239" s="46" t="s">
         <v>862</v>
-      </c>
-      <c r="C239" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D239" s="46" t="s">
-        <v>863</v>
       </c>
       <c r="E239" s="57"/>
       <c r="F239" s="62"/>
+      <c r="G239" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="240" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A240" s="46" t="s">
         <v>547</v>
       </c>
       <c r="B240" s="67" t="s">
+        <v>863</v>
+      </c>
+      <c r="C240" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D240" s="46" t="s">
         <v>864</v>
-      </c>
-      <c r="C240" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D240" s="46" t="s">
-        <v>865</v>
       </c>
       <c r="E240" s="57"/>
       <c r="F240" s="62" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="241" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -11738,17 +11745,17 @@
         <v>549</v>
       </c>
       <c r="B241" s="67" t="s">
+        <v>866</v>
+      </c>
+      <c r="C241" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D241" s="46" t="s">
         <v>867</v>
-      </c>
-      <c r="C241" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D241" s="46" t="s">
-        <v>868</v>
       </c>
       <c r="E241" s="57"/>
       <c r="F241" s="62" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="242" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
@@ -11756,13 +11763,13 @@
         <v>552</v>
       </c>
       <c r="B242" s="65" t="s">
+        <v>869</v>
+      </c>
+      <c r="C242" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D242" s="46" t="s">
         <v>870</v>
-      </c>
-      <c r="C242" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D242" s="46" t="s">
-        <v>871</v>
       </c>
       <c r="E242" s="57"/>
       <c r="F242" s="62"/>
@@ -11775,17 +11782,17 @@
         <v>554</v>
       </c>
       <c r="B243" s="63" t="s">
+        <v>871</v>
+      </c>
+      <c r="C243" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D243" s="46" t="s">
         <v>872</v>
-      </c>
-      <c r="C243" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D243" s="46" t="s">
-        <v>873</v>
       </c>
       <c r="E243" s="57"/>
       <c r="F243" s="69" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="244" s="40" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
@@ -11793,13 +11800,13 @@
         <v>556</v>
       </c>
       <c r="B244" s="65" t="s">
+        <v>874</v>
+      </c>
+      <c r="C244" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D244" s="46" t="s">
         <v>875</v>
-      </c>
-      <c r="C244" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D244" s="46" t="s">
-        <v>876</v>
       </c>
       <c r="E244" s="57"/>
       <c r="F244" s="69"/>
@@ -11812,13 +11819,13 @@
         <v>558</v>
       </c>
       <c r="B245" s="63" t="s">
+        <v>876</v>
+      </c>
+      <c r="C245" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D245" s="46" t="s">
         <v>877</v>
-      </c>
-      <c r="C245" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D245" s="46" t="s">
-        <v>878</v>
       </c>
       <c r="E245" s="57"/>
       <c r="F245" s="62"/>
@@ -11831,16 +11838,16 @@
         <v>560</v>
       </c>
       <c r="B246" s="37" t="s">
+        <v>878</v>
+      </c>
+      <c r="C246" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D246" s="46" t="s">
         <v>879</v>
       </c>
-      <c r="C246" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D246" s="46" t="s">
+      <c r="E246" s="70" t="s">
         <v>880</v>
-      </c>
-      <c r="E246" s="70" t="s">
-        <v>881</v>
       </c>
       <c r="F246" s="54"/>
     </row>
@@ -11849,13 +11856,13 @@
         <v>562</v>
       </c>
       <c r="B247" s="37" t="s">
+        <v>881</v>
+      </c>
+      <c r="C247" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D247" s="46" t="s">
         <v>882</v>
-      </c>
-      <c r="C247" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D247" s="46" t="s">
-        <v>883</v>
       </c>
       <c r="E247" s="70"/>
       <c r="F247" s="54"/>
@@ -11865,13 +11872,13 @@
         <v>564</v>
       </c>
       <c r="B248" s="37" t="s">
+        <v>883</v>
+      </c>
+      <c r="C248" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D248" s="46" t="s">
         <v>884</v>
-      </c>
-      <c r="C248" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D248" s="46" t="s">
-        <v>885</v>
       </c>
       <c r="E248" s="70"/>
       <c r="F248" s="54"/>
@@ -11881,13 +11888,13 @@
         <v>566</v>
       </c>
       <c r="B249" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="C249" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D249" s="46" t="s">
         <v>886</v>
-      </c>
-      <c r="C249" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D249" s="46" t="s">
-        <v>887</v>
       </c>
       <c r="E249" s="70"/>
       <c r="F249" s="54"/>
@@ -11897,13 +11904,13 @@
         <v>568</v>
       </c>
       <c r="B250" s="37" t="s">
+        <v>887</v>
+      </c>
+      <c r="C250" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D250" s="46" t="s">
         <v>888</v>
-      </c>
-      <c r="C250" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D250" s="46" t="s">
-        <v>889</v>
       </c>
       <c r="E250" s="70"/>
       <c r="F250" s="54"/>
@@ -11913,13 +11920,13 @@
         <v>570</v>
       </c>
       <c r="B251" s="37" t="s">
+        <v>889</v>
+      </c>
+      <c r="C251" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D251" s="46" t="s">
         <v>890</v>
-      </c>
-      <c r="C251" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D251" s="46" t="s">
-        <v>891</v>
       </c>
       <c r="E251" s="70"/>
       <c r="F251" s="54"/>
@@ -11929,7 +11936,7 @@
         <v>572</v>
       </c>
       <c r="B252" s="48" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C252" s="49"/>
       <c r="D252" s="46"/>
@@ -11943,7 +11950,7 @@
         <v>574</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C253" s="49"/>
       <c r="D253" s="46"/>
@@ -11957,19 +11964,19 @@
         <v>576</v>
       </c>
       <c r="B254" s="37" t="s">
+        <v>893</v>
+      </c>
+      <c r="C254" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D254" s="46" t="s">
         <v>894</v>
-      </c>
-      <c r="C254" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D254" s="46" t="s">
-        <v>895</v>
       </c>
       <c r="E254" s="51" t="s">
         <v>329</v>
       </c>
       <c r="F254" s="56" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="255" ht="19.5" customHeight="1" spans="1:6">
@@ -11977,13 +11984,13 @@
         <v>578</v>
       </c>
       <c r="B255" s="37" t="s">
+        <v>896</v>
+      </c>
+      <c r="C255" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D255" s="46" t="s">
         <v>897</v>
-      </c>
-      <c r="C255" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D255" s="46" t="s">
-        <v>898</v>
       </c>
       <c r="E255" s="51"/>
       <c r="F255" s="56"/>
@@ -11993,13 +12000,13 @@
         <v>580</v>
       </c>
       <c r="B256" s="37" t="s">
+        <v>898</v>
+      </c>
+      <c r="C256" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D256" s="46" t="s">
         <v>899</v>
-      </c>
-      <c r="C256" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D256" s="46" t="s">
-        <v>900</v>
       </c>
       <c r="E256" s="51"/>
       <c r="F256" s="56"/>
@@ -12009,13 +12016,13 @@
         <v>582</v>
       </c>
       <c r="B257" s="37" t="s">
+        <v>900</v>
+      </c>
+      <c r="C257" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D257" s="46" t="s">
         <v>901</v>
-      </c>
-      <c r="C257" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D257" s="46" t="s">
-        <v>902</v>
       </c>
       <c r="E257" s="46" t="s">
         <v>329</v>
@@ -12027,13 +12034,13 @@
         <v>584</v>
       </c>
       <c r="B258" s="37" t="s">
+        <v>902</v>
+      </c>
+      <c r="C258" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D258" s="46" t="s">
         <v>903</v>
-      </c>
-      <c r="C258" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D258" s="46" t="s">
-        <v>904</v>
       </c>
       <c r="E258" s="46" t="s">
         <v>329</v>
@@ -12045,13 +12052,13 @@
         <v>586</v>
       </c>
       <c r="B259" s="37" t="s">
+        <v>904</v>
+      </c>
+      <c r="C259" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D259" s="46" t="s">
         <v>905</v>
-      </c>
-      <c r="C259" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D259" s="46" t="s">
-        <v>906</v>
       </c>
       <c r="E259" s="46" t="s">
         <v>329</v>
@@ -12063,13 +12070,13 @@
         <v>589</v>
       </c>
       <c r="B260" s="37" t="s">
+        <v>906</v>
+      </c>
+      <c r="C260" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D260" s="46" t="s">
         <v>907</v>
-      </c>
-      <c r="C260" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D260" s="46" t="s">
-        <v>908</v>
       </c>
       <c r="E260" s="46" t="s">
         <v>329</v>
@@ -12081,13 +12088,13 @@
         <v>592</v>
       </c>
       <c r="B261" s="37" t="s">
+        <v>908</v>
+      </c>
+      <c r="C261" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D261" s="46" t="s">
         <v>909</v>
-      </c>
-      <c r="C261" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D261" s="46" t="s">
-        <v>910</v>
       </c>
       <c r="E261" s="46" t="s">
         <v>329</v>
@@ -12099,13 +12106,13 @@
         <v>595</v>
       </c>
       <c r="B262" s="37" t="s">
+        <v>910</v>
+      </c>
+      <c r="C262" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D262" s="46" t="s">
         <v>911</v>
-      </c>
-      <c r="C262" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D262" s="46" t="s">
-        <v>912</v>
       </c>
       <c r="E262" s="46" t="s">
         <v>329</v>
@@ -12117,13 +12124,13 @@
         <v>598</v>
       </c>
       <c r="B263" s="37" t="s">
+        <v>912</v>
+      </c>
+      <c r="C263" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D263" s="46" t="s">
         <v>913</v>
-      </c>
-      <c r="C263" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D263" s="46" t="s">
-        <v>914</v>
       </c>
       <c r="E263" s="46" t="s">
         <v>329</v>
@@ -12135,13 +12142,13 @@
         <v>604</v>
       </c>
       <c r="B264" s="37" t="s">
+        <v>914</v>
+      </c>
+      <c r="C264" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D264" s="46" t="s">
         <v>915</v>
-      </c>
-      <c r="C264" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D264" s="46" t="s">
-        <v>916</v>
       </c>
       <c r="E264" s="46"/>
       <c r="F264" s="54"/>
@@ -12151,13 +12158,13 @@
         <v>607</v>
       </c>
       <c r="B265" s="37" t="s">
+        <v>916</v>
+      </c>
+      <c r="C265" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D265" s="46" t="s">
         <v>917</v>
-      </c>
-      <c r="C265" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D265" s="46" t="s">
-        <v>918</v>
       </c>
       <c r="E265" s="46"/>
       <c r="F265" s="54"/>
@@ -12167,13 +12174,13 @@
         <v>610</v>
       </c>
       <c r="B266" s="37" t="s">
+        <v>918</v>
+      </c>
+      <c r="C266" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D266" s="46" t="s">
         <v>919</v>
-      </c>
-      <c r="C266" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D266" s="46" t="s">
-        <v>920</v>
       </c>
       <c r="E266" s="46"/>
       <c r="F266" s="54"/>
@@ -12183,13 +12190,13 @@
         <v>613</v>
       </c>
       <c r="B267" s="37" t="s">
+        <v>920</v>
+      </c>
+      <c r="C267" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D267" s="46" t="s">
         <v>921</v>
-      </c>
-      <c r="C267" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D267" s="46" t="s">
-        <v>922</v>
       </c>
       <c r="E267" s="46"/>
       <c r="F267" s="54"/>
@@ -12199,13 +12206,13 @@
         <v>619</v>
       </c>
       <c r="B268" s="37" t="s">
+        <v>922</v>
+      </c>
+      <c r="C268" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D268" s="46" t="s">
         <v>923</v>
-      </c>
-      <c r="C268" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D268" s="46" t="s">
-        <v>924</v>
       </c>
       <c r="E268" s="46"/>
       <c r="F268" s="54"/>
@@ -12215,13 +12222,13 @@
         <v>622</v>
       </c>
       <c r="B269" s="37" t="s">
+        <v>924</v>
+      </c>
+      <c r="C269" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D269" s="46" t="s">
         <v>925</v>
-      </c>
-      <c r="C269" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D269" s="46" t="s">
-        <v>926</v>
       </c>
       <c r="E269" s="46"/>
       <c r="F269" s="54"/>
@@ -12231,13 +12238,13 @@
         <v>625</v>
       </c>
       <c r="B270" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="C270" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D270" s="46" t="s">
         <v>927</v>
-      </c>
-      <c r="C270" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D270" s="46" t="s">
-        <v>928</v>
       </c>
       <c r="E270" s="46"/>
       <c r="F270" s="54"/>
@@ -12247,13 +12254,13 @@
         <v>628</v>
       </c>
       <c r="B271" s="37" t="s">
+        <v>928</v>
+      </c>
+      <c r="C271" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D271" s="46" t="s">
         <v>929</v>
-      </c>
-      <c r="C271" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D271" s="46" t="s">
-        <v>930</v>
       </c>
       <c r="E271" s="46"/>
       <c r="F271" s="54"/>
@@ -12263,13 +12270,13 @@
         <v>631</v>
       </c>
       <c r="B272" s="37" t="s">
+        <v>930</v>
+      </c>
+      <c r="C272" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D272" s="46" t="s">
         <v>931</v>
-      </c>
-      <c r="C272" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D272" s="46" t="s">
-        <v>932</v>
       </c>
       <c r="E272" s="46"/>
       <c r="F272" s="54"/>
@@ -12279,13 +12286,13 @@
         <v>634</v>
       </c>
       <c r="B273" s="37" t="s">
+        <v>932</v>
+      </c>
+      <c r="C273" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D273" s="46" t="s">
         <v>933</v>
-      </c>
-      <c r="C273" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D273" s="46" t="s">
-        <v>934</v>
       </c>
       <c r="E273" s="46"/>
       <c r="F273" s="54"/>
@@ -12295,13 +12302,13 @@
         <v>637</v>
       </c>
       <c r="B274" s="37" t="s">
+        <v>934</v>
+      </c>
+      <c r="C274" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D274" s="46" t="s">
         <v>935</v>
-      </c>
-      <c r="C274" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D274" s="46" t="s">
-        <v>936</v>
       </c>
       <c r="E274" s="46"/>
       <c r="F274" s="54"/>
@@ -12311,13 +12318,13 @@
         <v>640</v>
       </c>
       <c r="B275" s="37" t="s">
+        <v>936</v>
+      </c>
+      <c r="C275" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D275" s="46" t="s">
         <v>937</v>
-      </c>
-      <c r="C275" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D275" s="46" t="s">
-        <v>938</v>
       </c>
       <c r="E275" s="46"/>
       <c r="F275" s="54"/>
@@ -12327,13 +12334,13 @@
         <v>643</v>
       </c>
       <c r="B276" s="37" t="s">
+        <v>938</v>
+      </c>
+      <c r="C276" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D276" s="46" t="s">
         <v>939</v>
-      </c>
-      <c r="C276" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D276" s="46" t="s">
-        <v>940</v>
       </c>
       <c r="E276" s="46"/>
       <c r="F276" s="54"/>
@@ -12343,13 +12350,13 @@
         <v>646</v>
       </c>
       <c r="B277" s="37" t="s">
+        <v>940</v>
+      </c>
+      <c r="C277" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D277" s="46" t="s">
         <v>941</v>
-      </c>
-      <c r="C277" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D277" s="46" t="s">
-        <v>942</v>
       </c>
       <c r="E277" s="46"/>
       <c r="F277" s="54"/>
@@ -12359,13 +12366,13 @@
         <v>649</v>
       </c>
       <c r="B278" s="37" t="s">
+        <v>942</v>
+      </c>
+      <c r="C278" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D278" s="46" t="s">
         <v>943</v>
-      </c>
-      <c r="C278" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D278" s="46" t="s">
-        <v>944</v>
       </c>
       <c r="E278" s="46"/>
       <c r="F278" s="54"/>
@@ -12375,13 +12382,13 @@
         <v>652</v>
       </c>
       <c r="B279" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="C279" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D279" s="46" t="s">
         <v>945</v>
-      </c>
-      <c r="C279" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D279" s="46" t="s">
-        <v>946</v>
       </c>
       <c r="E279" s="46"/>
       <c r="F279" s="54"/>
@@ -12391,13 +12398,13 @@
         <v>655</v>
       </c>
       <c r="B280" s="37" t="s">
+        <v>946</v>
+      </c>
+      <c r="C280" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D280" s="46" t="s">
         <v>947</v>
-      </c>
-      <c r="C280" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D280" s="46" t="s">
-        <v>948</v>
       </c>
       <c r="E280" s="46"/>
       <c r="F280" s="54"/>
@@ -12407,13 +12414,13 @@
         <v>658</v>
       </c>
       <c r="B281" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="C281" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D281" s="46" t="s">
         <v>949</v>
-      </c>
-      <c r="C281" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D281" s="46" t="s">
-        <v>950</v>
       </c>
       <c r="E281" s="46"/>
       <c r="F281" s="54"/>
@@ -12423,13 +12430,13 @@
         <v>661</v>
       </c>
       <c r="B282" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="C282" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D282" s="46" t="s">
         <v>951</v>
-      </c>
-      <c r="C282" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D282" s="46" t="s">
-        <v>952</v>
       </c>
       <c r="E282" s="46"/>
       <c r="F282" s="54"/>
@@ -12439,7 +12446,7 @@
         <v>664</v>
       </c>
       <c r="B283" s="48" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C283" s="49"/>
       <c r="D283" s="46"/>
@@ -12453,7 +12460,7 @@
         <v>667</v>
       </c>
       <c r="B284" s="48" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C284" s="49"/>
       <c r="D284" s="46"/>
@@ -12467,7 +12474,7 @@
         <v>670</v>
       </c>
       <c r="B285" s="48" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C285" s="49"/>
       <c r="D285" s="46"/>
@@ -12481,13 +12488,13 @@
         <v>673</v>
       </c>
       <c r="B286" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="C286" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D286" s="46" t="s">
         <v>955</v>
-      </c>
-      <c r="C286" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D286" s="46" t="s">
-        <v>956</v>
       </c>
       <c r="E286" s="57" t="s">
         <v>335</v>
@@ -12499,13 +12506,13 @@
         <v>676</v>
       </c>
       <c r="B287" s="37" t="s">
+        <v>956</v>
+      </c>
+      <c r="C287" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D287" s="46" t="s">
         <v>957</v>
-      </c>
-      <c r="C287" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D287" s="46" t="s">
-        <v>958</v>
       </c>
       <c r="E287" s="57" t="s">
         <v>335</v>
@@ -12517,13 +12524,13 @@
         <v>679</v>
       </c>
       <c r="B288" s="37" t="s">
+        <v>958</v>
+      </c>
+      <c r="C288" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D288" s="46" t="s">
         <v>959</v>
-      </c>
-      <c r="C288" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D288" s="46" t="s">
-        <v>960</v>
       </c>
       <c r="E288" s="57" t="s">
         <v>335</v>
@@ -12535,13 +12542,13 @@
         <v>682</v>
       </c>
       <c r="B289" s="37" t="s">
+        <v>960</v>
+      </c>
+      <c r="C289" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D289" s="46" t="s">
         <v>961</v>
-      </c>
-      <c r="C289" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D289" s="46" t="s">
-        <v>962</v>
       </c>
       <c r="E289" s="57" t="s">
         <v>335</v>
@@ -12553,13 +12560,13 @@
         <v>685</v>
       </c>
       <c r="B290" s="37" t="s">
+        <v>962</v>
+      </c>
+      <c r="C290" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D290" s="46" t="s">
         <v>963</v>
-      </c>
-      <c r="C290" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D290" s="46" t="s">
-        <v>964</v>
       </c>
       <c r="E290" s="57" t="s">
         <v>335</v>
@@ -12571,13 +12578,13 @@
         <v>688</v>
       </c>
       <c r="B291" s="37" t="s">
+        <v>964</v>
+      </c>
+      <c r="C291" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D291" s="46" t="s">
         <v>965</v>
-      </c>
-      <c r="C291" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D291" s="46" t="s">
-        <v>966</v>
       </c>
       <c r="E291" s="57" t="s">
         <v>335</v>
@@ -12589,13 +12596,13 @@
         <v>691</v>
       </c>
       <c r="B292" s="37" t="s">
+        <v>966</v>
+      </c>
+      <c r="C292" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D292" s="46" t="s">
         <v>967</v>
-      </c>
-      <c r="C292" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D292" s="46" t="s">
-        <v>968</v>
       </c>
       <c r="E292" s="57" t="s">
         <v>335</v>
@@ -12607,13 +12614,13 @@
         <v>694</v>
       </c>
       <c r="B293" s="37" t="s">
+        <v>968</v>
+      </c>
+      <c r="C293" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D293" s="46" t="s">
         <v>969</v>
-      </c>
-      <c r="C293" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D293" s="46" t="s">
-        <v>970</v>
       </c>
       <c r="E293" s="57" t="s">
         <v>335</v>
@@ -12625,13 +12632,13 @@
         <v>697</v>
       </c>
       <c r="B294" s="37" t="s">
+        <v>970</v>
+      </c>
+      <c r="C294" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D294" s="46" t="s">
         <v>971</v>
-      </c>
-      <c r="C294" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D294" s="46" t="s">
-        <v>972</v>
       </c>
       <c r="E294" s="57" t="s">
         <v>335</v>
@@ -12643,13 +12650,13 @@
         <v>699</v>
       </c>
       <c r="B295" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="C295" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D295" s="46" t="s">
         <v>973</v>
-      </c>
-      <c r="C295" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D295" s="46" t="s">
-        <v>974</v>
       </c>
       <c r="E295" s="57"/>
       <c r="F295" s="54"/>
@@ -12659,13 +12666,13 @@
         <v>702</v>
       </c>
       <c r="B296" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="C296" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D296" s="46" t="s">
         <v>975</v>
-      </c>
-      <c r="C296" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D296" s="46" t="s">
-        <v>976</v>
       </c>
       <c r="E296" s="57"/>
       <c r="F296" s="54"/>
@@ -12675,13 +12682,13 @@
         <v>704</v>
       </c>
       <c r="B297" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="C297" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D297" s="46" t="s">
         <v>977</v>
-      </c>
-      <c r="C297" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D297" s="46" t="s">
-        <v>978</v>
       </c>
       <c r="E297" s="57"/>
       <c r="F297" s="54"/>
@@ -12691,13 +12698,13 @@
         <v>706</v>
       </c>
       <c r="B298" s="37" t="s">
+        <v>978</v>
+      </c>
+      <c r="C298" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D298" s="46" t="s">
         <v>979</v>
-      </c>
-      <c r="C298" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D298" s="46" t="s">
-        <v>980</v>
       </c>
       <c r="E298" s="57"/>
       <c r="F298" s="54"/>
@@ -12707,13 +12714,13 @@
         <v>708</v>
       </c>
       <c r="B299" s="37" t="s">
+        <v>980</v>
+      </c>
+      <c r="C299" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D299" s="46" t="s">
         <v>981</v>
-      </c>
-      <c r="C299" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D299" s="46" t="s">
-        <v>982</v>
       </c>
       <c r="E299" s="57"/>
       <c r="F299" s="54"/>
@@ -12723,13 +12730,13 @@
         <v>710</v>
       </c>
       <c r="B300" s="37" t="s">
+        <v>982</v>
+      </c>
+      <c r="C300" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D300" s="46" t="s">
         <v>983</v>
-      </c>
-      <c r="C300" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D300" s="46" t="s">
-        <v>984</v>
       </c>
       <c r="E300" s="57"/>
       <c r="F300" s="54"/>
@@ -12739,13 +12746,13 @@
         <v>712</v>
       </c>
       <c r="B301" s="37" t="s">
+        <v>984</v>
+      </c>
+      <c r="C301" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D301" s="46" t="s">
         <v>985</v>
-      </c>
-      <c r="C301" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D301" s="46" t="s">
-        <v>986</v>
       </c>
       <c r="E301" s="57"/>
       <c r="F301" s="54"/>
@@ -12755,13 +12762,13 @@
         <v>714</v>
       </c>
       <c r="B302" s="37" t="s">
+        <v>986</v>
+      </c>
+      <c r="C302" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D302" s="46" t="s">
         <v>987</v>
-      </c>
-      <c r="C302" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D302" s="46" t="s">
-        <v>988</v>
       </c>
       <c r="E302" s="57"/>
       <c r="F302" s="54"/>
@@ -12771,13 +12778,13 @@
         <v>716</v>
       </c>
       <c r="B303" s="37" t="s">
+        <v>988</v>
+      </c>
+      <c r="C303" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D303" s="46" t="s">
         <v>989</v>
-      </c>
-      <c r="C303" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D303" s="46" t="s">
-        <v>990</v>
       </c>
       <c r="E303" s="57"/>
       <c r="F303" s="54"/>
@@ -12787,13 +12794,13 @@
         <v>718</v>
       </c>
       <c r="B304" s="37" t="s">
+        <v>990</v>
+      </c>
+      <c r="C304" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D304" s="46" t="s">
         <v>991</v>
-      </c>
-      <c r="C304" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D304" s="46" t="s">
-        <v>992</v>
       </c>
       <c r="E304" s="57"/>
       <c r="F304" s="54"/>
@@ -12803,13 +12810,13 @@
         <v>720</v>
       </c>
       <c r="B305" s="37" t="s">
+        <v>992</v>
+      </c>
+      <c r="C305" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D305" s="46" t="s">
         <v>993</v>
-      </c>
-      <c r="C305" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D305" s="46" t="s">
-        <v>994</v>
       </c>
       <c r="E305" s="57"/>
       <c r="F305" s="54"/>
@@ -12819,13 +12826,13 @@
         <v>722</v>
       </c>
       <c r="B306" s="37" t="s">
+        <v>994</v>
+      </c>
+      <c r="C306" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D306" s="46" t="s">
         <v>995</v>
-      </c>
-      <c r="C306" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D306" s="46" t="s">
-        <v>996</v>
       </c>
       <c r="E306" s="57"/>
       <c r="F306" s="54"/>
@@ -12835,13 +12842,13 @@
         <v>724</v>
       </c>
       <c r="B307" s="37" t="s">
+        <v>996</v>
+      </c>
+      <c r="C307" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D307" s="46" t="s">
         <v>997</v>
-      </c>
-      <c r="C307" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D307" s="46" t="s">
-        <v>998</v>
       </c>
       <c r="E307" s="57"/>
       <c r="F307" s="54"/>
@@ -12851,7 +12858,7 @@
         <v>726</v>
       </c>
       <c r="B308" s="48" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C308" s="49"/>
       <c r="D308" s="49"/>
@@ -12865,7 +12872,7 @@
         <v>728</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C309" s="49"/>
       <c r="D309" s="49"/>
@@ -12879,13 +12886,13 @@
         <v>730</v>
       </c>
       <c r="B310" s="37" t="s">
+        <v>998</v>
+      </c>
+      <c r="C310" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D310" s="46" t="s">
         <v>999</v>
-      </c>
-      <c r="C310" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D310" s="46" t="s">
-        <v>1000</v>
       </c>
       <c r="E310" s="57" t="s">
         <v>52</v>
@@ -12897,13 +12904,13 @@
         <v>732</v>
       </c>
       <c r="B311" s="37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C311" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D311" s="46" t="s">
         <v>1001</v>
-      </c>
-      <c r="C311" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D311" s="46" t="s">
-        <v>1002</v>
       </c>
       <c r="E311" s="57" t="s">
         <v>52</v>
@@ -12915,13 +12922,13 @@
         <v>734</v>
       </c>
       <c r="B312" s="37" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C312" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D312" s="46" t="s">
         <v>1003</v>
-      </c>
-      <c r="C312" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D312" s="46" t="s">
-        <v>1004</v>
       </c>
       <c r="E312" s="57" t="s">
         <v>52</v>
@@ -12933,13 +12940,13 @@
         <v>736</v>
       </c>
       <c r="B313" s="37" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C313" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D313" s="46" t="s">
         <v>1005</v>
-      </c>
-      <c r="C313" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D313" s="46" t="s">
-        <v>1006</v>
       </c>
       <c r="E313" s="57" t="s">
         <v>52</v>
@@ -12951,13 +12958,13 @@
         <v>738</v>
       </c>
       <c r="B314" s="37" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C314" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D314" s="46" t="s">
         <v>1007</v>
-      </c>
-      <c r="C314" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D314" s="46" t="s">
-        <v>1008</v>
       </c>
       <c r="E314" s="57" t="s">
         <v>52</v>
@@ -12969,13 +12976,13 @@
         <v>740</v>
       </c>
       <c r="B315" s="37" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C315" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D315" s="46" t="s">
         <v>1009</v>
-      </c>
-      <c r="C315" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D315" s="46" t="s">
-        <v>1010</v>
       </c>
       <c r="E315" s="57" t="s">
         <v>52</v>
@@ -12987,13 +12994,13 @@
         <v>742</v>
       </c>
       <c r="B316" s="37" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C316" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D316" s="46" t="s">
         <v>1011</v>
-      </c>
-      <c r="C316" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D316" s="46" t="s">
-        <v>1012</v>
       </c>
       <c r="E316" s="57" t="s">
         <v>52</v>
@@ -13005,13 +13012,13 @@
         <v>744</v>
       </c>
       <c r="B317" s="37" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C317" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D317" s="46" t="s">
         <v>1013</v>
-      </c>
-      <c r="C317" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D317" s="46" t="s">
-        <v>1014</v>
       </c>
       <c r="E317" s="57" t="s">
         <v>52</v>
@@ -13023,7 +13030,7 @@
         <v>746</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C318" s="49"/>
       <c r="D318" s="49"/>
@@ -13037,7 +13044,7 @@
         <v>748</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C319" s="49"/>
       <c r="D319" s="49"/>
@@ -13051,7 +13058,7 @@
         <v>750</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C320" s="49"/>
       <c r="D320" s="49"/>
@@ -13065,13 +13072,13 @@
         <v>752</v>
       </c>
       <c r="B321" s="71" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C321" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D321" s="46" t="s">
         <v>1015</v>
-      </c>
-      <c r="C321" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D321" s="46" t="s">
-        <v>1016</v>
       </c>
       <c r="E321" s="57" t="s">
         <v>167</v>
@@ -13083,13 +13090,13 @@
         <v>754</v>
       </c>
       <c r="B322" s="37" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C322" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D322" s="46" t="s">
         <v>1017</v>
-      </c>
-      <c r="C322" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D322" s="46" t="s">
-        <v>1018</v>
       </c>
       <c r="E322" s="57" t="s">
         <v>167</v>
@@ -13101,13 +13108,13 @@
         <v>756</v>
       </c>
       <c r="B323" s="37" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C323" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D323" s="46" t="s">
         <v>1019</v>
-      </c>
-      <c r="C323" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D323" s="46" t="s">
-        <v>1020</v>
       </c>
       <c r="E323" s="57" t="s">
         <v>167</v>
@@ -13119,7 +13126,7 @@
         <v>758</v>
       </c>
       <c r="B324" s="48" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C324" s="49"/>
       <c r="D324" s="49"/>
@@ -13133,13 +13140,13 @@
         <v>760</v>
       </c>
       <c r="B325" s="37" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C325" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D325" s="46" t="s">
         <v>1021</v>
-      </c>
-      <c r="C325" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D325" s="46" t="s">
-        <v>1022</v>
       </c>
       <c r="E325" s="46" t="s">
         <v>171</v>
@@ -13151,13 +13158,13 @@
         <v>762</v>
       </c>
       <c r="B326" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C326" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D326" s="46" t="s">
         <v>1023</v>
-      </c>
-      <c r="C326" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D326" s="46" t="s">
-        <v>1024</v>
       </c>
       <c r="E326" s="46" t="s">
         <v>175</v>
@@ -13169,13 +13176,13 @@
         <v>764</v>
       </c>
       <c r="B327" s="37" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C327" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D327" s="46" t="s">
         <v>1025</v>
-      </c>
-      <c r="C327" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D327" s="46" t="s">
-        <v>1026</v>
       </c>
       <c r="E327" s="46" t="s">
         <v>179</v>
@@ -13187,13 +13194,13 @@
         <v>766</v>
       </c>
       <c r="B328" s="37" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C328" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D328" s="46" t="s">
         <v>1027</v>
-      </c>
-      <c r="C328" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D328" s="46" t="s">
-        <v>1028</v>
       </c>
       <c r="E328" s="46" t="s">
         <v>179</v>
@@ -13205,16 +13212,16 @@
         <v>768</v>
       </c>
       <c r="B329" s="37" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C329" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D329" s="46" t="s">
         <v>1029</v>
       </c>
-      <c r="C329" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D329" s="46" t="s">
+      <c r="E329" s="46" t="s">
         <v>1030</v>
-      </c>
-      <c r="E329" s="46" t="s">
-        <v>1031</v>
       </c>
       <c r="F329" s="54"/>
     </row>
@@ -13223,16 +13230,16 @@
         <v>770</v>
       </c>
       <c r="B330" s="37" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C330" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D330" s="46" t="s">
         <v>1032</v>
       </c>
-      <c r="C330" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D330" s="46" t="s">
+      <c r="E330" s="46" t="s">
         <v>1033</v>
-      </c>
-      <c r="E330" s="46" t="s">
-        <v>1034</v>
       </c>
       <c r="F330" s="54"/>
     </row>
@@ -13241,16 +13248,16 @@
         <v>772</v>
       </c>
       <c r="B331" s="37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C331" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D331" s="46" t="s">
         <v>1035</v>
       </c>
-      <c r="C331" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D331" s="46" t="s">
+      <c r="E331" s="46" t="s">
         <v>1036</v>
-      </c>
-      <c r="E331" s="46" t="s">
-        <v>1037</v>
       </c>
       <c r="F331" s="54"/>
     </row>
@@ -13259,16 +13266,16 @@
         <v>774</v>
       </c>
       <c r="B332" s="37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C332" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D332" s="46" t="s">
         <v>1038</v>
       </c>
-      <c r="C332" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D332" s="46" t="s">
+      <c r="E332" s="46" t="s">
         <v>1039</v>
-      </c>
-      <c r="E332" s="46" t="s">
-        <v>1040</v>
       </c>
       <c r="F332" s="54"/>
     </row>
@@ -13277,16 +13284,16 @@
         <v>776</v>
       </c>
       <c r="B333" s="37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C333" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D333" s="46" t="s">
         <v>1041</v>
       </c>
-      <c r="C333" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D333" s="46" t="s">
-        <v>1042</v>
-      </c>
       <c r="E333" s="46" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F333" s="54"/>
     </row>
@@ -13295,16 +13302,16 @@
         <v>778</v>
       </c>
       <c r="B334" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C334" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D334" s="46" t="s">
         <v>1043</v>
       </c>
-      <c r="C334" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D334" s="46" t="s">
+      <c r="E334" s="46" t="s">
         <v>1044</v>
-      </c>
-      <c r="E334" s="46" t="s">
-        <v>1045</v>
       </c>
       <c r="F334" s="54"/>
     </row>
@@ -13313,16 +13320,16 @@
         <v>780</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C335" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D335" s="46" t="s">
         <v>1046</v>
       </c>
-      <c r="C335" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D335" s="46" t="s">
-        <v>1047</v>
-      </c>
       <c r="E335" s="46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F335" s="54"/>
     </row>
@@ -13331,16 +13338,16 @@
         <v>782</v>
       </c>
       <c r="B336" s="37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C336" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D336" s="46" t="s">
         <v>1048</v>
       </c>
-      <c r="C336" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D336" s="46" t="s">
-        <v>1049</v>
-      </c>
       <c r="E336" s="46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F336" s="54"/>
     </row>
@@ -13349,13 +13356,13 @@
         <v>784</v>
       </c>
       <c r="B337" s="37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C337" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D337" s="46" t="s">
         <v>1050</v>
-      </c>
-      <c r="C337" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D337" s="46" t="s">
-        <v>1051</v>
       </c>
       <c r="E337" s="46" t="s">
         <v>183</v>
@@ -13367,13 +13374,13 @@
         <v>786</v>
       </c>
       <c r="B338" s="37" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C338" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D338" s="46" t="s">
         <v>1052</v>
-      </c>
-      <c r="C338" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D338" s="46" t="s">
-        <v>1053</v>
       </c>
       <c r="E338" s="46" t="s">
         <v>183</v>
@@ -13385,7 +13392,7 @@
         <v>788</v>
       </c>
       <c r="B339" s="48" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C339" s="49"/>
       <c r="D339" s="49"/>
@@ -13399,16 +13406,16 @@
         <v>790</v>
       </c>
       <c r="B340" s="37" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C340" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D340" s="46" t="s">
         <v>1055</v>
       </c>
-      <c r="C340" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D340" s="46" t="s">
+      <c r="E340" s="46" t="s">
         <v>1056</v>
-      </c>
-      <c r="E340" s="46" t="s">
-        <v>1057</v>
       </c>
       <c r="F340" s="54"/>
     </row>
@@ -13417,16 +13424,16 @@
         <v>792</v>
       </c>
       <c r="B341" s="37" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C341" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D341" s="46" t="s">
         <v>1058</v>
       </c>
-      <c r="C341" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D341" s="46" t="s">
-        <v>1059</v>
-      </c>
       <c r="E341" s="46" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F341" s="54"/>
     </row>
@@ -13435,19 +13442,19 @@
         <v>794</v>
       </c>
       <c r="B342" s="37" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C342" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D342" s="46" t="s">
         <v>1060</v>
       </c>
-      <c r="C342" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D342" s="46" t="s">
+      <c r="E342" s="46" t="s">
         <v>1061</v>
       </c>
-      <c r="E342" s="46" t="s">
+      <c r="F342" s="56" t="s">
         <v>1062</v>
-      </c>
-      <c r="F342" s="56" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="343" ht="19.5" customHeight="1" spans="1:6">
@@ -13455,16 +13462,16 @@
         <v>796</v>
       </c>
       <c r="B343" s="37" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C343" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D343" s="46" t="s">
         <v>1064</v>
       </c>
-      <c r="C343" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D343" s="46" t="s">
-        <v>1065</v>
-      </c>
       <c r="E343" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F343" s="56"/>
     </row>
@@ -13473,16 +13480,16 @@
         <v>798</v>
       </c>
       <c r="B344" s="37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C344" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D344" s="46" t="s">
         <v>1066</v>
       </c>
-      <c r="C344" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D344" s="46" t="s">
-        <v>1067</v>
-      </c>
       <c r="E344" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F344" s="56"/>
     </row>
@@ -13491,16 +13498,16 @@
         <v>800</v>
       </c>
       <c r="B345" s="37" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C345" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D345" s="46" t="s">
         <v>1068</v>
       </c>
-      <c r="C345" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D345" s="46" t="s">
-        <v>1069</v>
-      </c>
       <c r="E345" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F345" s="56"/>
     </row>
@@ -13509,16 +13516,16 @@
         <v>802</v>
       </c>
       <c r="B346" s="37" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C346" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D346" s="46" t="s">
         <v>1070</v>
       </c>
-      <c r="C346" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D346" s="46" t="s">
-        <v>1071</v>
-      </c>
       <c r="E346" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F346" s="56"/>
     </row>
@@ -13527,16 +13534,16 @@
         <v>804</v>
       </c>
       <c r="B347" s="37" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C347" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D347" s="46" t="s">
         <v>1072</v>
       </c>
-      <c r="C347" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D347" s="46" t="s">
-        <v>1073</v>
-      </c>
       <c r="E347" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F347" s="56"/>
     </row>
@@ -13545,16 +13552,16 @@
         <v>806</v>
       </c>
       <c r="B348" s="37" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C348" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D348" s="46" t="s">
         <v>1074</v>
       </c>
-      <c r="C348" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D348" s="46" t="s">
-        <v>1075</v>
-      </c>
       <c r="E348" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F348" s="56"/>
     </row>
@@ -13563,16 +13570,16 @@
         <v>808</v>
       </c>
       <c r="B349" s="37" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C349" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D349" s="46" t="s">
         <v>1076</v>
       </c>
-      <c r="C349" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D349" s="46" t="s">
-        <v>1077</v>
-      </c>
       <c r="E349" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F349" s="56"/>
     </row>
@@ -13581,16 +13588,16 @@
         <v>810</v>
       </c>
       <c r="B350" s="37" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C350" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D350" s="46" t="s">
         <v>1078</v>
       </c>
-      <c r="C350" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D350" s="46" t="s">
-        <v>1079</v>
-      </c>
       <c r="E350" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F350" s="56"/>
     </row>
@@ -13599,16 +13606,16 @@
         <v>812</v>
       </c>
       <c r="B351" s="37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C351" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D351" s="46" t="s">
         <v>1080</v>
       </c>
-      <c r="C351" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D351" s="46" t="s">
-        <v>1081</v>
-      </c>
       <c r="E351" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F351" s="56"/>
     </row>
@@ -13617,16 +13624,16 @@
         <v>815</v>
       </c>
       <c r="B352" s="37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C352" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D352" s="46" t="s">
         <v>1082</v>
       </c>
-      <c r="C352" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D352" s="46" t="s">
-        <v>1083</v>
-      </c>
       <c r="E352" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F352" s="56"/>
     </row>
@@ -13635,339 +13642,339 @@
         <v>818</v>
       </c>
       <c r="B353" s="37" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C353" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D353" s="46" t="s">
         <v>1084</v>
       </c>
-      <c r="C353" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D353" s="46" t="s">
-        <v>1085</v>
-      </c>
       <c r="E353" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F353" s="56"/>
     </row>
     <row r="354" ht="30" customHeight="1" spans="1:6">
       <c r="A354" s="46" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B354" s="37" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C354" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D354" s="46" t="s">
         <v>1086</v>
       </c>
-      <c r="C354" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D354" s="46" t="s">
+      <c r="E354" s="46" t="s">
         <v>1087</v>
-      </c>
-      <c r="E354" s="46" t="s">
-        <v>1088</v>
       </c>
       <c r="F354" s="54"/>
     </row>
     <row r="355" ht="30" customHeight="1" spans="1:6">
       <c r="A355" s="46" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B355" s="37" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C355" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D355" s="46" t="s">
         <v>1089</v>
       </c>
-      <c r="C355" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D355" s="46" t="s">
-        <v>1090</v>
-      </c>
       <c r="E355" s="46" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F355" s="54"/>
     </row>
     <row r="356" ht="19.5" customHeight="1" spans="1:6">
       <c r="A356" s="46" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B356" s="37" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C356" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D356" s="46" t="s">
         <v>1091</v>
-      </c>
-      <c r="C356" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D356" s="46" t="s">
-        <v>1092</v>
       </c>
       <c r="E356" s="54"/>
       <c r="F356" s="54"/>
     </row>
     <row r="357" ht="19.5" customHeight="1" spans="1:6">
       <c r="A357" s="46" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B357" s="37" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C357" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D357" s="46" t="s">
         <v>1093</v>
-      </c>
-      <c r="C357" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D357" s="46" t="s">
-        <v>1094</v>
       </c>
       <c r="E357" s="54"/>
       <c r="F357" s="54"/>
     </row>
     <row r="358" ht="19.5" customHeight="1" spans="1:6">
       <c r="A358" s="46" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B358" s="37" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C358" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D358" s="46" t="s">
         <v>1095</v>
-      </c>
-      <c r="C358" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D358" s="46" t="s">
-        <v>1096</v>
       </c>
       <c r="E358" s="54"/>
       <c r="F358" s="54"/>
     </row>
     <row r="359" ht="19.5" customHeight="1" spans="1:6">
       <c r="A359" s="46" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B359" s="37" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C359" s="46" t="s">
         <v>1097</v>
       </c>
-      <c r="C359" s="46" t="s">
+      <c r="D359" s="46" t="s">
         <v>1098</v>
-      </c>
-      <c r="D359" s="46" t="s">
-        <v>1099</v>
       </c>
       <c r="E359" s="54"/>
       <c r="F359" s="54"/>
     </row>
     <row r="360" ht="19.5" customHeight="1" spans="1:6">
       <c r="A360" s="46" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B360" s="37" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C360" s="72">
         <v>45313</v>
       </c>
       <c r="D360" s="46" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E360" s="54"/>
       <c r="F360" s="54"/>
     </row>
     <row r="361" ht="19.5" customHeight="1" spans="1:6">
       <c r="A361" s="46" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B361" s="37" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C361" s="73">
         <v>45344</v>
       </c>
       <c r="D361" s="46" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E361" s="54"/>
       <c r="F361" s="54"/>
     </row>
     <row r="362" ht="19.5" customHeight="1" spans="1:6">
       <c r="A362" s="46" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B362" s="37" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C362" s="73">
         <v>45344</v>
       </c>
       <c r="D362" s="46" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E362" s="54"/>
       <c r="F362" s="54"/>
     </row>
     <row r="363" ht="19.5" customHeight="1" spans="1:6">
       <c r="A363" s="46" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B363" s="37" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C363" s="73">
         <v>45344</v>
       </c>
       <c r="D363" s="46" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E363" s="54"/>
       <c r="F363" s="54"/>
     </row>
     <row r="364" ht="19.5" customHeight="1" spans="1:6">
       <c r="A364" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B364" s="37" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C364" s="73">
         <v>45344</v>
       </c>
       <c r="D364" s="46" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E364" s="54"/>
       <c r="F364" s="54"/>
     </row>
     <row r="365" ht="19.5" customHeight="1" spans="1:6">
       <c r="A365" s="46" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B365" s="37" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C365" s="73">
         <v>45344</v>
       </c>
       <c r="D365" s="46" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E365" s="54"/>
       <c r="F365" s="54"/>
     </row>
     <row r="366" ht="19.5" customHeight="1" spans="1:6">
       <c r="A366" s="46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B366" s="37" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C366" s="73">
         <v>45344</v>
       </c>
       <c r="D366" s="46" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E366" s="54"/>
       <c r="F366" s="54"/>
     </row>
     <row r="367" ht="19.5" customHeight="1" spans="1:6">
       <c r="A367" s="46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B367" s="37" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C367" s="73">
         <v>45344</v>
       </c>
       <c r="D367" s="46" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E367" s="54"/>
       <c r="F367" s="54"/>
     </row>
     <row r="368" ht="19.5" customHeight="1" spans="1:6">
       <c r="A368" s="46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B368" s="37" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C368" s="73">
         <v>45344</v>
       </c>
       <c r="D368" s="46" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E368" s="54"/>
       <c r="F368" s="54"/>
     </row>
     <row r="369" ht="19.5" customHeight="1" spans="1:6">
       <c r="A369" s="46" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B369" s="37" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C369" s="73">
         <v>45344</v>
       </c>
       <c r="D369" s="46" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E369" s="54"/>
       <c r="F369" s="54"/>
     </row>
     <row r="370" ht="19.5" customHeight="1" spans="1:6">
       <c r="A370" s="46" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B370" s="37" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C370" s="73">
         <v>45344</v>
       </c>
       <c r="D370" s="46" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E370" s="54"/>
       <c r="F370" s="54"/>
     </row>
     <row r="371" ht="19.5" customHeight="1" spans="1:6">
       <c r="A371" s="46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B371" s="37" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C371" s="73">
         <v>45344</v>
       </c>
       <c r="D371" s="46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E371" s="54"/>
       <c r="F371" s="54"/>
     </row>
     <row r="372" ht="19.5" customHeight="1" spans="1:6">
       <c r="A372" s="46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B372" s="37" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C372" s="73">
         <v>45344</v>
       </c>
       <c r="D372" s="46" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E372" s="54"/>
       <c r="F372" s="54"/>
     </row>
     <row r="373" ht="19.5" customHeight="1" spans="1:6">
       <c r="A373" s="46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B373" s="37" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C373" s="73">
         <v>45344</v>
       </c>
       <c r="D373" s="46" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E373" s="54"/>
       <c r="F373" s="54"/>
@@ -14017,7 +14024,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:5">
       <c r="A1" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -14026,7 +14033,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14054,7 +14061,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>4</v>
@@ -14071,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>195</v>
@@ -14088,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>195</v>
@@ -14105,7 +14112,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>195</v>
@@ -14122,7 +14129,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>195</v>
@@ -14139,7 +14146,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>195</v>
@@ -14156,7 +14163,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>195</v>
@@ -14173,7 +14180,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>195</v>
@@ -14188,7 +14195,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>195</v>
@@ -14203,7 +14210,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>195</v>
@@ -14218,13 +14225,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>1140</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>1141</v>
       </c>
       <c r="E15" s="20"/>
     </row>
@@ -14260,7 +14267,7 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
       <c r="A1" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -14270,7 +14277,7 @@
     </row>
     <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -14299,7 +14306,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>4</v>
@@ -14317,7 +14324,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>195</v>
@@ -14335,7 +14342,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>195</v>
@@ -14353,7 +14360,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>195</v>
@@ -14371,7 +14378,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>195</v>
@@ -14389,7 +14396,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>195</v>
@@ -14407,7 +14414,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>195</v>
@@ -14416,7 +14423,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F11" s="29"/>
     </row>
@@ -14425,7 +14432,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>195</v>
@@ -14443,7 +14450,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>195</v>
@@ -14452,7 +14459,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F13" s="29"/>
     </row>
@@ -14461,7 +14468,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>195</v>
@@ -14479,12 +14486,12 @@
         <v>38</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F15" s="30"/>
     </row>
@@ -14493,7 +14500,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -14507,13 +14514,13 @@
         <v>45</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="31" t="s">
@@ -14525,7 +14532,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>195</v>
@@ -14541,7 +14548,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>195</v>
@@ -14557,7 +14564,7 @@
         <v>56</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>195</v>
@@ -14573,7 +14580,7 @@
         <v>384</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>195</v>
@@ -14589,7 +14596,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>195</v>
@@ -14605,7 +14612,7 @@
         <v>62</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>195</v>
@@ -14621,7 +14628,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>195</v>
@@ -14637,7 +14644,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>195</v>
@@ -14653,7 +14660,7 @@
         <v>73</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>195</v>
@@ -14669,7 +14676,7 @@
         <v>76</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>195</v>
@@ -14685,7 +14692,7 @@
         <v>80</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>195</v>
@@ -14701,7 +14708,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>195</v>
@@ -14717,7 +14724,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>195</v>
@@ -14733,7 +14740,7 @@
         <v>88</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>195</v>
@@ -14749,7 +14756,7 @@
         <v>91</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>195</v>
@@ -14765,13 +14772,13 @@
         <v>94</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>1175</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>1176</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="33"/>
@@ -14781,13 +14788,13 @@
         <v>97</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>1177</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>1178</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="33"/>
@@ -14797,7 +14804,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>195</v>
@@ -14807,7 +14814,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="31" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="36" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14815,7 +14822,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>195</v>
@@ -14831,7 +14838,7 @@
         <v>109</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>195</v>
@@ -14847,7 +14854,7 @@
         <v>113</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>195</v>
@@ -14863,7 +14870,7 @@
         <v>117</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>195</v>
@@ -14879,7 +14886,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>195</v>
@@ -14895,7 +14902,7 @@
         <v>125</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>195</v>
@@ -14911,13 +14918,13 @@
         <v>129</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>1187</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>1188</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="31"/>
@@ -14927,7 +14934,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -14941,17 +14948,17 @@
         <v>136</v>
       </c>
       <c r="B44" s="26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>1190</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>1191</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="31" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="45" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -14959,13 +14966,13 @@
         <v>140</v>
       </c>
       <c r="B45" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="27" t="s">
         <v>1193</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>1194</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="31"/>
@@ -14975,7 +14982,7 @@
         <v>143</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>195</v>
@@ -14991,7 +14998,7 @@
         <v>147</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>195</v>
@@ -15007,7 +15014,7 @@
         <v>150</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>195</v>
@@ -15023,7 +15030,7 @@
         <v>154</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>195</v>
@@ -15039,7 +15046,7 @@
         <v>157</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>195</v>
@@ -15055,7 +15062,7 @@
         <v>160</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>195</v>
@@ -15071,7 +15078,7 @@
         <v>164</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>195</v>
@@ -15087,13 +15094,13 @@
         <v>168</v>
       </c>
       <c r="B53" s="26" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>1202</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>1203</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="31"/>
@@ -15103,13 +15110,13 @@
         <v>172</v>
       </c>
       <c r="B54" s="26" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>1204</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>1205</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="31"/>
@@ -15119,13 +15126,13 @@
         <v>176</v>
       </c>
       <c r="B55" s="26" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="27" t="s">
         <v>1206</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>1207</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="31"/>
@@ -15135,13 +15142,13 @@
         <v>180</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>1208</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>1209</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="31"/>
@@ -15151,13 +15158,13 @@
         <v>184</v>
       </c>
       <c r="B57" s="24" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="27" t="s">
         <v>1210</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>1211</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="31"/>
@@ -15167,7 +15174,7 @@
         <v>187</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>195</v>
@@ -15183,7 +15190,7 @@
         <v>190</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>195</v>
@@ -15199,7 +15206,7 @@
         <v>193</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>195</v>
@@ -15215,7 +15222,7 @@
         <v>198</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>195</v>
@@ -15231,7 +15238,7 @@
         <v>203</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>195</v>
@@ -15247,7 +15254,7 @@
         <v>208</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>195</v>
@@ -15263,7 +15270,7 @@
         <v>211</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>195</v>
@@ -15279,7 +15286,7 @@
         <v>214</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>195</v>
@@ -15295,13 +15302,13 @@
         <v>217</v>
       </c>
       <c r="B66" s="25" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="27" t="s">
         <v>1220</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>1221</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="31"/>
@@ -15311,7 +15318,7 @@
         <v>219</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>195</v>
@@ -15339,7 +15346,7 @@
         <v>224</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>195</v>
@@ -15349,7 +15356,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="31" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="70" s="13" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -15357,7 +15364,7 @@
         <v>229</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>195</v>
@@ -15373,7 +15380,7 @@
         <v>234</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>195</v>
@@ -15389,7 +15396,7 @@
         <v>237</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>195</v>
@@ -15405,7 +15412,7 @@
         <v>241</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>195</v>
@@ -15421,7 +15428,7 @@
         <v>245</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>195</v>
@@ -15437,7 +15444,7 @@
         <v>248</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>195</v>
@@ -15453,7 +15460,7 @@
         <v>251</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>195</v>
@@ -15469,7 +15476,7 @@
         <v>254</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -15483,7 +15490,7 @@
         <v>257</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>195</v>
@@ -15501,13 +15508,13 @@
         <v>260</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="20" t="s">
         <v>1234</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>1235</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="31"/>
@@ -15517,13 +15524,13 @@
         <v>263</v>
       </c>
       <c r="B80" s="24" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="20" t="s">
         <v>1236</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>1237</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="31"/>
@@ -15533,13 +15540,13 @@
         <v>266</v>
       </c>
       <c r="B81" s="24" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="20" t="s">
         <v>1238</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>1239</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="31"/>
@@ -15549,13 +15556,13 @@
         <v>269</v>
       </c>
       <c r="B82" s="24" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>1240</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>1241</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="31"/>
@@ -15565,13 +15572,13 @@
         <v>272</v>
       </c>
       <c r="B83" s="24" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>1242</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>1243</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="31"/>
@@ -15581,13 +15588,13 @@
         <v>276</v>
       </c>
       <c r="B84" s="25" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" s="20" t="s">
         <v>1244</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>1245</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="31"/>
@@ -15597,13 +15604,13 @@
         <v>279</v>
       </c>
       <c r="B85" s="25" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>1246</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>1247</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="31"/>
@@ -15613,13 +15620,13 @@
         <v>282</v>
       </c>
       <c r="B86" s="25" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="20" t="s">
         <v>1248</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>1249</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="31"/>
@@ -15629,13 +15636,13 @@
         <v>285</v>
       </c>
       <c r="B87" s="25" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>1250</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>1251</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="31"/>
@@ -15645,13 +15652,13 @@
         <v>287</v>
       </c>
       <c r="B88" s="25" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" s="20" t="s">
         <v>1252</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>1253</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="31"/>
@@ -15661,13 +15668,13 @@
         <v>289</v>
       </c>
       <c r="B89" s="25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>1254</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>1255</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="31"/>
@@ -15677,13 +15684,13 @@
         <v>292</v>
       </c>
       <c r="B90" s="25" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" s="20" t="s">
         <v>1256</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>1257</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="31"/>
@@ -15693,13 +15700,13 @@
         <v>294</v>
       </c>
       <c r="B91" s="25" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" s="20" t="s">
         <v>1258</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>1259</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="31"/>
@@ -15709,13 +15716,13 @@
         <v>297</v>
       </c>
       <c r="B92" s="25" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="20" t="s">
         <v>1260</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>1261</v>
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="31"/>
@@ -15725,13 +15732,13 @@
         <v>298</v>
       </c>
       <c r="B93" s="25" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="20" t="s">
         <v>1262</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>1263</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="31"/>
@@ -15741,13 +15748,13 @@
         <v>301</v>
       </c>
       <c r="B94" s="35" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" s="20" t="s">
         <v>1264</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>1265</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="31"/>
@@ -15757,13 +15764,13 @@
         <v>302</v>
       </c>
       <c r="B95" s="35" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="20" t="s">
         <v>1266</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>1267</v>
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="31"/>
@@ -15773,13 +15780,13 @@
         <v>305</v>
       </c>
       <c r="B96" s="35" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" s="20" t="s">
         <v>1268</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>1269</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="31"/>
@@ -15789,13 +15796,13 @@
         <v>306</v>
       </c>
       <c r="B97" s="35" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="20" t="s">
         <v>1270</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>1271</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="31"/>
@@ -15805,13 +15812,13 @@
         <v>309</v>
       </c>
       <c r="B98" s="36" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" s="20" t="s">
         <v>1272</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>1273</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="31"/>
@@ -15821,13 +15828,13 @@
         <v>310</v>
       </c>
       <c r="B99" s="25" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" s="20" t="s">
         <v>1274</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>1275</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="31"/>
@@ -15837,13 +15844,13 @@
         <v>313</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="20" t="s">
         <v>1276</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>1277</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="31"/>
@@ -15853,7 +15860,7 @@
         <v>315</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
@@ -15867,17 +15874,17 @@
         <v>318</v>
       </c>
       <c r="B102" s="35" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="32" t="s">
         <v>1279</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D102" s="32" t="s">
-        <v>1280</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="31" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="103" s="13" customFormat="1" ht="30" customHeight="1" spans="1:6">
@@ -15885,13 +15892,13 @@
         <v>320</v>
       </c>
       <c r="B103" s="35" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" s="32" t="s">
         <v>1282</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>1283</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="31"/>
@@ -15901,13 +15908,13 @@
         <v>323</v>
       </c>
       <c r="B104" s="25" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="32" t="s">
         <v>1284</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>1285</v>
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="31"/>
@@ -15917,13 +15924,13 @@
         <v>325</v>
       </c>
       <c r="B105" s="25" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D105" s="32" t="s">
         <v>1286</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D105" s="32" t="s">
-        <v>1287</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="31"/>
@@ -15933,16 +15940,16 @@
         <v>327</v>
       </c>
       <c r="B106" s="25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106" s="32" t="s">
         <v>1288</v>
       </c>
-      <c r="C106" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D106" s="32" t="s">
+      <c r="E106" s="32" t="s">
         <v>1289</v>
-      </c>
-      <c r="E106" s="32" t="s">
-        <v>1290</v>
       </c>
       <c r="F106" s="31"/>
     </row>
@@ -15951,16 +15958,16 @@
         <v>330</v>
       </c>
       <c r="B107" s="26" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" s="32" t="s">
         <v>1291</v>
       </c>
-      <c r="C107" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D107" s="32" t="s">
+      <c r="E107" s="31" t="s">
         <v>1292</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>1293</v>
       </c>
       <c r="F107" s="24"/>
     </row>
@@ -15969,13 +15976,13 @@
         <v>332</v>
       </c>
       <c r="B108" s="26" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" s="32" t="s">
         <v>1294</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D108" s="32" t="s">
-        <v>1295</v>
       </c>
       <c r="E108" s="31"/>
       <c r="F108" s="24"/>
@@ -15985,13 +15992,13 @@
         <v>333</v>
       </c>
       <c r="B109" s="26" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="32" t="s">
         <v>1296</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D109" s="32" t="s">
-        <v>1297</v>
       </c>
       <c r="E109" s="31"/>
       <c r="F109" s="24"/>
@@ -16001,7 +16008,7 @@
         <v>336</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C110" s="20" t="s">
         <v>195</v>
@@ -16017,7 +16024,7 @@
         <v>337</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C111" s="20" t="s">
         <v>195</v>
@@ -16033,7 +16040,7 @@
         <v>338</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C112" s="20" t="s">
         <v>195</v>
@@ -16049,7 +16056,7 @@
         <v>340</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C113" s="20" t="s">
         <v>195</v>
@@ -16059,7 +16066,7 @@
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="31" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="114" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16067,7 +16074,7 @@
         <v>341</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C114" s="20" t="s">
         <v>195</v>
@@ -16083,7 +16090,7 @@
         <v>342</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C115" s="20" t="s">
         <v>195</v>
@@ -16099,7 +16106,7 @@
         <v>344</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C116" s="20" t="s">
         <v>195</v>
@@ -16115,7 +16122,7 @@
         <v>345</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>195</v>
@@ -16131,7 +16138,7 @@
         <v>346</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>195</v>
@@ -16147,7 +16154,7 @@
         <v>349</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>195</v>
@@ -16163,7 +16170,7 @@
         <v>587</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>195</v>
@@ -16179,7 +16186,7 @@
         <v>590</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>195</v>
@@ -16195,7 +16202,7 @@
         <v>593</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>195</v>
@@ -16211,7 +16218,7 @@
         <v>596</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>195</v>
@@ -16227,7 +16234,7 @@
         <v>599</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>195</v>
@@ -16243,7 +16250,7 @@
         <v>600</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>195</v>
@@ -16259,7 +16266,7 @@
         <v>602</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>195</v>
@@ -16275,7 +16282,7 @@
         <v>605</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>195</v>
@@ -16291,7 +16298,7 @@
         <v>608</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>195</v>
@@ -16307,7 +16314,7 @@
         <v>611</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>195</v>
@@ -16323,7 +16330,7 @@
         <v>614</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>195</v>
@@ -16339,7 +16346,7 @@
         <v>615</v>
       </c>
       <c r="B131" s="37" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>195</v>
@@ -16355,7 +16362,7 @@
         <v>617</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>195</v>
@@ -16371,7 +16378,7 @@
         <v>620</v>
       </c>
       <c r="B133" s="37" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>195</v>
@@ -16387,7 +16394,7 @@
         <v>623</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>195</v>
@@ -16403,7 +16410,7 @@
         <v>626</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C135" s="20" t="s">
         <v>195</v>
@@ -16419,7 +16426,7 @@
         <v>629</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>195</v>
@@ -16435,7 +16442,7 @@
         <v>632</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>195</v>
@@ -16451,7 +16458,7 @@
         <v>635</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>195</v>
@@ -16467,7 +16474,7 @@
         <v>638</v>
       </c>
       <c r="B139" s="37" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>195</v>
@@ -16483,7 +16490,7 @@
         <v>641</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>195</v>
@@ -16499,7 +16506,7 @@
         <v>644</v>
       </c>
       <c r="B141" s="37" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>195</v>
@@ -16515,7 +16522,7 @@
         <v>647</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
@@ -16529,7 +16536,7 @@
         <v>650</v>
       </c>
       <c r="B143" s="37" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>195</v>
@@ -16541,7 +16548,7 @@
         <v>335</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="144" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16549,7 +16556,7 @@
         <v>653</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>195</v>
@@ -16567,7 +16574,7 @@
         <v>656</v>
       </c>
       <c r="B145" s="37" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>195</v>
@@ -16585,7 +16592,7 @@
         <v>659</v>
       </c>
       <c r="B146" s="37" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>195</v>
@@ -16603,7 +16610,7 @@
         <v>662</v>
       </c>
       <c r="B147" s="37" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C147" s="20" t="s">
         <v>195</v>
@@ -16621,7 +16628,7 @@
         <v>665</v>
       </c>
       <c r="B148" s="37" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>195</v>
@@ -16639,7 +16646,7 @@
         <v>668</v>
       </c>
       <c r="B149" s="37" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>195</v>
@@ -16657,7 +16664,7 @@
         <v>671</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>195</v>
@@ -16675,7 +16682,7 @@
         <v>674</v>
       </c>
       <c r="B151" s="37" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>195</v>
@@ -16693,7 +16700,7 @@
         <v>677</v>
       </c>
       <c r="B152" s="37" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>195</v>
@@ -16705,7 +16712,7 @@
         <v>52</v>
       </c>
       <c r="F152" s="31" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="153" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16713,7 +16720,7 @@
         <v>680</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>195</v>
@@ -16731,7 +16738,7 @@
         <v>683</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C154" s="20" t="s">
         <v>195</v>
@@ -16749,7 +16756,7 @@
         <v>686</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C155" s="20" t="s">
         <v>195</v>
@@ -16765,7 +16772,7 @@
         <v>689</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C156" s="20" t="s">
         <v>195</v>
@@ -16781,7 +16788,7 @@
         <v>692</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C157" s="20" t="s">
         <v>195</v>
@@ -16797,7 +16804,7 @@
         <v>367</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C158" s="20" t="s">
         <v>195</v>
@@ -16813,7 +16820,7 @@
         <v>369</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C159" s="20" t="s">
         <v>195</v>
@@ -16829,7 +16836,7 @@
         <v>371</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C160" s="20" t="s">
         <v>195</v>
@@ -16839,7 +16846,7 @@
       </c>
       <c r="E160" s="32"/>
       <c r="F160" s="31" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="161" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
@@ -16847,7 +16854,7 @@
         <v>373</v>
       </c>
       <c r="B161" s="37" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C161" s="20" t="s">
         <v>195</v>
@@ -16863,7 +16870,7 @@
         <v>376</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>195</v>
@@ -16879,7 +16886,7 @@
         <v>379</v>
       </c>
       <c r="B163" s="37" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C163" s="20" t="s">
         <v>195</v>
@@ -16907,7 +16914,7 @@
         <v>383</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>195</v>
@@ -16925,7 +16932,7 @@
         <v>386</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C166" s="20" t="s">
         <v>195</v>
@@ -16941,7 +16948,7 @@
         <v>388</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C167" s="20" t="s">
         <v>195</v>
@@ -16957,7 +16964,7 @@
         <v>390</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>195</v>
@@ -16973,7 +16980,7 @@
         <v>393</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>195</v>
@@ -16989,7 +16996,7 @@
         <v>395</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C170" s="20" t="s">
         <v>195</v>
@@ -17005,7 +17012,7 @@
         <v>398</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C171" s="20" t="s">
         <v>195</v>
@@ -17071,13 +17078,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -17085,7 +17092,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>58</v>
@@ -17096,10 +17103,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -17107,7 +17114,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -17118,7 +17125,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>75</v>
@@ -17129,7 +17136,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>79</v>
@@ -17140,7 +17147,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>90</v>
@@ -17151,7 +17158,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>93</v>
@@ -17162,7 +17169,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>96</v>
@@ -17173,7 +17180,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -17184,7 +17191,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>107</v>
@@ -17195,7 +17202,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>111</v>
@@ -17206,7 +17213,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>115</v>
@@ -17217,7 +17224,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>119</v>
@@ -17228,7 +17235,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>123</v>
@@ -17239,7 +17246,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>127</v>
@@ -17250,7 +17257,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>131</v>
@@ -17261,7 +17268,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>135</v>
@@ -17272,7 +17279,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>138</v>
@@ -17283,10 +17290,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -17294,10 +17301,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -17305,7 +17312,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>142</v>
@@ -17316,7 +17323,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>145</v>
@@ -17327,7 +17334,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>149</v>
@@ -17338,7 +17345,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>152</v>
@@ -17349,7 +17356,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>156</v>
@@ -17360,7 +17367,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>159</v>
@@ -17371,7 +17378,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>162</v>
@@ -17382,10 +17389,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -17393,10 +17400,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17404,10 +17411,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -17415,7 +17422,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>166</v>
@@ -17426,7 +17433,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>170</v>
@@ -17437,7 +17444,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>174</v>
@@ -17448,7 +17455,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>178</v>
@@ -17459,7 +17466,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>182</v>
@@ -17470,7 +17477,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>186</v>
@@ -17481,7 +17488,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>189</v>
@@ -17492,10 +17499,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -17503,10 +17510,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -17514,10 +17521,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -17525,10 +17532,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -17536,10 +17543,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -17547,7 +17554,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>192</v>
@@ -17558,7 +17565,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>196</v>
@@ -17569,7 +17576,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>201</v>
@@ -17580,7 +17587,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>206</v>
@@ -17591,7 +17598,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>227</v>
@@ -17602,7 +17609,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>232</v>
@@ -17613,7 +17620,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>236</v>
@@ -17624,7 +17631,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>240</v>
@@ -17635,10 +17642,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -17646,7 +17653,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>250</v>
@@ -17657,7 +17664,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>253</v>
@@ -17668,7 +17675,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>256</v>
@@ -17679,7 +17686,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>259</v>
@@ -17690,7 +17697,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>262</v>
@@ -17701,7 +17708,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>265</v>
@@ -17712,7 +17719,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>268</v>
@@ -17723,7 +17730,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>271</v>
@@ -17734,7 +17741,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>275</v>
@@ -17745,7 +17752,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>278</v>
@@ -17756,10 +17763,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -17767,10 +17774,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -17778,10 +17785,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -17789,10 +17796,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -17800,10 +17807,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -17811,10 +17818,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -17822,10 +17829,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -17833,10 +17840,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -17844,10 +17851,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17855,10 +17862,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -17866,10 +17873,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17877,10 +17884,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17888,10 +17895,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17899,10 +17906,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17910,10 +17917,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17921,10 +17928,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17932,10 +17939,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17943,10 +17950,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17954,10 +17961,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17965,10 +17972,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17976,10 +17983,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17987,10 +17994,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17998,10 +18005,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -18009,10 +18016,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -18020,10 +18027,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -18031,10 +18038,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -18042,10 +18049,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -18053,10 +18060,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -18064,10 +18071,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -18075,10 +18082,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -18086,7 +18093,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>325</v>
@@ -18097,7 +18104,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>327</v>
@@ -18108,7 +18115,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>330</v>
@@ -18119,7 +18126,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>332</v>
@@ -18130,7 +18137,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>333</v>
@@ -18141,7 +18148,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>336</v>
@@ -18152,7 +18159,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>337</v>
@@ -18163,7 +18170,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>338</v>
@@ -18174,7 +18181,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>340</v>
@@ -18185,7 +18192,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>341</v>
@@ -18196,7 +18203,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>342</v>
@@ -18207,7 +18214,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>344</v>
@@ -18218,7 +18225,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>345</v>
@@ -18229,7 +18236,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>346</v>
@@ -18240,7 +18247,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>349</v>
@@ -18251,7 +18258,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>587</v>
@@ -18262,7 +18269,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>590</v>
@@ -18273,7 +18280,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>593</v>
@@ -18284,7 +18291,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>596</v>
@@ -18295,7 +18302,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>599</v>
@@ -18306,7 +18313,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>600</v>
@@ -18317,7 +18324,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>602</v>
@@ -18328,7 +18335,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>605</v>

--- a/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
+++ b/other/URUTAN SK SOP PEDOMAN KAK NEW-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SK BAB I-V" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="1478">
   <si>
     <t>PENOMORAN SK</t>
   </si>
@@ -4106,6 +4106,9 @@
   </si>
   <si>
     <t>KAK Pelayanan Kefarmasian</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>KAK Identifikasi Resiko</t>
@@ -4470,12 +4473,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4564,21 +4567,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4593,7 +4603,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4616,38 +4685,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4662,51 +4709,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4777,127 +4780,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4915,7 +4804,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4927,13 +4846,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4945,7 +4942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4957,7 +4954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5056,45 +5059,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5136,11 +5100,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5153,141 +5147,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5468,10 +5471,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5535,7 +5538,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7707,7 +7710,7 @@
   <sheetPr/>
   <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A213" workbookViewId="0">
+    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="A213" workbookViewId="0">
       <selection activeCell="G222" sqref="G222"/>
     </sheetView>
   </sheetViews>
@@ -14249,13 +14252,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="59.6166666666667" customWidth="1"/>
@@ -16943,7 +16946,7 @@
       <c r="E166" s="20"/>
       <c r="F166" s="24"/>
     </row>
-    <row r="167" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+    <row r="167" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:7">
       <c r="A167" s="20" t="s">
         <v>388</v>
       </c>
@@ -16958,13 +16961,16 @@
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="24"/>
+      <c r="G167" s="12" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="168" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A168" s="20" t="s">
         <v>390</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>195</v>
@@ -16980,7 +16986,7 @@
         <v>393</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>195</v>
@@ -16996,7 +17002,7 @@
         <v>395</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C170" s="20" t="s">
         <v>195</v>
@@ -17012,7 +17018,7 @@
         <v>398</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C171" s="20" t="s">
         <v>195</v>
@@ -17078,13 +17084,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -17092,7 +17098,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>58</v>
@@ -17103,7 +17109,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1140</v>
@@ -17114,7 +17120,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>64</v>
@@ -17125,7 +17131,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>75</v>
@@ -17136,7 +17142,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>79</v>
@@ -17147,7 +17153,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>90</v>
@@ -17158,7 +17164,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>93</v>
@@ -17169,7 +17175,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>96</v>
@@ -17180,7 +17186,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -17191,7 +17197,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>107</v>
@@ -17202,7 +17208,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>111</v>
@@ -17213,7 +17219,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>115</v>
@@ -17224,7 +17230,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>119</v>
@@ -17235,7 +17241,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>123</v>
@@ -17246,7 +17252,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>127</v>
@@ -17257,7 +17263,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>131</v>
@@ -17268,7 +17274,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>135</v>
@@ -17279,7 +17285,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>138</v>
@@ -17290,7 +17296,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>1175</v>
@@ -17301,7 +17307,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>1177</v>
@@ -17312,7 +17318,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>142</v>
@@ -17323,7 +17329,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>145</v>
@@ -17334,7 +17340,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>149</v>
@@ -17345,7 +17351,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>152</v>
@@ -17356,7 +17362,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>156</v>
@@ -17367,7 +17373,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>159</v>
@@ -17378,7 +17384,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>162</v>
@@ -17389,7 +17395,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>1187</v>
@@ -17400,7 +17406,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1190</v>
@@ -17411,7 +17417,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>1193</v>
@@ -17422,7 +17428,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>166</v>
@@ -17433,7 +17439,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>170</v>
@@ -17444,7 +17450,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>174</v>
@@ -17455,7 +17461,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>178</v>
@@ -17466,7 +17472,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>182</v>
@@ -17477,7 +17483,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>186</v>
@@ -17488,7 +17494,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>189</v>
@@ -17499,7 +17505,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>1202</v>
@@ -17510,7 +17516,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>1204</v>
@@ -17521,7 +17527,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>1206</v>
@@ -17532,7 +17538,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>1208</v>
@@ -17543,7 +17549,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>1210</v>
@@ -17554,7 +17560,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>192</v>
@@ -17565,7 +17571,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>196</v>
@@ -17576,7 +17582,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>201</v>
@@ -17587,7 +17593,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>206</v>
@@ -17598,7 +17604,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>227</v>
@@ -17609,7 +17615,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>232</v>
@@ -17620,7 +17626,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>236</v>
@@ -17631,7 +17637,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>240</v>
@@ -17642,7 +17648,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>1220</v>
@@ -17653,7 +17659,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>250</v>
@@ -17664,7 +17670,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>253</v>
@@ -17675,7 +17681,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>256</v>
@@ -17686,7 +17692,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>259</v>
@@ -17697,7 +17703,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>262</v>
@@ -17708,7 +17714,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>265</v>
@@ -17719,7 +17725,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>268</v>
@@ -17730,7 +17736,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>271</v>
@@ -17741,7 +17747,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>275</v>
@@ -17752,7 +17758,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>278</v>
@@ -17763,7 +17769,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>1234</v>
@@ -17774,7 +17780,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>1236</v>
@@ -17785,7 +17791,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>1238</v>
@@ -17796,7 +17802,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>1240</v>
@@ -17807,7 +17813,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>1242</v>
@@ -17818,7 +17824,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>1244</v>
@@ -17829,7 +17835,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>1246</v>
@@ -17840,7 +17846,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>1248</v>
@@ -17851,7 +17857,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>1250</v>
@@ -17862,7 +17868,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>1252</v>
@@ -17873,7 +17879,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>1254</v>
@@ -17884,7 +17890,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>1256</v>
@@ -17895,7 +17901,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>1258</v>
@@ -17906,7 +17912,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>1260</v>
@@ -17917,7 +17923,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>1262</v>
@@ -17928,7 +17934,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>1264</v>
@@ -17939,7 +17945,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>1266</v>
@@ -17950,7 +17956,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>1268</v>
@@ -17961,7 +17967,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>1270</v>
@@ -17972,7 +17978,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>1272</v>
@@ -17983,7 +17989,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>1274</v>
@@ -17994,7 +18000,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>1276</v>
@@ -18005,7 +18011,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>1279</v>
@@ -18016,7 +18022,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>1282</v>
@@ -18027,7 +18033,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>1284</v>
@@ -18038,7 +18044,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>1286</v>
@@ -18049,7 +18055,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>1288</v>
@@ -18060,7 +18066,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>1291</v>
@@ -18071,7 +18077,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>1294</v>
@@ -18082,7 +18088,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>1296</v>
@@ -18093,7 +18099,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>325</v>
@@ -18104,7 +18110,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>327</v>
@@ -18115,7 +18121,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>330</v>
@@ -18126,7 +18132,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>332</v>
@@ -18137,7 +18143,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>333</v>
@@ -18148,7 +18154,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>336</v>
@@ -18159,7 +18165,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>337</v>
@@ -18170,7 +18176,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>338</v>
@@ -18181,7 +18187,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>340</v>
@@ -18192,7 +18198,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>341</v>
@@ -18203,7 +18209,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>342</v>
@@ -18214,7 +18220,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>344</v>
@@ -18225,7 +18231,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>345</v>
@@ -18236,7 +18242,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>346</v>
@@ -18247,7 +18253,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>349</v>
@@ -18258,7 +18264,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>587</v>
@@ -18269,7 +18275,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>590</v>
@@ -18280,7 +18286,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>593</v>
@@ -18291,7 +18297,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>596</v>
@@ -18302,7 +18308,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>599</v>
@@ -18313,7 +18319,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>600</v>
@@ -18324,7 +18330,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>602</v>
@@ -18335,7 +18341,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>605</v>
